--- a/modelrebal.xlsx
+++ b/modelrebal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="796" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="796" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SectorV2" sheetId="1" r:id="rId1"/>
@@ -162,7 +162,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="116">
   <si>
     <t>Symbol</t>
   </si>
@@ -510,9 +510,6 @@
   </si>
   <si>
     <t>LULU</t>
-  </si>
-  <si>
-    <t>`</t>
   </si>
 </sst>
 </file>
@@ -945,8 +942,8 @@
         <stp>AMD</stp>
         <stp>BETA</stp>
         <tr r="F3" s="3"/>
+        <tr r="F3" s="4"/>
         <tr r="L2" s="9"/>
-        <tr r="F3" s="4"/>
         <tr r="P3" s="4"/>
       </tp>
     </main>
@@ -1057,8 +1054,8 @@
         <stp/>
         <stp>EXC</stp>
         <stp>BETA</stp>
+        <tr r="F5" s="4"/>
         <tr r="F5" s="3"/>
-        <tr r="F5" s="4"/>
         <tr r="P5" s="4"/>
       </tp>
     </main>
@@ -1079,7 +1076,7 @@
         <stp>SPX-I</stp>
         <stp>Last</stp>
         <stp>D</stp>
-        <stp>43844</stp>
+        <stp>43846</stp>
         <stp/>
         <tr r="D13" s="1"/>
       </tp>
@@ -1104,94 +1101,94 @@
     </main>
     <main first="telemetorion.rtdserver">
       <tp>
-        <v>95.08</v>
+        <v>84.4</v>
+        <stp/>
+        <stp>data</stp>
+        <stp>XLI</stp>
+        <stp>Close</stp>
+        <stp>43846</stp>
+        <tr r="I8" s="1"/>
+      </tp>
+      <tp>
+        <v>96.47</v>
         <stp/>
         <stp>data</stp>
         <stp>XLK</stp>
         <stp>Close</stp>
-        <stp>43844</stp>
+        <stp>43846</stp>
         <tr r="I7" s="1"/>
       </tp>
       <tp>
-        <v>83.44</v>
-        <stp/>
-        <stp>data</stp>
-        <stp>XLI</stp>
-        <stp>Close</stp>
-        <stp>43844</stp>
-        <tr r="I8" s="1"/>
-      </tp>
-      <tp>
-        <v>60.1</v>
+        <v>60.87</v>
         <stp/>
         <stp>data</stp>
         <stp>XLB</stp>
         <stp>Close</stp>
-        <stp>43844</stp>
+        <stp>43846</stp>
         <tr r="I4" s="1"/>
       </tp>
       <tp>
-        <v>55.54</v>
+        <v>56.24</v>
         <stp/>
         <stp>data</stp>
         <stp>XLC</stp>
         <stp>Close</stp>
-        <stp>43844</stp>
+        <stp>43846</stp>
         <tr r="I12" s="1"/>
       </tp>
       <tp>
-        <v>30.84</v>
+        <v>59.5</v>
+        <stp/>
+        <stp>data</stp>
+        <stp>XLE</stp>
+        <stp>Close</stp>
+        <stp>43846</stp>
+        <tr r="I5" s="1"/>
+      </tp>
+      <tp>
+        <v>30.94</v>
         <stp/>
         <stp>data</stp>
         <stp>XLF</stp>
         <stp>Close</stp>
-        <stp>43844</stp>
+        <stp>43846</stp>
         <tr r="I9" s="1"/>
       </tp>
       <tp>
-        <v>59.84</v>
-        <stp/>
-        <stp>data</stp>
-        <stp>XLE</stp>
-        <stp>Close</stp>
-        <stp>43844</stp>
-        <tr r="I5" s="1"/>
-      </tp>
-      <tp>
-        <v>126.7</v>
+        <v>127.54</v>
         <stp/>
         <stp>data</stp>
         <stp>XLY</stp>
         <stp>Close</stp>
-        <stp>43844</stp>
+        <stp>43846</stp>
         <tr r="I6" s="1"/>
       </tp>
       <tp>
-        <v>63.09</v>
+        <v>63.71</v>
         <stp/>
         <stp>data</stp>
         <stp>XLP</stp>
         <stp>Close</stp>
-        <stp>43844</stp>
+        <stp>43846</stp>
         <tr r="I11" s="1"/>
       </tp>
       <tp>
-        <v>103.06</v>
+        <v>66.3</v>
+        <stp/>
+        <stp>data</stp>
+        <stp>XLU</stp>
+        <stp>Close</stp>
+        <stp>43846</stp>
+        <tr r="I3" s="1"/>
+      </tp>
+      <tp>
+        <v>104.49</v>
         <stp/>
         <stp>data</stp>
         <stp>XLV</stp>
         <stp>Close</stp>
-        <stp>43844</stp>
+        <stp>43846</stp>
         <tr r="I10" s="1"/>
-      </tp>
-      <tp>
-        <v>64.98</v>
-        <stp/>
-        <stp>data</stp>
-        <stp>XLU</stp>
-        <stp>Close</stp>
-        <stp>43844</stp>
-        <tr r="I3" s="1"/>
       </tp>
     </main>
     <main first="esrtd">
@@ -1202,8 +1199,6 @@
         <stp>last</stp>
         <tr r="U10" s="4"/>
       </tp>
-    </main>
-    <main first="esrtd">
       <tp t="s">
         <v/>
         <stp/>
@@ -1211,8 +1206,6 @@
         <stp>last</stp>
         <tr r="U9" s="4"/>
       </tp>
-    </main>
-    <main first="esrtd">
       <tp t="s">
         <v/>
         <stp/>
@@ -1441,7 +1434,7 @@
         <stp>XLK</stp>
         <stp>Last</stp>
         <stp>D</stp>
-        <stp>43844</stp>
+        <stp>43846</stp>
         <stp/>
         <tr r="D7" s="1"/>
       </tp>
@@ -1486,14 +1479,14 @@
         <stp>XLI</stp>
         <stp>Last</stp>
         <stp>D</stp>
-        <stp>43844</stp>
+        <stp>43846</stp>
         <stp/>
         <tr r="D8" s="1"/>
       </tp>
     </main>
     <main first="telemetorion.rtdserver">
       <tp>
-        <v>1.1282508923999999</v>
+        <v>0</v>
         <stp/>
         <stp>quote</stp>
         <stp>VRSK</stp>
@@ -1507,9 +1500,27 @@
         <stp>SPX-I</stp>
         <stp>Close</stp>
         <stp>43844</stp>
+        <tr r="H224" s="11"/>
+      </tp>
+      <tp>
+        <v>3289.29</v>
+        <stp/>
+        <stp>data</stp>
+        <stp>SPX-I</stp>
+        <stp>Close</stp>
+        <stp>43845</stp>
+        <tr r="H225" s="11"/>
+      </tp>
+      <tp>
+        <v>3316.8</v>
+        <stp/>
+        <stp>data</stp>
+        <stp>SPX-I</stp>
+        <stp>Close</stp>
+        <stp>43846</stp>
+        <tr r="H226" s="11"/>
         <tr r="B24" s="1"/>
         <tr r="I13" s="1"/>
-        <tr r="H224" s="11"/>
       </tp>
       <tp>
         <v>3265.35</v>
@@ -1559,7 +1570,7 @@
     </main>
     <main first="telemetorion.rtdserver">
       <tp>
-        <v>-0.81639398446499989</v>
+        <v>0</v>
         <stp/>
         <stp>quote</stp>
         <stp>ASML</stp>
@@ -1576,7 +1587,7 @@
         <stp>XLC</stp>
         <stp>Last</stp>
         <stp>D</stp>
-        <stp>43844</stp>
+        <stp>43846</stp>
         <stp/>
         <tr r="D12" s="1"/>
       </tp>
@@ -1589,14 +1600,14 @@
         <stp>XLB</stp>
         <stp>Last</stp>
         <stp>D</stp>
-        <stp>43844</stp>
+        <stp>43846</stp>
         <stp/>
         <tr r="D4" s="1"/>
       </tp>
     </main>
     <main first="telemetorion.rtdserver">
       <tp>
-        <v>0.24791525805700002</v>
+        <v>0</v>
         <stp/>
         <stp>quote</stp>
         <stp>KLAC</stp>
@@ -1642,7 +1653,7 @@
     </main>
     <main first="telemetorion.rtdserver">
       <tp>
-        <v>0.74511819116099987</v>
+        <v>0</v>
         <stp/>
         <stp>quote</stp>
         <stp>XLRE</stp>
@@ -1658,7 +1669,7 @@
         <stp>XLF</stp>
         <stp>Last</stp>
         <stp>D</stp>
-        <stp>43844</stp>
+        <stp>43846</stp>
         <stp/>
         <tr r="D9" s="1"/>
       </tp>
@@ -1671,7 +1682,7 @@
         <stp>XLE</stp>
         <stp>Last</stp>
         <stp>D</stp>
-        <stp>43844</stp>
+        <stp>43846</stp>
         <stp/>
         <tr r="D5" s="1"/>
       </tp>
@@ -1694,7 +1705,7 @@
     </main>
     <main first="telemetorion.rtdserver">
       <tp>
-        <v>0.60446202879400013</v>
+        <v>0</v>
         <stp/>
         <stp>quote</stp>
         <stp>SBUX</stp>
@@ -1702,7 +1713,7 @@
         <tr r="Q5" s="9"/>
       </tp>
       <tp>
-        <v>-0.80462827503699985</v>
+        <v>0</v>
         <stp/>
         <stp>quote</stp>
         <stp>LRCX</stp>
@@ -1720,7 +1731,7 @@
         <stp>XLY</stp>
         <stp>Last</stp>
         <stp>D</stp>
-        <stp>43844</stp>
+        <stp>43846</stp>
         <stp/>
         <tr r="D6" s="1"/>
       </tp>
@@ -1766,12 +1777,12 @@
     </main>
     <main first="telemetorion.rtdserver">
       <tp>
-        <v>38.92</v>
+        <v>39.54</v>
         <stp/>
         <stp>data</stp>
         <stp>XLRE</stp>
         <stp>Close</stp>
-        <stp>43844</stp>
+        <stp>43846</stp>
         <tr r="I2" s="1"/>
       </tp>
       <tp>
@@ -1793,6 +1804,15 @@
         <tr r="AJ222" s="11"/>
       </tp>
       <tp>
+        <v>35.083399999999997</v>
+        <stp/>
+        <stp>data</stp>
+        <stp>XLSR</stp>
+        <stp>Close</stp>
+        <stp>43846</stp>
+        <tr r="AJ226" s="11"/>
+      </tp>
+      <tp>
         <v>34.693300000000001</v>
         <stp/>
         <stp>data</stp>
@@ -1800,6 +1820,15 @@
         <stp>Close</stp>
         <stp>43844</stp>
         <tr r="AJ224" s="11"/>
+      </tp>
+      <tp>
+        <v>34.748899999999999</v>
+        <stp/>
+        <stp>data</stp>
+        <stp>XLSR</stp>
+        <stp>Close</stp>
+        <stp>43845</stp>
+        <tr r="AJ225" s="11"/>
       </tp>
       <tp>
         <v>34.349200000000003</v>
@@ -1846,14 +1875,14 @@
         <stp>XLP</stp>
         <stp>Last</stp>
         <stp>D</stp>
-        <stp>43844</stp>
+        <stp>43846</stp>
         <stp/>
         <tr r="D11" s="1"/>
       </tp>
     </main>
     <main first="telemetorion.rtdserver">
       <tp>
-        <v>0.15997325131900003</v>
+        <v>0</v>
         <stp/>
         <stp>quote</stp>
         <stp>XLSR</stp>
@@ -1863,7 +1892,7 @@
     </main>
     <main first="telemetorion.rtdserver">
       <tp>
-        <v>-0.114862370267</v>
+        <v>0</v>
         <stp/>
         <stp>quote</stp>
         <stp>LULU</stp>
@@ -1879,14 +1908,14 @@
         <stp>XLV</stp>
         <stp>Last</stp>
         <stp>D</stp>
-        <stp>43844</stp>
+        <stp>43846</stp>
         <stp/>
         <tr r="D10" s="1"/>
       </tp>
     </main>
     <main first="telemetorion.rtdserver">
       <tp>
-        <v>-0.67361668003199993</v>
+        <v>0</v>
         <stp/>
         <stp>quote</stp>
         <stp>AMAT</stp>
@@ -1903,7 +1932,7 @@
         <stp>XLU</stp>
         <stp>Last</stp>
         <stp>D</stp>
-        <stp>43844</stp>
+        <stp>43846</stp>
         <stp/>
         <tr r="D3" s="1"/>
       </tp>
@@ -1919,7 +1948,7 @@
     </main>
     <main first="telemetorion.rtdserver">
       <tp>
-        <v>3.4313725490199995E-2</v>
+        <v>0</v>
         <stp/>
         <stp>quote</stp>
         <stp>WLTW</stp>
@@ -1954,7 +1983,7 @@
     </main>
     <main first="telemetorion.rtdserver">
       <tp>
-        <v>0.63401489934999999</v>
+        <v>0</v>
         <stp/>
         <stp>quote</stp>
         <stp>XLP</stp>
@@ -1982,7 +2011,7 @@
     </main>
     <main first="telemetorion.rtdserver">
       <tp>
-        <v>0.85387153114699976</v>
+        <v>0</v>
         <stp/>
         <stp>quote</stp>
         <stp>XLV</stp>
@@ -2001,7 +2030,7 @@
     </main>
     <main first="telemetorion.rtdserver">
       <tp>
-        <v>1.4004309018200001</v>
+        <v>0</v>
         <stp/>
         <stp>quote</stp>
         <stp>XLU</stp>
@@ -2038,7 +2067,7 @@
     </main>
     <main first="telemetorion.rtdserver">
       <tp>
-        <v>-0.22099447513800005</v>
+        <v>0</v>
         <stp/>
         <stp>quote</stp>
         <stp>XLY</stp>
@@ -2096,8 +2125,8 @@
         <stp/>
         <stp>ASML</stp>
         <stp>% Change</stp>
+        <tr r="G4" s="4"/>
         <tr r="E4" s="3"/>
-        <tr r="G4" s="4"/>
         <tr r="V4" s="4"/>
       </tp>
     </main>
@@ -2109,14 +2138,14 @@
         <stp>XLRE</stp>
         <stp>Last</stp>
         <stp>D</stp>
-        <stp>43844</stp>
+        <stp>43846</stp>
         <stp/>
         <tr r="D2" s="1"/>
       </tp>
     </main>
     <main first="telemetorion.rtdserver">
       <tp>
-        <v>0.45012603529</v>
+        <v>0</v>
         <stp/>
         <stp>quote</stp>
         <stp>XLC</stp>
@@ -2124,7 +2153,7 @@
         <tr r="Q20" s="9"/>
       </tp>
       <tp>
-        <v>1.6153678236200002</v>
+        <v>0</v>
         <stp/>
         <stp>quote</stp>
         <stp>EXC</stp>
@@ -2135,7 +2164,7 @@
     </main>
     <main first="telemetorion.rtdserver">
       <tp>
-        <v>0.18701551863300001</v>
+        <v>0</v>
         <stp/>
         <stp>quote</stp>
         <stp>SPX-I</stp>
@@ -2161,7 +2190,7 @@
     </main>
     <main first="telemetorion.rtdserver">
       <tp>
-        <v>0.6988352745419999</v>
+        <v>0</v>
         <stp/>
         <stp>quote</stp>
         <stp>XLB</stp>
@@ -2207,7 +2236,7 @@
     </main>
     <main first="telemetorion.rtdserver">
       <tp>
-        <v>-0.51880674448800002</v>
+        <v>0</v>
         <stp/>
         <stp>quote</stp>
         <stp>XLF</stp>
@@ -2301,7 +2330,7 @@
     </main>
     <main first="telemetorion.rtdserver">
       <tp>
-        <v>-0.68516042780699993</v>
+        <v>0</v>
         <stp/>
         <stp>quote</stp>
         <stp>XLE</stp>
@@ -2311,7 +2340,7 @@
     </main>
     <main first="telemetorion.rtdserver">
       <tp>
-        <v>0.69487658162200006</v>
+        <v>0</v>
         <stp/>
         <stp>quote</stp>
         <stp>AMD</stp>
@@ -2327,9 +2356,9 @@
         <stp/>
         <stp>KLAC</stp>
         <stp>BETA</stp>
-        <tr r="F6" s="3"/>
         <tr r="F6" s="4"/>
         <tr r="L3" s="9"/>
+        <tr r="F6" s="3"/>
         <tr r="P6" s="4"/>
       </tp>
       <tp t="s">
@@ -2344,7 +2373,7 @@
     </main>
     <main first="telemetorion.rtdserver">
       <tp>
-        <v>8.4139671855300011E-2</v>
+        <v>0</v>
         <stp/>
         <stp>quote</stp>
         <stp>XLK</stp>
@@ -2354,7 +2383,7 @@
     </main>
     <main first="telemetorion.rtdserver">
       <tp>
-        <v>0.15580057526400001</v>
+        <v>0</v>
         <stp/>
         <stp>quote</stp>
         <stp>XLI</stp>
@@ -2400,8 +2429,8 @@
         <stp>KLAC</stp>
         <stp>% Change</stp>
         <tr r="G6" s="4"/>
+        <tr r="M3" s="9"/>
         <tr r="E6" s="3"/>
-        <tr r="M3" s="9"/>
         <tr r="V6" s="4"/>
       </tp>
     </main>
@@ -2411,9 +2440,9 @@
         <stp/>
         <stp>LRCX</stp>
         <stp>% Change</stp>
+        <tr r="G7" s="4"/>
         <tr r="M4" s="9"/>
         <tr r="E7" s="3"/>
-        <tr r="G7" s="4"/>
         <tr r="V7" s="4"/>
       </tp>
     </main>
@@ -2688,7 +2717,7 @@
   <dimension ref="A1:Y39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2718,7 +2747,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="13">
-        <v>43844</v>
+        <v>43846</v>
       </c>
       <c r="H1" t="s">
         <v>55</v>
@@ -2783,11 +2812,11 @@
       </c>
       <c r="I2" s="9">
         <f>RTD("telemetorion.rtdserver","","data",$A2,"Close",$G$1)</f>
-        <v>38.92</v>
+        <v>39.54</v>
       </c>
       <c r="J2">
         <f>I2*E2</f>
-        <v>7044.52</v>
+        <v>7156.74</v>
       </c>
       <c r="M2">
         <f t="shared" ref="M2:M12" si="0">$M$1*B2</f>
@@ -2861,11 +2890,11 @@
       </c>
       <c r="I3" s="9">
         <f>RTD("telemetorion.rtdserver","","data",$A3,"Close",$G$1)</f>
-        <v>64.98</v>
+        <v>66.3</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J12" si="6">I3*E3</f>
-        <v>7017.84</v>
+        <v>7160.4</v>
       </c>
       <c r="M3">
         <f t="shared" si="0"/>
@@ -2939,11 +2968,11 @@
       </c>
       <c r="I4" s="9">
         <f>RTD("telemetorion.rtdserver","","data",$A4,"Close",$G$1)</f>
-        <v>60.1</v>
+        <v>60.87</v>
       </c>
       <c r="J4">
         <f t="shared" si="6"/>
-        <v>4627.7</v>
+        <v>4686.99</v>
       </c>
       <c r="M4">
         <f t="shared" si="0"/>
@@ -3017,11 +3046,11 @@
       </c>
       <c r="I5" s="9">
         <f>RTD("telemetorion.rtdserver","","data",$A5,"Close",$G$1)</f>
-        <v>59.84</v>
+        <v>59.5</v>
       </c>
       <c r="J5">
         <f t="shared" si="6"/>
-        <v>1136.96</v>
+        <v>1130.5</v>
       </c>
       <c r="M5">
         <f t="shared" si="0"/>
@@ -3095,11 +3124,11 @@
       </c>
       <c r="I6" s="9">
         <f>RTD("telemetorion.rtdserver","","data",$A6,"Close",$G$1)</f>
-        <v>126.7</v>
+        <v>127.54</v>
       </c>
       <c r="J6">
         <f t="shared" si="6"/>
-        <v>1140.3</v>
+        <v>1147.8600000000001</v>
       </c>
       <c r="M6">
         <f t="shared" si="0"/>
@@ -3173,7 +3202,7 @@
       </c>
       <c r="I7" s="9">
         <f>RTD("telemetorion.rtdserver","","data",$A7,"Close",$G$1)</f>
-        <v>95.08</v>
+        <v>96.47</v>
       </c>
       <c r="J7">
         <f t="shared" si="6"/>
@@ -3232,7 +3261,7 @@
       </c>
       <c r="I8" s="9">
         <f>RTD("telemetorion.rtdserver","","data",$A8,"Close",$G$1)</f>
-        <v>83.44</v>
+        <v>84.4</v>
       </c>
       <c r="J8">
         <f t="shared" si="6"/>
@@ -3291,7 +3320,7 @@
       </c>
       <c r="I9" s="9">
         <f>RTD("telemetorion.rtdserver","","data",$A9,"Close",$G$1)</f>
-        <v>30.84</v>
+        <v>30.94</v>
       </c>
       <c r="J9">
         <f t="shared" si="6"/>
@@ -3350,7 +3379,7 @@
       </c>
       <c r="I10" s="9">
         <f>RTD("telemetorion.rtdserver","","data",$A10,"Close",$G$1)</f>
-        <v>103.06</v>
+        <v>104.49</v>
       </c>
       <c r="J10">
         <f t="shared" si="6"/>
@@ -3409,7 +3438,7 @@
       </c>
       <c r="I11" s="9">
         <f>RTD("telemetorion.rtdserver","","data",$A11,"Close",$G$1)</f>
-        <v>63.09</v>
+        <v>63.71</v>
       </c>
       <c r="J11">
         <f t="shared" si="6"/>
@@ -3468,7 +3497,7 @@
       </c>
       <c r="I12" s="9">
         <f>RTD("telemetorion.rtdserver","","data",$A12,"Close",$G$1)</f>
-        <v>55.54</v>
+        <v>56.24</v>
       </c>
       <c r="J12">
         <f t="shared" si="6"/>
@@ -3518,7 +3547,7 @@
       </c>
       <c r="I13" s="9">
         <f>RTD("telemetorion.rtdserver","","data",$A13,"Close",$G$1)</f>
-        <v>3283.15</v>
+        <v>3316.8</v>
       </c>
       <c r="R13" t="str">
         <f t="shared" si="4"/>
@@ -3546,7 +3575,7 @@
       </c>
       <c r="I15">
         <f>SUM(J2:J12)</f>
-        <v>20967.32</v>
+        <v>21282.489999999998</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
@@ -3581,7 +3610,7 @@
       </c>
       <c r="B24" s="9">
         <f>RTD("telemetorion.rtdserver","","data",$A24,"Close",$G$1)</f>
-        <v>3283.15</v>
+        <v>3316.8</v>
       </c>
       <c r="C24" s="9"/>
     </row>
@@ -3674,13 +3703,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AP225"/>
+  <dimension ref="A1:AP226"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B204" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N227" sqref="N227"/>
+      <selection pane="bottomRight" activeCell="I237" sqref="I237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39102,19 +39131,19 @@
         <v>129.1</v>
       </c>
       <c r="D222">
-        <f t="shared" ref="D222:D224" si="4496">B222+C222</f>
+        <f t="shared" ref="D222:D226" si="4496">B222+C222</f>
         <v>20939.25</v>
       </c>
       <c r="E222" s="14">
-        <f t="shared" ref="E222:E224" si="4497">B222/D222</f>
+        <f t="shared" ref="E222:E226" si="4497">B222/D222</f>
         <v>0.99383454517234382</v>
       </c>
       <c r="F222" s="14">
-        <f t="shared" ref="F222:F224" si="4498">C222/D222</f>
+        <f t="shared" ref="F222:F226" si="4498">C222/D222</f>
         <v>6.1654548276561952E-3</v>
       </c>
       <c r="G222" s="1">
-        <f t="shared" ref="G222:G224" si="4499">SUM(E222:F222)</f>
+        <f t="shared" ref="G222:G226" si="4499">SUM(E222:F222)</f>
         <v>1</v>
       </c>
       <c r="H222" s="15">
@@ -39586,9 +39615,334 @@
         <v>-1.418911528543787E-3</v>
       </c>
     </row>
-    <row r="225" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q225" s="4" t="s">
-        <v>116</v>
+    <row r="225" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A225" s="13">
+        <v>43845</v>
+      </c>
+      <c r="B225">
+        <v>21135.07</v>
+      </c>
+      <c r="C225">
+        <v>129.1</v>
+      </c>
+      <c r="D225">
+        <f t="shared" si="4496"/>
+        <v>21264.17</v>
+      </c>
+      <c r="E225" s="14">
+        <f t="shared" si="4497"/>
+        <v>0.99392875433181738</v>
+      </c>
+      <c r="F225" s="14">
+        <f t="shared" si="4498"/>
+        <v>6.0712456681826753E-3</v>
+      </c>
+      <c r="G225" s="1">
+        <f t="shared" si="4499"/>
+        <v>1</v>
+      </c>
+      <c r="H225" s="15">
+        <f>RTD("telemetorion.rtdserver","","data","SPX-I","Close",$A225)</f>
+        <v>3289.29</v>
+      </c>
+      <c r="I225" s="2">
+        <f t="shared" ref="I225" si="4567">H225/H224-1</f>
+        <v>1.870155186330269E-3</v>
+      </c>
+      <c r="J225" s="2">
+        <f t="shared" ref="J225" si="4568">D225/D224-1</f>
+        <v>7.9515860984944453E-3</v>
+      </c>
+      <c r="K225" s="9">
+        <f t="shared" ref="K225" si="4569">K224*(1+I225)</f>
+        <v>118.12899310107069</v>
+      </c>
+      <c r="L225" s="9">
+        <f t="shared" ref="L225" si="4570">L224*(1+J225)</f>
+        <v>122.4673071806137</v>
+      </c>
+      <c r="M225" s="50">
+        <f t="shared" ref="M225" si="4571">K225/$K$215-1</f>
+        <v>1.8110177727979071E-2</v>
+      </c>
+      <c r="N225" s="50">
+        <f t="shared" ref="N225" si="4572">L225/$L$215-1</f>
+        <v>9.7315998733100706E-3</v>
+      </c>
+      <c r="O225" s="22">
+        <f t="shared" ref="O225" si="4573">K225/$K$3-1</f>
+        <v>0.18128993101070701</v>
+      </c>
+      <c r="P225" s="34">
+        <f t="shared" ref="P225" si="4574">L225/$L$3-1</f>
+        <v>0.22467307180613694</v>
+      </c>
+      <c r="Q225" s="4">
+        <v>21135.069999999996</v>
+      </c>
+      <c r="R225">
+        <f t="shared" ref="R225" si="4575">Q225+C225</f>
+        <v>21264.169999999995</v>
+      </c>
+      <c r="S225" s="25">
+        <f t="shared" ref="S225" si="4576">R225/R224-1</f>
+        <v>7.9515860984942233E-3</v>
+      </c>
+      <c r="T225" s="26">
+        <f t="shared" ref="T225" si="4577">R225/$R$215-1</f>
+        <v>9.7315998733094045E-3</v>
+      </c>
+      <c r="U225" s="26">
+        <f t="shared" ref="U225" si="4578">R225/$R$215-1</f>
+        <v>9.7315998733094045E-3</v>
+      </c>
+      <c r="V225" s="2">
+        <f t="shared" ref="V225" si="4579">AG225-AC225</f>
+        <v>-9.540789377892489E-3</v>
+      </c>
+      <c r="W225" s="2">
+        <f t="shared" ref="W225" si="4580">U225-AD225</f>
+        <v>-9.1405568290678918E-3</v>
+      </c>
+      <c r="X225" s="14">
+        <f t="shared" ref="X225" si="4581">MIN(0,(AB225/AB$3-1))</f>
+        <v>0</v>
+      </c>
+      <c r="Y225" s="14">
+        <f t="shared" ref="Y225" si="4582">MIN(0,(L225/L$3-1))</f>
+        <v>0</v>
+      </c>
+      <c r="Z225" s="45">
+        <v>6677.25</v>
+      </c>
+      <c r="AA225" s="2">
+        <f t="shared" ref="AA225" si="4583">Z225/Z224-1</f>
+        <v>1.8890686096515452E-3</v>
+      </c>
+      <c r="AB225" s="9">
+        <f t="shared" ref="AB225" si="4584">AB224*(1+AA225)</f>
+        <v>120.17028735766635</v>
+      </c>
+      <c r="AC225" s="50">
+        <f t="shared" ref="AC225" si="4585">AB225/$AB$215-1</f>
+        <v>1.8872156702377296E-2</v>
+      </c>
+      <c r="AD225" s="37">
+        <f t="shared" ref="AD225" si="4586">AB225/$AB$215-1</f>
+        <v>1.8872156702377296E-2</v>
+      </c>
+      <c r="AE225" s="14">
+        <f t="shared" ref="AE225" si="4587">J225-($AE$1/252)</f>
+        <v>7.9119035588119061E-3</v>
+      </c>
+      <c r="AF225">
+        <f t="shared" ref="AF225" si="4588">AF224*(1+AE225)</f>
+        <v>121.39891321613875</v>
+      </c>
+      <c r="AG225" s="14">
+        <f t="shared" ref="AG225" si="4589">AF225/$AF$215-1</f>
+        <v>9.3313673244848072E-3</v>
+      </c>
+      <c r="AH225" s="14">
+        <f t="shared" ref="AH225" si="4590">AF225/$AF$215-1</f>
+        <v>9.3313673244848072E-3</v>
+      </c>
+      <c r="AI225" s="14">
+        <f t="shared" ref="AI225" si="4591">AH225-AD225</f>
+        <v>-9.540789377892489E-3</v>
+      </c>
+      <c r="AJ225" s="27">
+        <f>RTD("telemetorion.rtdserver","","data","XLSR","Close",$A225)</f>
+        <v>34.748899999999999</v>
+      </c>
+      <c r="AK225" s="2">
+        <f t="shared" ref="AK225" si="4592">AJ225/AJ224-1</f>
+        <v>1.6026149141188384E-3</v>
+      </c>
+      <c r="AL225" s="9">
+        <f t="shared" ref="AL225" si="4593">AL224*(1+AK225)</f>
+        <v>115.00469962138254</v>
+      </c>
+      <c r="AM225" s="2">
+        <f t="shared" ref="AM225" si="4594">AL225/$AL$215-1</f>
+        <v>1.902932551319636E-2</v>
+      </c>
+      <c r="AN225" s="2">
+        <f t="shared" ref="AN225" si="4595">AL225/$AL$215-1</f>
+        <v>1.902932551319636E-2</v>
+      </c>
+      <c r="AO225" s="1">
+        <f>MIN(0,(AF225/MAX($AF$3:AF224)-1))</f>
+        <v>0</v>
+      </c>
+      <c r="AP225" s="1">
+        <f>MIN(0,(AB225/MAX($AB$3:AB224)-1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A226" s="13">
+        <v>43846</v>
+      </c>
+      <c r="B226">
+        <v>21282.49</v>
+      </c>
+      <c r="C226">
+        <v>129.1</v>
+      </c>
+      <c r="D226">
+        <f t="shared" si="4496"/>
+        <v>21411.59</v>
+      </c>
+      <c r="E226" s="14">
+        <f t="shared" si="4497"/>
+        <v>0.99397055519931032</v>
+      </c>
+      <c r="F226" s="14">
+        <f t="shared" si="4498"/>
+        <v>6.0294448006897195E-3</v>
+      </c>
+      <c r="G226" s="1">
+        <f t="shared" si="4499"/>
+        <v>1</v>
+      </c>
+      <c r="H226" s="15">
+        <f>RTD("telemetorion.rtdserver","","data","SPX-I","Close",$A226)</f>
+        <v>3316.8</v>
+      </c>
+      <c r="I226" s="2">
+        <f t="shared" ref="I226" si="4596">H226/H225-1</f>
+        <v>8.3635070182319637E-3</v>
+      </c>
+      <c r="J226" s="2">
+        <f t="shared" ref="J226" si="4597">D226/D225-1</f>
+        <v>6.9327888179977482E-3</v>
+      </c>
+      <c r="K226" s="9">
+        <f t="shared" ref="K226" si="4598">K225*(1+I226)</f>
+        <v>119.11696576392816</v>
+      </c>
+      <c r="L226" s="9">
+        <f t="shared" ref="L226" si="4599">L225*(1+J226)</f>
+        <v>123.31634715840576</v>
+      </c>
+      <c r="M226" s="50">
+        <f t="shared" ref="M226" si="4600">K226/$K$215-1</f>
+        <v>2.6625149344740473E-2</v>
+      </c>
+      <c r="N226" s="50">
+        <f t="shared" ref="N226" si="4601">L226/$L$215-1</f>
+        <v>1.6731855818090668E-2</v>
+      </c>
+      <c r="O226" s="22">
+        <f t="shared" ref="O226" si="4602">K226/$K$3-1</f>
+        <v>0.19116965763928162</v>
+      </c>
+      <c r="P226" s="34">
+        <f t="shared" ref="P226" si="4603">L226/$L$3-1</f>
+        <v>0.23316347158405759</v>
+      </c>
+      <c r="Q226" s="4">
+        <v>21282.489999999998</v>
+      </c>
+      <c r="R226">
+        <f t="shared" ref="R226" si="4604">Q226+C226</f>
+        <v>21411.589999999997</v>
+      </c>
+      <c r="S226" s="25">
+        <f t="shared" ref="S226" si="4605">R226/R225-1</f>
+        <v>6.9327888179977482E-3</v>
+      </c>
+      <c r="T226" s="26">
+        <f t="shared" ref="T226" si="4606">R226/$R$215-1</f>
+        <v>1.6731855818090002E-2</v>
+      </c>
+      <c r="U226" s="26">
+        <f t="shared" ref="U226" si="4607">R226/$R$215-1</f>
+        <v>1.6731855818090002E-2</v>
+      </c>
+      <c r="V226" s="2">
+        <f t="shared" ref="V226" si="4608">AG226-AC226</f>
+        <v>-1.1143580842526868E-2</v>
+      </c>
+      <c r="W226" s="2">
+        <f t="shared" ref="W226" si="4609">U226-AD226</f>
+        <v>-1.0700520733926577E-2</v>
+      </c>
+      <c r="X226" s="14">
+        <f t="shared" ref="X226" si="4610">MIN(0,(AB226/AB$3-1))</f>
+        <v>0</v>
+      </c>
+      <c r="Y226" s="14">
+        <f t="shared" ref="Y226" si="4611">MIN(0,(L226/L$3-1))</f>
+        <v>0</v>
+      </c>
+      <c r="Z226" s="45">
+        <v>6733.35</v>
+      </c>
+      <c r="AA226" s="2">
+        <f t="shared" ref="AA226" si="4612">Z226/Z225-1</f>
+        <v>8.401662361001927E-3</v>
+      </c>
+      <c r="AB226" s="9">
+        <f t="shared" ref="AB226" si="4613">AB225*(1+AA226)</f>
+        <v>121.17991753787004</v>
+      </c>
+      <c r="AC226" s="50">
+        <f t="shared" ref="AC226" si="4614">AB226/$AB$215-1</f>
+        <v>2.743237655201658E-2</v>
+      </c>
+      <c r="AD226" s="37">
+        <f t="shared" ref="AD226" si="4615">AB226/$AB$215-1</f>
+        <v>2.743237655201658E-2</v>
+      </c>
+      <c r="AE226" s="14">
+        <f t="shared" ref="AE226" si="4616">J226-($AE$1/252)</f>
+        <v>6.8931062783152081E-3</v>
+      </c>
+      <c r="AF226">
+        <f t="shared" ref="AF226" si="4617">AF225*(1+AE226)</f>
+        <v>122.23572882700957</v>
+      </c>
+      <c r="AG226" s="14">
+        <f t="shared" ref="AG226" si="4618">AF226/$AF$215-1</f>
+        <v>1.6288795709489712E-2</v>
+      </c>
+      <c r="AH226" s="14">
+        <f t="shared" ref="AH226" si="4619">AF226/$AF$215-1</f>
+        <v>1.6288795709489712E-2</v>
+      </c>
+      <c r="AI226" s="14">
+        <f t="shared" ref="AI226" si="4620">AH226-AD226</f>
+        <v>-1.1143580842526868E-2</v>
+      </c>
+      <c r="AJ226" s="27">
+        <f>RTD("telemetorion.rtdserver","","data","XLSR","Close",$A226)</f>
+        <v>35.083399999999997</v>
+      </c>
+      <c r="AK226" s="2">
+        <f t="shared" ref="AK226" si="4621">AJ226/AJ225-1</f>
+        <v>9.6262039949466249E-3</v>
+      </c>
+      <c r="AL226" s="9">
+        <f t="shared" ref="AL226" si="4622">AL225*(1+AK226)</f>
+        <v>116.11175832031553</v>
+      </c>
+      <c r="AM226" s="2">
+        <f t="shared" ref="AM226" si="4623">AL226/$AL$215-1</f>
+        <v>2.8838709677419194E-2</v>
+      </c>
+      <c r="AN226" s="2">
+        <f t="shared" ref="AN226" si="4624">AL226/$AL$215-1</f>
+        <v>2.8838709677419194E-2</v>
+      </c>
+      <c r="AO226" s="1">
+        <f>MIN(0,(AF226/MAX($AF$3:AF225)-1))</f>
+        <v>0</v>
+      </c>
+      <c r="AP226" s="1">
+        <f>MIN(0,(AB226/MAX($AB$3:AB225)-1))</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -39748,7 +40102,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S3:S224">
+  <conditionalFormatting sqref="S3:S226">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -39772,7 +40126,7 @@
   <dimension ref="A1:R107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39858,9 +40212,9 @@
         <f>RTD("esrtd",,$A2,"Last")</f>
         <v/>
       </c>
-      <c r="K2">
+      <c r="K2" s="9">
         <f>RTD("telemetorion.rtdserver","","quote",$A2,"Net %")</f>
-        <v>-0.67361668003199993</v>
+        <v>0</v>
       </c>
       <c r="L2" t="str">
         <f>RTD("esrtd",,$A2,$L$14)</f>
@@ -39907,9 +40261,9 @@
         <f>RTD("esrtd",,$A3,"Last")</f>
         <v/>
       </c>
-      <c r="K3">
+      <c r="K3" s="9">
         <f>RTD("telemetorion.rtdserver","","quote",$A3,"Net %")</f>
-        <v>0.69487658162200006</v>
+        <v>0</v>
       </c>
       <c r="L3" t="str">
         <f>RTD("esrtd",,$A3,$L$14)</f>
@@ -39956,9 +40310,9 @@
         <f>RTD("esrtd",,$A4,"Last")</f>
         <v/>
       </c>
-      <c r="K4">
+      <c r="K4" s="9">
         <f>RTD("telemetorion.rtdserver","","quote",$A4,"Net %")</f>
-        <v>-0.81639398446499989</v>
+        <v>0</v>
       </c>
       <c r="L4" t="str">
         <f>RTD("esrtd",,$A4,$L$14)</f>
@@ -40005,9 +40359,9 @@
         <f>RTD("esrtd",,$A5,"Last")</f>
         <v/>
       </c>
-      <c r="K5">
+      <c r="K5" s="9">
         <f>RTD("telemetorion.rtdserver","","quote",$A5,"Net %")</f>
-        <v>1.6153678236200002</v>
+        <v>0</v>
       </c>
       <c r="L5" t="str">
         <f>RTD("esrtd",,$A5,$L$14)</f>
@@ -40054,9 +40408,9 @@
         <f>RTD("esrtd",,$A6,"Last")</f>
         <v/>
       </c>
-      <c r="K6">
+      <c r="K6" s="9">
         <f>RTD("telemetorion.rtdserver","","quote",$A6,"Net %")</f>
-        <v>0.24791525805700002</v>
+        <v>0</v>
       </c>
       <c r="L6" t="str">
         <f>RTD("esrtd",,$A6,$L$14)</f>
@@ -40103,9 +40457,9 @@
         <f>RTD("esrtd",,$A7,"Last")</f>
         <v/>
       </c>
-      <c r="K7">
+      <c r="K7" s="9">
         <f>RTD("telemetorion.rtdserver","","quote",$A7,"Net %")</f>
-        <v>-0.80462827503699985</v>
+        <v>0</v>
       </c>
       <c r="L7" t="str">
         <f>RTD("esrtd",,$A7,$L$14)</f>
@@ -40152,9 +40506,9 @@
         <f>RTD("esrtd",,$A8,"Last")</f>
         <v/>
       </c>
-      <c r="K8">
+      <c r="K8" s="9">
         <f>RTD("telemetorion.rtdserver","","quote",$A8,"Net %")</f>
-        <v>-0.114862370267</v>
+        <v>0</v>
       </c>
       <c r="L8" t="str">
         <f>RTD("esrtd",,$A8,$L$14)</f>
@@ -40172,7 +40526,7 @@
       </c>
       <c r="E10" s="55">
         <f t="array" ref="E10">SUMPRODUCT(B2:B8,K2:K8)</f>
-        <v>2.1236907642571516E-2</v>
+        <v>0</v>
       </c>
       <c r="F10" s="9">
         <f>SUMPRODUCT(F2:F8,B2:B8)</f>
@@ -40650,7 +41004,7 @@
   <dimension ref="A1:X119"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="F30" sqref="F29:F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40730,9 +41084,9 @@
         <f>$I$1*B2</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="K2" s="52">
+      <c r="K2" s="28">
         <f>RTD("telemetorion.rtdserver","","quote",$A2,"Net %")</f>
-        <v>-0.67361668003199993</v>
+        <v>0</v>
       </c>
       <c r="N2" s="7" t="s">
         <v>105</v>
@@ -40803,9 +41157,9 @@
         <f t="shared" ref="I3:I7" si="1">$I$1*B3</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="K3" s="52">
+      <c r="K3" s="28">
         <f>RTD("telemetorion.rtdserver","","quote",$A3,"Net %")</f>
-        <v>0.69487658162200006</v>
+        <v>0</v>
       </c>
       <c r="N3" t="s">
         <v>6</v>
@@ -40876,9 +41230,9 @@
         <f t="shared" si="1"/>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="K4" s="52">
+      <c r="K4" s="28">
         <f>RTD("telemetorion.rtdserver","","quote",$A4,"Net %")</f>
-        <v>-0.81639398446499989</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7" t="s">
         <v>106</v>
@@ -40949,9 +41303,9 @@
         <f t="shared" si="1"/>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="K5" s="52">
+      <c r="K5" s="28">
         <f>RTD("telemetorion.rtdserver","","quote",$A5,"Net %")</f>
-        <v>1.6153678236200002</v>
+        <v>0</v>
       </c>
       <c r="N5" t="s">
         <v>107</v>
@@ -41022,9 +41376,9 @@
         <f t="shared" si="1"/>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="K6" s="52">
+      <c r="K6" s="28">
         <f>RTD("telemetorion.rtdserver","","quote",$A6,"Net %")</f>
-        <v>0.24791525805700002</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7" t="s">
         <v>94</v>
@@ -41095,9 +41449,9 @@
         <f t="shared" si="1"/>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="K7" s="52">
+      <c r="K7" s="28">
         <f>RTD("telemetorion.rtdserver","","quote",$A7,"Net %")</f>
-        <v>-0.80462827503699985</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7" t="s">
         <v>95</v>
@@ -41213,7 +41567,7 @@
       </c>
       <c r="G10" s="55">
         <f t="array" ref="G10">SUMPRODUCT(B2:B7,K2:K7)</f>
-        <v>4.3920120627500142E-2</v>
+        <v>0</v>
       </c>
       <c r="H10" s="1"/>
       <c r="N10" t="s">
@@ -41409,8 +41763,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:Y37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X22" sqref="X22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41464,14 +41818,14 @@
       </c>
       <c r="Q2" s="9">
         <f>RTD("telemetorion.rtdserver","","quote",$I2,"Net %")</f>
-        <v>0.69487658162200006</v>
+        <v>0</v>
       </c>
       <c r="V2" t="s">
         <v>76</v>
       </c>
       <c r="W2" s="9">
         <f>QoFocused!$G$10</f>
-        <v>4.3920120627500142E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -41507,14 +41861,14 @@
       </c>
       <c r="Q3" s="9">
         <f>RTD("telemetorion.rtdserver","","quote",$I3,"Net %")</f>
-        <v>0.24791525805700002</v>
+        <v>0</v>
       </c>
       <c r="V3" t="s">
         <v>77</v>
       </c>
       <c r="W3" s="9">
         <f>QFocused!$E$10</f>
-        <v>2.1236907642571516E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -41550,14 +41904,14 @@
       </c>
       <c r="Q4" s="9">
         <f>RTD("telemetorion.rtdserver","","quote",$I4,"Net %")</f>
-        <v>-0.80462827503699985</v>
+        <v>0</v>
       </c>
       <c r="V4" t="s">
         <v>8</v>
       </c>
       <c r="W4" s="9">
         <f>R20-M30</f>
-        <v>0.63184908571307696</v>
+        <v>0</v>
       </c>
       <c r="X4" s="3"/>
     </row>
@@ -41594,14 +41948,14 @@
       </c>
       <c r="Q5" s="9">
         <f>RTD("telemetorion.rtdserver","","quote",$I5,"Net %")</f>
-        <v>0.60446202879400013</v>
+        <v>0</v>
       </c>
       <c r="V5" t="s">
         <v>78</v>
       </c>
       <c r="W5" s="28">
         <f>RTD("telemetorion.rtdserver","","quote",V5,"Net %")</f>
-        <v>0.15997325131900003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -41637,7 +41991,7 @@
       </c>
       <c r="Q6" s="9">
         <f>RTD("telemetorion.rtdserver","","quote",$I6,"Net %")</f>
-        <v>1.1282508923999999</v>
+        <v>0</v>
       </c>
       <c r="W6" s="9"/>
       <c r="Y6" s="52"/>
@@ -41681,11 +42035,11 @@
       </c>
       <c r="Q7" s="9">
         <f>RTD("telemetorion.rtdserver","","quote",$I7,"Net %")</f>
-        <v>3.4313725490199995E-2</v>
+        <v>0</v>
       </c>
       <c r="R7" s="27">
         <f t="array" ref="R7">SUMPRODUCT(J2:J7,Q2:Q7)</f>
-        <v>0.31753170188770002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -41764,7 +42118,7 @@
       </c>
       <c r="Q10" s="9">
         <f>RTD("telemetorion.rtdserver","","quote",$I10,"Net %")</f>
-        <v>0.74511819116099987</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
@@ -41802,7 +42156,7 @@
       </c>
       <c r="Q11" s="9">
         <f>RTD("telemetorion.rtdserver","","quote",$I11,"Net %")</f>
-        <v>1.4004309018200001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
@@ -41840,7 +42194,7 @@
       </c>
       <c r="Q12" s="9">
         <f>RTD("telemetorion.rtdserver","","quote",$I12,"Net %")</f>
-        <v>0.6988352745419999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
@@ -41878,7 +42232,7 @@
       </c>
       <c r="Q13" s="9">
         <f>RTD("telemetorion.rtdserver","","quote",$I13,"Net %")</f>
-        <v>-0.68516042780699993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -41916,7 +42270,7 @@
       </c>
       <c r="Q14" s="9">
         <f>RTD("telemetorion.rtdserver","","quote",$I14,"Net %")</f>
-        <v>-0.22099447513800005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
@@ -41954,7 +42308,7 @@
       </c>
       <c r="Q15" s="9">
         <f>RTD("telemetorion.rtdserver","","quote",$I15,"Net %")</f>
-        <v>8.4139671855300011E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
@@ -41991,7 +42345,7 @@
       </c>
       <c r="Q16" s="9">
         <f>RTD("telemetorion.rtdserver","","quote",$I16,"Net %")</f>
-        <v>0.15580057526400001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
@@ -42032,7 +42386,7 @@
       </c>
       <c r="Q17" s="9">
         <f>RTD("telemetorion.rtdserver","","quote",$I17,"Net %")</f>
-        <v>-0.51880674448800002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
@@ -42069,7 +42423,7 @@
       </c>
       <c r="Q18" s="9">
         <f>RTD("telemetorion.rtdserver","","quote",$I18,"Net %")</f>
-        <v>0.85387153114699976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
@@ -42106,7 +42460,7 @@
       </c>
       <c r="Q19" s="9">
         <f>RTD("telemetorion.rtdserver","","quote",$I19,"Net %")</f>
-        <v>0.63401489934999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
@@ -42143,11 +42497,11 @@
       </c>
       <c r="Q20" s="9">
         <f>RTD("telemetorion.rtdserver","","quote",$I20,"Net %")</f>
-        <v>0.45012603529</v>
+        <v>0</v>
       </c>
       <c r="R20" s="27">
         <f t="array" ref="R20">SUMPRODUCT(J10:J20,Q10:Q20)</f>
-        <v>0.818864604346077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
@@ -42234,7 +42588,7 @@
       </c>
       <c r="M30" s="28">
         <f>RTD("telemetorion.rtdserver","","quote",$K30,"Net %")</f>
-        <v>0.18701551863300001</v>
+        <v>0</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2">

--- a/modelrebal.xlsx
+++ b/modelrebal.xlsx
@@ -941,9 +941,9 @@
         <stp/>
         <stp>AMD</stp>
         <stp>BETA</stp>
+        <tr r="L2" s="9"/>
+        <tr r="F3" s="4"/>
         <tr r="F3" s="3"/>
-        <tr r="F3" s="4"/>
-        <tr r="L2" s="9"/>
         <tr r="P3" s="4"/>
       </tp>
     </main>
@@ -1025,8 +1025,8 @@
         <stp/>
         <stp>EXC</stp>
         <stp>% Change</stp>
+        <tr r="G5" s="4"/>
         <tr r="E5" s="3"/>
-        <tr r="G5" s="4"/>
         <tr r="V5" s="4"/>
       </tp>
     </main>
@@ -1072,22 +1072,22 @@
       <tp t="s">
         <v/>
         <stp/>
-        <stp>*H</stp>
-        <stp>SPX-I</stp>
-        <stp>Last</stp>
-        <stp>D</stp>
-        <stp>43846</stp>
-        <stp/>
-        <tr r="D13" s="1"/>
+        <stp>XLV</stp>
+        <stp>PrevPrice</stp>
+        <tr r="H10" s="1"/>
       </tp>
     </main>
     <main first="esrtd">
       <tp t="s">
         <v/>
         <stp/>
-        <stp>XLV</stp>
-        <stp>PrevPrice</stp>
-        <tr r="H10" s="1"/>
+        <stp>*H</stp>
+        <stp>SPX-I</stp>
+        <stp>Last</stp>
+        <stp>D</stp>
+        <stp>43853</stp>
+        <stp/>
+        <tr r="D13" s="1"/>
       </tp>
     </main>
     <main first="esrtd">
@@ -1101,94 +1101,94 @@
     </main>
     <main first="telemetorion.rtdserver">
       <tp>
-        <v>84.4</v>
+        <v>83.94</v>
         <stp/>
         <stp>data</stp>
         <stp>XLI</stp>
         <stp>Close</stp>
-        <stp>43846</stp>
+        <stp>43853</stp>
         <tr r="I8" s="1"/>
       </tp>
       <tp>
-        <v>96.47</v>
+        <v>97.89</v>
         <stp/>
         <stp>data</stp>
         <stp>XLK</stp>
         <stp>Close</stp>
-        <stp>43846</stp>
+        <stp>43853</stp>
         <tr r="I7" s="1"/>
       </tp>
       <tp>
-        <v>60.87</v>
+        <v>57.28</v>
+        <stp/>
+        <stp>data</stp>
+        <stp>XLE</stp>
+        <stp>Close</stp>
+        <stp>43853</stp>
+        <tr r="I5" s="1"/>
+      </tp>
+      <tp>
+        <v>30.78</v>
+        <stp/>
+        <stp>data</stp>
+        <stp>XLF</stp>
+        <stp>Close</stp>
+        <stp>43853</stp>
+        <tr r="I9" s="1"/>
+      </tp>
+      <tp>
+        <v>56.37</v>
+        <stp/>
+        <stp>data</stp>
+        <stp>XLC</stp>
+        <stp>Close</stp>
+        <stp>43853</stp>
+        <tr r="I12" s="1"/>
+      </tp>
+      <tp>
+        <v>60.17</v>
         <stp/>
         <stp>data</stp>
         <stp>XLB</stp>
         <stp>Close</stp>
-        <stp>43846</stp>
+        <stp>43853</stp>
         <tr r="I4" s="1"/>
       </tp>
       <tp>
-        <v>56.24</v>
-        <stp/>
-        <stp>data</stp>
-        <stp>XLC</stp>
-        <stp>Close</stp>
-        <stp>43846</stp>
-        <tr r="I12" s="1"/>
-      </tp>
-      <tp>
-        <v>59.5</v>
-        <stp/>
-        <stp>data</stp>
-        <stp>XLE</stp>
-        <stp>Close</stp>
-        <stp>43846</stp>
-        <tr r="I5" s="1"/>
-      </tp>
-      <tp>
-        <v>30.94</v>
-        <stp/>
-        <stp>data</stp>
-        <stp>XLF</stp>
-        <stp>Close</stp>
-        <stp>43846</stp>
-        <tr r="I9" s="1"/>
-      </tp>
-      <tp>
-        <v>127.54</v>
+        <v>127.73</v>
         <stp/>
         <stp>data</stp>
         <stp>XLY</stp>
         <stp>Close</stp>
-        <stp>43846</stp>
+        <stp>43853</stp>
         <tr r="I6" s="1"/>
       </tp>
       <tp>
-        <v>63.71</v>
+        <v>68.180000000000007</v>
+        <stp/>
+        <stp>data</stp>
+        <stp>XLU</stp>
+        <stp>Close</stp>
+        <stp>43853</stp>
+        <tr r="I3" s="1"/>
+      </tp>
+      <tp>
+        <v>104.2</v>
+        <stp/>
+        <stp>data</stp>
+        <stp>XLV</stp>
+        <stp>Close</stp>
+        <stp>43853</stp>
+        <tr r="I10" s="1"/>
+      </tp>
+      <tp>
+        <v>64.03</v>
         <stp/>
         <stp>data</stp>
         <stp>XLP</stp>
         <stp>Close</stp>
-        <stp>43846</stp>
+        <stp>43853</stp>
         <tr r="I11" s="1"/>
-      </tp>
-      <tp>
-        <v>66.3</v>
-        <stp/>
-        <stp>data</stp>
-        <stp>XLU</stp>
-        <stp>Close</stp>
-        <stp>43846</stp>
-        <tr r="I3" s="1"/>
-      </tp>
-      <tp>
-        <v>104.49</v>
-        <stp/>
-        <stp>data</stp>
-        <stp>XLV</stp>
-        <stp>Close</stp>
-        <stp>43846</stp>
-        <tr r="I10" s="1"/>
       </tp>
     </main>
     <main first="esrtd">
@@ -1418,25 +1418,12 @@
         <stp/>
         <tr r="L8" s="3"/>
       </tp>
-    </main>
-    <main first="esrtd">
       <tp t="s">
         <v/>
         <stp/>
         <stp>XLRE</stp>
         <stp>PrevPrice</stp>
         <tr r="H2" s="1"/>
-      </tp>
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>*H</stp>
-        <stp>XLK</stp>
-        <stp>Last</stp>
-        <stp>D</stp>
-        <stp>43846</stp>
-        <stp/>
-        <tr r="D7" s="1"/>
       </tp>
     </main>
     <main first="esrtd">
@@ -1459,6 +1446,19 @@
       <tp t="s">
         <v/>
         <stp/>
+        <stp>*H</stp>
+        <stp>XLK</stp>
+        <stp>Last</stp>
+        <stp>D</stp>
+        <stp>43853</stp>
+        <stp/>
+        <tr r="D7" s="1"/>
+      </tp>
+    </main>
+    <main first="esrtd">
+      <tp t="s">
+        <v/>
+        <stp/>
         <stp>ASML</stp>
         <stp>PRD_MTDReturn2</stp>
         <tr r="Q4" s="4"/>
@@ -1471,6 +1471,16 @@
         <tr r="Q2" s="4"/>
       </tp>
     </main>
+    <main first="telemetorion.rtdserver">
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>quote</stp>
+        <stp>VRSK</stp>
+        <stp>Net %</stp>
+        <tr r="Q6" s="9"/>
+      </tp>
+    </main>
     <main first="esrtd">
       <tp t="s">
         <v/>
@@ -1479,20 +1489,12 @@
         <stp>XLI</stp>
         <stp>Last</stp>
         <stp>D</stp>
-        <stp>43846</stp>
+        <stp>43853</stp>
         <stp/>
         <tr r="D8" s="1"/>
       </tp>
     </main>
     <main first="telemetorion.rtdserver">
-      <tp>
-        <v>0</v>
-        <stp/>
-        <stp>quote</stp>
-        <stp>VRSK</stp>
-        <stp>Net %</stp>
-        <tr r="Q6" s="9"/>
-      </tp>
       <tp>
         <v>3283.15</v>
         <stp/>
@@ -1519,8 +1521,15 @@
         <stp>Close</stp>
         <stp>43846</stp>
         <tr r="H226" s="11"/>
-        <tr r="B24" s="1"/>
-        <tr r="I13" s="1"/>
+      </tp>
+      <tp>
+        <v>3329.62</v>
+        <stp/>
+        <stp>data</stp>
+        <stp>SPX-I</stp>
+        <stp>Close</stp>
+        <stp>43847</stp>
+        <tr r="H227" s="11"/>
       </tp>
       <tp>
         <v>3265.35</v>
@@ -1539,6 +1548,35 @@
         <stp>Close</stp>
         <stp>43843</stp>
         <tr r="H223" s="11"/>
+      </tp>
+      <tp>
+        <v>3320.79</v>
+        <stp/>
+        <stp>data</stp>
+        <stp>SPX-I</stp>
+        <stp>Close</stp>
+        <stp>43851</stp>
+        <tr r="H228" s="11"/>
+      </tp>
+      <tp>
+        <v>3321.75</v>
+        <stp/>
+        <stp>data</stp>
+        <stp>SPX-I</stp>
+        <stp>Close</stp>
+        <stp>43852</stp>
+        <tr r="H229" s="11"/>
+      </tp>
+      <tp>
+        <v>3325.54</v>
+        <stp/>
+        <stp>data</stp>
+        <stp>SPX-I</stp>
+        <stp>Close</stp>
+        <stp>43853</stp>
+        <tr r="H230" s="11"/>
+        <tr r="I13" s="1"/>
+        <tr r="B24" s="1"/>
       </tp>
       <tp>
         <v>3253.04</v>
@@ -1584,12 +1622,12 @@
         <v/>
         <stp/>
         <stp>*H</stp>
-        <stp>XLC</stp>
+        <stp>XLB</stp>
         <stp>Last</stp>
         <stp>D</stp>
-        <stp>43846</stp>
+        <stp>43853</stp>
         <stp/>
-        <tr r="D12" s="1"/>
+        <tr r="D4" s="1"/>
       </tp>
     </main>
     <main first="esrtd">
@@ -1597,12 +1635,12 @@
         <v/>
         <stp/>
         <stp>*H</stp>
-        <stp>XLB</stp>
+        <stp>XLC</stp>
         <stp>Last</stp>
         <stp>D</stp>
-        <stp>43846</stp>
+        <stp>43853</stp>
         <stp/>
-        <tr r="D4" s="1"/>
+        <tr r="D12" s="1"/>
       </tp>
     </main>
     <main first="telemetorion.rtdserver">
@@ -1639,6 +1677,19 @@
       <tp t="s">
         <v/>
         <stp/>
+        <stp>*H</stp>
+        <stp>XLF</stp>
+        <stp>Last</stp>
+        <stp>D</stp>
+        <stp>43853</stp>
+        <stp/>
+        <tr r="D9" s="1"/>
+      </tp>
+    </main>
+    <main first="esrtd">
+      <tp t="s">
+        <v/>
+        <stp/>
         <stp>AMD</stp>
         <stp/>
         <tr r="L3" s="3"/>
@@ -1666,23 +1717,10 @@
         <v/>
         <stp/>
         <stp>*H</stp>
-        <stp>XLF</stp>
-        <stp>Last</stp>
-        <stp>D</stp>
-        <stp>43846</stp>
-        <stp/>
-        <tr r="D9" s="1"/>
-      </tp>
-    </main>
-    <main first="esrtd">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>*H</stp>
         <stp>XLE</stp>
         <stp>Last</stp>
         <stp>D</stp>
-        <stp>43846</stp>
+        <stp>43853</stp>
         <stp/>
         <tr r="D5" s="1"/>
       </tp>
@@ -1731,7 +1769,7 @@
         <stp>XLY</stp>
         <stp>Last</stp>
         <stp>D</stp>
-        <stp>43846</stp>
+        <stp>43853</stp>
         <stp/>
         <tr r="D6" s="1"/>
       </tp>
@@ -1777,13 +1815,31 @@
     </main>
     <main first="telemetorion.rtdserver">
       <tp>
-        <v>39.54</v>
+        <v>35.284199999999998</v>
         <stp/>
         <stp>data</stp>
-        <stp>XLRE</stp>
+        <stp>XLSR</stp>
         <stp>Close</stp>
-        <stp>43846</stp>
-        <tr r="I2" s="1"/>
+        <stp>43852</stp>
+        <tr r="AJ229" s="11"/>
+      </tp>
+      <tp>
+        <v>35.25</v>
+        <stp/>
+        <stp>data</stp>
+        <stp>XLSR</stp>
+        <stp>Close</stp>
+        <stp>43853</stp>
+        <tr r="AJ230" s="11"/>
+      </tp>
+      <tp>
+        <v>35.2288</v>
+        <stp/>
+        <stp>data</stp>
+        <stp>XLSR</stp>
+        <stp>Close</stp>
+        <stp>43851</stp>
+        <tr r="AJ228" s="11"/>
       </tp>
       <tp>
         <v>34.792499999999997</v>
@@ -1813,6 +1869,15 @@
         <tr r="AJ226" s="11"/>
       </tp>
       <tp>
+        <v>35.232599999999998</v>
+        <stp/>
+        <stp>data</stp>
+        <stp>XLSR</stp>
+        <stp>Close</stp>
+        <stp>43847</stp>
+        <tr r="AJ227" s="11"/>
+      </tp>
+      <tp>
         <v>34.693300000000001</v>
         <stp/>
         <stp>data</stp>
@@ -1829,6 +1894,15 @@
         <stp>Close</stp>
         <stp>43845</stp>
         <tr r="AJ225" s="11"/>
+      </tp>
+      <tp>
+        <v>40.049999999999997</v>
+        <stp/>
+        <stp>data</stp>
+        <stp>XLRE</stp>
+        <stp>Close</stp>
+        <stp>43853</stp>
+        <tr r="I2" s="1"/>
       </tp>
       <tp>
         <v>34.349200000000003</v>
@@ -1875,7 +1949,7 @@
         <stp>XLP</stp>
         <stp>Last</stp>
         <stp>D</stp>
-        <stp>43846</stp>
+        <stp>43853</stp>
         <stp/>
         <tr r="D11" s="1"/>
       </tp>
@@ -1888,16 +1962,6 @@
         <stp>XLSR</stp>
         <stp>Net %</stp>
         <tr r="W5" s="9"/>
-      </tp>
-    </main>
-    <main first="telemetorion.rtdserver">
-      <tp>
-        <v>0</v>
-        <stp/>
-        <stp>quote</stp>
-        <stp>LULU</stp>
-        <stp>Net %</stp>
-        <tr r="K8" s="3"/>
       </tp>
     </main>
     <main first="esrtd">
@@ -1908,7 +1972,7 @@
         <stp>XLV</stp>
         <stp>Last</stp>
         <stp>D</stp>
-        <stp>43846</stp>
+        <stp>43853</stp>
         <stp/>
         <tr r="D10" s="1"/>
       </tp>
@@ -1918,23 +1982,20 @@
         <v>0</v>
         <stp/>
         <stp>quote</stp>
+        <stp>LULU</stp>
+        <stp>Net %</stp>
+        <tr r="K8" s="3"/>
+      </tp>
+    </main>
+    <main first="telemetorion.rtdserver">
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>quote</stp>
         <stp>AMAT</stp>
         <stp>Net %</stp>
+        <tr r="K2" s="4"/>
         <tr r="K2" s="3"/>
-        <tr r="K2" s="4"/>
-      </tp>
-    </main>
-    <main first="esrtd">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>*H</stp>
-        <stp>XLU</stp>
-        <stp>Last</stp>
-        <stp>D</stp>
-        <stp>43846</stp>
-        <stp/>
-        <tr r="D3" s="1"/>
       </tp>
     </main>
     <main first="esrtd">
@@ -1954,6 +2015,19 @@
         <stp>WLTW</stp>
         <stp>Net %</stp>
         <tr r="Q7" s="9"/>
+      </tp>
+    </main>
+    <main first="esrtd">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>*H</stp>
+        <stp>XLU</stp>
+        <stp>Last</stp>
+        <stp>D</stp>
+        <stp>43853</stp>
+        <stp/>
+        <tr r="D3" s="1"/>
       </tp>
     </main>
     <main first="esrtd">
@@ -2125,22 +2199,9 @@
         <stp/>
         <stp>ASML</stp>
         <stp>% Change</stp>
+        <tr r="E4" s="3"/>
         <tr r="G4" s="4"/>
-        <tr r="E4" s="3"/>
         <tr r="V4" s="4"/>
-      </tp>
-    </main>
-    <main first="esrtd">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>*H</stp>
-        <stp>XLRE</stp>
-        <stp>Last</stp>
-        <stp>D</stp>
-        <stp>43846</stp>
-        <stp/>
-        <tr r="D2" s="1"/>
       </tp>
     </main>
     <main first="telemetorion.rtdserver">
@@ -2196,6 +2257,19 @@
         <stp>XLB</stp>
         <stp>Net %</stp>
         <tr r="Q12" s="9"/>
+      </tp>
+    </main>
+    <main first="esrtd">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>*H</stp>
+        <stp>XLRE</stp>
+        <stp>Last</stp>
+        <stp>D</stp>
+        <stp>43853</stp>
+        <stp/>
+        <tr r="D2" s="1"/>
       </tp>
     </main>
     <main first="esrtd">
@@ -2250,9 +2324,9 @@
         <stp/>
         <stp>LRCX</stp>
         <stp>BETA</stp>
+        <tr r="L4" s="9"/>
+        <tr r="F7" s="4"/>
         <tr r="F7" s="3"/>
-        <tr r="F7" s="4"/>
-        <tr r="L4" s="9"/>
         <tr r="P7" s="4"/>
       </tp>
     </main>
@@ -2357,8 +2431,8 @@
         <stp>KLAC</stp>
         <stp>BETA</stp>
         <tr r="F6" s="4"/>
+        <tr r="F6" s="3"/>
         <tr r="L3" s="9"/>
-        <tr r="F6" s="3"/>
         <tr r="P6" s="4"/>
       </tp>
       <tp t="s">
@@ -2418,8 +2492,8 @@
         <stp>AMAT</stp>
         <stp>% Change</stp>
         <tr r="E2" s="3"/>
+        <tr r="V2" s="4"/>
         <tr r="G2" s="4"/>
-        <tr r="V2" s="4"/>
       </tp>
     </main>
     <main first="esrtd">
@@ -2428,8 +2502,8 @@
         <stp/>
         <stp>KLAC</stp>
         <stp>% Change</stp>
+        <tr r="M3" s="9"/>
         <tr r="G6" s="4"/>
-        <tr r="M3" s="9"/>
         <tr r="E6" s="3"/>
         <tr r="V6" s="4"/>
       </tp>
@@ -2440,9 +2514,9 @@
         <stp/>
         <stp>LRCX</stp>
         <stp>% Change</stp>
+        <tr r="E7" s="3"/>
         <tr r="G7" s="4"/>
         <tr r="M4" s="9"/>
-        <tr r="E7" s="3"/>
         <tr r="V7" s="4"/>
       </tp>
     </main>
@@ -2717,7 +2791,7 @@
   <dimension ref="A1:Y39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2747,7 +2821,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="13">
-        <v>43846</v>
+        <v>43853</v>
       </c>
       <c r="H1" t="s">
         <v>55</v>
@@ -2812,11 +2886,11 @@
       </c>
       <c r="I2" s="9">
         <f>RTD("telemetorion.rtdserver","","data",$A2,"Close",$G$1)</f>
-        <v>39.54</v>
+        <v>40.049999999999997</v>
       </c>
       <c r="J2">
         <f>I2*E2</f>
-        <v>7156.74</v>
+        <v>7249.0499999999993</v>
       </c>
       <c r="M2">
         <f t="shared" ref="M2:M12" si="0">$M$1*B2</f>
@@ -2890,11 +2964,11 @@
       </c>
       <c r="I3" s="9">
         <f>RTD("telemetorion.rtdserver","","data",$A3,"Close",$G$1)</f>
-        <v>66.3</v>
+        <v>68.180000000000007</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J12" si="6">I3*E3</f>
-        <v>7160.4</v>
+        <v>7363.4400000000005</v>
       </c>
       <c r="M3">
         <f t="shared" si="0"/>
@@ -2968,11 +3042,11 @@
       </c>
       <c r="I4" s="9">
         <f>RTD("telemetorion.rtdserver","","data",$A4,"Close",$G$1)</f>
-        <v>60.87</v>
+        <v>60.17</v>
       </c>
       <c r="J4">
         <f t="shared" si="6"/>
-        <v>4686.99</v>
+        <v>4633.09</v>
       </c>
       <c r="M4">
         <f t="shared" si="0"/>
@@ -3046,11 +3120,11 @@
       </c>
       <c r="I5" s="9">
         <f>RTD("telemetorion.rtdserver","","data",$A5,"Close",$G$1)</f>
-        <v>59.5</v>
+        <v>57.28</v>
       </c>
       <c r="J5">
         <f t="shared" si="6"/>
-        <v>1130.5</v>
+        <v>1088.32</v>
       </c>
       <c r="M5">
         <f t="shared" si="0"/>
@@ -3124,11 +3198,11 @@
       </c>
       <c r="I6" s="9">
         <f>RTD("telemetorion.rtdserver","","data",$A6,"Close",$G$1)</f>
-        <v>127.54</v>
+        <v>127.73</v>
       </c>
       <c r="J6">
         <f t="shared" si="6"/>
-        <v>1147.8600000000001</v>
+        <v>1149.57</v>
       </c>
       <c r="M6">
         <f t="shared" si="0"/>
@@ -3202,7 +3276,7 @@
       </c>
       <c r="I7" s="9">
         <f>RTD("telemetorion.rtdserver","","data",$A7,"Close",$G$1)</f>
-        <v>96.47</v>
+        <v>97.89</v>
       </c>
       <c r="J7">
         <f t="shared" si="6"/>
@@ -3261,7 +3335,7 @@
       </c>
       <c r="I8" s="9">
         <f>RTD("telemetorion.rtdserver","","data",$A8,"Close",$G$1)</f>
-        <v>84.4</v>
+        <v>83.94</v>
       </c>
       <c r="J8">
         <f t="shared" si="6"/>
@@ -3320,7 +3394,7 @@
       </c>
       <c r="I9" s="9">
         <f>RTD("telemetorion.rtdserver","","data",$A9,"Close",$G$1)</f>
-        <v>30.94</v>
+        <v>30.78</v>
       </c>
       <c r="J9">
         <f t="shared" si="6"/>
@@ -3379,7 +3453,7 @@
       </c>
       <c r="I10" s="9">
         <f>RTD("telemetorion.rtdserver","","data",$A10,"Close",$G$1)</f>
-        <v>104.49</v>
+        <v>104.2</v>
       </c>
       <c r="J10">
         <f t="shared" si="6"/>
@@ -3438,7 +3512,7 @@
       </c>
       <c r="I11" s="9">
         <f>RTD("telemetorion.rtdserver","","data",$A11,"Close",$G$1)</f>
-        <v>63.71</v>
+        <v>64.03</v>
       </c>
       <c r="J11">
         <f t="shared" si="6"/>
@@ -3497,7 +3571,7 @@
       </c>
       <c r="I12" s="9">
         <f>RTD("telemetorion.rtdserver","","data",$A12,"Close",$G$1)</f>
-        <v>56.24</v>
+        <v>56.37</v>
       </c>
       <c r="J12">
         <f t="shared" si="6"/>
@@ -3547,7 +3621,7 @@
       </c>
       <c r="I13" s="9">
         <f>RTD("telemetorion.rtdserver","","data",$A13,"Close",$G$1)</f>
-        <v>3316.8</v>
+        <v>3325.54</v>
       </c>
       <c r="R13" t="str">
         <f t="shared" si="4"/>
@@ -3575,7 +3649,7 @@
       </c>
       <c r="I15">
         <f>SUM(J2:J12)</f>
-        <v>21282.489999999998</v>
+        <v>21483.47</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
@@ -3610,7 +3684,7 @@
       </c>
       <c r="B24" s="9">
         <f>RTD("telemetorion.rtdserver","","data",$A24,"Close",$G$1)</f>
-        <v>3316.8</v>
+        <v>3325.54</v>
       </c>
       <c r="C24" s="9"/>
     </row>
@@ -3703,13 +3777,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AP226"/>
+  <dimension ref="A1:AP230"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B204" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B198" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I237" sqref="I237"/>
+      <selection pane="bottomRight" activeCell="N230" sqref="N230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39131,19 +39205,19 @@
         <v>129.1</v>
       </c>
       <c r="D222">
-        <f t="shared" ref="D222:D226" si="4496">B222+C222</f>
+        <f t="shared" ref="D222:D230" si="4496">B222+C222</f>
         <v>20939.25</v>
       </c>
       <c r="E222" s="14">
-        <f t="shared" ref="E222:E226" si="4497">B222/D222</f>
+        <f t="shared" ref="E222:E230" si="4497">B222/D222</f>
         <v>0.99383454517234382</v>
       </c>
       <c r="F222" s="14">
-        <f t="shared" ref="F222:F226" si="4498">C222/D222</f>
+        <f t="shared" ref="F222:F230" si="4498">C222/D222</f>
         <v>6.1654548276561952E-3</v>
       </c>
       <c r="G222" s="1">
-        <f t="shared" ref="G222:G226" si="4499">SUM(E222:F222)</f>
+        <f t="shared" ref="G222:G230" si="4499">SUM(E222:F222)</f>
         <v>1</v>
       </c>
       <c r="H222" s="15">
@@ -39943,6 +40017,666 @@
       <c r="AP226" s="1">
         <f>MIN(0,(AB226/MAX($AB$3:AB225)-1))</f>
         <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A227" s="13">
+        <v>43847</v>
+      </c>
+      <c r="B227">
+        <v>21358.84</v>
+      </c>
+      <c r="C227">
+        <v>129.1</v>
+      </c>
+      <c r="D227">
+        <f t="shared" si="4496"/>
+        <v>21487.94</v>
+      </c>
+      <c r="E227" s="14">
+        <f t="shared" si="4497"/>
+        <v>0.99399197875645606</v>
+      </c>
+      <c r="F227" s="14">
+        <f t="shared" si="4498"/>
+        <v>6.0080212435440535E-3</v>
+      </c>
+      <c r="G227" s="1">
+        <f t="shared" si="4499"/>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="H227" s="15">
+        <f>RTD("telemetorion.rtdserver","","data","SPX-I","Close",$A227)</f>
+        <v>3329.62</v>
+      </c>
+      <c r="I227" s="2">
+        <f t="shared" ref="I227" si="4625">H227/H226-1</f>
+        <v>3.8651712493968926E-3</v>
+      </c>
+      <c r="J227" s="2">
+        <f t="shared" ref="J227" si="4626">D227/D226-1</f>
+        <v>3.5658257980839547E-3</v>
+      </c>
+      <c r="K227" s="9">
+        <f t="shared" ref="K227" si="4627">K226*(1+I227)</f>
+        <v>119.5773732353143</v>
+      </c>
+      <c r="L227" s="9">
+        <f t="shared" ref="L227" si="4628">L226*(1+J227)</f>
+        <v>123.75607177042868</v>
+      </c>
+      <c r="M227" s="50">
+        <f t="shared" ref="M227" si="4629">K227/$K$215-1</f>
+        <v>3.0593231355895423E-2</v>
+      </c>
+      <c r="N227" s="50">
+        <f t="shared" ref="N227" si="4630">L227/$L$215-1</f>
+        <v>2.03573444993006E-2</v>
+      </c>
+      <c r="O227" s="22">
+        <f t="shared" ref="O227" si="4631">K227/$K$3-1</f>
+        <v>0.19577373235314299</v>
+      </c>
+      <c r="P227" s="34">
+        <f t="shared" ref="P227" si="4632">L227/$L$3-1</f>
+        <v>0.23756071770428666</v>
+      </c>
+      <c r="Q227" s="4">
+        <v>21358.84</v>
+      </c>
+      <c r="R227">
+        <f t="shared" ref="R227" si="4633">Q227+C227</f>
+        <v>21487.94</v>
+      </c>
+      <c r="S227" s="25">
+        <f t="shared" ref="S227" si="4634">R227/R226-1</f>
+        <v>3.5658257980841768E-3</v>
+      </c>
+      <c r="T227" s="26">
+        <f t="shared" ref="T227" si="4635">R227/$R$215-1</f>
+        <v>2.0357344499300156E-2</v>
+      </c>
+      <c r="U227" s="26">
+        <f t="shared" ref="U227" si="4636">R227/$R$215-1</f>
+        <v>2.0357344499300156E-2</v>
+      </c>
+      <c r="V227" s="2">
+        <f t="shared" ref="V227" si="4637">AG227-AC227</f>
+        <v>-1.1551718448329362E-2</v>
+      </c>
+      <c r="W227" s="2">
+        <f t="shared" ref="W227" si="4638">U227-AD227</f>
+        <v>-1.106674954409903E-2</v>
+      </c>
+      <c r="X227" s="14">
+        <f t="shared" ref="X227" si="4639">MIN(0,(AB227/AB$3-1))</f>
+        <v>0</v>
+      </c>
+      <c r="Y227" s="14">
+        <f t="shared" ref="Y227" si="4640">MIN(0,(L227/L$3-1))</f>
+        <v>0</v>
+      </c>
+      <c r="Z227" s="45">
+        <v>6759.51</v>
+      </c>
+      <c r="AA227" s="2">
+        <f t="shared" ref="AA227" si="4641">Z227/Z226-1</f>
+        <v>3.8851388981711032E-3</v>
+      </c>
+      <c r="AB227" s="9">
+        <f t="shared" ref="AB227" si="4642">AB226*(1+AA227)</f>
+        <v>121.65071834917359</v>
+      </c>
+      <c r="AC227" s="50">
+        <f t="shared" ref="AC227" si="4643">AB227/$AB$215-1</f>
+        <v>3.1424094043399187E-2</v>
+      </c>
+      <c r="AD227" s="37">
+        <f t="shared" ref="AD227" si="4644">AB227/$AB$215-1</f>
+        <v>3.1424094043399187E-2</v>
+      </c>
+      <c r="AE227" s="14">
+        <f t="shared" ref="AE227" si="4645">J227-($AE$1/252)</f>
+        <v>3.5261432584014151E-3</v>
+      </c>
+      <c r="AF227">
+        <f t="shared" ref="AF227" si="4646">AF226*(1+AE227)</f>
+        <v>122.66674951814872</v>
+      </c>
+      <c r="AG227" s="14">
+        <f t="shared" ref="AG227" si="4647">AF227/$AF$215-1</f>
+        <v>1.9872375595069824E-2</v>
+      </c>
+      <c r="AH227" s="14">
+        <f t="shared" ref="AH227" si="4648">AF227/$AF$215-1</f>
+        <v>1.9872375595069824E-2</v>
+      </c>
+      <c r="AI227" s="14">
+        <f t="shared" ref="AI227" si="4649">AH227-AD227</f>
+        <v>-1.1551718448329362E-2</v>
+      </c>
+      <c r="AJ227" s="27">
+        <f>RTD("telemetorion.rtdserver","","data","XLSR","Close",$A227)</f>
+        <v>35.232599999999998</v>
+      </c>
+      <c r="AK227" s="2">
+        <f t="shared" ref="AK227" si="4650">AJ227/AJ226-1</f>
+        <v>4.252723510264067E-3</v>
+      </c>
+      <c r="AL227" s="9">
+        <f t="shared" ref="AL227" si="4651">AL226*(1+AK227)</f>
+        <v>116.60554952474243</v>
+      </c>
+      <c r="AM227" s="2">
+        <f t="shared" ref="AM227" si="4652">AL227/$AL$215-1</f>
+        <v>3.321407624633399E-2</v>
+      </c>
+      <c r="AN227" s="2">
+        <f t="shared" ref="AN227" si="4653">AL227/$AL$215-1</f>
+        <v>3.321407624633399E-2</v>
+      </c>
+      <c r="AO227" s="1">
+        <f>MIN(0,(AF227/MAX($AF$3:AF226)-1))</f>
+        <v>0</v>
+      </c>
+      <c r="AP227" s="1">
+        <f>MIN(0,(AB227/MAX($AB$3:AB226)-1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A228" s="13">
+        <v>43851</v>
+      </c>
+      <c r="B228">
+        <v>21422.65</v>
+      </c>
+      <c r="C228">
+        <v>129.1</v>
+      </c>
+      <c r="D228">
+        <f t="shared" si="4496"/>
+        <v>21551.75</v>
+      </c>
+      <c r="E228" s="14">
+        <f t="shared" si="4497"/>
+        <v>0.99400976718827949</v>
+      </c>
+      <c r="F228" s="14">
+        <f t="shared" si="4498"/>
+        <v>5.9902328117206255E-3</v>
+      </c>
+      <c r="G228" s="1">
+        <f t="shared" si="4499"/>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="H228" s="15">
+        <f>RTD("telemetorion.rtdserver","","data","SPX-I","Close",$A228)</f>
+        <v>3320.79</v>
+      </c>
+      <c r="I228" s="2">
+        <f t="shared" ref="I228" si="4654">H228/H227-1</f>
+        <v>-2.6519542770646609E-3</v>
+      </c>
+      <c r="J228" s="2">
+        <f t="shared" ref="J228" si="4655">D228/D227-1</f>
+        <v>2.969572699849321E-3</v>
+      </c>
+      <c r="K228" s="9">
+        <f t="shared" ref="K228" si="4656">K227*(1+I228)</f>
+        <v>119.26025950892274</v>
+      </c>
+      <c r="L228" s="9">
+        <f t="shared" ref="L228" si="4657">L227*(1+J228)</f>
+        <v>124.12357442259874</v>
+      </c>
+      <c r="M228" s="50">
+        <f t="shared" ref="M228" si="4658">K228/$K$215-1</f>
+        <v>2.786014522808733E-2</v>
+      </c>
+      <c r="N228" s="50">
+        <f t="shared" ref="N228" si="4659">L228/$L$215-1</f>
+        <v>2.3387369813616443E-2</v>
+      </c>
+      <c r="O228" s="22">
+        <f t="shared" ref="O228" si="4660">K228/$K$3-1</f>
+        <v>0.19260259508922739</v>
+      </c>
+      <c r="P228" s="34">
+        <f t="shared" ref="P228" si="4661">L228/$L$3-1</f>
+        <v>0.24123574422598737</v>
+      </c>
+      <c r="Q228" s="4">
+        <v>21422.65</v>
+      </c>
+      <c r="R228">
+        <f t="shared" ref="R228" si="4662">Q228+C228</f>
+        <v>21551.75</v>
+      </c>
+      <c r="S228" s="25">
+        <f t="shared" ref="S228" si="4663">R228/R227-1</f>
+        <v>2.969572699849321E-3</v>
+      </c>
+      <c r="T228" s="26">
+        <f t="shared" ref="T228" si="4664">R228/$R$215-1</f>
+        <v>2.3387369813616221E-2</v>
+      </c>
+      <c r="U228" s="26">
+        <f t="shared" ref="U228" si="4665">R228/$R$215-1</f>
+        <v>2.3387369813616221E-2</v>
+      </c>
+      <c r="V228" s="2">
+        <f t="shared" ref="V228" si="4666">AG228-AC228</f>
+        <v>-5.8475275241089975E-3</v>
+      </c>
+      <c r="W228" s="2">
+        <f t="shared" ref="W228" si="4667">U228-AD228</f>
+        <v>-5.3206473434446178E-3</v>
+      </c>
+      <c r="X228" s="14">
+        <f t="shared" ref="X228" si="4668">MIN(0,(AB228/AB$3-1))</f>
+        <v>0</v>
+      </c>
+      <c r="Y228" s="14">
+        <f t="shared" ref="Y228" si="4669">MIN(0,(L228/L$3-1))</f>
+        <v>0</v>
+      </c>
+      <c r="Z228" s="45">
+        <v>6741.71</v>
+      </c>
+      <c r="AA228" s="2">
+        <f t="shared" ref="AA228" si="4670">Z228/Z227-1</f>
+        <v>-2.6333269719255314E-3</v>
+      </c>
+      <c r="AB228" s="9">
+        <f t="shared" ref="AB228" si="4671">AB227*(1+AA228)</f>
+        <v>121.3303722313906</v>
+      </c>
+      <c r="AC228" s="50">
+        <f t="shared" ref="AC228" si="4672">AB228/$AB$215-1</f>
+        <v>2.8708017157060839E-2</v>
+      </c>
+      <c r="AD228" s="37">
+        <f t="shared" ref="AD228" si="4673">AB228/$AB$215-1</f>
+        <v>2.8708017157060839E-2</v>
+      </c>
+      <c r="AE228" s="14">
+        <f t="shared" ref="AE228" si="4674">J228-($AE$1/252)</f>
+        <v>2.9298901601667814E-3</v>
+      </c>
+      <c r="AF228">
+        <f t="shared" ref="AF228" si="4675">AF227*(1+AE228)</f>
+        <v>123.0261496205416</v>
+      </c>
+      <c r="AG228" s="14">
+        <f t="shared" ref="AG228" si="4676">AF228/$AF$215-1</f>
+        <v>2.2860489632951841E-2</v>
+      </c>
+      <c r="AH228" s="14">
+        <f t="shared" ref="AH228" si="4677">AF228/$AF$215-1</f>
+        <v>2.2860489632951841E-2</v>
+      </c>
+      <c r="AI228" s="14">
+        <f t="shared" ref="AI228" si="4678">AH228-AD228</f>
+        <v>-5.8475275241089975E-3</v>
+      </c>
+      <c r="AJ228" s="27">
+        <f>RTD("telemetorion.rtdserver","","data","XLSR","Close",$A228)</f>
+        <v>35.2288</v>
+      </c>
+      <c r="AK228" s="2">
+        <f t="shared" ref="AK228" si="4679">AJ228/AJ227-1</f>
+        <v>-1.0785465733431643E-4</v>
+      </c>
+      <c r="AL228" s="9">
+        <f t="shared" ref="AL228" si="4680">AL227*(1+AK228)</f>
+        <v>116.59297307315516</v>
+      </c>
+      <c r="AM228" s="2">
+        <f t="shared" ref="AM228" si="4681">AL228/$AL$215-1</f>
+        <v>3.3102639296187508E-2</v>
+      </c>
+      <c r="AN228" s="2">
+        <f t="shared" ref="AN228" si="4682">AL228/$AL$215-1</f>
+        <v>3.3102639296187508E-2</v>
+      </c>
+      <c r="AO228" s="1">
+        <f>MIN(0,(AF228/MAX($AF$3:AF227)-1))</f>
+        <v>0</v>
+      </c>
+      <c r="AP228" s="1">
+        <f>MIN(0,(AB228/MAX($AB$3:AB227)-1))</f>
+        <v>-2.6333269719255314E-3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A229" s="13">
+        <v>43852</v>
+      </c>
+      <c r="B229">
+        <v>21357.75</v>
+      </c>
+      <c r="C229">
+        <v>129.1</v>
+      </c>
+      <c r="D229">
+        <f t="shared" si="4496"/>
+        <v>21486.85</v>
+      </c>
+      <c r="E229" s="14">
+        <f t="shared" si="4497"/>
+        <v>0.99399167397733967</v>
+      </c>
+      <c r="F229" s="14">
+        <f t="shared" si="4498"/>
+        <v>6.0083260226603714E-3</v>
+      </c>
+      <c r="G229" s="1">
+        <f t="shared" si="4499"/>
+        <v>1</v>
+      </c>
+      <c r="H229" s="15">
+        <f>RTD("telemetorion.rtdserver","","data","SPX-I","Close",$A229)</f>
+        <v>3321.75</v>
+      </c>
+      <c r="I229" s="2">
+        <f t="shared" ref="I229" si="4683">H229/H228-1</f>
+        <v>2.8908783753256451E-4</v>
+      </c>
+      <c r="J229" s="2">
+        <f t="shared" ref="J229" si="4684">D229/D228-1</f>
+        <v>-3.0113563863723991E-3</v>
+      </c>
+      <c r="K229" s="9">
+        <f t="shared" ref="K229" si="4685">K228*(1+I229)</f>
+        <v>119.29473619944775</v>
+      </c>
+      <c r="L229" s="9">
+        <f t="shared" ref="L229" si="4686">L228*(1+J229)</f>
+        <v>123.74979410406188</v>
+      </c>
+      <c r="M229" s="50">
+        <f t="shared" ref="M229" si="4687">K229/$K$215-1</f>
+        <v>2.8157287094757288E-2</v>
+      </c>
+      <c r="N229" s="50">
+        <f t="shared" ref="N229" si="4688">L229/$L$215-1</f>
+        <v>2.0305585721795527E-2</v>
+      </c>
+      <c r="O229" s="22">
+        <f t="shared" ref="O229" si="4689">K229/$K$3-1</f>
+        <v>0.19294736199447748</v>
+      </c>
+      <c r="P229" s="34">
+        <f t="shared" ref="P229" si="4690">L229/$L$3-1</f>
+        <v>0.23749794104061883</v>
+      </c>
+      <c r="Q229" s="4">
+        <v>21357.75</v>
+      </c>
+      <c r="R229">
+        <f t="shared" ref="R229" si="4691">Q229+C229</f>
+        <v>21486.85</v>
+      </c>
+      <c r="S229" s="25">
+        <f t="shared" ref="S229" si="4692">R229/R228-1</f>
+        <v>-3.0113563863723991E-3</v>
+      </c>
+      <c r="T229" s="26">
+        <f t="shared" ref="T229" si="4693">R229/$R$215-1</f>
+        <v>2.0305585721795083E-2</v>
+      </c>
+      <c r="U229" s="26">
+        <f t="shared" ref="U229" si="4694">R229/$R$215-1</f>
+        <v>2.0305585721795083E-2</v>
+      </c>
+      <c r="V229" s="2">
+        <f t="shared" ref="V229" si="4695">AG229-AC229</f>
+        <v>-9.3024837040758257E-3</v>
+      </c>
+      <c r="W229" s="2">
+        <f t="shared" ref="W229" si="4696">U229-AD229</f>
+        <v>-8.7366004454387802E-3</v>
+      </c>
+      <c r="X229" s="14">
+        <f t="shared" ref="X229" si="4697">MIN(0,(AB229/AB$3-1))</f>
+        <v>0</v>
+      </c>
+      <c r="Y229" s="14">
+        <f t="shared" ref="Y229" si="4698">MIN(0,(L229/L$3-1))</f>
+        <v>0</v>
+      </c>
+      <c r="Z229" s="45">
+        <v>6743.9</v>
+      </c>
+      <c r="AA229" s="2">
+        <f t="shared" ref="AA229" si="4699">Z229/Z228-1</f>
+        <v>3.248434002649514E-4</v>
+      </c>
+      <c r="AB229" s="9">
+        <f t="shared" ref="AB229" si="4700">AB228*(1+AA229)</f>
+        <v>121.36978560206165</v>
+      </c>
+      <c r="AC229" s="50">
+        <f t="shared" ref="AC229" si="4701">AB229/$AB$215-1</f>
+        <v>2.9042186167233863E-2</v>
+      </c>
+      <c r="AD229" s="37">
+        <f t="shared" ref="AD229" si="4702">AB229/$AB$215-1</f>
+        <v>2.9042186167233863E-2</v>
+      </c>
+      <c r="AE229" s="14">
+        <f t="shared" ref="AE229" si="4703">J229-($AE$1/252)</f>
+        <v>-3.0510389260549387E-3</v>
+      </c>
+      <c r="AF229">
+        <f t="shared" ref="AF229" si="4704">AF228*(1+AE229)</f>
+        <v>122.65079204912666</v>
+      </c>
+      <c r="AG229" s="14">
+        <f t="shared" ref="AG229" si="4705">AF229/$AF$215-1</f>
+        <v>1.9739702463158038E-2</v>
+      </c>
+      <c r="AH229" s="14">
+        <f t="shared" ref="AH229" si="4706">AF229/$AF$215-1</f>
+        <v>1.9739702463158038E-2</v>
+      </c>
+      <c r="AI229" s="14">
+        <f t="shared" ref="AI229" si="4707">AH229-AD229</f>
+        <v>-9.3024837040758257E-3</v>
+      </c>
+      <c r="AJ229" s="27">
+        <f>RTD("telemetorion.rtdserver","","data","XLSR","Close",$A229)</f>
+        <v>35.284199999999998</v>
+      </c>
+      <c r="AK229" s="2">
+        <f t="shared" ref="AK229" si="4708">AJ229/AJ228-1</f>
+        <v>1.5725769824688207E-3</v>
+      </c>
+      <c r="AL229" s="9">
+        <f t="shared" ref="AL229" si="4709">AL228*(1+AK229)</f>
+        <v>116.77632449892762</v>
+      </c>
+      <c r="AM229" s="2">
+        <f t="shared" ref="AM229" si="4710">AL229/$AL$215-1</f>
+        <v>3.4727272727272718E-2</v>
+      </c>
+      <c r="AN229" s="2">
+        <f t="shared" ref="AN229" si="4711">AL229/$AL$215-1</f>
+        <v>3.4727272727272718E-2</v>
+      </c>
+      <c r="AO229" s="1">
+        <f>MIN(0,(AF229/MAX($AF$3:AF228)-1))</f>
+        <v>-3.0510389260549609E-3</v>
+      </c>
+      <c r="AP229" s="1">
+        <f>MIN(0,(AB229/MAX($AB$3:AB228)-1))</f>
+        <v>-2.3093389905480821E-3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A230" s="13">
+        <v>43853</v>
+      </c>
+      <c r="B230">
+        <v>21483.47</v>
+      </c>
+      <c r="C230">
+        <v>129.1</v>
+      </c>
+      <c r="D230">
+        <f t="shared" si="4496"/>
+        <v>21612.57</v>
+      </c>
+      <c r="E230" s="14">
+        <f t="shared" si="4497"/>
+        <v>0.99402662432093924</v>
+      </c>
+      <c r="F230" s="14">
+        <f t="shared" si="4498"/>
+        <v>5.9733756790608427E-3</v>
+      </c>
+      <c r="G230" s="1">
+        <f t="shared" si="4499"/>
+        <v>1</v>
+      </c>
+      <c r="H230" s="15">
+        <f>RTD("telemetorion.rtdserver","","data","SPX-I","Close",$A230)</f>
+        <v>3325.54</v>
+      </c>
+      <c r="I230" s="2">
+        <f t="shared" ref="I230" si="4712">H230/H229-1</f>
+        <v>1.1409648528637462E-3</v>
+      </c>
+      <c r="J230" s="2">
+        <f t="shared" ref="J230" si="4713">D230/D229-1</f>
+        <v>5.8510205078921018E-3</v>
+      </c>
+      <c r="K230" s="9">
+        <f t="shared" ref="K230" si="4714">K229*(1+I230)</f>
+        <v>119.43084730058298</v>
+      </c>
+      <c r="L230" s="9">
+        <f t="shared" ref="L230" si="4715">L229*(1+J230)</f>
+        <v>124.47385668721216</v>
+      </c>
+      <c r="M230" s="50">
+        <f t="shared" ref="M230" si="4716">K230/$K$215-1</f>
+        <v>2.9330378422548042E-2</v>
+      </c>
+      <c r="N230" s="50">
+        <f t="shared" ref="N230" si="4717">L230/$L$215-1</f>
+        <v>2.6275414628170513E-2</v>
+      </c>
+      <c r="O230" s="22">
+        <f t="shared" ref="O230" si="4718">K230/$K$3-1</f>
+        <v>0.19430847300582976</v>
+      </c>
+      <c r="P230" s="34">
+        <f t="shared" ref="P230" si="4719">L230/$L$3-1</f>
+        <v>0.24473856687212159</v>
+      </c>
+      <c r="Q230" s="4">
+        <v>21483.47</v>
+      </c>
+      <c r="R230">
+        <f t="shared" ref="R230" si="4720">Q230+C230</f>
+        <v>21612.57</v>
+      </c>
+      <c r="S230" s="25">
+        <f t="shared" ref="S230" si="4721">R230/R229-1</f>
+        <v>5.8510205078921018E-3</v>
+      </c>
+      <c r="T230" s="26">
+        <f t="shared" ref="T230" si="4722">R230/$R$215-1</f>
+        <v>2.6275414628170068E-2</v>
+      </c>
+      <c r="U230" s="26">
+        <f t="shared" ref="U230" si="4723">R230/$R$215-1</f>
+        <v>2.6275414628170068E-2</v>
+      </c>
+      <c r="V230" s="2">
+        <f t="shared" ref="V230" si="4724">AG230-AC230</f>
+        <v>-4.6261321983549486E-3</v>
+      </c>
+      <c r="W230" s="2">
+        <f t="shared" ref="W230" si="4725">U230-AD230</f>
+        <v>-4.0164720839577228E-3</v>
+      </c>
+      <c r="X230" s="14">
+        <f t="shared" ref="X230" si="4726">MIN(0,(AB230/AB$3-1))</f>
+        <v>0</v>
+      </c>
+      <c r="Y230" s="14">
+        <f t="shared" ref="Y230" si="4727">MIN(0,(L230/L$3-1))</f>
+        <v>0</v>
+      </c>
+      <c r="Z230" s="45">
+        <v>6752.09</v>
+      </c>
+      <c r="AA230" s="2">
+        <f t="shared" ref="AA230" si="4728">Z230/Z229-1</f>
+        <v>1.214430818962331E-3</v>
+      </c>
+      <c r="AB230" s="9">
+        <f t="shared" ref="AB230" si="4729">AB229*(1+AA230)</f>
+        <v>121.51718081018765</v>
+      </c>
+      <c r="AC230" s="50">
+        <f t="shared" ref="AC230" si="4730">AB230/$AB$215-1</f>
+        <v>3.0291886712127791E-2</v>
+      </c>
+      <c r="AD230" s="37">
+        <f t="shared" ref="AD230" si="4731">AB230/$AB$215-1</f>
+        <v>3.0291886712127791E-2</v>
+      </c>
+      <c r="AE230" s="14">
+        <f t="shared" ref="AE230" si="4732">J230-($AE$1/252)</f>
+        <v>5.8113379682095618E-3</v>
+      </c>
+      <c r="AF230">
+        <f t="shared" ref="AF230" si="4733">AF229*(1+AE230)</f>
+        <v>123.36355725379273</v>
+      </c>
+      <c r="AG230" s="14">
+        <f t="shared" ref="AG230" si="4734">AF230/$AF$215-1</f>
+        <v>2.5665754513772843E-2</v>
+      </c>
+      <c r="AH230" s="14">
+        <f t="shared" ref="AH230" si="4735">AF230/$AF$215-1</f>
+        <v>2.5665754513772843E-2</v>
+      </c>
+      <c r="AI230" s="14">
+        <f t="shared" ref="AI230" si="4736">AH230-AD230</f>
+        <v>-4.6261321983549486E-3</v>
+      </c>
+      <c r="AJ230" s="27">
+        <f>RTD("telemetorion.rtdserver","","data","XLSR","Close",$A230)</f>
+        <v>35.25</v>
+      </c>
+      <c r="AK230" s="2">
+        <f t="shared" ref="AK230" si="4737">AJ230/AJ229-1</f>
+        <v>-9.692723655346791E-4</v>
+      </c>
+      <c r="AL230" s="9">
+        <f t="shared" ref="AL230" si="4738">AL229*(1+AK230)</f>
+        <v>116.6631364346421</v>
+      </c>
+      <c r="AM230" s="2">
+        <f t="shared" ref="AM230" si="4739">AL230/$AL$215-1</f>
+        <v>3.3724340175953049E-2</v>
+      </c>
+      <c r="AN230" s="2">
+        <f t="shared" ref="AN230" si="4740">AL230/$AL$215-1</f>
+        <v>3.3724340175953049E-2</v>
+      </c>
+      <c r="AO230" s="1">
+        <f>MIN(0,(AF230/MAX($AF$3:AF229)-1))</f>
+        <v>0</v>
+      </c>
+      <c r="AP230" s="1">
+        <f>MIN(0,(AB230/MAX($AB$3:AB229)-1))</f>
+        <v>-1.0977127040272538E-3</v>
       </c>
     </row>
   </sheetData>
@@ -40102,7 +40836,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S3:S226">
+  <conditionalFormatting sqref="S3:S230">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -40126,7 +40860,7 @@
   <dimension ref="A1:R107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40525,7 +41259,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="55">
-        <f t="array" ref="E10">SUMPRODUCT(B2:B8,K2:K8)</f>
+        <f>SUMPRODUCT(B2:B8,K2:K8)</f>
         <v>0</v>
       </c>
       <c r="F10" s="9">
@@ -41764,7 +42498,7 @@
   <dimension ref="A1:Y37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="X22" sqref="X22"/>
+      <selection activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42500,7 +43234,7 @@
         <v>0</v>
       </c>
       <c r="R20" s="27">
-        <f t="array" ref="R20">SUMPRODUCT(J10:J20,Q10:Q20)</f>
+        <f>SUMPRODUCT(J10:J20,Q10:Q20)</f>
         <v>0</v>
       </c>
     </row>

--- a/modelrebal.xlsx
+++ b/modelrebal.xlsx
@@ -762,20 +762,16 @@
         <stp>PRD_MTDReturn2</stp>
         <tr r="Q3" s="4"/>
       </tp>
-    </main>
-    <main first="esrtd">
       <tp t="s">
         <v/>
         <stp/>
         <stp>AMD</stp>
         <stp>% Change</stp>
+        <tr r="E3" s="3"/>
         <tr r="G3" s="4"/>
-        <tr r="E3" s="3"/>
         <tr r="M2" s="9"/>
         <tr r="V3" s="4"/>
       </tp>
-    </main>
-    <main first="esrtd">
       <tp t="s">
         <v/>
         <stp/>
@@ -848,8 +844,6 @@
         <stp>% Change</stp>
         <tr r="M16" s="9"/>
       </tp>
-    </main>
-    <main first="esrtd">
       <tp t="s">
         <v/>
         <stp/>
@@ -927,8 +921,6 @@
         <stp>BETA</stp>
         <tr r="L14" s="9"/>
       </tp>
-    </main>
-    <main first="esrtd">
       <tp t="s">
         <v/>
         <stp/>
@@ -991,8 +983,6 @@
         <stp>Description</stp>
         <tr r="C2" s="1"/>
       </tp>
-    </main>
-    <main first="esrtd">
       <tp t="s">
         <v/>
         <stp/>
@@ -1000,8 +990,6 @@
         <stp>Description</stp>
         <tr r="D6" s="3"/>
       </tp>
-    </main>
-    <main first="esrtd">
       <tp t="s">
         <v/>
         <stp/>
@@ -1029,8 +1017,6 @@
         <tr r="E5" s="3"/>
         <tr r="V5" s="4"/>
       </tp>
-    </main>
-    <main first="esrtd">
       <tp t="s">
         <v/>
         <stp/>
@@ -1047,15 +1033,13 @@
         <stp>% Change</stp>
         <tr r="M32" s="9"/>
       </tp>
-    </main>
-    <main first="esrtd">
       <tp t="s">
         <v/>
         <stp/>
         <stp>EXC</stp>
         <stp>BETA</stp>
+        <tr r="F5" s="3"/>
         <tr r="F5" s="4"/>
-        <tr r="F5" s="3"/>
         <tr r="P5" s="4"/>
       </tp>
     </main>
@@ -1085,7 +1069,7 @@
         <stp>SPX-I</stp>
         <stp>Last</stp>
         <stp>D</stp>
-        <stp>43853</stp>
+        <stp>43857</stp>
         <stp/>
         <tr r="D13" s="1"/>
       </tp>
@@ -1101,94 +1085,94 @@
     </main>
     <main first="telemetorion.rtdserver">
       <tp>
-        <v>83.94</v>
+        <v>81.97</v>
         <stp/>
         <stp>data</stp>
         <stp>XLI</stp>
         <stp>Close</stp>
-        <stp>43853</stp>
+        <stp>43857</stp>
         <tr r="I8" s="1"/>
       </tp>
       <tp>
-        <v>97.89</v>
+        <v>95.11</v>
         <stp/>
         <stp>data</stp>
         <stp>XLK</stp>
         <stp>Close</stp>
-        <stp>43853</stp>
+        <stp>43857</stp>
         <tr r="I7" s="1"/>
       </tp>
       <tp>
-        <v>57.28</v>
+        <v>54.82</v>
+        <stp/>
+        <stp>data</stp>
+        <stp>XLC</stp>
+        <stp>Close</stp>
+        <stp>43857</stp>
+        <tr r="I12" s="1"/>
+      </tp>
+      <tp>
+        <v>58.45</v>
+        <stp/>
+        <stp>data</stp>
+        <stp>XLB</stp>
+        <stp>Close</stp>
+        <stp>43857</stp>
+        <tr r="I4" s="1"/>
+      </tp>
+      <tp>
+        <v>55.05</v>
         <stp/>
         <stp>data</stp>
         <stp>XLE</stp>
         <stp>Close</stp>
-        <stp>43853</stp>
+        <stp>43857</stp>
         <tr r="I5" s="1"/>
       </tp>
       <tp>
-        <v>30.78</v>
+        <v>29.92</v>
         <stp/>
         <stp>data</stp>
         <stp>XLF</stp>
         <stp>Close</stp>
-        <stp>43853</stp>
+        <stp>43857</stp>
         <tr r="I9" s="1"/>
       </tp>
       <tp>
-        <v>56.37</v>
-        <stp/>
-        <stp>data</stp>
-        <stp>XLC</stp>
-        <stp>Close</stp>
-        <stp>43853</stp>
-        <tr r="I12" s="1"/>
-      </tp>
-      <tp>
-        <v>60.17</v>
-        <stp/>
-        <stp>data</stp>
-        <stp>XLB</stp>
-        <stp>Close</stp>
-        <stp>43853</stp>
-        <tr r="I4" s="1"/>
-      </tp>
-      <tp>
-        <v>127.73</v>
+        <v>124.07</v>
         <stp/>
         <stp>data</stp>
         <stp>XLY</stp>
         <stp>Close</stp>
-        <stp>43853</stp>
+        <stp>43857</stp>
         <tr r="I6" s="1"/>
       </tp>
       <tp>
-        <v>68.180000000000007</v>
+        <v>63.39</v>
+        <stp/>
+        <stp>data</stp>
+        <stp>XLP</stp>
+        <stp>Close</stp>
+        <stp>43857</stp>
+        <tr r="I11" s="1"/>
+      </tp>
+      <tp>
+        <v>68.19</v>
         <stp/>
         <stp>data</stp>
         <stp>XLU</stp>
         <stp>Close</stp>
-        <stp>43853</stp>
+        <stp>43857</stp>
         <tr r="I3" s="1"/>
       </tp>
       <tp>
-        <v>104.2</v>
+        <v>101.68</v>
         <stp/>
         <stp>data</stp>
         <stp>XLV</stp>
         <stp>Close</stp>
-        <stp>43853</stp>
+        <stp>43857</stp>
         <tr r="I10" s="1"/>
-      </tp>
-      <tp>
-        <v>64.03</v>
-        <stp/>
-        <stp>data</stp>
-        <stp>XLP</stp>
-        <stp>Close</stp>
-        <stp>43853</stp>
-        <tr r="I11" s="1"/>
       </tp>
     </main>
     <main first="esrtd">
@@ -1220,8 +1204,6 @@
         <stp>Last</stp>
         <tr r="J3" s="3"/>
       </tp>
-    </main>
-    <main first="esrtd">
       <tp t="s">
         <v/>
         <stp/>
@@ -1284,8 +1266,6 @@
         <stp>Dividend</stp>
         <tr r="I8" s="3"/>
       </tp>
-    </main>
-    <main first="esrtd">
       <tp t="s">
         <v/>
         <stp/>
@@ -1326,8 +1306,6 @@
         <stp>Last</stp>
         <tr r="J5" s="3"/>
       </tp>
-    </main>
-    <main first="esrtd">
       <tp t="s">
         <v/>
         <stp/>
@@ -1353,8 +1331,6 @@
         <stp>Dividend</stp>
         <tr r="I7" s="3"/>
       </tp>
-    </main>
-    <main first="esrtd">
       <tp t="s">
         <v/>
         <stp/>
@@ -1371,8 +1347,6 @@
         <stp>PrevPrice</stp>
         <tr r="H4" s="1"/>
       </tp>
-    </main>
-    <main first="esrtd">
       <tp t="s">
         <v/>
         <stp/>
@@ -1394,8 +1368,6 @@
         <stp>Dividend</stp>
         <tr r="I2" s="3"/>
       </tp>
-    </main>
-    <main first="esrtd">
       <tp t="s">
         <v/>
         <stp/>
@@ -1425,8 +1397,6 @@
         <stp>PrevPrice</stp>
         <tr r="H2" s="1"/>
       </tp>
-    </main>
-    <main first="esrtd">
       <tp t="s">
         <v/>
         <stp/>
@@ -1441,8 +1411,6 @@
         <stp>last</stp>
         <tr r="U8" s="4"/>
       </tp>
-    </main>
-    <main first="esrtd">
       <tp t="s">
         <v/>
         <stp/>
@@ -1450,12 +1418,10 @@
         <stp>XLK</stp>
         <stp>Last</stp>
         <stp>D</stp>
-        <stp>43853</stp>
+        <stp>43857</stp>
         <stp/>
         <tr r="D7" s="1"/>
       </tp>
-    </main>
-    <main first="esrtd">
       <tp t="s">
         <v/>
         <stp/>
@@ -1489,7 +1455,7 @@
         <stp>XLI</stp>
         <stp>Last</stp>
         <stp>D</stp>
-        <stp>43853</stp>
+        <stp>43857</stp>
         <stp/>
         <tr r="D8" s="1"/>
       </tp>
@@ -1550,6 +1516,26 @@
         <tr r="H223" s="11"/>
       </tp>
       <tp>
+        <v>3295.5</v>
+        <stp/>
+        <stp>data</stp>
+        <stp>SPX-I</stp>
+        <stp>Close</stp>
+        <stp>43854</stp>
+        <tr r="H231" s="11"/>
+      </tp>
+      <tp>
+        <v>3243.72</v>
+        <stp/>
+        <stp>data</stp>
+        <stp>SPX-I</stp>
+        <stp>Close</stp>
+        <stp>43857</stp>
+        <tr r="H232" s="11"/>
+        <tr r="I13" s="1"/>
+        <tr r="B24" s="1"/>
+      </tp>
+      <tp>
         <v>3320.79</v>
         <stp/>
         <stp>data</stp>
@@ -1575,8 +1561,6 @@
         <stp>Close</stp>
         <stp>43853</stp>
         <tr r="H230" s="11"/>
-        <tr r="I13" s="1"/>
-        <tr r="B24" s="1"/>
       </tp>
       <tp>
         <v>3253.04</v>
@@ -1625,12 +1609,10 @@
         <stp>XLB</stp>
         <stp>Last</stp>
         <stp>D</stp>
-        <stp>43853</stp>
+        <stp>43857</stp>
         <stp/>
         <tr r="D4" s="1"/>
       </tp>
-    </main>
-    <main first="esrtd">
       <tp t="s">
         <v/>
         <stp/>
@@ -1638,7 +1620,7 @@
         <stp>XLC</stp>
         <stp>Last</stp>
         <stp>D</stp>
-        <stp>43853</stp>
+        <stp>43857</stp>
         <stp/>
         <tr r="D12" s="1"/>
       </tp>
@@ -1663,8 +1645,6 @@
         <stp>% Change</stp>
         <tr r="M31" s="9"/>
       </tp>
-    </main>
-    <main first="esrtd">
       <tp t="s">
         <v/>
         <stp/>
@@ -1672,8 +1652,6 @@
         <stp>PRD_MTDReturn2</stp>
         <tr r="Q6" s="4"/>
       </tp>
-    </main>
-    <main first="esrtd">
       <tp t="s">
         <v/>
         <stp/>
@@ -1681,12 +1659,10 @@
         <stp>XLF</stp>
         <stp>Last</stp>
         <stp>D</stp>
-        <stp>43853</stp>
+        <stp>43857</stp>
         <stp/>
         <tr r="D9" s="1"/>
       </tp>
-    </main>
-    <main first="esrtd">
       <tp t="s">
         <v/>
         <stp/>
@@ -1720,7 +1696,7 @@
         <stp>XLE</stp>
         <stp>Last</stp>
         <stp>D</stp>
-        <stp>43853</stp>
+        <stp>43857</stp>
         <stp/>
         <tr r="D5" s="1"/>
       </tp>
@@ -1769,12 +1745,10 @@
         <stp>XLY</stp>
         <stp>Last</stp>
         <stp>D</stp>
-        <stp>43853</stp>
+        <stp>43857</stp>
         <stp/>
         <tr r="D6" s="1"/>
       </tp>
-    </main>
-    <main first="esrtd">
       <tp t="s">
         <v/>
         <stp/>
@@ -1842,6 +1816,24 @@
         <tr r="AJ228" s="11"/>
       </tp>
       <tp>
+        <v>34.416600000000003</v>
+        <stp/>
+        <stp>data</stp>
+        <stp>XLSR</stp>
+        <stp>Close</stp>
+        <stp>43857</stp>
+        <tr r="AJ232" s="11"/>
+      </tp>
+      <tp>
+        <v>34.97</v>
+        <stp/>
+        <stp>data</stp>
+        <stp>XLSR</stp>
+        <stp>Close</stp>
+        <stp>43854</stp>
+        <tr r="AJ231" s="11"/>
+      </tp>
+      <tp>
         <v>34.792499999999997</v>
         <stp/>
         <stp>data</stp>
@@ -1896,12 +1888,12 @@
         <tr r="AJ225" s="11"/>
       </tp>
       <tp>
-        <v>40.049999999999997</v>
+        <v>39.82</v>
         <stp/>
         <stp>data</stp>
         <stp>XLRE</stp>
         <stp>Close</stp>
-        <stp>43853</stp>
+        <stp>43857</stp>
         <tr r="I2" s="1"/>
       </tp>
       <tp>
@@ -1949,7 +1941,7 @@
         <stp>XLP</stp>
         <stp>Last</stp>
         <stp>D</stp>
-        <stp>43853</stp>
+        <stp>43857</stp>
         <stp/>
         <tr r="D11" s="1"/>
       </tp>
@@ -1972,7 +1964,7 @@
         <stp>XLV</stp>
         <stp>Last</stp>
         <stp>D</stp>
-        <stp>43853</stp>
+        <stp>43857</stp>
         <stp/>
         <tr r="D10" s="1"/>
       </tp>
@@ -1986,8 +1978,6 @@
         <stp>Net %</stp>
         <tr r="K8" s="3"/>
       </tp>
-    </main>
-    <main first="telemetorion.rtdserver">
       <tp>
         <v>0</v>
         <stp/>
@@ -2025,12 +2015,10 @@
         <stp>XLU</stp>
         <stp>Last</stp>
         <stp>D</stp>
-        <stp>43853</stp>
+        <stp>43857</stp>
         <stp/>
         <tr r="D3" s="1"/>
       </tp>
-    </main>
-    <main first="esrtd">
       <tp t="s">
         <v/>
         <stp/>
@@ -2120,8 +2108,6 @@
         <stp>PrevPrice</stp>
         <tr r="H13" s="1"/>
       </tp>
-    </main>
-    <main first="esrtd">
       <tp t="s">
         <v/>
         <stp/>
@@ -2166,8 +2152,6 @@
         <stp>% Change</stp>
         <tr r="M33" s="9"/>
       </tp>
-    </main>
-    <main first="esrtd">
       <tp t="s">
         <v/>
         <stp/>
@@ -2222,8 +2206,6 @@
         <tr r="K5" s="3"/>
         <tr r="K5" s="4"/>
       </tp>
-    </main>
-    <main first="telemetorion.rtdserver">
       <tp>
         <v>0</v>
         <stp/>
@@ -2248,18 +2230,6 @@
         <stp>EPS</stp>
         <tr r="H5" s="3"/>
       </tp>
-    </main>
-    <main first="telemetorion.rtdserver">
-      <tp>
-        <v>0</v>
-        <stp/>
-        <stp>quote</stp>
-        <stp>XLB</stp>
-        <stp>Net %</stp>
-        <tr r="Q12" s="9"/>
-      </tp>
-    </main>
-    <main first="esrtd">
       <tp t="s">
         <v/>
         <stp/>
@@ -2267,9 +2237,19 @@
         <stp>XLRE</stp>
         <stp>Last</stp>
         <stp>D</stp>
-        <stp>43853</stp>
+        <stp>43857</stp>
         <stp/>
         <tr r="D2" s="1"/>
+      </tp>
+    </main>
+    <main first="telemetorion.rtdserver">
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>quote</stp>
+        <stp>XLB</stp>
+        <stp>Net %</stp>
+        <tr r="Q12" s="9"/>
       </tp>
     </main>
     <main first="esrtd">
@@ -2289,8 +2269,6 @@
         <tr r="G5" s="3"/>
         <tr r="O5" s="4"/>
       </tp>
-    </main>
-    <main first="esrtd">
       <tp t="s">
         <v/>
         <stp/>
@@ -2298,8 +2276,6 @@
         <stp>Description</stp>
         <tr r="C13" s="1"/>
       </tp>
-    </main>
-    <main first="esrtd">
       <tp t="s">
         <v/>
         <stp/>
@@ -2324,13 +2300,11 @@
         <stp/>
         <stp>LRCX</stp>
         <stp>BETA</stp>
+        <tr r="F7" s="3"/>
+        <tr r="F7" s="4"/>
         <tr r="L4" s="9"/>
-        <tr r="F7" s="4"/>
-        <tr r="F7" s="3"/>
         <tr r="P7" s="4"/>
       </tp>
-    </main>
-    <main first="esrtd">
       <tp t="s">
         <v/>
         <stp/>
@@ -2454,8 +2428,6 @@
         <stp>Net %</stp>
         <tr r="Q15" s="9"/>
       </tp>
-    </main>
-    <main first="telemetorion.rtdserver">
       <tp>
         <v>0</v>
         <stp/>
@@ -2473,8 +2445,6 @@
         <stp>BETA</stp>
         <tr r="F8" s="3"/>
       </tp>
-    </main>
-    <main first="esrtd">
       <tp t="s">
         <v/>
         <stp/>
@@ -2484,27 +2454,23 @@
         <tr r="F4" s="4"/>
         <tr r="P4" s="4"/>
       </tp>
-    </main>
-    <main first="esrtd">
       <tp t="s">
         <v/>
         <stp/>
         <stp>AMAT</stp>
         <stp>% Change</stp>
         <tr r="E2" s="3"/>
+        <tr r="G2" s="4"/>
         <tr r="V2" s="4"/>
-        <tr r="G2" s="4"/>
       </tp>
-    </main>
-    <main first="esrtd">
       <tp t="s">
         <v/>
         <stp/>
         <stp>KLAC</stp>
         <stp>% Change</stp>
         <tr r="M3" s="9"/>
+        <tr r="E6" s="3"/>
         <tr r="G6" s="4"/>
-        <tr r="E6" s="3"/>
         <tr r="V6" s="4"/>
       </tp>
     </main>
@@ -2514,9 +2480,9 @@
         <stp/>
         <stp>LRCX</stp>
         <stp>% Change</stp>
+        <tr r="M4" s="9"/>
+        <tr r="G7" s="4"/>
         <tr r="E7" s="3"/>
-        <tr r="G7" s="4"/>
-        <tr r="M4" s="9"/>
         <tr r="V7" s="4"/>
       </tp>
     </main>
@@ -2791,7 +2757,7 @@
   <dimension ref="A1:Y39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2821,7 +2787,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="13">
-        <v>43853</v>
+        <v>43857</v>
       </c>
       <c r="H1" t="s">
         <v>55</v>
@@ -2886,11 +2852,11 @@
       </c>
       <c r="I2" s="9">
         <f>RTD("telemetorion.rtdserver","","data",$A2,"Close",$G$1)</f>
-        <v>40.049999999999997</v>
+        <v>39.82</v>
       </c>
       <c r="J2">
         <f>I2*E2</f>
-        <v>7249.0499999999993</v>
+        <v>7207.42</v>
       </c>
       <c r="M2">
         <f t="shared" ref="M2:M12" si="0">$M$1*B2</f>
@@ -2964,11 +2930,11 @@
       </c>
       <c r="I3" s="9">
         <f>RTD("telemetorion.rtdserver","","data",$A3,"Close",$G$1)</f>
-        <v>68.180000000000007</v>
+        <v>68.19</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J12" si="6">I3*E3</f>
-        <v>7363.4400000000005</v>
+        <v>7364.5199999999995</v>
       </c>
       <c r="M3">
         <f t="shared" si="0"/>
@@ -3042,11 +3008,11 @@
       </c>
       <c r="I4" s="9">
         <f>RTD("telemetorion.rtdserver","","data",$A4,"Close",$G$1)</f>
-        <v>60.17</v>
+        <v>58.45</v>
       </c>
       <c r="J4">
         <f t="shared" si="6"/>
-        <v>4633.09</v>
+        <v>4500.6500000000005</v>
       </c>
       <c r="M4">
         <f t="shared" si="0"/>
@@ -3120,11 +3086,11 @@
       </c>
       <c r="I5" s="9">
         <f>RTD("telemetorion.rtdserver","","data",$A5,"Close",$G$1)</f>
-        <v>57.28</v>
+        <v>55.05</v>
       </c>
       <c r="J5">
         <f t="shared" si="6"/>
-        <v>1088.32</v>
+        <v>1045.95</v>
       </c>
       <c r="M5">
         <f t="shared" si="0"/>
@@ -3198,11 +3164,11 @@
       </c>
       <c r="I6" s="9">
         <f>RTD("telemetorion.rtdserver","","data",$A6,"Close",$G$1)</f>
-        <v>127.73</v>
+        <v>124.07</v>
       </c>
       <c r="J6">
         <f t="shared" si="6"/>
-        <v>1149.57</v>
+        <v>1116.6299999999999</v>
       </c>
       <c r="M6">
         <f t="shared" si="0"/>
@@ -3276,7 +3242,7 @@
       </c>
       <c r="I7" s="9">
         <f>RTD("telemetorion.rtdserver","","data",$A7,"Close",$G$1)</f>
-        <v>97.89</v>
+        <v>95.11</v>
       </c>
       <c r="J7">
         <f t="shared" si="6"/>
@@ -3335,7 +3301,7 @@
       </c>
       <c r="I8" s="9">
         <f>RTD("telemetorion.rtdserver","","data",$A8,"Close",$G$1)</f>
-        <v>83.94</v>
+        <v>81.97</v>
       </c>
       <c r="J8">
         <f t="shared" si="6"/>
@@ -3394,7 +3360,7 @@
       </c>
       <c r="I9" s="9">
         <f>RTD("telemetorion.rtdserver","","data",$A9,"Close",$G$1)</f>
-        <v>30.78</v>
+        <v>29.92</v>
       </c>
       <c r="J9">
         <f t="shared" si="6"/>
@@ -3453,7 +3419,7 @@
       </c>
       <c r="I10" s="9">
         <f>RTD("telemetorion.rtdserver","","data",$A10,"Close",$G$1)</f>
-        <v>104.2</v>
+        <v>101.68</v>
       </c>
       <c r="J10">
         <f t="shared" si="6"/>
@@ -3512,7 +3478,7 @@
       </c>
       <c r="I11" s="9">
         <f>RTD("telemetorion.rtdserver","","data",$A11,"Close",$G$1)</f>
-        <v>64.03</v>
+        <v>63.39</v>
       </c>
       <c r="J11">
         <f t="shared" si="6"/>
@@ -3571,7 +3537,7 @@
       </c>
       <c r="I12" s="9">
         <f>RTD("telemetorion.rtdserver","","data",$A12,"Close",$G$1)</f>
-        <v>56.37</v>
+        <v>54.82</v>
       </c>
       <c r="J12">
         <f t="shared" si="6"/>
@@ -3621,7 +3587,7 @@
       </c>
       <c r="I13" s="9">
         <f>RTD("telemetorion.rtdserver","","data",$A13,"Close",$G$1)</f>
-        <v>3325.54</v>
+        <v>3243.72</v>
       </c>
       <c r="R13" t="str">
         <f t="shared" si="4"/>
@@ -3649,7 +3615,7 @@
       </c>
       <c r="I15">
         <f>SUM(J2:J12)</f>
-        <v>21483.47</v>
+        <v>21235.170000000002</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
@@ -3684,7 +3650,7 @@
       </c>
       <c r="B24" s="9">
         <f>RTD("telemetorion.rtdserver","","data",$A24,"Close",$G$1)</f>
-        <v>3325.54</v>
+        <v>3243.72</v>
       </c>
       <c r="C24" s="9"/>
     </row>
@@ -3777,13 +3743,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AP230"/>
+  <dimension ref="A1:AP241"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B198" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B207" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N230" sqref="N230"/>
+      <selection pane="bottomRight" activeCell="K246" sqref="K246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37770,11 +37736,11 @@
         <v>2.3792168382836598E-2</v>
       </c>
       <c r="O213" s="22">
-        <f t="shared" ref="O213" si="4323">K213/$K$3-1</f>
+        <f>K213/$K$3-1</f>
         <v>0.1635954878631285</v>
       </c>
       <c r="P213" s="34">
-        <f t="shared" ref="P213" si="4324">L213/$L$3-1</f>
+        <f t="shared" ref="P213" si="4323">L213/$L$3-1</f>
         <v>0.21093477331865107</v>
       </c>
       <c r="Q213" s="4">
@@ -37785,89 +37751,89 @@
         <v>21025.629999999994</v>
       </c>
       <c r="S213" s="25">
-        <f t="shared" ref="S213" si="4325">R213/R212-1</f>
+        <f t="shared" ref="S213" si="4324">R213/R212-1</f>
         <v>2.4759579854769509E-3</v>
       </c>
       <c r="T213" s="26">
-        <f t="shared" ref="T213" si="4326">R213/$R$194-1</f>
+        <f t="shared" ref="T213" si="4325">R213/$R$194-1</f>
         <v>2.3792168382836376E-2</v>
       </c>
       <c r="U213" s="26">
-        <f t="shared" ref="U213" si="4327">R213/$R$3-1</f>
+        <f t="shared" ref="U213" si="4326">R213/$R$3-1</f>
         <v>0.21123473688333982</v>
       </c>
       <c r="V213" s="2">
-        <f t="shared" ref="V213" si="4328">AG213-AC213</f>
+        <f t="shared" ref="V213" si="4327">AG213-AC213</f>
         <v>-9.9059765616305029E-3</v>
       </c>
       <c r="W213" s="2">
-        <f t="shared" ref="W213" si="4329">U213-AD213</f>
+        <f t="shared" ref="W213" si="4328">U213-AD213</f>
         <v>2.8648247930782134E-2</v>
       </c>
       <c r="X213" s="14">
-        <f t="shared" ref="X213" si="4330">MIN(0,(AB213/AB$3-1))</f>
+        <f t="shared" ref="X213" si="4329">MIN(0,(AB213/AB$3-1))</f>
         <v>0</v>
       </c>
       <c r="Y213" s="14">
-        <f t="shared" ref="Y213" si="4331">MIN(0,(L213/L$3-1))</f>
+        <f t="shared" ref="Y213" si="4330">MIN(0,(L213/L$3-1))</f>
         <v>0</v>
       </c>
       <c r="Z213" s="45">
         <v>6571.03</v>
       </c>
       <c r="AA213" s="2">
-        <f t="shared" ref="AA213" si="4332">Z213/Z212-1</f>
+        <f t="shared" ref="AA213" si="4331">Z213/Z212-1</f>
         <v>4.8700977519855471E-5</v>
       </c>
       <c r="AB213" s="9">
-        <f t="shared" ref="AB213" si="4333">AB212*(1+AA213)</f>
+        <f t="shared" ref="AB213" si="4332">AB212*(1+AA213)</f>
         <v>118.25864889525577</v>
       </c>
       <c r="AC213" s="50">
-        <f t="shared" ref="AC213" si="4334">AB213/$AB$194-1</f>
+        <f t="shared" ref="AC213" si="4333">AB213/$AB$194-1</f>
         <v>3.292745804488173E-2</v>
       </c>
       <c r="AD213" s="37">
-        <f t="shared" ref="AD213" si="4335">AB213/$AB$3-1</f>
+        <f t="shared" ref="AD213" si="4334">AB213/$AB$3-1</f>
         <v>0.18258648895255769</v>
       </c>
       <c r="AE213" s="14">
-        <f t="shared" ref="AE213" si="4336">J213-($AE$1/252)</f>
+        <f t="shared" ref="AE213" si="4335">J213-($AE$1/252)</f>
         <v>2.4362754457946333E-3</v>
       </c>
       <c r="AF213">
-        <f t="shared" ref="AF213" si="4337">AF212*(1+AE213)</f>
+        <f t="shared" ref="AF213" si="4336">AF212*(1+AE213)</f>
         <v>120.09419071030278</v>
       </c>
       <c r="AG213" s="14">
-        <f t="shared" ref="AG213" si="4338">AF213/$AF$194-1</f>
+        <f t="shared" ref="AG213" si="4337">AF213/$AF$194-1</f>
         <v>2.3021481483251227E-2</v>
       </c>
       <c r="AH213" s="14">
-        <f t="shared" ref="AH213" si="4339">AF213/$AF$3-1</f>
+        <f t="shared" ref="AH213" si="4338">AF213/$AF$3-1</f>
         <v>0.20094190710302784</v>
       </c>
       <c r="AI213" s="14">
-        <f t="shared" ref="AI213" si="4340">AH213-AD213</f>
+        <f t="shared" ref="AI213" si="4339">AH213-AD213</f>
         <v>1.8355418150470149E-2</v>
       </c>
       <c r="AJ213" s="27">
         <v>34.147199999999998</v>
       </c>
       <c r="AK213" s="2">
-        <f t="shared" ref="AK213" si="4341">AJ213/AJ212-1</f>
+        <f t="shared" ref="AK213" si="4340">AJ213/AJ212-1</f>
         <v>1.7571295531482178E-5</v>
       </c>
       <c r="AL213" s="9">
-        <f t="shared" ref="AL213" si="4342">AL212*(1+AK213)</f>
+        <f t="shared" ref="AL213" si="4341">AL212*(1+AK213)</f>
         <v>113.01331780031236</v>
       </c>
       <c r="AM213" s="2">
-        <f t="shared" ref="AM213" si="4343">AL213/$AL$194-1</f>
+        <f t="shared" ref="AM213" si="4342">AL213/$AL$194-1</f>
         <v>3.3348262380012983E-2</v>
       </c>
       <c r="AN213" s="2">
-        <f t="shared" ref="AN213" si="4344">AL213/$AL$27-1</f>
+        <f t="shared" ref="AN213" si="4343">AL213/$AL$27-1</f>
         <v>0.13013317800312363</v>
       </c>
       <c r="AO213" s="1">
@@ -37909,35 +37875,35 @@
         <v>3221.29</v>
       </c>
       <c r="I214" s="2">
-        <f t="shared" ref="I214" si="4345">H214/H213-1</f>
+        <f t="shared" ref="I214" si="4344">H214/H213-1</f>
         <v>-5.7808285134042237E-3</v>
       </c>
       <c r="J214" s="2">
-        <f t="shared" ref="J214" si="4346">D214/D213-1</f>
+        <f t="shared" ref="J214" si="4345">D214/D213-1</f>
         <v>-3.8029776040003904E-3</v>
       </c>
       <c r="K214" s="9">
-        <f t="shared" ref="K214" si="4347">K213*(1+I214)</f>
+        <f t="shared" ref="K214" si="4346">K213*(1+I214)</f>
         <v>115.68689418888208</v>
       </c>
       <c r="L214" s="9">
-        <f t="shared" ref="L214" si="4348">L213*(1+J214)</f>
+        <f t="shared" ref="L214" si="4347">L213*(1+J214)</f>
         <v>120.63296154958151</v>
       </c>
       <c r="M214" s="50">
-        <f t="shared" ref="M214" si="4349">K214/$K$194-1</f>
+        <f t="shared" ref="M214" si="4348">K214/$K$194-1</f>
         <v>2.5568453157931659E-2</v>
       </c>
       <c r="N214" s="50">
-        <f t="shared" ref="N214" si="4350">L214/$L$194-1</f>
+        <f t="shared" ref="N214" si="4349">L214/$L$194-1</f>
         <v>1.9898709695325589E-2</v>
       </c>
       <c r="O214" s="22">
-        <f t="shared" ref="O214" si="4351">K214/$K$3-1</f>
+        <f t="shared" ref="O214" si="4350">K214/$K$3-1</f>
         <v>0.15686894188882072</v>
       </c>
       <c r="P214" s="34">
-        <f t="shared" ref="P214" si="4352">L214/$L$3-1</f>
+        <f t="shared" ref="P214" si="4351">L214/$L$3-1</f>
         <v>0.20632961549581519</v>
       </c>
       <c r="Q214" s="4">
@@ -37948,89 +37914,89 @@
         <v>20945.670000000002</v>
       </c>
       <c r="S214" s="25">
-        <f t="shared" ref="S214" si="4353">R214/R213-1</f>
+        <f t="shared" ref="S214" si="4352">R214/R213-1</f>
         <v>-3.8029776040000574E-3</v>
       </c>
       <c r="T214" s="26">
-        <f t="shared" ref="T214" si="4354">R214/$R$194-1</f>
+        <f t="shared" ref="T214" si="4353">R214/$R$194-1</f>
         <v>1.9898709695325811E-2</v>
       </c>
       <c r="U214" s="26">
-        <f t="shared" ref="U214" si="4355">R214/$R$3-1</f>
+        <f t="shared" ref="U214" si="4354">R214/$R$3-1</f>
         <v>0.20662843830578548</v>
       </c>
       <c r="V214" s="2">
-        <f t="shared" ref="V214" si="4356">AG214-AC214</f>
+        <f t="shared" ref="V214" si="4355">AG214-AC214</f>
         <v>-8.0020536851179713E-3</v>
       </c>
       <c r="W214" s="2">
-        <f t="shared" ref="W214" si="4357">U214-AD214</f>
+        <f t="shared" ref="W214" si="4356">U214-AD214</f>
         <v>3.0722425697106814E-2</v>
       </c>
       <c r="X214" s="14">
-        <f t="shared" ref="X214" si="4358">MIN(0,(AB214/AB$3-1))</f>
+        <f t="shared" ref="X214" si="4357">MIN(0,(AB214/AB$3-1))</f>
         <v>0</v>
       </c>
       <c r="Y214" s="14">
-        <f t="shared" ref="Y214" si="4359">MIN(0,(L214/L$3-1))</f>
+        <f t="shared" ref="Y214" si="4358">MIN(0,(L214/L$3-1))</f>
         <v>0</v>
       </c>
       <c r="Z214" s="45">
         <v>6533.91</v>
       </c>
       <c r="AA214" s="2">
-        <f t="shared" ref="AA214" si="4360">Z214/Z213-1</f>
+        <f t="shared" ref="AA214" si="4359">Z214/Z213-1</f>
         <v>-5.6490382786260618E-3</v>
       </c>
       <c r="AB214" s="9">
-        <f t="shared" ref="AB214" si="4361">AB213*(1+AA214)</f>
+        <f t="shared" ref="AB214" si="4360">AB213*(1+AA214)</f>
         <v>117.59060126086787</v>
       </c>
       <c r="AC214" s="50">
-        <f t="shared" ref="AC214" si="4362">AB214/$AB$194-1</f>
+        <f t="shared" ref="AC214" si="4361">AB214/$AB$194-1</f>
         <v>2.7092411295342123E-2</v>
       </c>
       <c r="AD214" s="37">
-        <f t="shared" ref="AD214" si="4363">AB214/$AB$3-1</f>
+        <f t="shared" ref="AD214" si="4362">AB214/$AB$3-1</f>
         <v>0.17590601260867866</v>
       </c>
       <c r="AE214" s="14">
-        <f t="shared" ref="AE214" si="4364">J214-($AE$1/252)</f>
+        <f t="shared" ref="AE214" si="4363">J214-($AE$1/252)</f>
         <v>-3.84266014368293E-3</v>
       </c>
       <c r="AF214">
-        <f t="shared" ref="AF214" si="4365">AF213*(1+AE214)</f>
+        <f t="shared" ref="AF214" si="4364">AF213*(1+AE214)</f>
         <v>119.63270955017245</v>
       </c>
       <c r="AG214" s="14">
-        <f t="shared" ref="AG214" si="4366">AF214/$AF$194-1</f>
+        <f t="shared" ref="AG214" si="4365">AF214/$AF$194-1</f>
         <v>1.9090357610224151E-2</v>
       </c>
       <c r="AH214" s="14">
-        <f t="shared" ref="AH214" si="4367">AF214/$AF$3-1</f>
+        <f t="shared" ref="AH214" si="4366">AF214/$AF$3-1</f>
         <v>0.19632709550172445</v>
       </c>
       <c r="AI214" s="14">
-        <f t="shared" ref="AI214" si="4368">AH214-AD214</f>
+        <f t="shared" ref="AI214" si="4367">AH214-AD214</f>
         <v>2.0421082893045783E-2</v>
       </c>
       <c r="AJ214" s="27">
         <v>34.020000000000003</v>
       </c>
       <c r="AK214" s="2">
-        <f t="shared" ref="AK214" si="4369">AJ214/AJ213-1</f>
+        <f t="shared" ref="AK214" si="4368">AJ214/AJ213-1</f>
         <v>-3.7250491987628198E-3</v>
       </c>
       <c r="AL214" s="9">
-        <f t="shared" ref="AL214" si="4370">AL213*(1+AK214)</f>
+        <f t="shared" ref="AL214" si="4369">AL213*(1+AK214)</f>
         <v>112.59233763139078</v>
       </c>
       <c r="AM214" s="2">
-        <f t="shared" ref="AM214" si="4371">AL214/$AL$194-1</f>
+        <f t="shared" ref="AM214" si="4370">AL214/$AL$194-1</f>
         <v>2.9498989263191167E-2</v>
       </c>
       <c r="AN214" s="2">
-        <f t="shared" ref="AN214" si="4372">AL214/$AL$27-1</f>
+        <f t="shared" ref="AN214" si="4371">AL214/$AL$27-1</f>
         <v>0.12592337631390782</v>
       </c>
       <c r="AO214" s="1">
@@ -38072,128 +38038,128 @@
         <v>3230.78</v>
       </c>
       <c r="I215" s="2">
-        <f t="shared" ref="I215" si="4373">H215/H214-1</f>
+        <f t="shared" ref="I215" si="4372">H215/H214-1</f>
         <v>2.9460247292234509E-3</v>
       </c>
       <c r="J215" s="2">
-        <f t="shared" ref="J215" si="4374">D215/D214-1</f>
+        <f t="shared" ref="J215" si="4373">D215/D214-1</f>
         <v>5.4216456193569851E-3</v>
       </c>
       <c r="K215" s="9">
-        <f t="shared" ref="K215" si="4375">K214*(1+I215)</f>
+        <f t="shared" ref="K215" si="4374">K214*(1+I215)</f>
         <v>116.02771064000959</v>
       </c>
       <c r="L215" s="9">
-        <f t="shared" ref="L215" si="4376">L214*(1+J215)</f>
+        <f t="shared" ref="L215" si="4375">L214*(1+J215)</f>
         <v>121.28699071711685</v>
       </c>
       <c r="M215" s="50">
-        <f t="shared" ref="M215" si="4377">K215/$K$194-1</f>
+        <f t="shared" ref="M215" si="4376">K215/$K$194-1</f>
         <v>2.8589803182446305E-2</v>
       </c>
       <c r="N215" s="50">
-        <f t="shared" ref="N215" si="4378">L215/$L$194-1</f>
+        <f t="shared" ref="N215" si="4377">L215/$L$194-1</f>
         <v>2.5428239066933145E-2</v>
       </c>
       <c r="O215" s="22">
-        <f t="shared" ref="O215" si="4379">K215/$K$3-1</f>
+        <f t="shared" ref="O215" si="4378">K215/$K$3-1</f>
         <v>0.16027710640009585</v>
       </c>
       <c r="P215" s="34">
-        <f t="shared" ref="P215" si="4380">L215/$L$3-1</f>
+        <f t="shared" ref="P215" si="4379">L215/$L$3-1</f>
         <v>0.2128699071711686</v>
       </c>
       <c r="Q215" s="4">
         <v>20850.810000000001</v>
       </c>
       <c r="R215">
-        <f t="shared" ref="R215" si="4381">Q215+C215</f>
+        <f t="shared" ref="R215" si="4380">Q215+C215</f>
         <v>21059.23</v>
       </c>
       <c r="S215" s="25">
-        <f t="shared" ref="S215" si="4382">R215/R214-1</f>
+        <f t="shared" ref="S215" si="4381">R215/R214-1</f>
         <v>5.4216456193569851E-3</v>
       </c>
       <c r="T215" s="26">
-        <f t="shared" ref="T215" si="4383">R215/$R$194-1</f>
+        <f t="shared" ref="T215" si="4382">R215/$R$194-1</f>
         <v>2.5428239066933367E-2</v>
       </c>
       <c r="U215" s="26">
-        <f t="shared" ref="U215" si="4384">R215/$R$3-1</f>
+        <f t="shared" ref="U215" si="4383">R215/$R$3-1</f>
         <v>0.21317035009251772</v>
       </c>
       <c r="V215" s="2">
-        <f t="shared" ref="V215" si="4385">AG215-AC215</f>
+        <f t="shared" ref="V215" si="4384">AG215-AC215</f>
         <v>-5.6077839424593101E-3</v>
       </c>
       <c r="W215" s="2">
-        <f t="shared" ref="W215" si="4386">U215-AD215</f>
+        <f t="shared" ref="W215" si="4385">U215-AD215</f>
         <v>3.3726132609898984E-2</v>
       </c>
       <c r="X215" s="14">
-        <f t="shared" ref="X215" si="4387">MIN(0,(AB215/AB$3-1))</f>
+        <f t="shared" ref="X215" si="4386">MIN(0,(AB215/AB$3-1))</f>
         <v>0</v>
       </c>
       <c r="Y215" s="14">
-        <f t="shared" ref="Y215" si="4388">MIN(0,(L215/L$3-1))</f>
+        <f t="shared" ref="Y215" si="4387">MIN(0,(L215/L$3-1))</f>
         <v>0</v>
       </c>
       <c r="Z215" s="45">
         <v>6553.57</v>
       </c>
       <c r="AA215" s="2">
-        <f t="shared" ref="AA215" si="4389">Z215/Z214-1</f>
+        <f t="shared" ref="AA215" si="4388">Z215/Z214-1</f>
         <v>3.0089180903929424E-3</v>
       </c>
       <c r="AB215" s="9">
-        <f t="shared" ref="AB215" si="4390">AB214*(1+AA215)</f>
+        <f t="shared" ref="AB215" si="4389">AB214*(1+AA215)</f>
         <v>117.94442174826187</v>
       </c>
       <c r="AC215" s="50">
-        <f t="shared" ref="AC215" si="4391">AB215/$AB$194-1</f>
+        <f t="shared" ref="AC215" si="4390">AB215/$AB$194-1</f>
         <v>3.0182848232193971E-2</v>
       </c>
       <c r="AD215" s="37">
-        <f t="shared" ref="AD215" si="4392">AB215/$AB$3-1</f>
+        <f t="shared" ref="AD215" si="4391">AB215/$AB$3-1</f>
         <v>0.17944421748261874</v>
       </c>
       <c r="AE215" s="14">
-        <f t="shared" ref="AE215" si="4393">J215-($AE$1/252)</f>
+        <f t="shared" ref="AE215" si="4392">J215-($AE$1/252)</f>
         <v>5.381963079674445E-3</v>
       </c>
       <c r="AF215">
-        <f t="shared" ref="AF215" si="4394">AF214*(1+AE215)</f>
+        <f t="shared" ref="AF215" si="4393">AF214*(1+AE215)</f>
         <v>120.27656837609291</v>
       </c>
       <c r="AG215" s="14">
-        <f t="shared" ref="AG215" si="4395">AF215/$AF$194-1</f>
+        <f t="shared" ref="AG215" si="4394">AF215/$AF$194-1</f>
         <v>2.4575064289734661E-2</v>
       </c>
       <c r="AH215" s="14">
-        <f t="shared" ref="AH215" si="4396">AF215/$AF$3-1</f>
+        <f t="shared" ref="AH215" si="4395">AF215/$AF$3-1</f>
         <v>0.20276568376092907</v>
       </c>
       <c r="AI215" s="14">
-        <f t="shared" ref="AI215" si="4397">AH215-AD215</f>
+        <f t="shared" ref="AI215" si="4396">AH215-AD215</f>
         <v>2.3321466278310332E-2</v>
       </c>
       <c r="AJ215" s="27">
         <v>34.1</v>
       </c>
       <c r="AK215" s="2">
-        <f t="shared" ref="AK215" si="4398">AJ215/AJ214-1</f>
+        <f t="shared" ref="AK215" si="4397">AJ215/AJ214-1</f>
         <v>2.3515579071133885E-3</v>
       </c>
       <c r="AL215" s="9">
-        <f t="shared" ref="AL215" si="4399">AL214*(1+AK215)</f>
+        <f t="shared" ref="AL215" si="4398">AL214*(1+AK215)</f>
         <v>112.85710503322825</v>
       </c>
       <c r="AM215" s="2">
-        <f t="shared" ref="AM215" si="4400">AL215/$AL$194-1</f>
+        <f t="shared" ref="AM215" si="4399">AL215/$AL$194-1</f>
         <v>3.1919915751758232E-2</v>
       </c>
       <c r="AN215" s="2">
-        <f t="shared" ref="AN215" si="4401">AL215/$AL$27-1</f>
+        <f t="shared" ref="AN215" si="4400">AL215/$AL$27-1</f>
         <v>0.12857105033228255</v>
       </c>
       <c r="AO215" s="1">
@@ -38216,15 +38182,15 @@
         <v>129.1</v>
       </c>
       <c r="D216">
-        <f t="shared" ref="D216:D221" si="4402">B216+C216</f>
+        <f t="shared" ref="D216:D221" si="4401">B216+C216</f>
         <v>20905.509999999998</v>
       </c>
       <c r="E216" s="14">
-        <f t="shared" ref="E216:E221" si="4403">B216/D216</f>
+        <f t="shared" ref="E216:E221" si="4402">B216/D216</f>
         <v>0.99382459456860905</v>
       </c>
       <c r="F216" s="14">
-        <f t="shared" ref="F216:F221" si="4404">C216/D216</f>
+        <f t="shared" ref="F216:F221" si="4403">C216/D216</f>
         <v>6.175405431391055E-3</v>
       </c>
       <c r="G216" s="1">
@@ -38235,128 +38201,128 @@
         <v>3257.85</v>
       </c>
       <c r="I216" s="2">
-        <f t="shared" ref="I216" si="4405">H216/H215-1</f>
+        <f t="shared" ref="I216" si="4404">H216/H215-1</f>
         <v>8.3787815945375321E-3</v>
       </c>
       <c r="J216" s="2">
-        <f t="shared" ref="J216:J222" si="4406">D216/D215-1</f>
+        <f t="shared" ref="J216:J222" si="4405">D216/D215-1</f>
         <v>-7.2994121817367974E-3</v>
       </c>
       <c r="K216" s="9">
-        <f t="shared" ref="K216" si="4407">K215*(1+I216)</f>
+        <f t="shared" ref="K216" si="4406">K215*(1+I216)</f>
         <v>116.99988148637642</v>
       </c>
       <c r="L216" s="9">
-        <f t="shared" ref="L216" si="4408">L215*(1+J216)</f>
+        <f t="shared" ref="L216" si="4407">L215*(1+J216)</f>
         <v>120.40166697959013</v>
       </c>
       <c r="M216" s="50">
-        <f t="shared" ref="M216:M222" si="4409">K216/$K$215-1</f>
+        <f t="shared" ref="M216:M222" si="4408">K216/$K$215-1</f>
         <v>8.3787815945375321E-3</v>
       </c>
       <c r="N216" s="50">
-        <f t="shared" ref="N216:N222" si="4410">L216/$L$215-1</f>
+        <f t="shared" ref="N216:N222" si="4409">L216/$L$215-1</f>
         <v>-7.2994121817367974E-3</v>
       </c>
       <c r="O216" s="22">
-        <f t="shared" ref="O216" si="4411">K216/$K$3-1</f>
-        <v>0.16999881486376434</v>
+        <f>K216/$K$215-1</f>
+        <v>8.3787815945375321E-3</v>
       </c>
       <c r="P216" s="34">
-        <f t="shared" ref="P216" si="4412">L216/$L$3-1</f>
-        <v>0.20401666979590138</v>
+        <f>L216/$L$215-1</f>
+        <v>-7.2994121817367974E-3</v>
       </c>
       <c r="Q216" s="54">
         <v>20776.41</v>
       </c>
       <c r="R216">
-        <f t="shared" ref="R216:R222" si="4413">Q216+C216</f>
+        <f t="shared" ref="R216:R222" si="4410">Q216+C216</f>
         <v>20905.509999999998</v>
       </c>
       <c r="S216" s="25">
-        <f t="shared" ref="S216" si="4414">R216/R215-1</f>
+        <f t="shared" ref="S216" si="4411">R216/R215-1</f>
         <v>-7.2994121817370194E-3</v>
       </c>
       <c r="T216" s="26">
-        <f t="shared" ref="T216:T222" si="4415">R216/$R$215-1</f>
+        <f t="shared" ref="T216:T222" si="4412">R216/$R$215-1</f>
         <v>-7.2994121817370194E-3</v>
       </c>
       <c r="U216" s="26">
-        <f t="shared" ref="U216:U222" si="4416">R216/$R$215-1</f>
+        <f t="shared" ref="U216:U222" si="4413">R216/$R$215-1</f>
         <v>-7.2994121817370194E-3</v>
       </c>
       <c r="V216" s="2">
-        <f t="shared" ref="V216" si="4417">AG216-AC216</f>
+        <f t="shared" ref="V216" si="4414">AG216-AC216</f>
         <v>-1.5841330907192974E-2</v>
       </c>
       <c r="W216" s="2">
-        <f t="shared" ref="W216:W222" si="4418">U216-AD216</f>
+        <f t="shared" ref="W216:W222" si="4415">U216-AD216</f>
         <v>-1.5801648367510635E-2</v>
       </c>
       <c r="X216" s="14">
-        <f t="shared" ref="X216" si="4419">MIN(0,(AB216/AB$3-1))</f>
+        <f t="shared" ref="X216" si="4416">MIN(0,(AB216/AB$3-1))</f>
         <v>0</v>
       </c>
       <c r="Y216" s="14">
-        <f t="shared" ref="Y216" si="4420">MIN(0,(L216/L$3-1))</f>
+        <f t="shared" ref="Y216" si="4417">MIN(0,(L216/L$3-1))</f>
         <v>0</v>
       </c>
       <c r="Z216" s="45">
         <v>6609.29</v>
       </c>
       <c r="AA216" s="2">
-        <f t="shared" ref="AA216" si="4421">Z216/Z215-1</f>
+        <f t="shared" ref="AA216" si="4418">Z216/Z215-1</f>
         <v>8.5022361857736151E-3</v>
       </c>
       <c r="AB216" s="9">
-        <f t="shared" ref="AB216" si="4422">AB215*(1+AA216)</f>
+        <f t="shared" ref="AB216" si="4419">AB215*(1+AA216)</f>
         <v>118.94721307876009</v>
       </c>
       <c r="AC216" s="50">
-        <f t="shared" ref="AC216:AC222" si="4423">AB216/$AB$215-1</f>
+        <f t="shared" ref="AC216:AC222" si="4420">AB216/$AB$215-1</f>
         <v>8.5022361857736151E-3</v>
       </c>
       <c r="AD216" s="37">
-        <f t="shared" ref="AD216:AD222" si="4424">AB216/$AB$215-1</f>
+        <f t="shared" ref="AD216:AD222" si="4421">AB216/$AB$215-1</f>
         <v>8.5022361857736151E-3</v>
       </c>
       <c r="AE216" s="14">
-        <f t="shared" ref="AE216" si="4425">J216-($AE$1/252)</f>
+        <f t="shared" ref="AE216" si="4422">J216-($AE$1/252)</f>
         <v>-7.3390947214193375E-3</v>
       </c>
       <c r="AF216">
-        <f t="shared" ref="AF216" si="4426">AF215*(1+AE216)</f>
+        <f t="shared" ref="AF216" si="4423">AF215*(1+AE216)</f>
         <v>119.39384724801349</v>
       </c>
       <c r="AG216" s="14">
-        <f t="shared" ref="AG216:AG222" si="4427">AF216/$AF$215-1</f>
+        <f t="shared" ref="AG216:AG222" si="4424">AF216/$AF$215-1</f>
         <v>-7.3390947214193591E-3</v>
       </c>
       <c r="AH216" s="14">
-        <f t="shared" ref="AH216:AH222" si="4428">AF216/$AF$215-1</f>
+        <f t="shared" ref="AH216:AH222" si="4425">AF216/$AF$215-1</f>
         <v>-7.3390947214193591E-3</v>
       </c>
       <c r="AI216" s="14">
-        <f t="shared" ref="AI216" si="4429">AH216-AD216</f>
+        <f t="shared" ref="AI216" si="4426">AH216-AD216</f>
         <v>-1.5841330907192974E-2</v>
       </c>
       <c r="AJ216" s="27">
         <v>34.340000000000003</v>
       </c>
       <c r="AK216" s="2">
-        <f t="shared" ref="AK216" si="4430">AJ216/AJ215-1</f>
+        <f t="shared" ref="AK216" si="4427">AJ216/AJ215-1</f>
         <v>7.0381231671554634E-3</v>
       </c>
       <c r="AL216" s="9">
-        <f t="shared" ref="AL216" si="4431">AL215*(1+AK216)</f>
+        <f t="shared" ref="AL216" si="4428">AL215*(1+AK216)</f>
         <v>113.65140723874072</v>
       </c>
       <c r="AM216" s="2">
-        <f t="shared" ref="AM216:AM222" si="4432">AL216/$AL$215-1</f>
+        <f t="shared" ref="AM216:AM222" si="4429">AL216/$AL$215-1</f>
         <v>7.0381231671554634E-3</v>
       </c>
       <c r="AN216" s="2">
-        <f t="shared" ref="AN216:AN222" si="4433">AL216/$AL$215-1</f>
+        <f t="shared" ref="AN216:AN222" si="4430">AL216/$AL$215-1</f>
         <v>7.0381231671554634E-3</v>
       </c>
       <c r="AO216" s="1">
@@ -38380,15 +38346,15 @@
         <v>129.1</v>
       </c>
       <c r="D217">
+        <f t="shared" si="4401"/>
+        <v>20881.629999999997</v>
+      </c>
+      <c r="E217" s="14">
         <f t="shared" si="4402"/>
-        <v>20881.629999999997</v>
-      </c>
-      <c r="E217" s="14">
+        <v>0.99381753244358806</v>
+      </c>
+      <c r="F217" s="14">
         <f t="shared" si="4403"/>
-        <v>0.99381753244358806</v>
-      </c>
-      <c r="F217" s="14">
-        <f t="shared" si="4404"/>
         <v>6.1824675564120237E-3</v>
       </c>
       <c r="G217" s="1">
@@ -38399,128 +38365,128 @@
         <v>3234.85</v>
       </c>
       <c r="I217" s="2">
-        <f t="shared" ref="I217" si="4434">H217/H216-1</f>
+        <f t="shared" ref="I217" si="4431">H217/H216-1</f>
         <v>-7.059870773669763E-3</v>
       </c>
       <c r="J217" s="2">
-        <f t="shared" si="4406"/>
+        <f t="shared" si="4405"/>
         <v>-1.1422825848305118E-3</v>
       </c>
       <c r="K217" s="9">
-        <f t="shared" ref="K217" si="4435">K216*(1+I217)</f>
+        <f t="shared" ref="K217" si="4432">K216*(1+I217)</f>
         <v>116.17387744254793</v>
       </c>
       <c r="L217" s="9">
-        <f t="shared" ref="L217" si="4436">L216*(1+J217)</f>
+        <f t="shared" ref="L217" si="4433">L216*(1+J217)</f>
         <v>120.26413425221479</v>
       </c>
       <c r="M217" s="50">
+        <f t="shared" si="4408"/>
+        <v>1.2597577055695197E-3</v>
+      </c>
+      <c r="N217" s="50">
         <f t="shared" si="4409"/>
+        <v>-8.4333567751525562E-3</v>
+      </c>
+      <c r="O217" s="22">
+        <f t="shared" ref="O217:O231" si="4434">K217/$K$215-1</f>
         <v>1.2597577055695197E-3</v>
       </c>
-      <c r="N217" s="50">
-        <f t="shared" si="4410"/>
+      <c r="P217" s="34">
+        <f t="shared" ref="P217:P231" si="4435">L217/$L$215-1</f>
         <v>-8.4333567751525562E-3</v>
-      </c>
-      <c r="O217" s="22">
-        <f t="shared" ref="O217" si="4437">K217/$K$3-1</f>
-        <v>0.16173877442547924</v>
-      </c>
-      <c r="P217" s="34">
-        <f t="shared" ref="P217" si="4438">L217/$L$3-1</f>
-        <v>0.20264134252214783</v>
       </c>
       <c r="Q217" s="4">
         <v>20752.53</v>
       </c>
       <c r="R217">
+        <f t="shared" si="4410"/>
+        <v>20881.629999999997</v>
+      </c>
+      <c r="S217" s="25">
+        <f t="shared" ref="S217" si="4436">R217/R216-1</f>
+        <v>-1.1422825848305118E-3</v>
+      </c>
+      <c r="T217" s="26">
+        <f t="shared" si="4412"/>
+        <v>-8.4333567751528893E-3</v>
+      </c>
+      <c r="U217" s="26">
         <f t="shared" si="4413"/>
-        <v>20881.629999999997</v>
-      </c>
-      <c r="S217" s="25">
-        <f t="shared" ref="S217" si="4439">R217/R216-1</f>
-        <v>-1.1422825848305118E-3</v>
-      </c>
-      <c r="T217" s="26">
+        <v>-8.4333567751528893E-3</v>
+      </c>
+      <c r="V217" s="2">
+        <f t="shared" ref="V217:V222" si="4437">AG217-AC217</f>
+        <v>-1.000012403584738E-2</v>
+      </c>
+      <c r="W217" s="2">
         <f t="shared" si="4415"/>
-        <v>-8.4333567751528893E-3</v>
-      </c>
-      <c r="U217" s="26">
-        <f t="shared" si="4416"/>
-        <v>-8.4333567751528893E-3</v>
-      </c>
-      <c r="V217" s="2">
-        <f t="shared" ref="V217:V222" si="4440">AG217-AC217</f>
-        <v>-1.000012403584738E-2</v>
-      </c>
-      <c r="W217" s="2">
-        <f t="shared" si="4418"/>
         <v>-9.9210955190740524E-3</v>
       </c>
       <c r="X217" s="14">
-        <f t="shared" ref="X217" si="4441">MIN(0,(AB217/AB$3-1))</f>
+        <f t="shared" ref="X217" si="4438">MIN(0,(AB217/AB$3-1))</f>
         <v>0</v>
       </c>
       <c r="Y217" s="14">
-        <f t="shared" ref="Y217" si="4442">MIN(0,(L217/L$3-1))</f>
+        <f t="shared" ref="Y217" si="4439">MIN(0,(L217/L$3-1))</f>
         <v>0</v>
       </c>
       <c r="Z217" s="45">
         <v>6563.32</v>
       </c>
       <c r="AA217" s="2">
-        <f t="shared" ref="AA217" si="4443">Z217/Z216-1</f>
+        <f t="shared" ref="AA217" si="4440">Z217/Z216-1</f>
         <v>-6.955361317176334E-3</v>
       </c>
       <c r="AB217" s="9">
-        <f t="shared" ref="AB217" si="4444">AB216*(1+AA217)</f>
+        <f t="shared" ref="AB217" si="4441">AB216*(1+AA217)</f>
         <v>118.11989223412614</v>
       </c>
       <c r="AC217" s="50">
-        <f t="shared" si="4423"/>
+        <f t="shared" si="4420"/>
         <v>1.4877387439211631E-3</v>
       </c>
       <c r="AD217" s="37">
+        <f t="shared" si="4421"/>
+        <v>1.4877387439211631E-3</v>
+      </c>
+      <c r="AE217" s="14">
+        <f t="shared" ref="AE217" si="4442">J217-($AE$1/252)</f>
+        <v>-1.1819651245130514E-3</v>
+      </c>
+      <c r="AF217">
+        <f t="shared" ref="AF217" si="4443">AF216*(1+AE217)</f>
+        <v>119.2527278844849</v>
+      </c>
+      <c r="AG217" s="14">
         <f t="shared" si="4424"/>
-        <v>1.4877387439211631E-3</v>
-      </c>
-      <c r="AE217" s="14">
-        <f t="shared" ref="AE217" si="4445">J217-($AE$1/252)</f>
-        <v>-1.1819651245130514E-3</v>
-      </c>
-      <c r="AF217">
-        <f t="shared" ref="AF217" si="4446">AF216*(1+AE217)</f>
-        <v>119.2527278844849</v>
-      </c>
-      <c r="AG217" s="14">
-        <f t="shared" si="4427"/>
         <v>-8.5123852919262166E-3</v>
       </c>
       <c r="AH217" s="14">
-        <f t="shared" si="4428"/>
+        <f t="shared" si="4425"/>
         <v>-8.5123852919262166E-3</v>
       </c>
       <c r="AI217" s="14">
-        <f t="shared" ref="AI217" si="4447">AH217-AD217</f>
+        <f t="shared" ref="AI217" si="4444">AH217-AD217</f>
         <v>-1.000012403584738E-2</v>
       </c>
       <c r="AJ217" s="27">
         <v>34.076000000000001</v>
       </c>
       <c r="AK217" s="2">
-        <f t="shared" ref="AK217" si="4448">AJ217/AJ216-1</f>
+        <f t="shared" ref="AK217" si="4445">AJ217/AJ216-1</f>
         <v>-7.6878276062901651E-3</v>
       </c>
       <c r="AL217" s="9">
-        <f t="shared" ref="AL217" si="4449">AL216*(1+AK217)</f>
+        <f t="shared" ref="AL217" si="4446">AL216*(1+AK217)</f>
         <v>112.77767481267701</v>
       </c>
       <c r="AM217" s="2">
-        <f t="shared" si="4432"/>
+        <f t="shared" si="4429"/>
         <v>-7.0381231671556854E-4</v>
       </c>
       <c r="AN217" s="2">
-        <f t="shared" si="4433"/>
+        <f t="shared" si="4430"/>
         <v>-7.0381231671556854E-4</v>
       </c>
       <c r="AO217" s="1">
@@ -38544,15 +38510,15 @@
         <v>129.1</v>
       </c>
       <c r="D218">
+        <f t="shared" si="4401"/>
+        <v>20881.979999999996</v>
+      </c>
+      <c r="E218" s="14">
         <f t="shared" si="4402"/>
-        <v>20881.979999999996</v>
-      </c>
-      <c r="E218" s="14">
+        <v>0.99381763606707796</v>
+      </c>
+      <c r="F218" s="14">
         <f t="shared" si="4403"/>
-        <v>0.99381763606707796</v>
-      </c>
-      <c r="F218" s="14">
-        <f t="shared" si="4404"/>
         <v>6.1823639329220709E-3</v>
       </c>
       <c r="G218" s="1">
@@ -38563,128 +38529,128 @@
         <v>3246.28</v>
       </c>
       <c r="I218" s="2">
-        <f t="shared" ref="I218" si="4450">H218/H217-1</f>
+        <f t="shared" ref="I218" si="4447">H218/H217-1</f>
         <v>3.5333941295578875E-3</v>
       </c>
       <c r="J218" s="2">
-        <f t="shared" si="4406"/>
+        <f t="shared" si="4405"/>
         <v>1.6761143646348842E-5</v>
       </c>
       <c r="K218" s="9">
-        <f t="shared" ref="K218" si="4451">K217*(1+I218)</f>
+        <f t="shared" ref="K218" si="4448">K217*(1+I218)</f>
         <v>116.58436553911142</v>
       </c>
       <c r="L218" s="9">
-        <f t="shared" ref="L218" si="4452">L217*(1+J218)</f>
+        <f t="shared" ref="L218" si="4449">L217*(1+J218)</f>
         <v>120.26615001664449</v>
       </c>
       <c r="M218" s="50">
+        <f t="shared" si="4408"/>
+        <v>4.7976030556089455E-3</v>
+      </c>
+      <c r="N218" s="50">
         <f t="shared" si="4409"/>
+        <v>-8.4167369842105266E-3</v>
+      </c>
+      <c r="O218" s="22">
+        <f t="shared" si="4434"/>
         <v>4.7976030556089455E-3</v>
       </c>
-      <c r="N218" s="50">
-        <f t="shared" si="4410"/>
+      <c r="P218" s="34">
+        <f t="shared" si="4435"/>
         <v>-8.4167369842105266E-3</v>
-      </c>
-      <c r="O218" s="22">
-        <f t="shared" ref="O218" si="4453">K218/$K$3-1</f>
-        <v>0.16584365539111423</v>
-      </c>
-      <c r="P218" s="34">
-        <f t="shared" ref="P218" si="4454">L218/$L$3-1</f>
-        <v>0.20266150016644491</v>
       </c>
       <c r="Q218" s="4">
         <v>20752.879999999997</v>
       </c>
       <c r="R218">
+        <f t="shared" si="4410"/>
+        <v>20881.979999999996</v>
+      </c>
+      <c r="S218" s="25">
+        <f t="shared" ref="S218" si="4450">R218/R217-1</f>
+        <v>1.6761143646348842E-5</v>
+      </c>
+      <c r="T218" s="26">
+        <f t="shared" si="4412"/>
+        <v>-8.4167369842108597E-3</v>
+      </c>
+      <c r="U218" s="26">
         <f t="shared" si="4413"/>
-        <v>20881.979999999996</v>
-      </c>
-      <c r="S218" s="25">
-        <f t="shared" ref="S218" si="4455">R218/R217-1</f>
-        <v>1.6761143646348842E-5</v>
-      </c>
-      <c r="T218" s="26">
+        <v>-8.4167369842108597E-3</v>
+      </c>
+      <c r="V218" s="2">
+        <f t="shared" si="4437"/>
+        <v>-1.3565957355498592E-2</v>
+      </c>
+      <c r="W218" s="2">
         <f t="shared" si="4415"/>
-        <v>-8.4167369842108597E-3</v>
-      </c>
-      <c r="U218" s="26">
-        <f t="shared" si="4416"/>
-        <v>-8.4167369842108597E-3</v>
-      </c>
-      <c r="V218" s="2">
-        <f t="shared" si="4440"/>
-        <v>-1.3565957355498592E-2</v>
-      </c>
-      <c r="W218" s="2">
-        <f t="shared" si="4418"/>
         <v>-1.3447582767501465E-2</v>
       </c>
       <c r="X218" s="14">
-        <f t="shared" ref="X218" si="4456">MIN(0,(AB218/AB$3-1))</f>
+        <f t="shared" ref="X218" si="4451">MIN(0,(AB218/AB$3-1))</f>
         <v>0</v>
       </c>
       <c r="Y218" s="14">
-        <f t="shared" ref="Y218" si="4457">MIN(0,(L218/L$3-1))</f>
+        <f t="shared" ref="Y218" si="4452">MIN(0,(L218/L$3-1))</f>
         <v>0</v>
       </c>
       <c r="Z218" s="45">
         <v>6586.54</v>
       </c>
       <c r="AA218" s="2">
-        <f t="shared" ref="AA218" si="4458">Z218/Z217-1</f>
+        <f t="shared" ref="AA218" si="4453">Z218/Z217-1</f>
         <v>3.5378436522979229E-3</v>
       </c>
       <c r="AB218" s="9">
-        <f t="shared" ref="AB218" si="4459">AB217*(1+AA218)</f>
+        <f t="shared" ref="AB218" si="4454">AB217*(1+AA218)</f>
         <v>118.53778194507676</v>
       </c>
       <c r="AC218" s="50">
-        <f t="shared" si="4423"/>
+        <f t="shared" si="4420"/>
         <v>5.0308457832906051E-3</v>
       </c>
       <c r="AD218" s="37">
+        <f t="shared" si="4421"/>
+        <v>5.0308457832906051E-3</v>
+      </c>
+      <c r="AE218" s="14">
+        <f t="shared" ref="AE218:AE223" si="4455">J218-($AE$1/252)</f>
+        <v>-2.2921396036190841E-5</v>
+      </c>
+      <c r="AF218">
+        <f t="shared" ref="AF218:AF223" si="4456">AF217*(1+AE218)</f>
+        <v>119.24999444548065</v>
+      </c>
+      <c r="AG218" s="14">
         <f t="shared" si="4424"/>
-        <v>5.0308457832906051E-3</v>
-      </c>
-      <c r="AE218" s="14">
-        <f t="shared" ref="AE218:AE223" si="4460">J218-($AE$1/252)</f>
-        <v>-2.2921396036190841E-5</v>
-      </c>
-      <c r="AF218">
-        <f t="shared" ref="AF218:AF223" si="4461">AF217*(1+AE218)</f>
-        <v>119.24999444548065</v>
-      </c>
-      <c r="AG218" s="14">
-        <f t="shared" si="4427"/>
         <v>-8.5351115722079873E-3</v>
       </c>
       <c r="AH218" s="14">
-        <f t="shared" si="4428"/>
+        <f t="shared" si="4425"/>
         <v>-8.5351115722079873E-3</v>
       </c>
       <c r="AI218" s="14">
-        <f t="shared" ref="AI218:AI223" si="4462">AH218-AD218</f>
+        <f t="shared" ref="AI218:AI223" si="4457">AH218-AD218</f>
         <v>-1.3565957355498592E-2</v>
       </c>
       <c r="AJ218" s="27">
         <v>34.173699999999997</v>
       </c>
       <c r="AK218" s="2">
-        <f t="shared" ref="AK218" si="4463">AJ218/AJ217-1</f>
+        <f t="shared" ref="AK218" si="4458">AJ218/AJ217-1</f>
         <v>2.86712055405558E-3</v>
       </c>
       <c r="AL218" s="9">
-        <f t="shared" ref="AL218" si="4464">AL217*(1+AK218)</f>
+        <f t="shared" ref="AL218" si="4459">AL217*(1+AK218)</f>
         <v>113.10102200217104</v>
       </c>
       <c r="AM218" s="2">
-        <f t="shared" si="4432"/>
+        <f t="shared" si="4429"/>
         <v>2.1612903225807223E-3</v>
       </c>
       <c r="AN218" s="2">
-        <f t="shared" si="4433"/>
+        <f t="shared" si="4430"/>
         <v>2.1612903225807223E-3</v>
       </c>
       <c r="AO218" s="1">
@@ -38708,15 +38674,15 @@
         <v>129.1</v>
       </c>
       <c r="D219">
+        <f t="shared" si="4401"/>
+        <v>20786.009999999998</v>
+      </c>
+      <c r="E219" s="14">
         <f t="shared" si="4402"/>
-        <v>20786.009999999998</v>
-      </c>
-      <c r="E219" s="14">
+        <v>0.99378909179780062</v>
+      </c>
+      <c r="F219" s="14">
         <f t="shared" si="4403"/>
-        <v>0.99378909179780062</v>
-      </c>
-      <c r="F219" s="14">
-        <f t="shared" si="4404"/>
         <v>6.2109082021994605E-3</v>
       </c>
       <c r="G219" s="1">
@@ -38728,109 +38694,109 @@
         <v>3237.18</v>
       </c>
       <c r="I219" s="2">
-        <f t="shared" ref="I219:I220" si="4465">H219/H218-1</f>
+        <f t="shared" ref="I219:I220" si="4460">H219/H218-1</f>
         <v>-2.8032085956850583E-3</v>
       </c>
       <c r="J219" s="2">
-        <f t="shared" si="4406"/>
+        <f t="shared" si="4405"/>
         <v>-4.5958285564873247E-3</v>
       </c>
       <c r="K219" s="9">
-        <f t="shared" ref="K219:K220" si="4466">K218*(1+I219)</f>
+        <f t="shared" ref="K219:K220" si="4461">K218*(1+I219)</f>
         <v>116.25755524350969</v>
       </c>
       <c r="L219" s="9">
-        <f t="shared" ref="L219:L220" si="4467">L218*(1+J219)</f>
+        <f t="shared" ref="L219:L220" si="4462">L218*(1+J219)</f>
         <v>119.71342741001921</v>
       </c>
       <c r="M219" s="50">
+        <f t="shared" si="4408"/>
+        <v>1.9809457777997252E-3</v>
+      </c>
+      <c r="N219" s="50">
         <f t="shared" si="4409"/>
+        <v>-1.2973883660513441E-2</v>
+      </c>
+      <c r="O219" s="22">
+        <f t="shared" si="4434"/>
         <v>1.9809457777997252E-3</v>
       </c>
-      <c r="N219" s="50">
-        <f t="shared" si="4410"/>
+      <c r="P219" s="34">
+        <f t="shared" si="4435"/>
         <v>-1.2973883660513441E-2</v>
-      </c>
-      <c r="O219" s="22">
-        <f t="shared" ref="O219:O220" si="4468">K219/$K$3-1</f>
-        <v>0.16257555243509692</v>
-      </c>
-      <c r="P219" s="34">
-        <f t="shared" ref="P219:P220" si="4469">L219/$L$3-1</f>
-        <v>0.19713427410019202</v>
       </c>
       <c r="Q219" s="4">
         <v>20656.91</v>
       </c>
       <c r="R219">
+        <f t="shared" si="4410"/>
+        <v>20786.009999999998</v>
+      </c>
+      <c r="S219" s="25">
+        <f t="shared" ref="S219" si="4463">R219/R218-1</f>
+        <v>-4.5958285564873247E-3</v>
+      </c>
+      <c r="T219" s="26">
+        <f t="shared" si="4412"/>
+        <v>-1.2973883660513774E-2</v>
+      </c>
+      <c r="U219" s="26">
         <f t="shared" si="4413"/>
-        <v>20786.009999999998</v>
-      </c>
-      <c r="S219" s="25">
-        <f t="shared" ref="S219" si="4470">R219/R218-1</f>
-        <v>-4.5958285564873247E-3</v>
-      </c>
-      <c r="T219" s="26">
+        <v>-1.2973883660513774E-2</v>
+      </c>
+      <c r="V219" s="2">
+        <f t="shared" si="4437"/>
+        <v>-1.5445826960930109E-2</v>
+      </c>
+      <c r="W219" s="2">
         <f t="shared" si="4415"/>
-        <v>-1.2973883660513774E-2</v>
-      </c>
-      <c r="U219" s="26">
-        <f t="shared" si="4416"/>
-        <v>-1.2973883660513774E-2</v>
-      </c>
-      <c r="V219" s="2">
-        <f t="shared" si="4440"/>
-        <v>-1.5445826960930109E-2</v>
-      </c>
-      <c r="W219" s="2">
-        <f t="shared" si="4418"/>
         <v>-1.5288652557466031E-2</v>
       </c>
       <c r="X219" s="14">
-        <f t="shared" ref="X219" si="4471">MIN(0,(AB219/AB$3-1))</f>
+        <f t="shared" ref="X219" si="4464">MIN(0,(AB219/AB$3-1))</f>
         <v>0</v>
       </c>
       <c r="Y219" s="14">
-        <f t="shared" ref="Y219" si="4472">MIN(0,(L219/L$3-1))</f>
+        <f t="shared" ref="Y219" si="4465">MIN(0,(L219/L$3-1))</f>
         <v>0</v>
       </c>
       <c r="Z219" s="45">
         <v>6568.74</v>
       </c>
       <c r="AA219" s="2">
-        <f t="shared" ref="AA219" si="4473">Z219/Z218-1</f>
+        <f t="shared" ref="AA219" si="4466">Z219/Z218-1</f>
         <v>-2.7024811205883514E-3</v>
       </c>
       <c r="AB219" s="9">
-        <f t="shared" ref="AB219" si="4474">AB218*(1+AA219)</f>
+        <f t="shared" ref="AB219" si="4467">AB218*(1+AA219)</f>
         <v>118.21743582729377</v>
       </c>
       <c r="AC219" s="50">
-        <f t="shared" si="4423"/>
+        <f t="shared" si="4420"/>
         <v>2.3147688969522573E-3</v>
       </c>
       <c r="AD219" s="37">
+        <f t="shared" si="4421"/>
+        <v>2.3147688969522573E-3</v>
+      </c>
+      <c r="AE219" s="14">
+        <f t="shared" si="4455"/>
+        <v>-4.6355110961698648E-3</v>
+      </c>
+      <c r="AF219">
+        <f t="shared" si="4456"/>
+        <v>118.69720977301043</v>
+      </c>
+      <c r="AG219" s="14">
         <f t="shared" si="4424"/>
-        <v>2.3147688969522573E-3</v>
-      </c>
-      <c r="AE219" s="14">
-        <f t="shared" si="4460"/>
-        <v>-4.6355110961698648E-3</v>
-      </c>
-      <c r="AF219">
-        <f t="shared" si="4461"/>
-        <v>118.69720977301043</v>
-      </c>
-      <c r="AG219" s="14">
-        <f t="shared" si="4427"/>
         <v>-1.3131058063977852E-2</v>
       </c>
       <c r="AH219" s="14">
-        <f t="shared" si="4428"/>
+        <f t="shared" si="4425"/>
         <v>-1.3131058063977852E-2</v>
       </c>
       <c r="AI219" s="14">
-        <f t="shared" si="4462"/>
+        <f t="shared" si="4457"/>
         <v>-1.5445826960930109E-2</v>
       </c>
       <c r="AJ219" s="27">
@@ -38838,19 +38804,19 @@
         <v>34.107100000000003</v>
       </c>
       <c r="AK219" s="2">
-        <f t="shared" ref="AK219" si="4475">AJ219/AJ218-1</f>
+        <f t="shared" ref="AK219" si="4468">AJ219/AJ218-1</f>
         <v>-1.9488671112578571E-3</v>
       </c>
       <c r="AL219" s="9">
-        <f t="shared" ref="AL219" si="4476">AL218*(1+AK219)</f>
+        <f t="shared" ref="AL219" si="4469">AL218*(1+AK219)</f>
         <v>112.88060314014135</v>
       </c>
       <c r="AM219" s="2">
-        <f t="shared" si="4432"/>
+        <f t="shared" si="4429"/>
         <v>2.0821114369518057E-4</v>
       </c>
       <c r="AN219" s="2">
-        <f t="shared" si="4433"/>
+        <f t="shared" si="4430"/>
         <v>2.0821114369518057E-4</v>
       </c>
       <c r="AO219" s="1">
@@ -38874,15 +38840,15 @@
         <v>129.1</v>
       </c>
       <c r="D220">
+        <f t="shared" si="4401"/>
+        <v>20817.75</v>
+      </c>
+      <c r="E220" s="14">
         <f t="shared" si="4402"/>
-        <v>20817.75</v>
-      </c>
-      <c r="E220" s="14">
+        <v>0.99379856132387034</v>
+      </c>
+      <c r="F220" s="14">
         <f t="shared" si="4403"/>
-        <v>0.99379856132387034</v>
-      </c>
-      <c r="F220" s="14">
-        <f t="shared" si="4404"/>
         <v>6.2014386761297452E-3</v>
       </c>
       <c r="G220" s="1">
@@ -38894,109 +38860,109 @@
         <v>3253.04</v>
       </c>
       <c r="I220" s="2">
-        <f t="shared" si="4465"/>
+        <f t="shared" si="4460"/>
         <v>4.8993259565424108E-3</v>
       </c>
       <c r="J220" s="2">
-        <f t="shared" si="4406"/>
+        <f t="shared" si="4405"/>
         <v>1.5269885851110221E-3</v>
       </c>
       <c r="K220" s="9">
-        <f t="shared" si="4466"/>
+        <f t="shared" si="4461"/>
         <v>116.82713890155837</v>
       </c>
       <c r="L220" s="9">
-        <f t="shared" si="4467"/>
+        <f t="shared" si="4462"/>
         <v>119.89622844715882</v>
       </c>
       <c r="M220" s="50">
+        <f t="shared" si="4408"/>
+        <v>6.8899770334098775E-3</v>
+      </c>
+      <c r="N220" s="50">
         <f t="shared" si="4409"/>
+        <v>-1.1466706047656539E-2</v>
+      </c>
+      <c r="O220" s="22">
+        <f t="shared" si="4434"/>
         <v>6.8899770334098775E-3</v>
       </c>
-      <c r="N220" s="50">
-        <f t="shared" si="4410"/>
+      <c r="P220" s="34">
+        <f t="shared" si="4435"/>
         <v>-1.1466706047656539E-2</v>
-      </c>
-      <c r="O220" s="22">
-        <f t="shared" si="4468"/>
-        <v>0.16827138901558381</v>
-      </c>
-      <c r="P220" s="34">
-        <f t="shared" si="4469"/>
-        <v>0.19896228447158815</v>
       </c>
       <c r="Q220" s="4">
         <v>20688.650000000005</v>
       </c>
       <c r="R220">
+        <f t="shared" si="4410"/>
+        <v>20817.750000000004</v>
+      </c>
+      <c r="S220" s="25">
+        <f t="shared" ref="S220" si="4470">R220/R219-1</f>
+        <v>1.5269885851110221E-3</v>
+      </c>
+      <c r="T220" s="26">
+        <f t="shared" si="4412"/>
+        <v>-1.1466706047656872E-2</v>
+      </c>
+      <c r="U220" s="26">
         <f t="shared" si="4413"/>
-        <v>20817.750000000004</v>
-      </c>
-      <c r="S220" s="25">
-        <f t="shared" ref="S220" si="4477">R220/R219-1</f>
-        <v>1.5269885851110221E-3</v>
-      </c>
-      <c r="T220" s="26">
+        <v>-1.1466706047656872E-2</v>
+      </c>
+      <c r="V220" s="2">
+        <f t="shared" si="4437"/>
+        <v>-1.8923446990926296E-2</v>
+      </c>
+      <c r="W220" s="2">
         <f t="shared" si="4415"/>
-        <v>-1.1466706047656872E-2</v>
-      </c>
-      <c r="U220" s="26">
-        <f t="shared" si="4416"/>
-        <v>-1.1466706047656872E-2</v>
-      </c>
-      <c r="V220" s="2">
-        <f t="shared" si="4440"/>
-        <v>-1.8923446990926296E-2</v>
-      </c>
-      <c r="W220" s="2">
-        <f t="shared" si="4418"/>
         <v>-1.8726871117992316E-2</v>
       </c>
       <c r="X220" s="14">
-        <f t="shared" ref="X220" si="4478">MIN(0,(AB220/AB$3-1))</f>
+        <f t="shared" ref="X220" si="4471">MIN(0,(AB220/AB$3-1))</f>
         <v>0</v>
       </c>
       <c r="Y220" s="14">
-        <f t="shared" ref="Y220" si="4479">MIN(0,(L220/L$3-1))</f>
+        <f t="shared" ref="Y220" si="4472">MIN(0,(L220/L$3-1))</f>
         <v>0</v>
       </c>
       <c r="Z220" s="45">
         <v>6601.15</v>
       </c>
       <c r="AA220" s="2">
-        <f t="shared" ref="AA220" si="4480">Z220/Z219-1</f>
+        <f t="shared" ref="AA220" si="4473">Z220/Z219-1</f>
         <v>4.9339751611419125E-3</v>
       </c>
       <c r="AB220" s="9">
-        <f t="shared" ref="AB220" si="4481">AB219*(1+AA220)</f>
+        <f t="shared" ref="AB220" si="4474">AB219*(1+AA220)</f>
         <v>118.80071771927952</v>
       </c>
       <c r="AC220" s="50">
-        <f t="shared" si="4423"/>
+        <f t="shared" si="4420"/>
         <v>7.2601650703354448E-3</v>
       </c>
       <c r="AD220" s="37">
+        <f t="shared" si="4421"/>
+        <v>7.2601650703354448E-3</v>
+      </c>
+      <c r="AE220" s="14">
+        <f t="shared" si="4455"/>
+        <v>1.4873060454284825E-3</v>
+      </c>
+      <c r="AF220">
+        <f t="shared" si="4456"/>
+        <v>118.87374885068132</v>
+      </c>
+      <c r="AG220" s="14">
         <f t="shared" si="4424"/>
-        <v>7.2601650703354448E-3</v>
-      </c>
-      <c r="AE220" s="14">
-        <f t="shared" si="4460"/>
-        <v>1.4873060454284825E-3</v>
-      </c>
-      <c r="AF220">
-        <f t="shared" si="4461"/>
-        <v>118.87374885068132</v>
-      </c>
-      <c r="AG220" s="14">
-        <f t="shared" si="4427"/>
         <v>-1.1663281920590851E-2</v>
       </c>
       <c r="AH220" s="14">
-        <f t="shared" si="4428"/>
+        <f t="shared" si="4425"/>
         <v>-1.1663281920590851E-2</v>
       </c>
       <c r="AI220" s="14">
-        <f t="shared" si="4462"/>
+        <f t="shared" si="4457"/>
         <v>-1.8923446990926296E-2</v>
       </c>
       <c r="AJ220" s="27">
@@ -39004,19 +38970,19 @@
         <v>34.349200000000003</v>
       </c>
       <c r="AK220" s="2">
-        <f t="shared" ref="AK220" si="4482">AJ220/AJ219-1</f>
+        <f t="shared" ref="AK220" si="4475">AJ220/AJ219-1</f>
         <v>7.0982288145282624E-3</v>
       </c>
       <c r="AL220" s="9">
-        <f t="shared" ref="AL220" si="4483">AL219*(1+AK220)</f>
+        <f t="shared" ref="AL220" si="4476">AL219*(1+AK220)</f>
         <v>113.68185548995203</v>
       </c>
       <c r="AM220" s="2">
-        <f t="shared" si="4432"/>
+        <f t="shared" si="4429"/>
         <v>7.3079178885631091E-3</v>
       </c>
       <c r="AN220" s="2">
-        <f t="shared" si="4433"/>
+        <f t="shared" si="4430"/>
         <v>7.3079178885631091E-3</v>
       </c>
       <c r="AO220" s="1">
@@ -39040,15 +39006,15 @@
         <v>129.1</v>
       </c>
       <c r="D221">
+        <f t="shared" si="4401"/>
+        <v>20885.07</v>
+      </c>
+      <c r="E221" s="14">
         <f t="shared" si="4402"/>
-        <v>20885.07</v>
-      </c>
-      <c r="E221" s="14">
+        <v>0.99381855076377534</v>
+      </c>
+      <c r="F221" s="14">
         <f t="shared" si="4403"/>
-        <v>0.99381855076377534</v>
-      </c>
-      <c r="F221" s="14">
-        <f t="shared" si="4404"/>
         <v>6.1814492362247285E-3</v>
       </c>
       <c r="G221" s="1">
@@ -39060,109 +39026,109 @@
         <v>3274.7</v>
       </c>
       <c r="I221" s="2">
-        <f t="shared" ref="I221" si="4484">H221/H220-1</f>
+        <f t="shared" ref="I221" si="4477">H221/H220-1</f>
         <v>6.6583872316356985E-3</v>
       </c>
       <c r="J221" s="2">
-        <f t="shared" si="4406"/>
+        <f t="shared" si="4405"/>
         <v>3.2337788665921519E-3</v>
       </c>
       <c r="K221" s="9">
-        <f t="shared" ref="K221" si="4485">K220*(1+I221)</f>
+        <f t="shared" ref="K221" si="4478">K220*(1+I221)</f>
         <v>117.60501923152904</v>
       </c>
       <c r="L221" s="9">
-        <f t="shared" ref="L221" si="4486">L220*(1+J221)</f>
+        <f t="shared" ref="L221" si="4479">L220*(1+J221)</f>
         <v>120.28394633689534</v>
       </c>
       <c r="M221" s="50">
+        <f t="shared" si="4408"/>
+        <v>1.3594240400151003E-2</v>
+      </c>
+      <c r="N221" s="50">
         <f t="shared" si="4409"/>
+        <v>-8.2700079727507925E-3</v>
+      </c>
+      <c r="O221" s="22">
+        <f t="shared" si="4434"/>
         <v>1.3594240400151003E-2</v>
       </c>
-      <c r="N221" s="50">
-        <f t="shared" si="4410"/>
+      <c r="P221" s="34">
+        <f t="shared" si="4435"/>
         <v>-8.2700079727507925E-3</v>
-      </c>
-      <c r="O221" s="22">
-        <f t="shared" ref="O221" si="4487">K221/$K$3-1</f>
-        <v>0.1760501923152904</v>
-      </c>
-      <c r="P221" s="34">
-        <f t="shared" ref="P221" si="4488">L221/$L$3-1</f>
-        <v>0.20283946336895342</v>
       </c>
       <c r="Q221" s="4">
         <v>20755.97</v>
       </c>
       <c r="R221">
+        <f t="shared" si="4410"/>
+        <v>20885.07</v>
+      </c>
+      <c r="S221" s="25">
+        <f t="shared" ref="S221" si="4480">R221/R220-1</f>
+        <v>3.2337788665919298E-3</v>
+      </c>
+      <c r="T221" s="26">
+        <f t="shared" si="4412"/>
+        <v>-8.2700079727511255E-3</v>
+      </c>
+      <c r="U221" s="26">
         <f t="shared" si="4413"/>
-        <v>20885.07</v>
-      </c>
-      <c r="S221" s="25">
-        <f t="shared" ref="S221" si="4489">R221/R220-1</f>
-        <v>3.2337788665919298E-3</v>
-      </c>
-      <c r="T221" s="26">
+        <v>-8.2700079727511255E-3</v>
+      </c>
+      <c r="V221" s="2">
+        <f t="shared" si="4437"/>
+        <v>-2.2738376946857541E-2</v>
+      </c>
+      <c r="W221" s="2">
         <f t="shared" si="4415"/>
-        <v>-8.2700079727511255E-3</v>
-      </c>
-      <c r="U221" s="26">
-        <f t="shared" si="4416"/>
-        <v>-8.2700079727511255E-3</v>
-      </c>
-      <c r="V221" s="2">
-        <f t="shared" si="4440"/>
-        <v>-2.2738376946857541E-2</v>
-      </c>
-      <c r="W221" s="2">
-        <f t="shared" si="4418"/>
         <v>-2.2501945679985313E-2</v>
       </c>
       <c r="X221" s="14">
-        <f t="shared" ref="X221" si="4490">MIN(0,(AB221/AB$3-1))</f>
+        <f t="shared" ref="X221" si="4481">MIN(0,(AB221/AB$3-1))</f>
         <v>0</v>
       </c>
       <c r="Y221" s="14">
-        <f t="shared" ref="Y221" si="4491">MIN(0,(L221/L$3-1))</f>
+        <f t="shared" ref="Y221" si="4482">MIN(0,(L221/L$3-1))</f>
         <v>0</v>
       </c>
       <c r="Z221" s="45">
         <v>6646.84</v>
       </c>
       <c r="AA221" s="2">
-        <f t="shared" ref="AA221" si="4492">Z221/Z220-1</f>
+        <f t="shared" ref="AA221" si="4483">Z221/Z220-1</f>
         <v>6.9215212500852719E-3</v>
       </c>
       <c r="AB221" s="9">
-        <f t="shared" ref="AB221" si="4493">AB220*(1+AA221)</f>
+        <f t="shared" ref="AB221" si="4484">AB220*(1+AA221)</f>
         <v>119.6229994114989</v>
       </c>
       <c r="AC221" s="50">
-        <f t="shared" si="4423"/>
+        <f t="shared" si="4420"/>
         <v>1.4231937707234188E-2</v>
       </c>
       <c r="AD221" s="37">
+        <f t="shared" si="4421"/>
+        <v>1.4231937707234188E-2</v>
+      </c>
+      <c r="AE221" s="14">
+        <f t="shared" si="4455"/>
+        <v>3.1940963269096122E-3</v>
+      </c>
+      <c r="AF221">
+        <f t="shared" si="4456"/>
+        <v>119.25344305525127</v>
+      </c>
+      <c r="AG221" s="14">
         <f t="shared" si="4424"/>
-        <v>1.4231937707234188E-2</v>
-      </c>
-      <c r="AE221" s="14">
-        <f t="shared" si="4460"/>
-        <v>3.1940963269096122E-3</v>
-      </c>
-      <c r="AF221">
-        <f t="shared" si="4461"/>
-        <v>119.25344305525127</v>
-      </c>
-      <c r="AG221" s="14">
-        <f t="shared" si="4427"/>
         <v>-8.5064392396233535E-3</v>
       </c>
       <c r="AH221" s="14">
-        <f t="shared" si="4428"/>
+        <f t="shared" si="4425"/>
         <v>-8.5064392396233535E-3</v>
       </c>
       <c r="AI221" s="14">
-        <f t="shared" si="4462"/>
+        <f t="shared" si="4457"/>
         <v>-2.2738376946857541E-2</v>
       </c>
       <c r="AJ221" s="27">
@@ -39170,19 +39136,19 @@
         <v>34.618499999999997</v>
       </c>
       <c r="AK221" s="2">
-        <f t="shared" ref="AK221" si="4494">AJ221/AJ220-1</f>
+        <f t="shared" ref="AK221" si="4485">AJ221/AJ220-1</f>
         <v>7.8400661441895281E-3</v>
       </c>
       <c r="AL221" s="9">
-        <f t="shared" ref="AL221" si="4495">AL220*(1+AK221)</f>
+        <f t="shared" ref="AL221" si="4486">AL220*(1+AK221)</f>
         <v>114.57312875638745</v>
       </c>
       <c r="AM221" s="2">
-        <f t="shared" si="4432"/>
+        <f t="shared" si="4429"/>
         <v>1.5205278592375304E-2</v>
       </c>
       <c r="AN221" s="2">
-        <f t="shared" si="4433"/>
+        <f t="shared" si="4430"/>
         <v>1.5205278592375304E-2</v>
       </c>
       <c r="AO221" s="1">
@@ -39205,19 +39171,19 @@
         <v>129.1</v>
       </c>
       <c r="D222">
-        <f t="shared" ref="D222:D230" si="4496">B222+C222</f>
+        <f t="shared" ref="D222:D232" si="4487">B222+C222</f>
         <v>20939.25</v>
       </c>
       <c r="E222" s="14">
-        <f t="shared" ref="E222:E230" si="4497">B222/D222</f>
+        <f t="shared" ref="E222:E232" si="4488">B222/D222</f>
         <v>0.99383454517234382</v>
       </c>
       <c r="F222" s="14">
-        <f t="shared" ref="F222:F230" si="4498">C222/D222</f>
+        <f t="shared" ref="F222:F232" si="4489">C222/D222</f>
         <v>6.1654548276561952E-3</v>
       </c>
       <c r="G222" s="1">
-        <f t="shared" ref="G222:G230" si="4499">SUM(E222:F222)</f>
+        <f t="shared" ref="G222:G232" si="4490">SUM(E222:F222)</f>
         <v>1</v>
       </c>
       <c r="H222" s="15">
@@ -39225,109 +39191,109 @@
         <v>3265.35</v>
       </c>
       <c r="I222" s="2">
-        <f t="shared" ref="I222" si="4500">H222/H221-1</f>
+        <f t="shared" ref="I222" si="4491">H222/H221-1</f>
         <v>-2.8552233792408233E-3</v>
       </c>
       <c r="J222" s="2">
-        <f t="shared" si="4406"/>
+        <f t="shared" si="4405"/>
         <v>2.5941976732661853E-3</v>
       </c>
       <c r="K222" s="9">
-        <f t="shared" ref="K222" si="4501">K221*(1+I222)</f>
+        <f t="shared" ref="K222" si="4492">K221*(1+I222)</f>
         <v>117.26923063110311</v>
       </c>
       <c r="L222" s="9">
-        <f t="shared" ref="L222" si="4502">L221*(1+J222)</f>
+        <f t="shared" ref="L222" si="4493">L221*(1+J222)</f>
         <v>120.59598667061378</v>
       </c>
       <c r="M222" s="50">
+        <f t="shared" si="4408"/>
+        <v>1.0700202427896599E-2</v>
+      </c>
+      <c r="N222" s="50">
         <f t="shared" si="4409"/>
+        <v>-5.6972643349254559E-3</v>
+      </c>
+      <c r="O222" s="22">
+        <f t="shared" si="4434"/>
         <v>1.0700202427896599E-2</v>
       </c>
-      <c r="N222" s="50">
-        <f t="shared" si="4410"/>
+      <c r="P222" s="34">
+        <f t="shared" si="4435"/>
         <v>-5.6972643349254559E-3</v>
-      </c>
-      <c r="O222" s="22">
-        <f t="shared" ref="O222" si="4503">K222/$K$3-1</f>
-        <v>0.17269230631103105</v>
-      </c>
-      <c r="P222" s="34">
-        <f t="shared" ref="P222" si="4504">L222/$L$3-1</f>
-        <v>0.20595986670613775</v>
       </c>
       <c r="Q222" s="4">
         <v>20810.150000000001</v>
       </c>
       <c r="R222">
+        <f t="shared" si="4410"/>
+        <v>20939.25</v>
+      </c>
+      <c r="S222" s="25">
+        <f t="shared" ref="S222" si="4494">R222/R221-1</f>
+        <v>2.5941976732661853E-3</v>
+      </c>
+      <c r="T222" s="26">
+        <f t="shared" si="4412"/>
+        <v>-5.697264334925789E-3</v>
+      </c>
+      <c r="U222" s="26">
         <f t="shared" si="4413"/>
-        <v>20939.25</v>
-      </c>
-      <c r="S222" s="25">
-        <f t="shared" ref="S222" si="4505">R222/R221-1</f>
-        <v>2.5941976732661853E-3</v>
-      </c>
-      <c r="T222" s="26">
+        <v>-5.697264334925789E-3</v>
+      </c>
+      <c r="V222" s="2">
+        <f t="shared" si="4437"/>
+        <v>-1.7310986105435355E-2</v>
+      </c>
+      <c r="W222" s="2">
         <f t="shared" si="4415"/>
-        <v>-5.697264334925789E-3</v>
-      </c>
-      <c r="U222" s="26">
-        <f t="shared" si="4416"/>
-        <v>-5.697264334925789E-3</v>
-      </c>
-      <c r="V222" s="2">
-        <f t="shared" si="4440"/>
-        <v>-1.7310986105435355E-2</v>
-      </c>
-      <c r="W222" s="2">
-        <f t="shared" si="4418"/>
         <v>-1.7034596506551036E-2</v>
       </c>
       <c r="X222" s="14">
-        <f t="shared" ref="X222" si="4506">MIN(0,(AB222/AB$3-1))</f>
+        <f t="shared" ref="X222" si="4495">MIN(0,(AB222/AB$3-1))</f>
         <v>0</v>
       </c>
       <c r="Y222" s="14">
-        <f t="shared" ref="Y222" si="4507">MIN(0,(L222/L$3-1))</f>
+        <f t="shared" ref="Y222" si="4496">MIN(0,(L222/L$3-1))</f>
         <v>0</v>
       </c>
       <c r="Z222" s="45">
         <v>6627.87</v>
       </c>
       <c r="AA222" s="2">
-        <f t="shared" ref="AA222" si="4508">Z222/Z221-1</f>
+        <f t="shared" ref="AA222" si="4497">Z222/Z221-1</f>
         <v>-2.8539877595971097E-3</v>
       </c>
       <c r="AB222" s="9">
-        <f t="shared" ref="AB222" si="4509">AB221*(1+AA222)</f>
+        <f t="shared" ref="AB222" si="4498">AB221*(1+AA222)</f>
         <v>119.28159683541219</v>
       </c>
       <c r="AC222" s="50">
-        <f t="shared" si="4423"/>
+        <f t="shared" si="4420"/>
         <v>1.1337332171625247E-2</v>
       </c>
       <c r="AD222" s="37">
+        <f t="shared" si="4421"/>
+        <v>1.1337332171625247E-2</v>
+      </c>
+      <c r="AE222" s="14">
+        <f t="shared" si="4455"/>
+        <v>2.5545151335836457E-3</v>
+      </c>
+      <c r="AF222">
+        <f t="shared" si="4456"/>
+        <v>119.55807778026788</v>
+      </c>
+      <c r="AG222" s="14">
         <f t="shared" si="4424"/>
-        <v>1.1337332171625247E-2</v>
-      </c>
-      <c r="AE222" s="14">
-        <f t="shared" si="4460"/>
-        <v>2.5545151335836457E-3</v>
-      </c>
-      <c r="AF222">
-        <f t="shared" si="4461"/>
-        <v>119.55807778026788</v>
-      </c>
-      <c r="AG222" s="14">
-        <f t="shared" si="4427"/>
         <v>-5.973653933810108E-3</v>
       </c>
       <c r="AH222" s="14">
-        <f t="shared" si="4428"/>
+        <f t="shared" si="4425"/>
         <v>-5.973653933810108E-3</v>
       </c>
       <c r="AI222" s="14">
-        <f t="shared" si="4462"/>
+        <f t="shared" si="4457"/>
         <v>-1.7310986105435355E-2</v>
       </c>
       <c r="AJ222" s="27">
@@ -39335,19 +39301,19 @@
         <v>34.522199999999998</v>
       </c>
       <c r="AK222" s="2">
-        <f t="shared" ref="AK222" si="4510">AJ222/AJ221-1</f>
+        <f t="shared" ref="AK222" si="4499">AJ222/AJ221-1</f>
         <v>-2.7817496425321941E-3</v>
       </c>
       <c r="AL222" s="9">
-        <f t="shared" ref="AL222" si="4511">AL221*(1+AK222)</f>
+        <f t="shared" ref="AL222" si="4500">AL221*(1+AK222)</f>
         <v>114.25441499642557</v>
       </c>
       <c r="AM222" s="2">
-        <f t="shared" si="4432"/>
+        <f t="shared" si="4429"/>
         <v>1.2381231671554138E-2</v>
       </c>
       <c r="AN222" s="2">
-        <f t="shared" si="4433"/>
+        <f t="shared" si="4430"/>
         <v>1.2381231671554138E-2</v>
       </c>
       <c r="AO222" s="1">
@@ -39370,19 +39336,19 @@
         <v>129.1</v>
       </c>
       <c r="D223">
-        <f t="shared" si="4496"/>
+        <f t="shared" si="4487"/>
         <v>21129.71</v>
       </c>
       <c r="E223" s="14">
-        <f t="shared" si="4497"/>
+        <f t="shared" si="4488"/>
         <v>0.9938901196466966</v>
       </c>
       <c r="F223" s="14">
-        <f t="shared" si="4498"/>
+        <f t="shared" si="4489"/>
         <v>6.1098803533034766E-3</v>
       </c>
       <c r="G223" s="1">
-        <f t="shared" si="4499"/>
+        <f t="shared" si="4490"/>
         <v>1</v>
       </c>
       <c r="H223" s="15">
@@ -39390,109 +39356,109 @@
         <v>3288.13</v>
       </c>
       <c r="I223" s="2">
-        <f t="shared" ref="I223" si="4512">H223/H222-1</f>
+        <f t="shared" ref="I223" si="4501">H223/H222-1</f>
         <v>6.9762812562206289E-3</v>
       </c>
       <c r="J223" s="2">
-        <f t="shared" ref="J223" si="4513">D223/D222-1</f>
+        <f t="shared" ref="J223" si="4502">D223/D222-1</f>
         <v>9.0958367658822148E-3</v>
       </c>
       <c r="K223" s="9">
-        <f t="shared" ref="K223" si="4514">K222*(1+I223)</f>
+        <f t="shared" ref="K223" si="4503">K222*(1+I223)</f>
         <v>118.08733376668629</v>
       </c>
       <c r="L223" s="9">
-        <f t="shared" ref="L223" si="4515">L222*(1+J223)</f>
+        <f t="shared" ref="L223" si="4504">L222*(1+J223)</f>
         <v>121.69290807999019</v>
       </c>
       <c r="M223" s="50">
-        <f t="shared" ref="M223" si="4516">K223/$K$215-1</f>
+        <f t="shared" ref="M223" si="4505">K223/$K$215-1</f>
         <v>1.7751131305752788E-2</v>
       </c>
       <c r="N223" s="50">
-        <f t="shared" ref="N223" si="4517">L223/$L$215-1</f>
+        <f t="shared" ref="N223" si="4506">L223/$L$215-1</f>
         <v>3.3467510445541748E-3</v>
       </c>
       <c r="O223" s="22">
-        <f t="shared" ref="O223" si="4518">K223/$K$3-1</f>
-        <v>0.18087333766686275</v>
+        <f t="shared" si="4434"/>
+        <v>1.7751131305752788E-2</v>
       </c>
       <c r="P223" s="34">
-        <f t="shared" ref="P223" si="4519">L223/$L$3-1</f>
-        <v>0.21692908079990181</v>
+        <f t="shared" si="4435"/>
+        <v>3.3467510445541748E-3</v>
       </c>
       <c r="Q223" s="4">
         <v>21000.61</v>
       </c>
       <c r="R223">
-        <f t="shared" ref="R223" si="4520">Q223+C223</f>
+        <f t="shared" ref="R223" si="4507">Q223+C223</f>
         <v>21129.71</v>
       </c>
       <c r="S223" s="25">
-        <f t="shared" ref="S223" si="4521">R223/R222-1</f>
+        <f t="shared" ref="S223" si="4508">R223/R222-1</f>
         <v>9.0958367658822148E-3</v>
       </c>
       <c r="T223" s="26">
-        <f t="shared" ref="T223" si="4522">R223/$R$215-1</f>
+        <f t="shared" ref="T223" si="4509">R223/$R$215-1</f>
         <v>3.3467510445537307E-3</v>
       </c>
       <c r="U223" s="26">
-        <f t="shared" ref="U223" si="4523">R223/$R$215-1</f>
+        <f t="shared" ref="U223" si="4510">R223/$R$215-1</f>
         <v>3.3467510445537307E-3</v>
       </c>
       <c r="V223" s="2">
-        <f t="shared" ref="V223" si="4524">AG223-AC223</f>
+        <f t="shared" ref="V223" si="4511">AG223-AC223</f>
         <v>-1.5367678343251256E-2</v>
       </c>
       <c r="W223" s="2">
-        <f t="shared" ref="W223" si="4525">U223-AD223</f>
+        <f t="shared" ref="W223" si="4512">U223-AD223</f>
         <v>-1.5049329259768651E-2</v>
       </c>
       <c r="X223" s="14">
-        <f t="shared" ref="X223" si="4526">MIN(0,(AB223/AB$3-1))</f>
+        <f t="shared" ref="X223" si="4513">MIN(0,(AB223/AB$3-1))</f>
         <v>0</v>
       </c>
       <c r="Y223" s="14">
-        <f t="shared" ref="Y223" si="4527">MIN(0,(L223/L$3-1))</f>
+        <f t="shared" ref="Y223" si="4514">MIN(0,(L223/L$3-1))</f>
         <v>0</v>
       </c>
       <c r="Z223" s="45">
         <v>6674.13</v>
       </c>
       <c r="AA223" s="2">
-        <f t="shared" ref="AA223" si="4528">Z223/Z222-1</f>
+        <f t="shared" ref="AA223" si="4515">Z223/Z222-1</f>
         <v>6.9796178862893132E-3</v>
       </c>
       <c r="AB223" s="9">
-        <f t="shared" ref="AB223" si="4529">AB222*(1+AA223)</f>
+        <f t="shared" ref="AB223" si="4516">AB222*(1+AA223)</f>
         <v>120.11413680218978</v>
       </c>
       <c r="AC223" s="50">
-        <f t="shared" ref="AC223" si="4530">AB223/$AB$215-1</f>
+        <f t="shared" ref="AC223" si="4517">AB223/$AB$215-1</f>
         <v>1.8396080304322382E-2</v>
       </c>
       <c r="AD223" s="37">
-        <f t="shared" ref="AD223" si="4531">AB223/$AB$215-1</f>
+        <f t="shared" ref="AD223" si="4518">AB223/$AB$215-1</f>
         <v>1.8396080304322382E-2</v>
       </c>
       <c r="AE223" s="14">
-        <f t="shared" si="4460"/>
+        <f t="shared" si="4455"/>
         <v>9.0561542261996756E-3</v>
       </c>
       <c r="AF223">
-        <f t="shared" si="4461"/>
+        <f t="shared" si="4456"/>
         <v>120.64081417163398</v>
       </c>
       <c r="AG223" s="14">
-        <f t="shared" ref="AG223" si="4532">AF223/$AF$215-1</f>
+        <f t="shared" ref="AG223" si="4519">AF223/$AF$215-1</f>
         <v>3.0284019610711255E-3</v>
       </c>
       <c r="AH223" s="14">
-        <f t="shared" ref="AH223" si="4533">AF223/$AF$215-1</f>
+        <f t="shared" ref="AH223" si="4520">AF223/$AF$215-1</f>
         <v>3.0284019610711255E-3</v>
       </c>
       <c r="AI223" s="14">
-        <f t="shared" si="4462"/>
+        <f t="shared" si="4457"/>
         <v>-1.5367678343251256E-2</v>
       </c>
       <c r="AJ223" s="27">
@@ -39500,19 +39466,19 @@
         <v>34.792499999999997</v>
       </c>
       <c r="AK223" s="2">
-        <f t="shared" ref="AK223" si="4534">AJ223/AJ222-1</f>
+        <f t="shared" ref="AK223" si="4521">AJ223/AJ222-1</f>
         <v>7.8297443384256482E-3</v>
       </c>
       <c r="AL223" s="9">
-        <f t="shared" ref="AL223" si="4535">AL222*(1+AK223)</f>
+        <f t="shared" ref="AL223" si="4522">AL222*(1+AK223)</f>
         <v>115.14899785538397</v>
       </c>
       <c r="AM223" s="2">
-        <f t="shared" ref="AM223" si="4536">AL223/$AL$215-1</f>
+        <f t="shared" ref="AM223" si="4523">AL223/$AL$215-1</f>
         <v>2.0307917888562788E-2</v>
       </c>
       <c r="AN223" s="2">
-        <f t="shared" ref="AN223" si="4537">AL223/$AL$215-1</f>
+        <f t="shared" ref="AN223" si="4524">AL223/$AL$215-1</f>
         <v>2.0307917888562788E-2</v>
       </c>
       <c r="AO223" s="1">
@@ -39535,19 +39501,19 @@
         <v>129.1</v>
       </c>
       <c r="D224">
-        <f t="shared" si="4496"/>
+        <f t="shared" si="4487"/>
         <v>21096.42</v>
       </c>
       <c r="E224" s="14">
-        <f t="shared" si="4497"/>
+        <f t="shared" si="4488"/>
         <v>0.99388047829916171</v>
       </c>
       <c r="F224" s="14">
-        <f t="shared" si="4498"/>
+        <f t="shared" si="4489"/>
         <v>6.1195217008383415E-3</v>
       </c>
       <c r="G224" s="1">
-        <f t="shared" si="4499"/>
+        <f t="shared" si="4490"/>
         <v>1</v>
       </c>
       <c r="H224" s="15">
@@ -39555,109 +39521,109 @@
         <v>3283.15</v>
       </c>
       <c r="I224" s="2">
-        <f t="shared" ref="I224" si="4538">H224/H223-1</f>
+        <f t="shared" ref="I224" si="4525">H224/H223-1</f>
         <v>-1.5145386587512855E-3</v>
       </c>
       <c r="J224" s="2">
-        <f t="shared" ref="J224" si="4539">D224/D223-1</f>
+        <f t="shared" ref="J224" si="4526">D224/D223-1</f>
         <v>-1.575506715425834E-3</v>
       </c>
       <c r="K224" s="9">
-        <f t="shared" ref="K224" si="4540">K223*(1+I224)</f>
+        <f t="shared" ref="K224" si="4527">K223*(1+I224)</f>
         <v>117.90848593458777</v>
       </c>
       <c r="L224" s="9">
-        <f t="shared" ref="L224" si="4541">L223*(1+J224)</f>
+        <f t="shared" ref="L224" si="4528">L223*(1+J224)</f>
         <v>121.50118008609047</v>
       </c>
       <c r="M224" s="50">
-        <f t="shared" ref="M224" si="4542">K224/$K$215-1</f>
+        <f t="shared" ref="M224" si="4529">K224/$K$215-1</f>
         <v>1.620970787240239E-2</v>
       </c>
       <c r="N224" s="50">
-        <f t="shared" ref="N224" si="4543">L224/$L$215-1</f>
+        <f t="shared" ref="N224" si="4530">L224/$L$215-1</f>
         <v>1.7659715003828236E-3</v>
       </c>
       <c r="O224" s="22">
-        <f t="shared" ref="O224" si="4544">K224/$K$3-1</f>
-        <v>0.17908485934587781</v>
+        <f t="shared" si="4434"/>
+        <v>1.620970787240239E-2</v>
       </c>
       <c r="P224" s="34">
-        <f t="shared" ref="P224" si="4545">L224/$L$3-1</f>
-        <v>0.21501180086090477</v>
+        <f t="shared" si="4435"/>
+        <v>1.7659715003828236E-3</v>
       </c>
       <c r="Q224" s="4">
         <v>20967.32</v>
       </c>
       <c r="R224">
-        <f t="shared" ref="R224" si="4546">Q224+C224</f>
+        <f t="shared" ref="R224" si="4531">Q224+C224</f>
         <v>21096.42</v>
       </c>
       <c r="S224" s="25">
-        <f t="shared" ref="S224" si="4547">R224/R223-1</f>
+        <f t="shared" ref="S224" si="4532">R224/R223-1</f>
         <v>-1.575506715425834E-3</v>
       </c>
       <c r="T224" s="26">
-        <f t="shared" ref="T224" si="4548">R224/$R$215-1</f>
+        <f t="shared" ref="T224" si="4533">R224/$R$215-1</f>
         <v>1.7659715003823795E-3</v>
       </c>
       <c r="U224" s="26">
-        <f t="shared" ref="U224" si="4549">R224/$R$215-1</f>
+        <f t="shared" ref="U224" si="4534">R224/$R$215-1</f>
         <v>1.7659715003823795E-3</v>
       </c>
       <c r="V224" s="2">
-        <f t="shared" ref="V224" si="4550">AG224-AC224</f>
+        <f t="shared" ref="V224" si="4535">AG224-AC224</f>
         <v>-1.554274510169984E-2</v>
       </c>
       <c r="W224" s="2">
-        <f t="shared" ref="W224" si="4551">U224-AD224</f>
+        <f t="shared" ref="W224" si="4536">U224-AD224</f>
         <v>-1.5185094864972548E-2</v>
       </c>
       <c r="X224" s="14">
-        <f t="shared" ref="X224" si="4552">MIN(0,(AB224/AB$3-1))</f>
+        <f t="shared" ref="X224" si="4537">MIN(0,(AB224/AB$3-1))</f>
         <v>0</v>
       </c>
       <c r="Y224" s="14">
-        <f t="shared" ref="Y224" si="4553">MIN(0,(L224/L$3-1))</f>
+        <f t="shared" ref="Y224" si="4538">MIN(0,(L224/L$3-1))</f>
         <v>0</v>
       </c>
       <c r="Z224" s="45">
         <v>6664.66</v>
       </c>
       <c r="AA224" s="2">
-        <f t="shared" ref="AA224" si="4554">Z224/Z223-1</f>
+        <f t="shared" ref="AA224" si="4539">Z224/Z223-1</f>
         <v>-1.418911528543787E-3</v>
       </c>
       <c r="AB224" s="9">
-        <f t="shared" ref="AB224" si="4555">AB223*(1+AA224)</f>
+        <f t="shared" ref="AB224" si="4540">AB223*(1+AA224)</f>
         <v>119.94370546874006</v>
       </c>
       <c r="AC224" s="50">
-        <f t="shared" ref="AC224" si="4556">AB224/$AB$215-1</f>
+        <f t="shared" ref="AC224" si="4541">AB224/$AB$215-1</f>
         <v>1.6951066365354928E-2</v>
       </c>
       <c r="AD224" s="37">
-        <f t="shared" ref="AD224" si="4557">AB224/$AB$215-1</f>
+        <f t="shared" ref="AD224" si="4542">AB224/$AB$215-1</f>
         <v>1.6951066365354928E-2</v>
       </c>
       <c r="AE224" s="14">
-        <f t="shared" ref="AE224" si="4558">J224-($AE$1/252)</f>
+        <f t="shared" ref="AE224" si="4543">J224-($AE$1/252)</f>
         <v>-1.6151892551083736E-3</v>
       </c>
       <c r="AF224">
-        <f t="shared" ref="AF224" si="4559">AF223*(1+AE224)</f>
+        <f t="shared" ref="AF224" si="4544">AF223*(1+AE224)</f>
         <v>120.44595642485642</v>
       </c>
       <c r="AG224" s="14">
-        <f t="shared" ref="AG224" si="4560">AF224/$AF$215-1</f>
+        <f t="shared" ref="AG224" si="4545">AF224/$AF$215-1</f>
         <v>1.4083212636550879E-3</v>
       </c>
       <c r="AH224" s="14">
-        <f t="shared" ref="AH224" si="4561">AF224/$AF$215-1</f>
+        <f t="shared" ref="AH224" si="4546">AF224/$AF$215-1</f>
         <v>1.4083212636550879E-3</v>
       </c>
       <c r="AI224" s="14">
-        <f t="shared" ref="AI224" si="4562">AH224-AD224</f>
+        <f t="shared" ref="AI224" si="4547">AH224-AD224</f>
         <v>-1.554274510169984E-2</v>
       </c>
       <c r="AJ224" s="27">
@@ -39665,19 +39631,19 @@
         <v>34.693300000000001</v>
       </c>
       <c r="AK224" s="2">
-        <f t="shared" ref="AK224" si="4563">AJ224/AJ223-1</f>
+        <f t="shared" ref="AK224" si="4548">AJ224/AJ223-1</f>
         <v>-2.8511891930731448E-3</v>
       </c>
       <c r="AL224" s="9">
-        <f t="shared" ref="AL224" si="4564">AL223*(1+AK224)</f>
+        <f t="shared" ref="AL224" si="4549">AL223*(1+AK224)</f>
         <v>114.82068627710549</v>
       </c>
       <c r="AM224" s="2">
-        <f t="shared" ref="AM224" si="4565">AL224/$AL$215-1</f>
+        <f t="shared" ref="AM224" si="4550">AL224/$AL$215-1</f>
         <v>1.7398826979472037E-2</v>
       </c>
       <c r="AN224" s="2">
-        <f t="shared" ref="AN224" si="4566">AL224/$AL$215-1</f>
+        <f t="shared" ref="AN224" si="4551">AL224/$AL$215-1</f>
         <v>1.7398826979472037E-2</v>
       </c>
       <c r="AO224" s="1">
@@ -39700,19 +39666,19 @@
         <v>129.1</v>
       </c>
       <c r="D225">
-        <f t="shared" si="4496"/>
+        <f t="shared" si="4487"/>
         <v>21264.17</v>
       </c>
       <c r="E225" s="14">
-        <f t="shared" si="4497"/>
+        <f t="shared" si="4488"/>
         <v>0.99392875433181738</v>
       </c>
       <c r="F225" s="14">
-        <f t="shared" si="4498"/>
+        <f t="shared" si="4489"/>
         <v>6.0712456681826753E-3</v>
       </c>
       <c r="G225" s="1">
-        <f t="shared" si="4499"/>
+        <f t="shared" si="4490"/>
         <v>1</v>
       </c>
       <c r="H225" s="15">
@@ -39720,109 +39686,109 @@
         <v>3289.29</v>
       </c>
       <c r="I225" s="2">
-        <f t="shared" ref="I225" si="4567">H225/H224-1</f>
+        <f t="shared" ref="I225" si="4552">H225/H224-1</f>
         <v>1.870155186330269E-3</v>
       </c>
       <c r="J225" s="2">
-        <f t="shared" ref="J225" si="4568">D225/D224-1</f>
+        <f t="shared" ref="J225" si="4553">D225/D224-1</f>
         <v>7.9515860984944453E-3</v>
       </c>
       <c r="K225" s="9">
-        <f t="shared" ref="K225" si="4569">K224*(1+I225)</f>
+        <f t="shared" ref="K225" si="4554">K224*(1+I225)</f>
         <v>118.12899310107069</v>
       </c>
       <c r="L225" s="9">
-        <f t="shared" ref="L225" si="4570">L224*(1+J225)</f>
+        <f t="shared" ref="L225" si="4555">L224*(1+J225)</f>
         <v>122.4673071806137</v>
       </c>
       <c r="M225" s="50">
-        <f t="shared" ref="M225" si="4571">K225/$K$215-1</f>
+        <f t="shared" ref="M225" si="4556">K225/$K$215-1</f>
         <v>1.8110177727979071E-2</v>
       </c>
       <c r="N225" s="50">
-        <f t="shared" ref="N225" si="4572">L225/$L$215-1</f>
+        <f t="shared" ref="N225" si="4557">L225/$L$215-1</f>
         <v>9.7315998733100706E-3</v>
       </c>
       <c r="O225" s="22">
-        <f t="shared" ref="O225" si="4573">K225/$K$3-1</f>
-        <v>0.18128993101070701</v>
+        <f t="shared" si="4434"/>
+        <v>1.8110177727979071E-2</v>
       </c>
       <c r="P225" s="34">
-        <f t="shared" ref="P225" si="4574">L225/$L$3-1</f>
-        <v>0.22467307180613694</v>
+        <f t="shared" si="4435"/>
+        <v>9.7315998733100706E-3</v>
       </c>
       <c r="Q225" s="4">
         <v>21135.069999999996</v>
       </c>
       <c r="R225">
-        <f t="shared" ref="R225" si="4575">Q225+C225</f>
+        <f t="shared" ref="R225" si="4558">Q225+C225</f>
         <v>21264.169999999995</v>
       </c>
       <c r="S225" s="25">
-        <f t="shared" ref="S225" si="4576">R225/R224-1</f>
+        <f t="shared" ref="S225" si="4559">R225/R224-1</f>
         <v>7.9515860984942233E-3</v>
       </c>
       <c r="T225" s="26">
-        <f t="shared" ref="T225" si="4577">R225/$R$215-1</f>
+        <f t="shared" ref="T225" si="4560">R225/$R$215-1</f>
         <v>9.7315998733094045E-3</v>
       </c>
       <c r="U225" s="26">
-        <f t="shared" ref="U225" si="4578">R225/$R$215-1</f>
+        <f t="shared" ref="U225" si="4561">R225/$R$215-1</f>
         <v>9.7315998733094045E-3</v>
       </c>
       <c r="V225" s="2">
-        <f t="shared" ref="V225" si="4579">AG225-AC225</f>
+        <f t="shared" ref="V225" si="4562">AG225-AC225</f>
         <v>-9.540789377892489E-3</v>
       </c>
       <c r="W225" s="2">
-        <f t="shared" ref="W225" si="4580">U225-AD225</f>
+        <f t="shared" ref="W225" si="4563">U225-AD225</f>
         <v>-9.1405568290678918E-3</v>
       </c>
       <c r="X225" s="14">
-        <f t="shared" ref="X225" si="4581">MIN(0,(AB225/AB$3-1))</f>
+        <f t="shared" ref="X225" si="4564">MIN(0,(AB225/AB$3-1))</f>
         <v>0</v>
       </c>
       <c r="Y225" s="14">
-        <f t="shared" ref="Y225" si="4582">MIN(0,(L225/L$3-1))</f>
+        <f t="shared" ref="Y225" si="4565">MIN(0,(L225/L$3-1))</f>
         <v>0</v>
       </c>
       <c r="Z225" s="45">
         <v>6677.25</v>
       </c>
       <c r="AA225" s="2">
-        <f t="shared" ref="AA225" si="4583">Z225/Z224-1</f>
+        <f t="shared" ref="AA225" si="4566">Z225/Z224-1</f>
         <v>1.8890686096515452E-3</v>
       </c>
       <c r="AB225" s="9">
-        <f t="shared" ref="AB225" si="4584">AB224*(1+AA225)</f>
+        <f t="shared" ref="AB225" si="4567">AB224*(1+AA225)</f>
         <v>120.17028735766635</v>
       </c>
       <c r="AC225" s="50">
-        <f t="shared" ref="AC225" si="4585">AB225/$AB$215-1</f>
+        <f t="shared" ref="AC225" si="4568">AB225/$AB$215-1</f>
         <v>1.8872156702377296E-2</v>
       </c>
       <c r="AD225" s="37">
-        <f t="shared" ref="AD225" si="4586">AB225/$AB$215-1</f>
+        <f t="shared" ref="AD225" si="4569">AB225/$AB$215-1</f>
         <v>1.8872156702377296E-2</v>
       </c>
       <c r="AE225" s="14">
-        <f t="shared" ref="AE225" si="4587">J225-($AE$1/252)</f>
+        <f t="shared" ref="AE225" si="4570">J225-($AE$1/252)</f>
         <v>7.9119035588119061E-3</v>
       </c>
       <c r="AF225">
-        <f t="shared" ref="AF225" si="4588">AF224*(1+AE225)</f>
+        <f t="shared" ref="AF225" si="4571">AF224*(1+AE225)</f>
         <v>121.39891321613875</v>
       </c>
       <c r="AG225" s="14">
-        <f t="shared" ref="AG225" si="4589">AF225/$AF$215-1</f>
+        <f t="shared" ref="AG225" si="4572">AF225/$AF$215-1</f>
         <v>9.3313673244848072E-3</v>
       </c>
       <c r="AH225" s="14">
-        <f t="shared" ref="AH225" si="4590">AF225/$AF$215-1</f>
+        <f t="shared" ref="AH225" si="4573">AF225/$AF$215-1</f>
         <v>9.3313673244848072E-3</v>
       </c>
       <c r="AI225" s="14">
-        <f t="shared" ref="AI225" si="4591">AH225-AD225</f>
+        <f t="shared" ref="AI225" si="4574">AH225-AD225</f>
         <v>-9.540789377892489E-3</v>
       </c>
       <c r="AJ225" s="27">
@@ -39830,19 +39796,19 @@
         <v>34.748899999999999</v>
       </c>
       <c r="AK225" s="2">
-        <f t="shared" ref="AK225" si="4592">AJ225/AJ224-1</f>
+        <f t="shared" ref="AK225" si="4575">AJ225/AJ224-1</f>
         <v>1.6026149141188384E-3</v>
       </c>
       <c r="AL225" s="9">
-        <f t="shared" ref="AL225" si="4593">AL224*(1+AK225)</f>
+        <f t="shared" ref="AL225" si="4576">AL224*(1+AK225)</f>
         <v>115.00469962138254</v>
       </c>
       <c r="AM225" s="2">
-        <f t="shared" ref="AM225" si="4594">AL225/$AL$215-1</f>
+        <f t="shared" ref="AM225" si="4577">AL225/$AL$215-1</f>
         <v>1.902932551319636E-2</v>
       </c>
       <c r="AN225" s="2">
-        <f t="shared" ref="AN225" si="4595">AL225/$AL$215-1</f>
+        <f t="shared" ref="AN225" si="4578">AL225/$AL$215-1</f>
         <v>1.902932551319636E-2</v>
       </c>
       <c r="AO225" s="1">
@@ -39865,19 +39831,19 @@
         <v>129.1</v>
       </c>
       <c r="D226">
-        <f t="shared" si="4496"/>
+        <f t="shared" si="4487"/>
         <v>21411.59</v>
       </c>
       <c r="E226" s="14">
-        <f t="shared" si="4497"/>
+        <f t="shared" si="4488"/>
         <v>0.99397055519931032</v>
       </c>
       <c r="F226" s="14">
-        <f t="shared" si="4498"/>
+        <f t="shared" si="4489"/>
         <v>6.0294448006897195E-3</v>
       </c>
       <c r="G226" s="1">
-        <f t="shared" si="4499"/>
+        <f t="shared" si="4490"/>
         <v>1</v>
       </c>
       <c r="H226" s="15">
@@ -39885,109 +39851,109 @@
         <v>3316.8</v>
       </c>
       <c r="I226" s="2">
-        <f t="shared" ref="I226" si="4596">H226/H225-1</f>
+        <f t="shared" ref="I226" si="4579">H226/H225-1</f>
         <v>8.3635070182319637E-3</v>
       </c>
       <c r="J226" s="2">
-        <f t="shared" ref="J226" si="4597">D226/D225-1</f>
+        <f t="shared" ref="J226" si="4580">D226/D225-1</f>
         <v>6.9327888179977482E-3</v>
       </c>
       <c r="K226" s="9">
-        <f t="shared" ref="K226" si="4598">K225*(1+I226)</f>
+        <f t="shared" ref="K226" si="4581">K225*(1+I226)</f>
         <v>119.11696576392816</v>
       </c>
       <c r="L226" s="9">
-        <f t="shared" ref="L226" si="4599">L225*(1+J226)</f>
+        <f t="shared" ref="L226" si="4582">L225*(1+J226)</f>
         <v>123.31634715840576</v>
       </c>
       <c r="M226" s="50">
-        <f t="shared" ref="M226" si="4600">K226/$K$215-1</f>
+        <f t="shared" ref="M226" si="4583">K226/$K$215-1</f>
         <v>2.6625149344740473E-2</v>
       </c>
       <c r="N226" s="50">
-        <f t="shared" ref="N226" si="4601">L226/$L$215-1</f>
+        <f t="shared" ref="N226" si="4584">L226/$L$215-1</f>
         <v>1.6731855818090668E-2</v>
       </c>
       <c r="O226" s="22">
-        <f t="shared" ref="O226" si="4602">K226/$K$3-1</f>
-        <v>0.19116965763928162</v>
+        <f t="shared" si="4434"/>
+        <v>2.6625149344740473E-2</v>
       </c>
       <c r="P226" s="34">
-        <f t="shared" ref="P226" si="4603">L226/$L$3-1</f>
-        <v>0.23316347158405759</v>
+        <f t="shared" si="4435"/>
+        <v>1.6731855818090668E-2</v>
       </c>
       <c r="Q226" s="4">
         <v>21282.489999999998</v>
       </c>
       <c r="R226">
-        <f t="shared" ref="R226" si="4604">Q226+C226</f>
+        <f t="shared" ref="R226" si="4585">Q226+C226</f>
         <v>21411.589999999997</v>
       </c>
       <c r="S226" s="25">
-        <f t="shared" ref="S226" si="4605">R226/R225-1</f>
+        <f t="shared" ref="S226" si="4586">R226/R225-1</f>
         <v>6.9327888179977482E-3</v>
       </c>
       <c r="T226" s="26">
-        <f t="shared" ref="T226" si="4606">R226/$R$215-1</f>
+        <f t="shared" ref="T226" si="4587">R226/$R$215-1</f>
         <v>1.6731855818090002E-2</v>
       </c>
       <c r="U226" s="26">
-        <f t="shared" ref="U226" si="4607">R226/$R$215-1</f>
+        <f t="shared" ref="U226" si="4588">R226/$R$215-1</f>
         <v>1.6731855818090002E-2</v>
       </c>
       <c r="V226" s="2">
-        <f t="shared" ref="V226" si="4608">AG226-AC226</f>
+        <f t="shared" ref="V226" si="4589">AG226-AC226</f>
         <v>-1.1143580842526868E-2</v>
       </c>
       <c r="W226" s="2">
-        <f t="shared" ref="W226" si="4609">U226-AD226</f>
+        <f t="shared" ref="W226" si="4590">U226-AD226</f>
         <v>-1.0700520733926577E-2</v>
       </c>
       <c r="X226" s="14">
-        <f t="shared" ref="X226" si="4610">MIN(0,(AB226/AB$3-1))</f>
+        <f t="shared" ref="X226" si="4591">MIN(0,(AB226/AB$3-1))</f>
         <v>0</v>
       </c>
       <c r="Y226" s="14">
-        <f t="shared" ref="Y226" si="4611">MIN(0,(L226/L$3-1))</f>
+        <f t="shared" ref="Y226" si="4592">MIN(0,(L226/L$3-1))</f>
         <v>0</v>
       </c>
       <c r="Z226" s="45">
         <v>6733.35</v>
       </c>
       <c r="AA226" s="2">
-        <f t="shared" ref="AA226" si="4612">Z226/Z225-1</f>
+        <f t="shared" ref="AA226" si="4593">Z226/Z225-1</f>
         <v>8.401662361001927E-3</v>
       </c>
       <c r="AB226" s="9">
-        <f t="shared" ref="AB226" si="4613">AB225*(1+AA226)</f>
+        <f t="shared" ref="AB226" si="4594">AB225*(1+AA226)</f>
         <v>121.17991753787004</v>
       </c>
       <c r="AC226" s="50">
-        <f t="shared" ref="AC226" si="4614">AB226/$AB$215-1</f>
+        <f t="shared" ref="AC226" si="4595">AB226/$AB$215-1</f>
         <v>2.743237655201658E-2</v>
       </c>
       <c r="AD226" s="37">
-        <f t="shared" ref="AD226" si="4615">AB226/$AB$215-1</f>
+        <f t="shared" ref="AD226" si="4596">AB226/$AB$215-1</f>
         <v>2.743237655201658E-2</v>
       </c>
       <c r="AE226" s="14">
-        <f t="shared" ref="AE226" si="4616">J226-($AE$1/252)</f>
+        <f t="shared" ref="AE226" si="4597">J226-($AE$1/252)</f>
         <v>6.8931062783152081E-3</v>
       </c>
       <c r="AF226">
-        <f t="shared" ref="AF226" si="4617">AF225*(1+AE226)</f>
+        <f t="shared" ref="AF226" si="4598">AF225*(1+AE226)</f>
         <v>122.23572882700957</v>
       </c>
       <c r="AG226" s="14">
-        <f t="shared" ref="AG226" si="4618">AF226/$AF$215-1</f>
+        <f t="shared" ref="AG226" si="4599">AF226/$AF$215-1</f>
         <v>1.6288795709489712E-2</v>
       </c>
       <c r="AH226" s="14">
-        <f t="shared" ref="AH226" si="4619">AF226/$AF$215-1</f>
+        <f t="shared" ref="AH226" si="4600">AF226/$AF$215-1</f>
         <v>1.6288795709489712E-2</v>
       </c>
       <c r="AI226" s="14">
-        <f t="shared" ref="AI226" si="4620">AH226-AD226</f>
+        <f t="shared" ref="AI226" si="4601">AH226-AD226</f>
         <v>-1.1143580842526868E-2</v>
       </c>
       <c r="AJ226" s="27">
@@ -39995,19 +39961,19 @@
         <v>35.083399999999997</v>
       </c>
       <c r="AK226" s="2">
-        <f t="shared" ref="AK226" si="4621">AJ226/AJ225-1</f>
+        <f t="shared" ref="AK226" si="4602">AJ226/AJ225-1</f>
         <v>9.6262039949466249E-3</v>
       </c>
       <c r="AL226" s="9">
-        <f t="shared" ref="AL226" si="4622">AL225*(1+AK226)</f>
+        <f t="shared" ref="AL226" si="4603">AL225*(1+AK226)</f>
         <v>116.11175832031553</v>
       </c>
       <c r="AM226" s="2">
-        <f t="shared" ref="AM226" si="4623">AL226/$AL$215-1</f>
+        <f t="shared" ref="AM226" si="4604">AL226/$AL$215-1</f>
         <v>2.8838709677419194E-2</v>
       </c>
       <c r="AN226" s="2">
-        <f t="shared" ref="AN226" si="4624">AL226/$AL$215-1</f>
+        <f t="shared" ref="AN226" si="4605">AL226/$AL$215-1</f>
         <v>2.8838709677419194E-2</v>
       </c>
       <c r="AO226" s="1">
@@ -40030,19 +39996,19 @@
         <v>129.1</v>
       </c>
       <c r="D227">
-        <f t="shared" si="4496"/>
+        <f t="shared" si="4487"/>
         <v>21487.94</v>
       </c>
       <c r="E227" s="14">
-        <f t="shared" si="4497"/>
+        <f t="shared" si="4488"/>
         <v>0.99399197875645606</v>
       </c>
       <c r="F227" s="14">
-        <f t="shared" si="4498"/>
+        <f t="shared" si="4489"/>
         <v>6.0080212435440535E-3</v>
       </c>
       <c r="G227" s="1">
-        <f t="shared" si="4499"/>
+        <f t="shared" si="4490"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="H227" s="15">
@@ -40050,109 +40016,109 @@
         <v>3329.62</v>
       </c>
       <c r="I227" s="2">
-        <f t="shared" ref="I227" si="4625">H227/H226-1</f>
+        <f t="shared" ref="I227" si="4606">H227/H226-1</f>
         <v>3.8651712493968926E-3</v>
       </c>
       <c r="J227" s="2">
-        <f t="shared" ref="J227" si="4626">D227/D226-1</f>
+        <f t="shared" ref="J227" si="4607">D227/D226-1</f>
         <v>3.5658257980839547E-3</v>
       </c>
       <c r="K227" s="9">
-        <f t="shared" ref="K227" si="4627">K226*(1+I227)</f>
+        <f t="shared" ref="K227" si="4608">K226*(1+I227)</f>
         <v>119.5773732353143</v>
       </c>
       <c r="L227" s="9">
-        <f t="shared" ref="L227" si="4628">L226*(1+J227)</f>
+        <f t="shared" ref="L227" si="4609">L226*(1+J227)</f>
         <v>123.75607177042868</v>
       </c>
       <c r="M227" s="50">
-        <f t="shared" ref="M227" si="4629">K227/$K$215-1</f>
+        <f t="shared" ref="M227" si="4610">K227/$K$215-1</f>
         <v>3.0593231355895423E-2</v>
       </c>
       <c r="N227" s="50">
-        <f t="shared" ref="N227" si="4630">L227/$L$215-1</f>
+        <f t="shared" ref="N227" si="4611">L227/$L$215-1</f>
         <v>2.03573444993006E-2</v>
       </c>
       <c r="O227" s="22">
-        <f t="shared" ref="O227" si="4631">K227/$K$3-1</f>
-        <v>0.19577373235314299</v>
+        <f t="shared" si="4434"/>
+        <v>3.0593231355895423E-2</v>
       </c>
       <c r="P227" s="34">
-        <f t="shared" ref="P227" si="4632">L227/$L$3-1</f>
-        <v>0.23756071770428666</v>
+        <f t="shared" si="4435"/>
+        <v>2.03573444993006E-2</v>
       </c>
       <c r="Q227" s="4">
         <v>21358.84</v>
       </c>
       <c r="R227">
-        <f t="shared" ref="R227" si="4633">Q227+C227</f>
+        <f t="shared" ref="R227" si="4612">Q227+C227</f>
         <v>21487.94</v>
       </c>
       <c r="S227" s="25">
-        <f t="shared" ref="S227" si="4634">R227/R226-1</f>
+        <f t="shared" ref="S227" si="4613">R227/R226-1</f>
         <v>3.5658257980841768E-3</v>
       </c>
       <c r="T227" s="26">
-        <f t="shared" ref="T227" si="4635">R227/$R$215-1</f>
+        <f t="shared" ref="T227" si="4614">R227/$R$215-1</f>
         <v>2.0357344499300156E-2</v>
       </c>
       <c r="U227" s="26">
-        <f t="shared" ref="U227" si="4636">R227/$R$215-1</f>
+        <f t="shared" ref="U227" si="4615">R227/$R$215-1</f>
         <v>2.0357344499300156E-2</v>
       </c>
       <c r="V227" s="2">
-        <f t="shared" ref="V227" si="4637">AG227-AC227</f>
+        <f t="shared" ref="V227" si="4616">AG227-AC227</f>
         <v>-1.1551718448329362E-2</v>
       </c>
       <c r="W227" s="2">
-        <f t="shared" ref="W227" si="4638">U227-AD227</f>
+        <f t="shared" ref="W227" si="4617">U227-AD227</f>
         <v>-1.106674954409903E-2</v>
       </c>
       <c r="X227" s="14">
-        <f t="shared" ref="X227" si="4639">MIN(0,(AB227/AB$3-1))</f>
+        <f t="shared" ref="X227" si="4618">MIN(0,(AB227/AB$3-1))</f>
         <v>0</v>
       </c>
       <c r="Y227" s="14">
-        <f t="shared" ref="Y227" si="4640">MIN(0,(L227/L$3-1))</f>
+        <f t="shared" ref="Y227" si="4619">MIN(0,(L227/L$3-1))</f>
         <v>0</v>
       </c>
       <c r="Z227" s="45">
         <v>6759.51</v>
       </c>
       <c r="AA227" s="2">
-        <f t="shared" ref="AA227" si="4641">Z227/Z226-1</f>
+        <f t="shared" ref="AA227" si="4620">Z227/Z226-1</f>
         <v>3.8851388981711032E-3</v>
       </c>
       <c r="AB227" s="9">
-        <f t="shared" ref="AB227" si="4642">AB226*(1+AA227)</f>
+        <f t="shared" ref="AB227" si="4621">AB226*(1+AA227)</f>
         <v>121.65071834917359</v>
       </c>
       <c r="AC227" s="50">
-        <f t="shared" ref="AC227" si="4643">AB227/$AB$215-1</f>
+        <f t="shared" ref="AC227" si="4622">AB227/$AB$215-1</f>
         <v>3.1424094043399187E-2</v>
       </c>
       <c r="AD227" s="37">
-        <f t="shared" ref="AD227" si="4644">AB227/$AB$215-1</f>
+        <f t="shared" ref="AD227" si="4623">AB227/$AB$215-1</f>
         <v>3.1424094043399187E-2</v>
       </c>
       <c r="AE227" s="14">
-        <f t="shared" ref="AE227" si="4645">J227-($AE$1/252)</f>
+        <f t="shared" ref="AE227" si="4624">J227-($AE$1/252)</f>
         <v>3.5261432584014151E-3</v>
       </c>
       <c r="AF227">
-        <f t="shared" ref="AF227" si="4646">AF226*(1+AE227)</f>
+        <f t="shared" ref="AF227" si="4625">AF226*(1+AE227)</f>
         <v>122.66674951814872</v>
       </c>
       <c r="AG227" s="14">
-        <f t="shared" ref="AG227" si="4647">AF227/$AF$215-1</f>
+        <f t="shared" ref="AG227" si="4626">AF227/$AF$215-1</f>
         <v>1.9872375595069824E-2</v>
       </c>
       <c r="AH227" s="14">
-        <f t="shared" ref="AH227" si="4648">AF227/$AF$215-1</f>
+        <f t="shared" ref="AH227" si="4627">AF227/$AF$215-1</f>
         <v>1.9872375595069824E-2</v>
       </c>
       <c r="AI227" s="14">
-        <f t="shared" ref="AI227" si="4649">AH227-AD227</f>
+        <f t="shared" ref="AI227" si="4628">AH227-AD227</f>
         <v>-1.1551718448329362E-2</v>
       </c>
       <c r="AJ227" s="27">
@@ -40160,19 +40126,19 @@
         <v>35.232599999999998</v>
       </c>
       <c r="AK227" s="2">
-        <f t="shared" ref="AK227" si="4650">AJ227/AJ226-1</f>
+        <f t="shared" ref="AK227" si="4629">AJ227/AJ226-1</f>
         <v>4.252723510264067E-3</v>
       </c>
       <c r="AL227" s="9">
-        <f t="shared" ref="AL227" si="4651">AL226*(1+AK227)</f>
+        <f t="shared" ref="AL227" si="4630">AL226*(1+AK227)</f>
         <v>116.60554952474243</v>
       </c>
       <c r="AM227" s="2">
-        <f t="shared" ref="AM227" si="4652">AL227/$AL$215-1</f>
+        <f t="shared" ref="AM227" si="4631">AL227/$AL$215-1</f>
         <v>3.321407624633399E-2</v>
       </c>
       <c r="AN227" s="2">
-        <f t="shared" ref="AN227" si="4653">AL227/$AL$215-1</f>
+        <f t="shared" ref="AN227" si="4632">AL227/$AL$215-1</f>
         <v>3.321407624633399E-2</v>
       </c>
       <c r="AO227" s="1">
@@ -40195,19 +40161,19 @@
         <v>129.1</v>
       </c>
       <c r="D228">
-        <f t="shared" si="4496"/>
+        <f t="shared" si="4487"/>
         <v>21551.75</v>
       </c>
       <c r="E228" s="14">
-        <f t="shared" si="4497"/>
+        <f t="shared" si="4488"/>
         <v>0.99400976718827949</v>
       </c>
       <c r="F228" s="14">
-        <f t="shared" si="4498"/>
+        <f t="shared" si="4489"/>
         <v>5.9902328117206255E-3</v>
       </c>
       <c r="G228" s="1">
-        <f t="shared" si="4499"/>
+        <f t="shared" si="4490"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="H228" s="15">
@@ -40215,109 +40181,109 @@
         <v>3320.79</v>
       </c>
       <c r="I228" s="2">
-        <f t="shared" ref="I228" si="4654">H228/H227-1</f>
+        <f t="shared" ref="I228" si="4633">H228/H227-1</f>
         <v>-2.6519542770646609E-3</v>
       </c>
       <c r="J228" s="2">
-        <f t="shared" ref="J228" si="4655">D228/D227-1</f>
+        <f t="shared" ref="J228" si="4634">D228/D227-1</f>
         <v>2.969572699849321E-3</v>
       </c>
       <c r="K228" s="9">
-        <f t="shared" ref="K228" si="4656">K227*(1+I228)</f>
+        <f t="shared" ref="K228" si="4635">K227*(1+I228)</f>
         <v>119.26025950892274</v>
       </c>
       <c r="L228" s="9">
-        <f t="shared" ref="L228" si="4657">L227*(1+J228)</f>
+        <f t="shared" ref="L228" si="4636">L227*(1+J228)</f>
         <v>124.12357442259874</v>
       </c>
       <c r="M228" s="50">
-        <f t="shared" ref="M228" si="4658">K228/$K$215-1</f>
+        <f t="shared" ref="M228" si="4637">K228/$K$215-1</f>
         <v>2.786014522808733E-2</v>
       </c>
       <c r="N228" s="50">
-        <f t="shared" ref="N228" si="4659">L228/$L$215-1</f>
+        <f t="shared" ref="N228" si="4638">L228/$L$215-1</f>
         <v>2.3387369813616443E-2</v>
       </c>
       <c r="O228" s="22">
-        <f t="shared" ref="O228" si="4660">K228/$K$3-1</f>
-        <v>0.19260259508922739</v>
+        <f t="shared" si="4434"/>
+        <v>2.786014522808733E-2</v>
       </c>
       <c r="P228" s="34">
-        <f t="shared" ref="P228" si="4661">L228/$L$3-1</f>
-        <v>0.24123574422598737</v>
+        <f t="shared" si="4435"/>
+        <v>2.3387369813616443E-2</v>
       </c>
       <c r="Q228" s="4">
         <v>21422.65</v>
       </c>
       <c r="R228">
-        <f t="shared" ref="R228" si="4662">Q228+C228</f>
+        <f t="shared" ref="R228" si="4639">Q228+C228</f>
         <v>21551.75</v>
       </c>
       <c r="S228" s="25">
-        <f t="shared" ref="S228" si="4663">R228/R227-1</f>
+        <f t="shared" ref="S228" si="4640">R228/R227-1</f>
         <v>2.969572699849321E-3</v>
       </c>
       <c r="T228" s="26">
-        <f t="shared" ref="T228" si="4664">R228/$R$215-1</f>
+        <f t="shared" ref="T228" si="4641">R228/$R$215-1</f>
         <v>2.3387369813616221E-2</v>
       </c>
       <c r="U228" s="26">
-        <f t="shared" ref="U228" si="4665">R228/$R$215-1</f>
+        <f t="shared" ref="U228" si="4642">R228/$R$215-1</f>
         <v>2.3387369813616221E-2</v>
       </c>
       <c r="V228" s="2">
-        <f t="shared" ref="V228" si="4666">AG228-AC228</f>
+        <f t="shared" ref="V228" si="4643">AG228-AC228</f>
         <v>-5.8475275241089975E-3</v>
       </c>
       <c r="W228" s="2">
-        <f t="shared" ref="W228" si="4667">U228-AD228</f>
+        <f t="shared" ref="W228" si="4644">U228-AD228</f>
         <v>-5.3206473434446178E-3</v>
       </c>
       <c r="X228" s="14">
-        <f t="shared" ref="X228" si="4668">MIN(0,(AB228/AB$3-1))</f>
+        <f t="shared" ref="X228" si="4645">MIN(0,(AB228/AB$3-1))</f>
         <v>0</v>
       </c>
       <c r="Y228" s="14">
-        <f t="shared" ref="Y228" si="4669">MIN(0,(L228/L$3-1))</f>
+        <f t="shared" ref="Y228" si="4646">MIN(0,(L228/L$3-1))</f>
         <v>0</v>
       </c>
       <c r="Z228" s="45">
         <v>6741.71</v>
       </c>
       <c r="AA228" s="2">
-        <f t="shared" ref="AA228" si="4670">Z228/Z227-1</f>
+        <f t="shared" ref="AA228" si="4647">Z228/Z227-1</f>
         <v>-2.6333269719255314E-3</v>
       </c>
       <c r="AB228" s="9">
-        <f t="shared" ref="AB228" si="4671">AB227*(1+AA228)</f>
+        <f t="shared" ref="AB228" si="4648">AB227*(1+AA228)</f>
         <v>121.3303722313906</v>
       </c>
       <c r="AC228" s="50">
-        <f t="shared" ref="AC228" si="4672">AB228/$AB$215-1</f>
+        <f t="shared" ref="AC228" si="4649">AB228/$AB$215-1</f>
         <v>2.8708017157060839E-2</v>
       </c>
       <c r="AD228" s="37">
-        <f t="shared" ref="AD228" si="4673">AB228/$AB$215-1</f>
+        <f t="shared" ref="AD228" si="4650">AB228/$AB$215-1</f>
         <v>2.8708017157060839E-2</v>
       </c>
       <c r="AE228" s="14">
-        <f t="shared" ref="AE228" si="4674">J228-($AE$1/252)</f>
+        <f t="shared" ref="AE228" si="4651">J228-($AE$1/252)</f>
         <v>2.9298901601667814E-3</v>
       </c>
       <c r="AF228">
-        <f t="shared" ref="AF228" si="4675">AF227*(1+AE228)</f>
+        <f t="shared" ref="AF228" si="4652">AF227*(1+AE228)</f>
         <v>123.0261496205416</v>
       </c>
       <c r="AG228" s="14">
-        <f t="shared" ref="AG228" si="4676">AF228/$AF$215-1</f>
+        <f t="shared" ref="AG228" si="4653">AF228/$AF$215-1</f>
         <v>2.2860489632951841E-2</v>
       </c>
       <c r="AH228" s="14">
-        <f t="shared" ref="AH228" si="4677">AF228/$AF$215-1</f>
+        <f t="shared" ref="AH228" si="4654">AF228/$AF$215-1</f>
         <v>2.2860489632951841E-2</v>
       </c>
       <c r="AI228" s="14">
-        <f t="shared" ref="AI228" si="4678">AH228-AD228</f>
+        <f t="shared" ref="AI228" si="4655">AH228-AD228</f>
         <v>-5.8475275241089975E-3</v>
       </c>
       <c r="AJ228" s="27">
@@ -40325,19 +40291,19 @@
         <v>35.2288</v>
       </c>
       <c r="AK228" s="2">
-        <f t="shared" ref="AK228" si="4679">AJ228/AJ227-1</f>
+        <f t="shared" ref="AK228" si="4656">AJ228/AJ227-1</f>
         <v>-1.0785465733431643E-4</v>
       </c>
       <c r="AL228" s="9">
-        <f t="shared" ref="AL228" si="4680">AL227*(1+AK228)</f>
+        <f t="shared" ref="AL228" si="4657">AL227*(1+AK228)</f>
         <v>116.59297307315516</v>
       </c>
       <c r="AM228" s="2">
-        <f t="shared" ref="AM228" si="4681">AL228/$AL$215-1</f>
+        <f t="shared" ref="AM228" si="4658">AL228/$AL$215-1</f>
         <v>3.3102639296187508E-2</v>
       </c>
       <c r="AN228" s="2">
-        <f t="shared" ref="AN228" si="4682">AL228/$AL$215-1</f>
+        <f t="shared" ref="AN228" si="4659">AL228/$AL$215-1</f>
         <v>3.3102639296187508E-2</v>
       </c>
       <c r="AO228" s="1">
@@ -40360,19 +40326,19 @@
         <v>129.1</v>
       </c>
       <c r="D229">
-        <f t="shared" si="4496"/>
+        <f t="shared" si="4487"/>
         <v>21486.85</v>
       </c>
       <c r="E229" s="14">
-        <f t="shared" si="4497"/>
+        <f t="shared" si="4488"/>
         <v>0.99399167397733967</v>
       </c>
       <c r="F229" s="14">
-        <f t="shared" si="4498"/>
+        <f t="shared" si="4489"/>
         <v>6.0083260226603714E-3</v>
       </c>
       <c r="G229" s="1">
-        <f t="shared" si="4499"/>
+        <f t="shared" si="4490"/>
         <v>1</v>
       </c>
       <c r="H229" s="15">
@@ -40380,109 +40346,109 @@
         <v>3321.75</v>
       </c>
       <c r="I229" s="2">
-        <f t="shared" ref="I229" si="4683">H229/H228-1</f>
+        <f t="shared" ref="I229" si="4660">H229/H228-1</f>
         <v>2.8908783753256451E-4</v>
       </c>
       <c r="J229" s="2">
-        <f t="shared" ref="J229" si="4684">D229/D228-1</f>
+        <f t="shared" ref="J229" si="4661">D229/D228-1</f>
         <v>-3.0113563863723991E-3</v>
       </c>
       <c r="K229" s="9">
-        <f t="shared" ref="K229" si="4685">K228*(1+I229)</f>
+        <f t="shared" ref="K229" si="4662">K228*(1+I229)</f>
         <v>119.29473619944775</v>
       </c>
       <c r="L229" s="9">
-        <f t="shared" ref="L229" si="4686">L228*(1+J229)</f>
+        <f t="shared" ref="L229" si="4663">L228*(1+J229)</f>
         <v>123.74979410406188</v>
       </c>
       <c r="M229" s="50">
-        <f t="shared" ref="M229" si="4687">K229/$K$215-1</f>
+        <f t="shared" ref="M229" si="4664">K229/$K$215-1</f>
         <v>2.8157287094757288E-2</v>
       </c>
       <c r="N229" s="50">
-        <f t="shared" ref="N229" si="4688">L229/$L$215-1</f>
+        <f t="shared" ref="N229" si="4665">L229/$L$215-1</f>
         <v>2.0305585721795527E-2</v>
       </c>
       <c r="O229" s="22">
-        <f t="shared" ref="O229" si="4689">K229/$K$3-1</f>
-        <v>0.19294736199447748</v>
+        <f t="shared" si="4434"/>
+        <v>2.8157287094757288E-2</v>
       </c>
       <c r="P229" s="34">
-        <f t="shared" ref="P229" si="4690">L229/$L$3-1</f>
-        <v>0.23749794104061883</v>
+        <f t="shared" si="4435"/>
+        <v>2.0305585721795527E-2</v>
       </c>
       <c r="Q229" s="4">
         <v>21357.75</v>
       </c>
       <c r="R229">
-        <f t="shared" ref="R229" si="4691">Q229+C229</f>
+        <f t="shared" ref="R229" si="4666">Q229+C229</f>
         <v>21486.85</v>
       </c>
       <c r="S229" s="25">
-        <f t="shared" ref="S229" si="4692">R229/R228-1</f>
+        <f t="shared" ref="S229" si="4667">R229/R228-1</f>
         <v>-3.0113563863723991E-3</v>
       </c>
       <c r="T229" s="26">
-        <f t="shared" ref="T229" si="4693">R229/$R$215-1</f>
+        <f t="shared" ref="T229" si="4668">R229/$R$215-1</f>
         <v>2.0305585721795083E-2</v>
       </c>
       <c r="U229" s="26">
-        <f t="shared" ref="U229" si="4694">R229/$R$215-1</f>
+        <f t="shared" ref="U229" si="4669">R229/$R$215-1</f>
         <v>2.0305585721795083E-2</v>
       </c>
       <c r="V229" s="2">
-        <f t="shared" ref="V229" si="4695">AG229-AC229</f>
+        <f t="shared" ref="V229" si="4670">AG229-AC229</f>
         <v>-9.3024837040758257E-3</v>
       </c>
       <c r="W229" s="2">
-        <f t="shared" ref="W229" si="4696">U229-AD229</f>
+        <f t="shared" ref="W229" si="4671">U229-AD229</f>
         <v>-8.7366004454387802E-3</v>
       </c>
       <c r="X229" s="14">
-        <f t="shared" ref="X229" si="4697">MIN(0,(AB229/AB$3-1))</f>
+        <f t="shared" ref="X229" si="4672">MIN(0,(AB229/AB$3-1))</f>
         <v>0</v>
       </c>
       <c r="Y229" s="14">
-        <f t="shared" ref="Y229" si="4698">MIN(0,(L229/L$3-1))</f>
+        <f t="shared" ref="Y229" si="4673">MIN(0,(L229/L$3-1))</f>
         <v>0</v>
       </c>
       <c r="Z229" s="45">
         <v>6743.9</v>
       </c>
       <c r="AA229" s="2">
-        <f t="shared" ref="AA229" si="4699">Z229/Z228-1</f>
+        <f t="shared" ref="AA229" si="4674">Z229/Z228-1</f>
         <v>3.248434002649514E-4</v>
       </c>
       <c r="AB229" s="9">
-        <f t="shared" ref="AB229" si="4700">AB228*(1+AA229)</f>
+        <f t="shared" ref="AB229" si="4675">AB228*(1+AA229)</f>
         <v>121.36978560206165</v>
       </c>
       <c r="AC229" s="50">
-        <f t="shared" ref="AC229" si="4701">AB229/$AB$215-1</f>
+        <f t="shared" ref="AC229" si="4676">AB229/$AB$215-1</f>
         <v>2.9042186167233863E-2</v>
       </c>
       <c r="AD229" s="37">
-        <f t="shared" ref="AD229" si="4702">AB229/$AB$215-1</f>
+        <f t="shared" ref="AD229" si="4677">AB229/$AB$215-1</f>
         <v>2.9042186167233863E-2</v>
       </c>
       <c r="AE229" s="14">
-        <f t="shared" ref="AE229" si="4703">J229-($AE$1/252)</f>
+        <f t="shared" ref="AE229" si="4678">J229-($AE$1/252)</f>
         <v>-3.0510389260549387E-3</v>
       </c>
       <c r="AF229">
-        <f t="shared" ref="AF229" si="4704">AF228*(1+AE229)</f>
+        <f t="shared" ref="AF229" si="4679">AF228*(1+AE229)</f>
         <v>122.65079204912666</v>
       </c>
       <c r="AG229" s="14">
-        <f t="shared" ref="AG229" si="4705">AF229/$AF$215-1</f>
+        <f t="shared" ref="AG229" si="4680">AF229/$AF$215-1</f>
         <v>1.9739702463158038E-2</v>
       </c>
       <c r="AH229" s="14">
-        <f t="shared" ref="AH229" si="4706">AF229/$AF$215-1</f>
+        <f t="shared" ref="AH229" si="4681">AF229/$AF$215-1</f>
         <v>1.9739702463158038E-2</v>
       </c>
       <c r="AI229" s="14">
-        <f t="shared" ref="AI229" si="4707">AH229-AD229</f>
+        <f t="shared" ref="AI229" si="4682">AH229-AD229</f>
         <v>-9.3024837040758257E-3</v>
       </c>
       <c r="AJ229" s="27">
@@ -40490,19 +40456,19 @@
         <v>35.284199999999998</v>
       </c>
       <c r="AK229" s="2">
-        <f t="shared" ref="AK229" si="4708">AJ229/AJ228-1</f>
+        <f t="shared" ref="AK229" si="4683">AJ229/AJ228-1</f>
         <v>1.5725769824688207E-3</v>
       </c>
       <c r="AL229" s="9">
-        <f t="shared" ref="AL229" si="4709">AL228*(1+AK229)</f>
+        <f t="shared" ref="AL229" si="4684">AL228*(1+AK229)</f>
         <v>116.77632449892762</v>
       </c>
       <c r="AM229" s="2">
-        <f t="shared" ref="AM229" si="4710">AL229/$AL$215-1</f>
+        <f t="shared" ref="AM229" si="4685">AL229/$AL$215-1</f>
         <v>3.4727272727272718E-2</v>
       </c>
       <c r="AN229" s="2">
-        <f t="shared" ref="AN229" si="4711">AL229/$AL$215-1</f>
+        <f t="shared" ref="AN229" si="4686">AL229/$AL$215-1</f>
         <v>3.4727272727272718E-2</v>
       </c>
       <c r="AO229" s="1">
@@ -40525,19 +40491,19 @@
         <v>129.1</v>
       </c>
       <c r="D230">
-        <f t="shared" si="4496"/>
+        <f t="shared" si="4487"/>
         <v>21612.57</v>
       </c>
       <c r="E230" s="14">
-        <f t="shared" si="4497"/>
+        <f t="shared" si="4488"/>
         <v>0.99402662432093924</v>
       </c>
       <c r="F230" s="14">
-        <f t="shared" si="4498"/>
+        <f t="shared" si="4489"/>
         <v>5.9733756790608427E-3</v>
       </c>
       <c r="G230" s="1">
-        <f t="shared" si="4499"/>
+        <f t="shared" si="4490"/>
         <v>1</v>
       </c>
       <c r="H230" s="15">
@@ -40545,109 +40511,109 @@
         <v>3325.54</v>
       </c>
       <c r="I230" s="2">
-        <f t="shared" ref="I230" si="4712">H230/H229-1</f>
+        <f t="shared" ref="I230" si="4687">H230/H229-1</f>
         <v>1.1409648528637462E-3</v>
       </c>
       <c r="J230" s="2">
-        <f t="shared" ref="J230" si="4713">D230/D229-1</f>
+        <f t="shared" ref="J230" si="4688">D230/D229-1</f>
         <v>5.8510205078921018E-3</v>
       </c>
       <c r="K230" s="9">
-        <f t="shared" ref="K230" si="4714">K229*(1+I230)</f>
+        <f t="shared" ref="K230" si="4689">K229*(1+I230)</f>
         <v>119.43084730058298</v>
       </c>
       <c r="L230" s="9">
-        <f t="shared" ref="L230" si="4715">L229*(1+J230)</f>
+        <f t="shared" ref="L230" si="4690">L229*(1+J230)</f>
         <v>124.47385668721216</v>
       </c>
       <c r="M230" s="50">
-        <f t="shared" ref="M230" si="4716">K230/$K$215-1</f>
+        <f t="shared" ref="M230" si="4691">K230/$K$215-1</f>
         <v>2.9330378422548042E-2</v>
       </c>
       <c r="N230" s="50">
-        <f t="shared" ref="N230" si="4717">L230/$L$215-1</f>
+        <f t="shared" ref="N230" si="4692">L230/$L$215-1</f>
         <v>2.6275414628170513E-2</v>
       </c>
       <c r="O230" s="22">
-        <f t="shared" ref="O230" si="4718">K230/$K$3-1</f>
-        <v>0.19430847300582976</v>
+        <f t="shared" si="4434"/>
+        <v>2.9330378422548042E-2</v>
       </c>
       <c r="P230" s="34">
-        <f t="shared" ref="P230" si="4719">L230/$L$3-1</f>
-        <v>0.24473856687212159</v>
+        <f t="shared" si="4435"/>
+        <v>2.6275414628170513E-2</v>
       </c>
       <c r="Q230" s="4">
         <v>21483.47</v>
       </c>
       <c r="R230">
-        <f t="shared" ref="R230" si="4720">Q230+C230</f>
+        <f t="shared" ref="R230" si="4693">Q230+C230</f>
         <v>21612.57</v>
       </c>
       <c r="S230" s="25">
-        <f t="shared" ref="S230" si="4721">R230/R229-1</f>
+        <f t="shared" ref="S230" si="4694">R230/R229-1</f>
         <v>5.8510205078921018E-3</v>
       </c>
       <c r="T230" s="26">
-        <f t="shared" ref="T230" si="4722">R230/$R$215-1</f>
+        <f t="shared" ref="T230" si="4695">R230/$R$215-1</f>
         <v>2.6275414628170068E-2</v>
       </c>
       <c r="U230" s="26">
-        <f t="shared" ref="U230" si="4723">R230/$R$215-1</f>
+        <f t="shared" ref="U230" si="4696">R230/$R$215-1</f>
         <v>2.6275414628170068E-2</v>
       </c>
       <c r="V230" s="2">
-        <f t="shared" ref="V230" si="4724">AG230-AC230</f>
+        <f t="shared" ref="V230" si="4697">AG230-AC230</f>
         <v>-4.6261321983549486E-3</v>
       </c>
       <c r="W230" s="2">
-        <f t="shared" ref="W230" si="4725">U230-AD230</f>
+        <f t="shared" ref="W230" si="4698">U230-AD230</f>
         <v>-4.0164720839577228E-3</v>
       </c>
       <c r="X230" s="14">
-        <f t="shared" ref="X230" si="4726">MIN(0,(AB230/AB$3-1))</f>
+        <f t="shared" ref="X230" si="4699">MIN(0,(AB230/AB$3-1))</f>
         <v>0</v>
       </c>
       <c r="Y230" s="14">
-        <f t="shared" ref="Y230" si="4727">MIN(0,(L230/L$3-1))</f>
+        <f t="shared" ref="Y230" si="4700">MIN(0,(L230/L$3-1))</f>
         <v>0</v>
       </c>
       <c r="Z230" s="45">
         <v>6752.09</v>
       </c>
       <c r="AA230" s="2">
-        <f t="shared" ref="AA230" si="4728">Z230/Z229-1</f>
+        <f t="shared" ref="AA230" si="4701">Z230/Z229-1</f>
         <v>1.214430818962331E-3</v>
       </c>
       <c r="AB230" s="9">
-        <f t="shared" ref="AB230" si="4729">AB229*(1+AA230)</f>
+        <f t="shared" ref="AB230" si="4702">AB229*(1+AA230)</f>
         <v>121.51718081018765</v>
       </c>
       <c r="AC230" s="50">
-        <f t="shared" ref="AC230" si="4730">AB230/$AB$215-1</f>
+        <f t="shared" ref="AC230" si="4703">AB230/$AB$215-1</f>
         <v>3.0291886712127791E-2</v>
       </c>
       <c r="AD230" s="37">
-        <f t="shared" ref="AD230" si="4731">AB230/$AB$215-1</f>
+        <f t="shared" ref="AD230" si="4704">AB230/$AB$215-1</f>
         <v>3.0291886712127791E-2</v>
       </c>
       <c r="AE230" s="14">
-        <f t="shared" ref="AE230" si="4732">J230-($AE$1/252)</f>
+        <f t="shared" ref="AE230" si="4705">J230-($AE$1/252)</f>
         <v>5.8113379682095618E-3</v>
       </c>
       <c r="AF230">
-        <f t="shared" ref="AF230" si="4733">AF229*(1+AE230)</f>
+        <f t="shared" ref="AF230" si="4706">AF229*(1+AE230)</f>
         <v>123.36355725379273</v>
       </c>
       <c r="AG230" s="14">
-        <f t="shared" ref="AG230" si="4734">AF230/$AF$215-1</f>
+        <f t="shared" ref="AG230" si="4707">AF230/$AF$215-1</f>
         <v>2.5665754513772843E-2</v>
       </c>
       <c r="AH230" s="14">
-        <f t="shared" ref="AH230" si="4735">AF230/$AF$215-1</f>
+        <f t="shared" ref="AH230" si="4708">AF230/$AF$215-1</f>
         <v>2.5665754513772843E-2</v>
       </c>
       <c r="AI230" s="14">
-        <f t="shared" ref="AI230" si="4736">AH230-AD230</f>
+        <f t="shared" ref="AI230" si="4709">AH230-AD230</f>
         <v>-4.6261321983549486E-3</v>
       </c>
       <c r="AJ230" s="27">
@@ -40655,19 +40621,19 @@
         <v>35.25</v>
       </c>
       <c r="AK230" s="2">
-        <f t="shared" ref="AK230" si="4737">AJ230/AJ229-1</f>
+        <f t="shared" ref="AK230" si="4710">AJ230/AJ229-1</f>
         <v>-9.692723655346791E-4</v>
       </c>
       <c r="AL230" s="9">
-        <f t="shared" ref="AL230" si="4738">AL229*(1+AK230)</f>
+        <f t="shared" ref="AL230" si="4711">AL229*(1+AK230)</f>
         <v>116.6631364346421</v>
       </c>
       <c r="AM230" s="2">
-        <f t="shared" ref="AM230" si="4739">AL230/$AL$215-1</f>
+        <f t="shared" ref="AM230" si="4712">AL230/$AL$215-1</f>
         <v>3.3724340175953049E-2</v>
       </c>
       <c r="AN230" s="2">
-        <f t="shared" ref="AN230" si="4740">AL230/$AL$215-1</f>
+        <f t="shared" ref="AN230" si="4713">AL230/$AL$215-1</f>
         <v>3.3724340175953049E-2</v>
       </c>
       <c r="AO230" s="1">
@@ -40678,6 +40644,363 @@
         <f>MIN(0,(AB230/MAX($AB$3:AB229)-1))</f>
         <v>-1.0977127040272538E-3</v>
       </c>
+    </row>
+    <row r="231" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A231" s="13">
+        <v>43854</v>
+      </c>
+      <c r="B231">
+        <v>21430.38</v>
+      </c>
+      <c r="C231">
+        <v>129.1</v>
+      </c>
+      <c r="D231">
+        <f t="shared" si="4487"/>
+        <v>21559.48</v>
+      </c>
+      <c r="E231" s="14">
+        <f t="shared" si="4488"/>
+        <v>0.99401191494414531</v>
+      </c>
+      <c r="F231" s="14">
+        <f t="shared" si="4489"/>
+        <v>5.9880850558547789E-3</v>
+      </c>
+      <c r="G231" s="1">
+        <f t="shared" si="4490"/>
+        <v>1</v>
+      </c>
+      <c r="H231" s="15">
+        <f>RTD("telemetorion.rtdserver","","data","SPX-I","Close",$A231)</f>
+        <v>3295.5</v>
+      </c>
+      <c r="I231" s="2">
+        <f t="shared" ref="I231" si="4714">H231/H230-1</f>
+        <v>-9.0331194332349263E-3</v>
+      </c>
+      <c r="J231" s="2">
+        <f t="shared" ref="J231" si="4715">D231/D230-1</f>
+        <v>-2.4564408582598007E-3</v>
+      </c>
+      <c r="K231" s="9">
+        <f t="shared" ref="K231" si="4716">K230*(1+I231)</f>
+        <v>118.35201419290438</v>
+      </c>
+      <c r="L231" s="9">
+        <f t="shared" ref="L231" si="4717">L230*(1+J231)</f>
+        <v>124.16809401986052</v>
+      </c>
+      <c r="M231" s="50">
+        <f t="shared" ref="M231" si="4718">K231/$K$215-1</f>
+        <v>2.0032314178000332E-2</v>
+      </c>
+      <c r="N231" s="50">
+        <f t="shared" ref="N231" si="4719">L231/$L$215-1</f>
+        <v>2.3754429767850249E-2</v>
+      </c>
+      <c r="O231" s="22">
+        <f t="shared" si="4434"/>
+        <v>2.0032314178000332E-2</v>
+      </c>
+      <c r="P231" s="34">
+        <f t="shared" si="4435"/>
+        <v>2.3754429767850249E-2</v>
+      </c>
+      <c r="Q231" s="4">
+        <v>21430.379999999997</v>
+      </c>
+      <c r="R231">
+        <f t="shared" ref="R231" si="4720">Q231+C231</f>
+        <v>21559.479999999996</v>
+      </c>
+      <c r="S231" s="25">
+        <f t="shared" ref="S231" si="4721">R231/R230-1</f>
+        <v>-2.4564408582600228E-3</v>
+      </c>
+      <c r="T231" s="26">
+        <f t="shared" ref="T231" si="4722">R231/$R$215-1</f>
+        <v>2.3754429767849805E-2</v>
+      </c>
+      <c r="U231" s="26">
+        <f t="shared" ref="U231" si="4723">R231/$R$215-1</f>
+        <v>2.3754429767849805E-2</v>
+      </c>
+      <c r="V231" s="2">
+        <f t="shared" ref="V231" si="4724">AG231-AC231</f>
+        <v>2.1017469330772975E-3</v>
+      </c>
+      <c r="W231" s="2">
+        <f t="shared" ref="W231" si="4725">U231-AD231</f>
+        <v>2.7506104754642102E-3</v>
+      </c>
+      <c r="X231" s="14">
+        <f t="shared" ref="X231" si="4726">MIN(0,(AB231/AB$3-1))</f>
+        <v>0</v>
+      </c>
+      <c r="Y231" s="14">
+        <f t="shared" ref="Y231" si="4727">MIN(0,(L231/L$3-1))</f>
+        <v>0</v>
+      </c>
+      <c r="Z231" s="45">
+        <v>6691.22</v>
+      </c>
+      <c r="AA231" s="2">
+        <f t="shared" ref="AA231" si="4728">Z231/Z230-1</f>
+        <v>-9.0149864708556349E-3</v>
+      </c>
+      <c r="AB231" s="9">
+        <f t="shared" ref="AB231" si="4729">AB230*(1+AA231)</f>
+        <v>120.42170506920729</v>
+      </c>
+      <c r="AC231" s="50">
+        <f t="shared" ref="AC231" si="4730">AB231/$AB$215-1</f>
+        <v>2.1003819292385595E-2</v>
+      </c>
+      <c r="AD231" s="37">
+        <f t="shared" ref="AD231" si="4731">AB231/$AB$215-1</f>
+        <v>2.1003819292385595E-2</v>
+      </c>
+      <c r="AE231" s="14">
+        <f t="shared" ref="AE231" si="4732">J231-($AE$1/252)</f>
+        <v>-2.4961233979423404E-3</v>
+      </c>
+      <c r="AF231">
+        <f t="shared" ref="AF231" si="4733">AF230*(1+AE231)</f>
+        <v>123.05562659207814</v>
+      </c>
+      <c r="AG231" s="14">
+        <f t="shared" ref="AG231" si="4734">AF231/$AF$215-1</f>
+        <v>2.3105566225462892E-2</v>
+      </c>
+      <c r="AH231" s="14">
+        <f t="shared" ref="AH231" si="4735">AF231/$AF$215-1</f>
+        <v>2.3105566225462892E-2</v>
+      </c>
+      <c r="AI231" s="14">
+        <f t="shared" ref="AI231" si="4736">AH231-AD231</f>
+        <v>2.1017469330772975E-3</v>
+      </c>
+      <c r="AJ231" s="27">
+        <f>RTD("telemetorion.rtdserver","","data","XLSR","Close",$A231)</f>
+        <v>34.97</v>
+      </c>
+      <c r="AK231" s="2">
+        <f t="shared" ref="AK231" si="4737">AJ231/AJ230-1</f>
+        <v>-7.9432624113475736E-3</v>
+      </c>
+      <c r="AL231" s="9">
+        <f t="shared" ref="AL231" si="4738">AL230*(1+AK231)</f>
+        <v>115.7364505282109</v>
+      </c>
+      <c r="AM231" s="2">
+        <f t="shared" ref="AM231" si="4739">AL231/$AL$215-1</f>
+        <v>2.5513196480938305E-2</v>
+      </c>
+      <c r="AN231" s="2">
+        <f t="shared" ref="AN231" si="4740">AL231/$AL$215-1</f>
+        <v>2.5513196480938305E-2</v>
+      </c>
+      <c r="AO231" s="1">
+        <f>MIN(0,(AF231/MAX($AF$3:AF230)-1))</f>
+        <v>-2.4961233979423625E-3</v>
+      </c>
+      <c r="AP231" s="1">
+        <f>MIN(0,(AB231/MAX($AB$3:AB230)-1))</f>
+        <v>-1.0102803309707253E-2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A232" s="13">
+        <v>43857</v>
+      </c>
+      <c r="B232">
+        <v>21235.17</v>
+      </c>
+      <c r="C232">
+        <v>129.1</v>
+      </c>
+      <c r="D232">
+        <f t="shared" si="4487"/>
+        <v>21364.269999999997</v>
+      </c>
+      <c r="E232" s="14">
+        <f t="shared" si="4488"/>
+        <v>0.99395720050345748</v>
+      </c>
+      <c r="F232" s="14">
+        <f t="shared" si="4489"/>
+        <v>6.0427994965425924E-3</v>
+      </c>
+      <c r="G232" s="1">
+        <f t="shared" si="4490"/>
+        <v>1</v>
+      </c>
+      <c r="H232" s="15">
+        <f>RTD("telemetorion.rtdserver","","data","SPX-I","Close",$A232)</f>
+        <v>3243.72</v>
+      </c>
+      <c r="I232" s="2">
+        <f t="shared" ref="I232" si="4741">H232/H231-1</f>
+        <v>-1.5712335002275868E-2</v>
+      </c>
+      <c r="J232" s="2">
+        <f t="shared" ref="J232" si="4742">D232/D231-1</f>
+        <v>-9.0544855441784255E-3</v>
+      </c>
+      <c r="K232" s="9">
+        <f t="shared" ref="K232" si="4743">K231*(1+I232)</f>
+        <v>116.49242769771135</v>
+      </c>
+      <c r="L232" s="9">
+        <f t="shared" ref="L232" si="4744">L231*(1+J232)</f>
+        <v>123.0438158075095</v>
+      </c>
+      <c r="M232" s="50">
+        <f t="shared" ref="M232" si="4745">K232/$K$215-1</f>
+        <v>4.0052247444888334E-3</v>
+      </c>
+      <c r="N232" s="50">
+        <f t="shared" ref="N232" si="4746">L232/$L$215-1</f>
+        <v>1.4484860082728757E-2</v>
+      </c>
+      <c r="O232" s="22">
+        <f t="shared" ref="O232" si="4747">K232/$K$215-1</f>
+        <v>4.0052247444888334E-3</v>
+      </c>
+      <c r="P232" s="34">
+        <f t="shared" ref="P232" si="4748">L232/$L$215-1</f>
+        <v>1.4484860082728757E-2</v>
+      </c>
+      <c r="Q232" s="4">
+        <v>21235.170000000002</v>
+      </c>
+      <c r="R232">
+        <f t="shared" ref="R232" si="4749">Q232+C232</f>
+        <v>21364.27</v>
+      </c>
+      <c r="S232" s="25">
+        <f t="shared" ref="S232" si="4750">R232/R231-1</f>
+        <v>-9.0544855441780925E-3</v>
+      </c>
+      <c r="T232" s="26">
+        <f t="shared" ref="T232" si="4751">R232/$R$215-1</f>
+        <v>1.4484860082728535E-2</v>
+      </c>
+      <c r="U232" s="26">
+        <f t="shared" ref="U232" si="4752">R232/$R$215-1</f>
+        <v>1.4484860082728535E-2</v>
+      </c>
+      <c r="V232" s="2">
+        <f t="shared" ref="V232" si="4753">AG232-AC232</f>
+        <v>8.8604537229650671E-3</v>
+      </c>
+      <c r="W232" s="2">
+        <f t="shared" ref="W232" si="4754">U232-AD232</f>
+        <v>9.5440415670189349E-3</v>
+      </c>
+      <c r="X232" s="14">
+        <f t="shared" ref="X232" si="4755">MIN(0,(AB232/AB$3-1))</f>
+        <v>0</v>
+      </c>
+      <c r="Y232" s="14">
+        <f t="shared" ref="Y232" si="4756">MIN(0,(L232/L$3-1))</f>
+        <v>0</v>
+      </c>
+      <c r="Z232" s="45">
+        <v>6585.95</v>
+      </c>
+      <c r="AA232" s="2">
+        <f t="shared" ref="AA232" si="4757">Z232/Z231-1</f>
+        <v>-1.5732556992596347E-2</v>
+      </c>
+      <c r="AB232" s="9">
+        <f t="shared" ref="AB232" si="4758">AB231*(1+AA232)</f>
+        <v>118.52716373106036</v>
+      </c>
+      <c r="AC232" s="50">
+        <f t="shared" ref="AC232" si="4759">AB232/$AB$215-1</f>
+        <v>4.9408185157095996E-3</v>
+      </c>
+      <c r="AD232" s="37">
+        <f t="shared" ref="AD232" si="4760">AB232/$AB$215-1</f>
+        <v>4.9408185157095996E-3</v>
+      </c>
+      <c r="AE232" s="14">
+        <f t="shared" ref="AE232" si="4761">J232-($AE$1/252)</f>
+        <v>-9.0941680838609647E-3</v>
+      </c>
+      <c r="AF232">
+        <f t="shared" ref="AF232" si="4762">AF231*(1+AE232)</f>
+        <v>121.93653804018494</v>
+      </c>
+      <c r="AG232" s="14">
+        <f t="shared" ref="AG232" si="4763">AF232/$AF$215-1</f>
+        <v>1.3801272238674667E-2</v>
+      </c>
+      <c r="AH232" s="14">
+        <f t="shared" ref="AH232" si="4764">AF232/$AF$215-1</f>
+        <v>1.3801272238674667E-2</v>
+      </c>
+      <c r="AI232" s="14">
+        <f t="shared" ref="AI232" si="4765">AH232-AD232</f>
+        <v>8.8604537229650671E-3</v>
+      </c>
+      <c r="AJ232" s="27">
+        <f>RTD("telemetorion.rtdserver","","data","XLSR","Close",$A232)</f>
+        <v>34.416600000000003</v>
+      </c>
+      <c r="AK232" s="2">
+        <f t="shared" ref="AK232" si="4766">AJ232/AJ231-1</f>
+        <v>-1.5824992851015018E-2</v>
+      </c>
+      <c r="AL232" s="9">
+        <f t="shared" ref="AL232" si="4767">AL231*(1+AK232)</f>
+        <v>113.90492202600011</v>
+      </c>
+      <c r="AM232" s="2">
+        <f t="shared" ref="AM232" si="4768">AL232/$AL$215-1</f>
+        <v>9.2844574780059919E-3</v>
+      </c>
+      <c r="AN232" s="2">
+        <f t="shared" ref="AN232" si="4769">AL232/$AL$215-1</f>
+        <v>9.2844574780059919E-3</v>
+      </c>
+      <c r="AO232" s="1">
+        <f>MIN(0,(AF232/MAX($AF$3:AF231)-1))</f>
+        <v>-1.1567591316064441E-2</v>
+      </c>
+      <c r="AP232" s="1">
+        <f>MIN(0,(AB232/MAX($AB$3:AB231)-1))</f>
+        <v>-2.5676417373448723E-2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A233" s="13"/>
+    </row>
+    <row r="234" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A234" s="13"/>
+    </row>
+    <row r="235" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A235" s="13"/>
+    </row>
+    <row r="236" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A236" s="13"/>
+    </row>
+    <row r="237" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A237" s="13"/>
+    </row>
+    <row r="238" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A238" s="13"/>
+    </row>
+    <row r="239" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A239" s="13"/>
+    </row>
+    <row r="240" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A240" s="13"/>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" s="13"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="V3:V1048576 V1">
@@ -40836,7 +41159,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S3:S230">
+  <conditionalFormatting sqref="S3:S232">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -41738,7 +42061,7 @@
   <dimension ref="A1:X119"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F30" sqref="F29:F30"/>
+      <selection activeCell="F20" sqref="E20:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/modelrebal.xlsx
+++ b/modelrebal.xlsx
@@ -762,16 +762,20 @@
         <stp>PRD_MTDReturn2</stp>
         <tr r="Q3" s="4"/>
       </tp>
+    </main>
+    <main first="esrtd">
       <tp t="s">
         <v/>
         <stp/>
         <stp>AMD</stp>
         <stp>% Change</stp>
+        <tr r="G3" s="4"/>
         <tr r="E3" s="3"/>
-        <tr r="G3" s="4"/>
         <tr r="M2" s="9"/>
         <tr r="V3" s="4"/>
       </tp>
+    </main>
+    <main first="esrtd">
       <tp t="s">
         <v/>
         <stp/>
@@ -844,6 +848,8 @@
         <stp>% Change</stp>
         <tr r="M16" s="9"/>
       </tp>
+    </main>
+    <main first="esrtd">
       <tp t="s">
         <v/>
         <stp/>
@@ -921,6 +927,8 @@
         <stp>BETA</stp>
         <tr r="L14" s="9"/>
       </tp>
+    </main>
+    <main first="esrtd">
       <tp t="s">
         <v/>
         <stp/>
@@ -933,9 +941,9 @@
         <stp/>
         <stp>AMD</stp>
         <stp>BETA</stp>
-        <tr r="L2" s="9"/>
         <tr r="F3" s="4"/>
         <tr r="F3" s="3"/>
+        <tr r="L2" s="9"/>
         <tr r="P3" s="4"/>
       </tp>
     </main>
@@ -983,6 +991,8 @@
         <stp>Description</stp>
         <tr r="C2" s="1"/>
       </tp>
+    </main>
+    <main first="esrtd">
       <tp t="s">
         <v/>
         <stp/>
@@ -990,6 +1000,8 @@
         <stp>Description</stp>
         <tr r="D6" s="3"/>
       </tp>
+    </main>
+    <main first="esrtd">
       <tp t="s">
         <v/>
         <stp/>
@@ -1017,6 +1029,8 @@
         <tr r="E5" s="3"/>
         <tr r="V5" s="4"/>
       </tp>
+    </main>
+    <main first="esrtd">
       <tp t="s">
         <v/>
         <stp/>
@@ -1033,13 +1047,15 @@
         <stp>% Change</stp>
         <tr r="M32" s="9"/>
       </tp>
+    </main>
+    <main first="esrtd">
       <tp t="s">
         <v/>
         <stp/>
         <stp>EXC</stp>
         <stp>BETA</stp>
+        <tr r="F5" s="4"/>
         <tr r="F5" s="3"/>
-        <tr r="F5" s="4"/>
         <tr r="P5" s="4"/>
       </tp>
     </main>
@@ -1069,7 +1085,7 @@
         <stp>SPX-I</stp>
         <stp>Last</stp>
         <stp>D</stp>
-        <stp>43857</stp>
+        <stp>43859</stp>
         <stp/>
         <tr r="D13" s="1"/>
       </tp>
@@ -1085,94 +1101,94 @@
     </main>
     <main first="telemetorion.rtdserver">
       <tp>
-        <v>81.97</v>
+        <v>30.22</v>
+        <stp/>
+        <stp>data</stp>
+        <stp>XLF</stp>
+        <stp>Close</stp>
+        <stp>43859</stp>
+        <tr r="I9" s="1"/>
+      </tp>
+      <tp>
+        <v>54.72</v>
+        <stp/>
+        <stp>data</stp>
+        <stp>XLE</stp>
+        <stp>Close</stp>
+        <stp>43859</stp>
+        <tr r="I5" s="1"/>
+      </tp>
+      <tp>
+        <v>55.36</v>
+        <stp/>
+        <stp>data</stp>
+        <stp>XLC</stp>
+        <stp>Close</stp>
+        <stp>43859</stp>
+        <tr r="I12" s="1"/>
+      </tp>
+      <tp>
+        <v>59.3</v>
+        <stp/>
+        <stp>data</stp>
+        <stp>XLB</stp>
+        <stp>Close</stp>
+        <stp>43859</stp>
+        <tr r="I4" s="1"/>
+      </tp>
+      <tp>
+        <v>97.18</v>
+        <stp/>
+        <stp>data</stp>
+        <stp>XLK</stp>
+        <stp>Close</stp>
+        <stp>43859</stp>
+        <tr r="I7" s="1"/>
+      </tp>
+      <tp>
+        <v>82.94</v>
         <stp/>
         <stp>data</stp>
         <stp>XLI</stp>
         <stp>Close</stp>
-        <stp>43857</stp>
+        <stp>43859</stp>
         <tr r="I8" s="1"/>
       </tp>
       <tp>
-        <v>95.11</v>
+        <v>101.9</v>
         <stp/>
         <stp>data</stp>
-        <stp>XLK</stp>
+        <stp>XLV</stp>
         <stp>Close</stp>
-        <stp>43857</stp>
-        <tr r="I7" s="1"/>
+        <stp>43859</stp>
+        <tr r="I10" s="1"/>
       </tp>
       <tp>
-        <v>54.82</v>
+        <v>68.650000000000006</v>
         <stp/>
         <stp>data</stp>
-        <stp>XLC</stp>
+        <stp>XLU</stp>
         <stp>Close</stp>
-        <stp>43857</stp>
-        <tr r="I12" s="1"/>
+        <stp>43859</stp>
+        <tr r="I3" s="1"/>
       </tp>
       <tp>
-        <v>58.45</v>
+        <v>63.15</v>
         <stp/>
         <stp>data</stp>
-        <stp>XLB</stp>
+        <stp>XLP</stp>
         <stp>Close</stp>
-        <stp>43857</stp>
-        <tr r="I4" s="1"/>
+        <stp>43859</stp>
+        <tr r="I11" s="1"/>
       </tp>
       <tp>
-        <v>55.05</v>
-        <stp/>
-        <stp>data</stp>
-        <stp>XLE</stp>
-        <stp>Close</stp>
-        <stp>43857</stp>
-        <tr r="I5" s="1"/>
-      </tp>
-      <tp>
-        <v>29.92</v>
-        <stp/>
-        <stp>data</stp>
-        <stp>XLF</stp>
-        <stp>Close</stp>
-        <stp>43857</stp>
-        <tr r="I9" s="1"/>
-      </tp>
-      <tp>
-        <v>124.07</v>
+        <v>125.21</v>
         <stp/>
         <stp>data</stp>
         <stp>XLY</stp>
         <stp>Close</stp>
-        <stp>43857</stp>
+        <stp>43859</stp>
         <tr r="I6" s="1"/>
-      </tp>
-      <tp>
-        <v>63.39</v>
-        <stp/>
-        <stp>data</stp>
-        <stp>XLP</stp>
-        <stp>Close</stp>
-        <stp>43857</stp>
-        <tr r="I11" s="1"/>
-      </tp>
-      <tp>
-        <v>68.19</v>
-        <stp/>
-        <stp>data</stp>
-        <stp>XLU</stp>
-        <stp>Close</stp>
-        <stp>43857</stp>
-        <tr r="I3" s="1"/>
-      </tp>
-      <tp>
-        <v>101.68</v>
-        <stp/>
-        <stp>data</stp>
-        <stp>XLV</stp>
-        <stp>Close</stp>
-        <stp>43857</stp>
-        <tr r="I10" s="1"/>
       </tp>
     </main>
     <main first="esrtd">
@@ -1204,6 +1220,8 @@
         <stp>Last</stp>
         <tr r="J3" s="3"/>
       </tp>
+    </main>
+    <main first="esrtd">
       <tp t="s">
         <v/>
         <stp/>
@@ -1266,6 +1284,8 @@
         <stp>Dividend</stp>
         <tr r="I8" s="3"/>
       </tp>
+    </main>
+    <main first="esrtd">
       <tp t="s">
         <v/>
         <stp/>
@@ -1306,6 +1326,8 @@
         <stp>Last</stp>
         <tr r="J5" s="3"/>
       </tp>
+    </main>
+    <main first="esrtd">
       <tp t="s">
         <v/>
         <stp/>
@@ -1331,6 +1353,8 @@
         <stp>Dividend</stp>
         <tr r="I7" s="3"/>
       </tp>
+    </main>
+    <main first="esrtd">
       <tp t="s">
         <v/>
         <stp/>
@@ -1347,6 +1371,8 @@
         <stp>PrevPrice</stp>
         <tr r="H4" s="1"/>
       </tp>
+    </main>
+    <main first="esrtd">
       <tp t="s">
         <v/>
         <stp/>
@@ -1368,6 +1394,8 @@
         <stp>Dividend</stp>
         <tr r="I2" s="3"/>
       </tp>
+    </main>
+    <main first="esrtd">
       <tp t="s">
         <v/>
         <stp/>
@@ -1397,6 +1425,8 @@
         <stp>PrevPrice</stp>
         <tr r="H2" s="1"/>
       </tp>
+    </main>
+    <main first="esrtd">
       <tp t="s">
         <v/>
         <stp/>
@@ -1411,6 +1441,8 @@
         <stp>last</stp>
         <tr r="U8" s="4"/>
       </tp>
+    </main>
+    <main first="esrtd">
       <tp t="s">
         <v/>
         <stp/>
@@ -1418,10 +1450,12 @@
         <stp>XLK</stp>
         <stp>Last</stp>
         <stp>D</stp>
-        <stp>43857</stp>
+        <stp>43859</stp>
         <stp/>
         <tr r="D7" s="1"/>
       </tp>
+    </main>
+    <main first="esrtd">
       <tp t="s">
         <v/>
         <stp/>
@@ -1455,139 +1489,31 @@
         <stp>XLI</stp>
         <stp>Last</stp>
         <stp>D</stp>
-        <stp>43857</stp>
+        <stp>43859</stp>
         <stp/>
         <tr r="D8" s="1"/>
       </tp>
     </main>
     <main first="telemetorion.rtdserver">
       <tp>
-        <v>3283.15</v>
+        <v>3276.24</v>
         <stp/>
         <stp>data</stp>
         <stp>SPX-I</stp>
         <stp>Close</stp>
-        <stp>43844</stp>
-        <tr r="H224" s="11"/>
+        <stp>43858</stp>
+        <tr r="H233" s="11"/>
       </tp>
       <tp>
-        <v>3289.29</v>
+        <v>3273.4</v>
         <stp/>
         <stp>data</stp>
         <stp>SPX-I</stp>
         <stp>Close</stp>
-        <stp>43845</stp>
-        <tr r="H225" s="11"/>
-      </tp>
-      <tp>
-        <v>3316.8</v>
-        <stp/>
-        <stp>data</stp>
-        <stp>SPX-I</stp>
-        <stp>Close</stp>
-        <stp>43846</stp>
-        <tr r="H226" s="11"/>
-      </tp>
-      <tp>
-        <v>3329.62</v>
-        <stp/>
-        <stp>data</stp>
-        <stp>SPX-I</stp>
-        <stp>Close</stp>
-        <stp>43847</stp>
-        <tr r="H227" s="11"/>
-      </tp>
-      <tp>
-        <v>3265.35</v>
-        <stp/>
-        <stp>data</stp>
-        <stp>SPX-I</stp>
-        <stp>Close</stp>
-        <stp>43840</stp>
-        <tr r="H222" s="11"/>
-      </tp>
-      <tp>
-        <v>3288.13</v>
-        <stp/>
-        <stp>data</stp>
-        <stp>SPX-I</stp>
-        <stp>Close</stp>
-        <stp>43843</stp>
-        <tr r="H223" s="11"/>
-      </tp>
-      <tp>
-        <v>3295.5</v>
-        <stp/>
-        <stp>data</stp>
-        <stp>SPX-I</stp>
-        <stp>Close</stp>
-        <stp>43854</stp>
-        <tr r="H231" s="11"/>
-      </tp>
-      <tp>
-        <v>3243.72</v>
-        <stp/>
-        <stp>data</stp>
-        <stp>SPX-I</stp>
-        <stp>Close</stp>
-        <stp>43857</stp>
-        <tr r="H232" s="11"/>
+        <stp>43859</stp>
+        <tr r="H234" s="11"/>
         <tr r="I13" s="1"/>
         <tr r="B24" s="1"/>
-      </tp>
-      <tp>
-        <v>3320.79</v>
-        <stp/>
-        <stp>data</stp>
-        <stp>SPX-I</stp>
-        <stp>Close</stp>
-        <stp>43851</stp>
-        <tr r="H228" s="11"/>
-      </tp>
-      <tp>
-        <v>3321.75</v>
-        <stp/>
-        <stp>data</stp>
-        <stp>SPX-I</stp>
-        <stp>Close</stp>
-        <stp>43852</stp>
-        <tr r="H229" s="11"/>
-      </tp>
-      <tp>
-        <v>3325.54</v>
-        <stp/>
-        <stp>data</stp>
-        <stp>SPX-I</stp>
-        <stp>Close</stp>
-        <stp>43853</stp>
-        <tr r="H230" s="11"/>
-      </tp>
-      <tp>
-        <v>3253.04</v>
-        <stp/>
-        <stp>data</stp>
-        <stp>SPX-I</stp>
-        <stp>Close</stp>
-        <stp>43838</stp>
-        <tr r="H220" s="11"/>
-      </tp>
-      <tp>
-        <v>3274.7</v>
-        <stp/>
-        <stp>data</stp>
-        <stp>SPX-I</stp>
-        <stp>Close</stp>
-        <stp>43839</stp>
-        <tr r="H221" s="11"/>
-      </tp>
-      <tp>
-        <v>3237.18</v>
-        <stp/>
-        <stp>data</stp>
-        <stp>SPX-I</stp>
-        <stp>Close</stp>
-        <stp>43837</stp>
-        <tr r="H219" s="11"/>
       </tp>
     </main>
     <main first="telemetorion.rtdserver">
@@ -1609,10 +1535,12 @@
         <stp>XLB</stp>
         <stp>Last</stp>
         <stp>D</stp>
-        <stp>43857</stp>
+        <stp>43859</stp>
         <stp/>
         <tr r="D4" s="1"/>
       </tp>
+    </main>
+    <main first="esrtd">
       <tp t="s">
         <v/>
         <stp/>
@@ -1620,7 +1548,7 @@
         <stp>XLC</stp>
         <stp>Last</stp>
         <stp>D</stp>
-        <stp>43857</stp>
+        <stp>43859</stp>
         <stp/>
         <tr r="D12" s="1"/>
       </tp>
@@ -1645,6 +1573,8 @@
         <stp>% Change</stp>
         <tr r="M31" s="9"/>
       </tp>
+    </main>
+    <main first="esrtd">
       <tp t="s">
         <v/>
         <stp/>
@@ -1652,6 +1582,8 @@
         <stp>PRD_MTDReturn2</stp>
         <tr r="Q6" s="4"/>
       </tp>
+    </main>
+    <main first="esrtd">
       <tp t="s">
         <v/>
         <stp/>
@@ -1659,7 +1591,7 @@
         <stp>XLF</stp>
         <stp>Last</stp>
         <stp>D</stp>
-        <stp>43857</stp>
+        <stp>43859</stp>
         <stp/>
         <tr r="D9" s="1"/>
       </tp>
@@ -1696,7 +1628,7 @@
         <stp>XLE</stp>
         <stp>Last</stp>
         <stp>D</stp>
-        <stp>43857</stp>
+        <stp>43859</stp>
         <stp/>
         <tr r="D5" s="1"/>
       </tp>
@@ -1745,10 +1677,12 @@
         <stp>XLY</stp>
         <stp>Last</stp>
         <stp>D</stp>
-        <stp>43857</stp>
+        <stp>43859</stp>
         <stp/>
         <tr r="D6" s="1"/>
       </tp>
+    </main>
+    <main first="esrtd">
       <tp t="s">
         <v/>
         <stp/>
@@ -1789,139 +1723,31 @@
     </main>
     <main first="telemetorion.rtdserver">
       <tp>
-        <v>35.284199999999998</v>
+        <v>34.845799999999997</v>
         <stp/>
         <stp>data</stp>
         <stp>XLSR</stp>
         <stp>Close</stp>
-        <stp>43852</stp>
-        <tr r="AJ229" s="11"/>
+        <stp>43858</stp>
+        <tr r="AJ233" s="11"/>
       </tp>
       <tp>
-        <v>35.25</v>
+        <v>34.790999999999997</v>
         <stp/>
         <stp>data</stp>
         <stp>XLSR</stp>
         <stp>Close</stp>
-        <stp>43853</stp>
-        <tr r="AJ230" s="11"/>
+        <stp>43859</stp>
+        <tr r="AJ234" s="11"/>
       </tp>
       <tp>
-        <v>35.2288</v>
-        <stp/>
-        <stp>data</stp>
-        <stp>XLSR</stp>
-        <stp>Close</stp>
-        <stp>43851</stp>
-        <tr r="AJ228" s="11"/>
-      </tp>
-      <tp>
-        <v>34.416600000000003</v>
-        <stp/>
-        <stp>data</stp>
-        <stp>XLSR</stp>
-        <stp>Close</stp>
-        <stp>43857</stp>
-        <tr r="AJ232" s="11"/>
-      </tp>
-      <tp>
-        <v>34.97</v>
-        <stp/>
-        <stp>data</stp>
-        <stp>XLSR</stp>
-        <stp>Close</stp>
-        <stp>43854</stp>
-        <tr r="AJ231" s="11"/>
-      </tp>
-      <tp>
-        <v>34.792499999999997</v>
-        <stp/>
-        <stp>data</stp>
-        <stp>XLSR</stp>
-        <stp>Close</stp>
-        <stp>43843</stp>
-        <tr r="AJ223" s="11"/>
-      </tp>
-      <tp>
-        <v>34.522199999999998</v>
-        <stp/>
-        <stp>data</stp>
-        <stp>XLSR</stp>
-        <stp>Close</stp>
-        <stp>43840</stp>
-        <tr r="AJ222" s="11"/>
-      </tp>
-      <tp>
-        <v>35.083399999999997</v>
-        <stp/>
-        <stp>data</stp>
-        <stp>XLSR</stp>
-        <stp>Close</stp>
-        <stp>43846</stp>
-        <tr r="AJ226" s="11"/>
-      </tp>
-      <tp>
-        <v>35.232599999999998</v>
-        <stp/>
-        <stp>data</stp>
-        <stp>XLSR</stp>
-        <stp>Close</stp>
-        <stp>43847</stp>
-        <tr r="AJ227" s="11"/>
-      </tp>
-      <tp>
-        <v>34.693300000000001</v>
-        <stp/>
-        <stp>data</stp>
-        <stp>XLSR</stp>
-        <stp>Close</stp>
-        <stp>43844</stp>
-        <tr r="AJ224" s="11"/>
-      </tp>
-      <tp>
-        <v>34.748899999999999</v>
-        <stp/>
-        <stp>data</stp>
-        <stp>XLSR</stp>
-        <stp>Close</stp>
-        <stp>43845</stp>
-        <tr r="AJ225" s="11"/>
-      </tp>
-      <tp>
-        <v>39.82</v>
+        <v>39.71</v>
         <stp/>
         <stp>data</stp>
         <stp>XLRE</stp>
         <stp>Close</stp>
-        <stp>43857</stp>
+        <stp>43859</stp>
         <tr r="I2" s="1"/>
-      </tp>
-      <tp>
-        <v>34.349200000000003</v>
-        <stp/>
-        <stp>data</stp>
-        <stp>XLSR</stp>
-        <stp>Close</stp>
-        <stp>43838</stp>
-        <tr r="AJ220" s="11"/>
-      </tp>
-      <tp>
-        <v>34.618499999999997</v>
-        <stp/>
-        <stp>data</stp>
-        <stp>XLSR</stp>
-        <stp>Close</stp>
-        <stp>43839</stp>
-        <tr r="AJ221" s="11"/>
-      </tp>
-      <tp>
-        <v>34.107100000000003</v>
-        <stp/>
-        <stp>data</stp>
-        <stp>XLSR</stp>
-        <stp>Close</stp>
-        <stp>43837</stp>
-        <tr r="AJ219" s="11"/>
       </tp>
     </main>
     <main first="esrtd">
@@ -1941,7 +1767,7 @@
         <stp>XLP</stp>
         <stp>Last</stp>
         <stp>D</stp>
-        <stp>43857</stp>
+        <stp>43859</stp>
         <stp/>
         <tr r="D11" s="1"/>
       </tp>
@@ -1964,7 +1790,7 @@
         <stp>XLV</stp>
         <stp>Last</stp>
         <stp>D</stp>
-        <stp>43857</stp>
+        <stp>43859</stp>
         <stp/>
         <tr r="D10" s="1"/>
       </tp>
@@ -1978,6 +1804,8 @@
         <stp>Net %</stp>
         <tr r="K8" s="3"/>
       </tp>
+    </main>
+    <main first="telemetorion.rtdserver">
       <tp>
         <v>0</v>
         <stp/>
@@ -2015,10 +1843,12 @@
         <stp>XLU</stp>
         <stp>Last</stp>
         <stp>D</stp>
-        <stp>43857</stp>
+        <stp>43859</stp>
         <stp/>
         <tr r="D3" s="1"/>
       </tp>
+    </main>
+    <main first="esrtd">
       <tp t="s">
         <v/>
         <stp/>
@@ -2108,6 +1938,8 @@
         <stp>PrevPrice</stp>
         <tr r="H13" s="1"/>
       </tp>
+    </main>
+    <main first="esrtd">
       <tp t="s">
         <v/>
         <stp/>
@@ -2152,6 +1984,8 @@
         <stp>% Change</stp>
         <tr r="M33" s="9"/>
       </tp>
+    </main>
+    <main first="esrtd">
       <tp t="s">
         <v/>
         <stp/>
@@ -2206,6 +2040,8 @@
         <tr r="K5" s="3"/>
         <tr r="K5" s="4"/>
       </tp>
+    </main>
+    <main first="telemetorion.rtdserver">
       <tp>
         <v>0</v>
         <stp/>
@@ -2230,6 +2066,8 @@
         <stp>EPS</stp>
         <tr r="H5" s="3"/>
       </tp>
+    </main>
+    <main first="esrtd">
       <tp t="s">
         <v/>
         <stp/>
@@ -2237,7 +2075,7 @@
         <stp>XLRE</stp>
         <stp>Last</stp>
         <stp>D</stp>
-        <stp>43857</stp>
+        <stp>43859</stp>
         <stp/>
         <tr r="D2" s="1"/>
       </tp>
@@ -2269,6 +2107,8 @@
         <tr r="G5" s="3"/>
         <tr r="O5" s="4"/>
       </tp>
+    </main>
+    <main first="esrtd">
       <tp t="s">
         <v/>
         <stp/>
@@ -2276,6 +2116,8 @@
         <stp>Description</stp>
         <tr r="C13" s="1"/>
       </tp>
+    </main>
+    <main first="esrtd">
       <tp t="s">
         <v/>
         <stp/>
@@ -2305,6 +2147,8 @@
         <tr r="L4" s="9"/>
         <tr r="P7" s="4"/>
       </tp>
+    </main>
+    <main first="esrtd">
       <tp t="s">
         <v/>
         <stp/>
@@ -2405,8 +2249,8 @@
         <stp>KLAC</stp>
         <stp>BETA</stp>
         <tr r="F6" s="4"/>
+        <tr r="L3" s="9"/>
         <tr r="F6" s="3"/>
-        <tr r="L3" s="9"/>
         <tr r="P6" s="4"/>
       </tp>
       <tp t="s">
@@ -2428,6 +2272,8 @@
         <stp>Net %</stp>
         <tr r="Q15" s="9"/>
       </tp>
+    </main>
+    <main first="telemetorion.rtdserver">
       <tp>
         <v>0</v>
         <stp/>
@@ -2445,32 +2291,38 @@
         <stp>BETA</stp>
         <tr r="F8" s="3"/>
       </tp>
+    </main>
+    <main first="esrtd">
       <tp t="s">
         <v/>
         <stp/>
         <stp>ASML</stp>
         <stp>BETA</stp>
+        <tr r="F4" s="4"/>
         <tr r="F4" s="3"/>
-        <tr r="F4" s="4"/>
         <tr r="P4" s="4"/>
       </tp>
+    </main>
+    <main first="esrtd">
       <tp t="s">
         <v/>
         <stp/>
         <stp>AMAT</stp>
         <stp>% Change</stp>
         <tr r="E2" s="3"/>
+        <tr r="V2" s="4"/>
         <tr r="G2" s="4"/>
-        <tr r="V2" s="4"/>
       </tp>
+    </main>
+    <main first="esrtd">
       <tp t="s">
         <v/>
         <stp/>
         <stp>KLAC</stp>
         <stp>% Change</stp>
         <tr r="M3" s="9"/>
+        <tr r="G6" s="4"/>
         <tr r="E6" s="3"/>
-        <tr r="G6" s="4"/>
         <tr r="V6" s="4"/>
       </tp>
     </main>
@@ -2480,8 +2332,8 @@
         <stp/>
         <stp>LRCX</stp>
         <stp>% Change</stp>
+        <tr r="G7" s="4"/>
         <tr r="M4" s="9"/>
-        <tr r="G7" s="4"/>
         <tr r="E7" s="3"/>
         <tr r="V7" s="4"/>
       </tp>
@@ -2787,7 +2639,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="13">
-        <v>43857</v>
+        <v>43859</v>
       </c>
       <c r="H1" t="s">
         <v>55</v>
@@ -2852,11 +2704,11 @@
       </c>
       <c r="I2" s="9">
         <f>RTD("telemetorion.rtdserver","","data",$A2,"Close",$G$1)</f>
-        <v>39.82</v>
+        <v>39.71</v>
       </c>
       <c r="J2">
         <f>I2*E2</f>
-        <v>7207.42</v>
+        <v>7187.51</v>
       </c>
       <c r="M2">
         <f t="shared" ref="M2:M12" si="0">$M$1*B2</f>
@@ -2930,11 +2782,11 @@
       </c>
       <c r="I3" s="9">
         <f>RTD("telemetorion.rtdserver","","data",$A3,"Close",$G$1)</f>
-        <v>68.19</v>
+        <v>68.650000000000006</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J12" si="6">I3*E3</f>
-        <v>7364.5199999999995</v>
+        <v>7414.2000000000007</v>
       </c>
       <c r="M3">
         <f t="shared" si="0"/>
@@ -3008,11 +2860,11 @@
       </c>
       <c r="I4" s="9">
         <f>RTD("telemetorion.rtdserver","","data",$A4,"Close",$G$1)</f>
-        <v>58.45</v>
+        <v>59.3</v>
       </c>
       <c r="J4">
         <f t="shared" si="6"/>
-        <v>4500.6500000000005</v>
+        <v>4566.0999999999995</v>
       </c>
       <c r="M4">
         <f t="shared" si="0"/>
@@ -3086,11 +2938,11 @@
       </c>
       <c r="I5" s="9">
         <f>RTD("telemetorion.rtdserver","","data",$A5,"Close",$G$1)</f>
-        <v>55.05</v>
+        <v>54.72</v>
       </c>
       <c r="J5">
         <f t="shared" si="6"/>
-        <v>1045.95</v>
+        <v>1039.68</v>
       </c>
       <c r="M5">
         <f t="shared" si="0"/>
@@ -3164,11 +3016,11 @@
       </c>
       <c r="I6" s="9">
         <f>RTD("telemetorion.rtdserver","","data",$A6,"Close",$G$1)</f>
-        <v>124.07</v>
+        <v>125.21</v>
       </c>
       <c r="J6">
         <f t="shared" si="6"/>
-        <v>1116.6299999999999</v>
+        <v>1126.8899999999999</v>
       </c>
       <c r="M6">
         <f t="shared" si="0"/>
@@ -3242,7 +3094,7 @@
       </c>
       <c r="I7" s="9">
         <f>RTD("telemetorion.rtdserver","","data",$A7,"Close",$G$1)</f>
-        <v>95.11</v>
+        <v>97.18</v>
       </c>
       <c r="J7">
         <f t="shared" si="6"/>
@@ -3301,7 +3153,7 @@
       </c>
       <c r="I8" s="9">
         <f>RTD("telemetorion.rtdserver","","data",$A8,"Close",$G$1)</f>
-        <v>81.97</v>
+        <v>82.94</v>
       </c>
       <c r="J8">
         <f t="shared" si="6"/>
@@ -3360,7 +3212,7 @@
       </c>
       <c r="I9" s="9">
         <f>RTD("telemetorion.rtdserver","","data",$A9,"Close",$G$1)</f>
-        <v>29.92</v>
+        <v>30.22</v>
       </c>
       <c r="J9">
         <f t="shared" si="6"/>
@@ -3419,7 +3271,7 @@
       </c>
       <c r="I10" s="9">
         <f>RTD("telemetorion.rtdserver","","data",$A10,"Close",$G$1)</f>
-        <v>101.68</v>
+        <v>101.9</v>
       </c>
       <c r="J10">
         <f t="shared" si="6"/>
@@ -3478,7 +3330,7 @@
       </c>
       <c r="I11" s="9">
         <f>RTD("telemetorion.rtdserver","","data",$A11,"Close",$G$1)</f>
-        <v>63.39</v>
+        <v>63.15</v>
       </c>
       <c r="J11">
         <f t="shared" si="6"/>
@@ -3537,7 +3389,7 @@
       </c>
       <c r="I12" s="9">
         <f>RTD("telemetorion.rtdserver","","data",$A12,"Close",$G$1)</f>
-        <v>54.82</v>
+        <v>55.36</v>
       </c>
       <c r="J12">
         <f t="shared" si="6"/>
@@ -3587,7 +3439,7 @@
       </c>
       <c r="I13" s="9">
         <f>RTD("telemetorion.rtdserver","","data",$A13,"Close",$G$1)</f>
-        <v>3243.72</v>
+        <v>3273.4</v>
       </c>
       <c r="R13" t="str">
         <f t="shared" si="4"/>
@@ -3615,7 +3467,7 @@
       </c>
       <c r="I15">
         <f>SUM(J2:J12)</f>
-        <v>21235.170000000002</v>
+        <v>21334.38</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
@@ -3650,7 +3502,7 @@
       </c>
       <c r="B24" s="9">
         <f>RTD("telemetorion.rtdserver","","data",$A24,"Close",$G$1)</f>
-        <v>3243.72</v>
+        <v>3273.4</v>
       </c>
       <c r="C24" s="9"/>
     </row>
@@ -3746,10 +3598,10 @@
   <dimension ref="A1:AP241"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B207" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B201" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K246" sqref="K246"/>
+      <selection pane="bottomRight" activeCell="N234" sqref="N234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3778,7 +3630,7 @@
     <col min="30" max="30" width="9.140625" style="37"/>
     <col min="31" max="31" width="12.5703125" style="14" bestFit="1" customWidth="1"/>
     <col min="33" max="34" width="12" style="14" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="15.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="9.140625" style="27"/>
     <col min="37" max="37" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="9.42578125" customWidth="1"/>
@@ -3924,7 +3776,7 @@
       <c r="AH2" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="AI2" s="39" t="s">
+      <c r="AI2" s="18" t="s">
         <v>92</v>
       </c>
       <c r="AJ2" s="44" t="s">
@@ -4049,7 +3901,7 @@
       <c r="AH3" s="14">
         <v>0</v>
       </c>
-      <c r="AI3" s="14">
+      <c r="AI3" s="2">
         <f>AH3-AD3</f>
         <v>0</v>
       </c>
@@ -4184,7 +4036,7 @@
         <f>AF4/$AF$3-1</f>
         <v>0</v>
       </c>
-      <c r="AI4" s="14">
+      <c r="AI4" s="2">
         <f t="shared" ref="AI4:AI67" si="5">AH4-AD4</f>
         <v>-6.9504309375163498E-3</v>
       </c>
@@ -4328,7 +4180,7 @@
         <f t="shared" ref="AH5:AH68" si="16">AF5/$AF$3-1</f>
         <v>-3.1330170402393831E-3</v>
       </c>
-      <c r="AI5" s="14">
+      <c r="AI5" s="2">
         <f t="shared" si="5"/>
         <v>-6.1997012239597415E-3</v>
       </c>
@@ -4472,7 +4324,7 @@
         <f t="shared" si="16"/>
         <v>-5.5303498473722179E-3</v>
       </c>
-      <c r="AI6" s="14">
+      <c r="AI6" s="2">
         <f t="shared" si="5"/>
         <v>-7.4938195917610972E-3</v>
       </c>
@@ -4616,7 +4468,7 @@
         <f t="shared" si="16"/>
         <v>-1.0294388736949434E-2</v>
       </c>
-      <c r="AI7" s="14">
+      <c r="AI7" s="2">
         <f t="shared" si="5"/>
         <v>-5.7681500502966276E-3</v>
       </c>
@@ -4760,7 +4612,7 @@
         <f t="shared" si="16"/>
         <v>-1.4941149827677247E-2</v>
       </c>
-      <c r="AI8" s="14">
+      <c r="AI8" s="2">
         <f t="shared" si="5"/>
         <v>-2.5358364013956525E-3</v>
       </c>
@@ -4904,7 +4756,7 @@
         <f t="shared" si="16"/>
         <v>-1.9229369766055271E-2</v>
       </c>
-      <c r="AI9" s="14">
+      <c r="AI9" s="2">
         <f t="shared" si="5"/>
         <v>-4.8137944658208642E-3</v>
       </c>
@@ -5048,7 +4900,7 @@
         <f t="shared" si="16"/>
         <v>-6.1240919577216779E-3</v>
       </c>
-      <c r="AI10" s="14">
+      <c r="AI10" s="2">
         <f t="shared" si="5"/>
         <v>-6.1744834818671102E-3</v>
       </c>
@@ -5192,7 +5044,7 @@
         <f t="shared" si="16"/>
         <v>-1.5675322507300304E-3</v>
       </c>
-      <c r="AI11" s="14">
+      <c r="AI11" s="2">
         <f t="shared" si="5"/>
         <v>-4.6180191588318653E-3</v>
       </c>
@@ -5336,7 +5188,7 @@
         <f t="shared" si="16"/>
         <v>5.4143954810943473E-3</v>
       </c>
-      <c r="AI12" s="14">
+      <c r="AI12" s="2">
         <f t="shared" si="5"/>
         <v>-4.6765072290697596E-3</v>
       </c>
@@ -5480,7 +5332,7 @@
         <f t="shared" si="16"/>
         <v>4.43602556696443E-3</v>
       </c>
-      <c r="AI13" s="14">
+      <c r="AI13" s="2">
         <f t="shared" si="5"/>
         <v>-5.1203670477977248E-3</v>
       </c>
@@ -5624,7 +5476,7 @@
         <f t="shared" si="16"/>
         <v>6.5764456818726558E-3</v>
       </c>
-      <c r="AI14" s="14">
+      <c r="AI14" s="2">
         <f t="shared" si="5"/>
         <v>-8.0514938986899764E-3</v>
       </c>
@@ -5768,7 +5620,7 @@
         <f t="shared" si="16"/>
         <v>1.1502527854909905E-2</v>
       </c>
-      <c r="AI15" s="14">
+      <c r="AI15" s="2">
         <f t="shared" si="5"/>
         <v>-6.8975772474118013E-3</v>
       </c>
@@ -5912,7 +5764,7 @@
         <f t="shared" si="16"/>
         <v>1.1581554959408269E-2</v>
       </c>
-      <c r="AI16" s="14">
+      <c r="AI16" s="2">
         <f t="shared" si="5"/>
         <v>-6.7141677000401856E-3</v>
       </c>
@@ -6056,7 +5908,7 @@
         <f t="shared" si="16"/>
         <v>1.1579981971818754E-2</v>
       </c>
-      <c r="AI17" s="14">
+      <c r="AI17" s="2">
         <f t="shared" si="5"/>
         <v>-3.7624374332372312E-3</v>
       </c>
@@ -6200,7 +6052,7 @@
         <f t="shared" si="16"/>
         <v>2.3368006947802611E-2</v>
       </c>
-      <c r="AI18" s="14">
+      <c r="AI18" s="2">
         <f t="shared" si="5"/>
         <v>-3.0497495855483781E-3</v>
       </c>
@@ -6344,7 +6196,7 @@
         <f t="shared" si="16"/>
         <v>7.0640175482550305E-3</v>
       </c>
-      <c r="AI19" s="14">
+      <c r="AI19" s="2">
         <f t="shared" si="5"/>
         <v>4.3398416393003458E-5</v>
       </c>
@@ -6488,7 +6340,7 @@
         <f t="shared" si="16"/>
         <v>6.2487347742983257E-3</v>
       </c>
-      <c r="AI20" s="14">
+      <c r="AI20" s="2">
         <f t="shared" si="5"/>
         <v>-3.4136143425289589E-6</v>
       </c>
@@ -6632,7 +6484,7 @@
         <f t="shared" si="16"/>
         <v>1.4661585338551886E-2</v>
       </c>
-      <c r="AI21" s="14">
+      <c r="AI21" s="2">
         <f t="shared" si="5"/>
         <v>1.1818526295934717E-3</v>
       </c>
@@ -6776,7 +6628,7 @@
         <f t="shared" si="16"/>
         <v>9.3740805983291153E-3</v>
       </c>
-      <c r="AI22" s="14">
+      <c r="AI22" s="2">
         <f t="shared" si="5"/>
         <v>5.8615872678791092E-4</v>
       </c>
@@ -6920,7 +6772,7 @@
         <f t="shared" si="16"/>
         <v>1.4658177060757893E-2</v>
       </c>
-      <c r="AI23" s="14">
+      <c r="AI23" s="2">
         <f t="shared" si="5"/>
         <v>2.0908908782937274E-3</v>
       </c>
@@ -7064,7 +6916,7 @@
         <f t="shared" si="16"/>
         <v>2.1162486950696779E-2</v>
       </c>
-      <c r="AI24" s="14">
+      <c r="AI24" s="2">
         <f t="shared" si="5"/>
         <v>1.7311553006800207E-3</v>
       </c>
@@ -7208,7 +7060,7 @@
         <f t="shared" si="16"/>
         <v>3.0006167177339726E-2</v>
       </c>
-      <c r="AI25" s="14">
+      <c r="AI25" s="2">
         <f t="shared" si="5"/>
         <v>-1.2275793065019691E-3</v>
       </c>
@@ -7352,7 +7204,7 @@
         <f t="shared" si="16"/>
         <v>2.848695355780273E-2</v>
       </c>
-      <c r="AI26" s="14">
+      <c r="AI26" s="2">
         <f t="shared" si="5"/>
         <v>-2.8025835420573131E-3</v>
       </c>
@@ -7496,7 +7348,7 @@
         <f t="shared" si="16"/>
         <v>2.8960575678675493E-2</v>
       </c>
-      <c r="AI27" s="14">
+      <c r="AI27" s="2">
         <f t="shared" si="5"/>
         <v>-4.5461884835924504E-3</v>
       </c>
@@ -7655,7 +7507,7 @@
         <f t="shared" si="16"/>
         <v>3.3014922162855065E-2</v>
       </c>
-      <c r="AI28" s="14">
+      <c r="AI28" s="2">
         <f t="shared" si="5"/>
         <v>-2.8836396990399304E-3</v>
       </c>
@@ -7818,7 +7670,7 @@
         <f t="shared" si="16"/>
         <v>3.9810080937839665E-2</v>
       </c>
-      <c r="AI29" s="14">
+      <c r="AI29" s="2">
         <f t="shared" si="5"/>
         <v>-9.0087147996387174E-4</v>
       </c>
@@ -7981,7 +7833,7 @@
         <f t="shared" si="16"/>
         <v>4.1126098785568388E-2</v>
       </c>
-      <c r="AI30" s="14">
+      <c r="AI30" s="2">
         <f t="shared" si="5"/>
         <v>-6.9346716343909875E-4</v>
       </c>
@@ -8144,7 +7996,7 @@
         <f t="shared" si="16"/>
         <v>3.1389734900867161E-2</v>
       </c>
-      <c r="AI31" s="14">
+      <c r="AI31" s="2">
         <f t="shared" si="5"/>
         <v>-4.4242411883548272E-3</v>
       </c>
@@ -8307,7 +8159,7 @@
         <f t="shared" si="16"/>
         <v>3.4735695906823461E-2</v>
       </c>
-      <c r="AI32" s="14">
+      <c r="AI32" s="2">
         <f t="shared" si="5"/>
         <v>-4.7676596287757889E-3</v>
       </c>
@@ -8470,7 +8322,7 @@
         <f t="shared" si="16"/>
         <v>3.7449142176200878E-2</v>
       </c>
-      <c r="AI33" s="14">
+      <c r="AI33" s="2">
         <f t="shared" si="5"/>
         <v>-2.1064045808349974E-3</v>
       </c>
@@ -8633,7 +8485,7 @@
         <f t="shared" si="16"/>
         <v>4.6968404550879361E-2</v>
       </c>
-      <c r="AI34" s="14">
+      <c r="AI34" s="2">
         <f t="shared" si="5"/>
         <v>4.3723109425419793E-4</v>
       </c>
@@ -8796,7 +8648,7 @@
         <f t="shared" si="16"/>
         <v>4.298468011122325E-2</v>
       </c>
-      <c r="AI35" s="14">
+      <c r="AI35" s="2">
         <f t="shared" si="5"/>
         <v>-2.9112002017086525E-3</v>
       </c>
@@ -8959,7 +8811,7 @@
         <f t="shared" si="16"/>
         <v>4.9652148021278153E-2</v>
       </c>
-      <c r="AI36" s="14">
+      <c r="AI36" s="2">
         <f t="shared" si="5"/>
         <v>3.2253570075262417E-3</v>
       </c>
@@ -9122,7 +8974,7 @@
         <f t="shared" si="16"/>
         <v>5.0312242721928246E-2</v>
       </c>
-      <c r="AI37" s="14">
+      <c r="AI37" s="2">
         <f t="shared" si="5"/>
         <v>6.1584693866028051E-3</v>
       </c>
@@ -9285,7 +9137,7 @@
         <f t="shared" si="16"/>
         <v>5.1874740993629098E-2</v>
       </c>
-      <c r="AI38" s="14">
+      <c r="AI38" s="2">
         <f t="shared" si="5"/>
         <v>6.0472491777521231E-3</v>
       </c>
@@ -9448,7 +9300,7 @@
         <f t="shared" si="16"/>
         <v>5.5763625064023659E-2</v>
       </c>
-      <c r="AI39" s="14">
+      <c r="AI39" s="2">
         <f t="shared" si="5"/>
         <v>8.8509157817246997E-3</v>
       </c>
@@ -9611,7 +9463,7 @@
         <f t="shared" si="16"/>
         <v>6.2790708832409559E-2</v>
       </c>
-      <c r="AI40" s="14">
+      <c r="AI40" s="2">
         <f t="shared" si="5"/>
         <v>6.5699651614947729E-3</v>
       </c>
@@ -9774,7 +9626,7 @@
         <f t="shared" si="16"/>
         <v>5.7654193288194877E-2</v>
       </c>
-      <c r="AI41" s="14">
+      <c r="AI41" s="2">
         <f t="shared" si="5"/>
         <v>3.7460606361066073E-3</v>
       </c>
@@ -9937,7 +9789,7 @@
         <f t="shared" si="16"/>
         <v>5.2656681148078421E-2</v>
       </c>
-      <c r="AI42" s="14">
+      <c r="AI42" s="2">
         <f t="shared" si="5"/>
         <v>-8.6271688917194389E-4</v>
       </c>
@@ -10100,7 +9952,7 @@
         <f t="shared" si="16"/>
         <v>5.3482683728508285E-2</v>
       </c>
-      <c r="AI43" s="14">
+      <c r="AI43" s="2">
         <f t="shared" si="5"/>
         <v>-5.0056785289602779E-3</v>
       </c>
@@ -10263,7 +10115,7 @@
         <f t="shared" si="16"/>
         <v>5.6083777635774323E-2</v>
       </c>
-      <c r="AI44" s="14">
+      <c r="AI44" s="2">
         <f t="shared" si="5"/>
         <v>-3.586985741826032E-3</v>
       </c>
@@ -10426,7 +10278,7 @@
         <f t="shared" si="16"/>
         <v>5.7703678758632249E-2</v>
       </c>
-      <c r="AI45" s="14">
+      <c r="AI45" s="2">
         <f t="shared" si="5"/>
         <v>-3.0037102585356301E-3</v>
       </c>
@@ -10589,7 +10441,7 @@
         <f t="shared" si="16"/>
         <v>5.2664401334416855E-2</v>
       </c>
-      <c r="AI46" s="14">
+      <c r="AI46" s="2">
         <f t="shared" si="5"/>
         <v>-9.5524446067418722E-5</v>
       </c>
@@ -10752,7 +10604,7 @@
         <f t="shared" si="16"/>
         <v>4.929754978752876E-2</v>
       </c>
-      <c r="AI47" s="14">
+      <c r="AI47" s="2">
         <f t="shared" si="5"/>
         <v>-1.2685449953293571E-3</v>
       </c>
@@ -10915,7 +10767,7 @@
         <f t="shared" si="16"/>
         <v>5.533142762562715E-2</v>
       </c>
-      <c r="AI48" s="14">
+      <c r="AI48" s="2">
         <f t="shared" si="5"/>
         <v>-5.4641465587954574E-3</v>
       </c>
@@ -11078,7 +10930,7 @@
         <f t="shared" si="16"/>
         <v>5.3759087846506182E-2</v>
       </c>
-      <c r="AI49" s="14">
+      <c r="AI49" s="2">
         <f t="shared" si="5"/>
         <v>-2.3842688408992618E-3</v>
       </c>
@@ -11241,7 +11093,7 @@
         <f t="shared" si="16"/>
         <v>4.4972946292706206E-2</v>
       </c>
-      <c r="AI50" s="14">
+      <c r="AI50" s="2">
         <f t="shared" si="5"/>
         <v>6.2614575651098736E-3</v>
       </c>
@@ -11404,7 +11256,7 @@
         <f t="shared" si="16"/>
         <v>3.9060770299882863E-2</v>
       </c>
-      <c r="AI51" s="14">
+      <c r="AI51" s="2">
         <f t="shared" si="5"/>
         <v>1.9888058043107115E-3</v>
       </c>
@@ -11567,7 +11419,7 @@
         <f t="shared" si="16"/>
         <v>3.7816354886448966E-2</v>
       </c>
-      <c r="AI52" s="14">
+      <c r="AI52" s="2">
         <f t="shared" si="5"/>
         <v>3.5159242188869122E-3</v>
       </c>
@@ -11730,7 +11582,7 @@
         <f t="shared" si="16"/>
         <v>4.7597996163091461E-2</v>
       </c>
-      <c r="AI53" s="14">
+      <c r="AI53" s="2">
         <f t="shared" si="5"/>
         <v>9.0934726239504382E-3</v>
       </c>
@@ -11893,7 +11745,7 @@
         <f t="shared" si="16"/>
         <v>4.4595552867961352E-2</v>
       </c>
-      <c r="AI54" s="14">
+      <c r="AI54" s="2">
         <f t="shared" si="5"/>
         <v>3.1112220764420995E-2</v>
       </c>
@@ -12056,7 +11908,7 @@
         <f t="shared" si="16"/>
         <v>4.4993241829519137E-2</v>
       </c>
-      <c r="AI55" s="14">
+      <c r="AI55" s="2">
         <f t="shared" si="5"/>
         <v>2.3269095830876108E-2</v>
       </c>
@@ -12219,7 +12071,7 @@
         <f t="shared" si="16"/>
         <v>4.5981760433842611E-2</v>
       </c>
-      <c r="AI56" s="14">
+      <c r="AI56" s="2">
         <f t="shared" si="5"/>
         <v>1.8086452424649568E-2</v>
       </c>
@@ -12382,7 +12234,7 @@
         <f t="shared" si="16"/>
         <v>5.2932044596414762E-2</v>
       </c>
-      <c r="AI57" s="14">
+      <c r="AI57" s="2">
         <f t="shared" si="5"/>
         <v>1.5595524599078203E-2</v>
       </c>
@@ -12545,7 +12397,7 @@
         <f t="shared" si="16"/>
         <v>5.2751753128341017E-2</v>
       </c>
-      <c r="AI58" s="14">
+      <c r="AI58" s="2">
         <f t="shared" si="5"/>
         <v>2.1365032374771609E-2</v>
       </c>
@@ -12708,7 +12560,7 @@
         <f t="shared" si="16"/>
         <v>5.3474329663227627E-2</v>
       </c>
-      <c r="AI59" s="14">
+      <c r="AI59" s="2">
         <f t="shared" si="5"/>
         <v>2.9032640755301875E-2</v>
       </c>
@@ -12871,7 +12723,7 @@
         <f t="shared" si="16"/>
         <v>5.9625832757595365E-2</v>
       </c>
-      <c r="AI60" s="14">
+      <c r="AI60" s="2">
         <f t="shared" si="5"/>
         <v>2.6453812291437506E-2</v>
       </c>
@@ -13034,7 +12886,7 @@
         <f t="shared" si="16"/>
         <v>6.1424405970601503E-2</v>
       </c>
-      <c r="AI61" s="14">
+      <c r="AI61" s="2">
         <f t="shared" si="5"/>
         <v>3.1149898142817989E-2</v>
       </c>
@@ -13197,7 +13049,7 @@
         <f t="shared" si="16"/>
         <v>5.7296071925274861E-2</v>
       </c>
-      <c r="AI62" s="14">
+      <c r="AI62" s="2">
         <f t="shared" si="5"/>
         <v>3.9189317481372221E-2</v>
       </c>
@@ -13360,7 +13212,7 @@
         <f t="shared" si="16"/>
         <v>5.7633932899298301E-2</v>
       </c>
-      <c r="AI63" s="14">
+      <c r="AI63" s="2">
         <f t="shared" si="5"/>
         <v>3.7997435758117426E-2</v>
       </c>
@@ -13523,7 +13375,7 @@
         <f t="shared" si="16"/>
         <v>4.221371303862953E-2</v>
       </c>
-      <c r="AI64" s="14">
+      <c r="AI64" s="2">
         <f t="shared" si="5"/>
         <v>3.1111380450970616E-2</v>
       </c>
@@ -13686,7 +13538,7 @@
         <f t="shared" si="16"/>
         <v>3.0860913801177503E-2</v>
       </c>
-      <c r="AI65" s="14">
+      <c r="AI65" s="2">
         <f t="shared" si="5"/>
         <v>2.6718010637489575E-2</v>
       </c>
@@ -13849,7 +13701,7 @@
         <f t="shared" si="16"/>
         <v>2.8393145632969796E-2</v>
       </c>
-      <c r="AI66" s="14">
+      <c r="AI66" s="2">
         <f t="shared" si="5"/>
         <v>2.2007819644800808E-2</v>
       </c>
@@ -14012,7 +13864,7 @@
         <f t="shared" si="16"/>
         <v>2.5172378693169239E-2</v>
       </c>
-      <c r="AI67" s="14">
+      <c r="AI67" s="2">
         <f t="shared" si="5"/>
         <v>3.1870852009957207E-2</v>
       </c>
@@ -14175,7 +14027,7 @@
         <f t="shared" si="16"/>
         <v>3.5195130224293436E-2</v>
       </c>
-      <c r="AI68" s="14">
+      <c r="AI68" s="2">
         <f t="shared" ref="AI68:AI91" si="665">AH68-AD68</f>
         <v>4.463274281785512E-2</v>
       </c>
@@ -14338,7 +14190,7 @@
         <f t="shared" ref="AH69:AH91" si="686">AF69/$AF$3-1</f>
         <v>5.7175885845298202E-2</v>
       </c>
-      <c r="AI69" s="14">
+      <c r="AI69" s="2">
         <f t="shared" si="665"/>
         <v>4.5330278276491054E-2</v>
       </c>
@@ -14501,7 +14353,7 @@
         <f t="shared" si="686"/>
         <v>6.3945192034564613E-2</v>
       </c>
-      <c r="AI70" s="14">
+      <c r="AI70" s="2">
         <f t="shared" si="665"/>
         <v>4.3716594484672244E-2</v>
       </c>
@@ -14664,7 +14516,7 @@
         <f t="shared" si="686"/>
         <v>7.0559439995712347E-2</v>
       </c>
-      <c r="AI71" s="14">
+      <c r="AI71" s="2">
         <f t="shared" si="665"/>
         <v>4.37925421879235E-2</v>
       </c>
@@ -14827,7 +14679,7 @@
         <f t="shared" si="686"/>
         <v>7.7115722480321169E-2</v>
       </c>
-      <c r="AI72" s="14">
+      <c r="AI72" s="2">
         <f t="shared" si="665"/>
         <v>3.9471454246237991E-2</v>
       </c>
@@ -14990,7 +14842,7 @@
         <f t="shared" si="686"/>
         <v>8.0904684631914803E-2</v>
       </c>
-      <c r="AI73" s="14">
+      <c r="AI73" s="2">
         <f t="shared" si="665"/>
         <v>3.8419230685268424E-2</v>
       </c>
@@ -15153,7 +15005,7 @@
         <f t="shared" si="686"/>
         <v>7.8790076276685106E-2</v>
       </c>
-      <c r="AI74" s="14">
+      <c r="AI74" s="2">
         <f t="shared" si="665"/>
         <v>3.661596996136729E-2</v>
       </c>
@@ -15316,7 +15168,7 @@
         <f t="shared" si="686"/>
         <v>7.7030000026979017E-2</v>
       </c>
-      <c r="AI75" s="14">
+      <c r="AI75" s="2">
         <f t="shared" si="665"/>
         <v>3.6963339239323378E-2</v>
       </c>
@@ -15479,7 +15331,7 @@
         <f t="shared" si="686"/>
         <v>8.0762226675408222E-2</v>
       </c>
-      <c r="AI76" s="14">
+      <c r="AI76" s="2">
         <f t="shared" si="665"/>
         <v>3.6122535071535955E-2</v>
       </c>
@@ -15642,7 +15494,7 @@
         <f t="shared" si="686"/>
         <v>7.8700131105567506E-2</v>
       </c>
-      <c r="AI77" s="14">
+      <c r="AI77" s="2">
         <f t="shared" si="665"/>
         <v>3.5602780080009833E-2</v>
       </c>
@@ -15805,7 +15657,7 @@
         <f t="shared" si="686"/>
         <v>7.6064503451451992E-2</v>
       </c>
-      <c r="AI78" s="14">
+      <c r="AI78" s="2">
         <f t="shared" si="665"/>
         <v>3.1988117099636337E-2</v>
       </c>
@@ -15968,7 +15820,7 @@
         <f t="shared" si="686"/>
         <v>8.8200977746227371E-2</v>
       </c>
-      <c r="AI79" s="14">
+      <c r="AI79" s="2">
         <f t="shared" si="665"/>
         <v>3.3947303214283853E-2</v>
       </c>
@@ -16131,7 +15983,7 @@
         <f t="shared" si="686"/>
         <v>8.9569235506696154E-2</v>
       </c>
-      <c r="AI80" s="14">
+      <c r="AI80" s="2">
         <f t="shared" si="665"/>
         <v>3.2166090715650242E-2</v>
       </c>
@@ -16294,7 +16146,7 @@
         <f t="shared" si="686"/>
         <v>0.10050987667344646</v>
       </c>
-      <c r="AI81" s="14">
+      <c r="AI81" s="2">
         <f t="shared" si="665"/>
         <v>3.2990633410163506E-2</v>
       </c>
@@ -16457,7 +16309,7 @@
         <f t="shared" si="686"/>
         <v>0.10079348697432589</v>
       </c>
-      <c r="AI82" s="14">
+      <c r="AI82" s="2">
         <f t="shared" si="665"/>
         <v>3.4555628182174836E-2</v>
       </c>
@@ -16620,7 +16472,7 @@
         <f t="shared" si="686"/>
         <v>9.6546990167091673E-2</v>
       </c>
-      <c r="AI83" s="14">
+      <c r="AI83" s="2">
         <f t="shared" si="665"/>
         <v>3.2153821098129143E-2</v>
       </c>
@@ -16783,7 +16635,7 @@
         <f t="shared" si="686"/>
         <v>9.1814539384698746E-2</v>
       </c>
-      <c r="AI84" s="14">
+      <c r="AI84" s="2">
         <f t="shared" si="665"/>
         <v>3.7528470301518624E-2</v>
       </c>
@@ -16946,7 +16798,7 @@
         <f t="shared" si="686"/>
         <v>8.8456306671973017E-2</v>
       </c>
-      <c r="AI85" s="14">
+      <c r="AI85" s="2">
         <f t="shared" si="665"/>
         <v>3.5471418730125048E-2</v>
       </c>
@@ -17109,7 +16961,7 @@
         <f t="shared" si="686"/>
         <v>9.2587296076082071E-2</v>
       </c>
-      <c r="AI86" s="14">
+      <c r="AI86" s="2">
         <f t="shared" si="665"/>
         <v>3.5418111932855156E-2</v>
       </c>
@@ -17272,7 +17124,7 @@
         <f t="shared" si="686"/>
         <v>0.10186960411571033</v>
       </c>
-      <c r="AI87" s="14">
+      <c r="AI87" s="2">
         <f t="shared" si="665"/>
         <v>3.856345221046098E-2</v>
       </c>
@@ -17435,7 +17287,7 @@
         <f t="shared" si="686"/>
         <v>0.10895719177386898</v>
       </c>
-      <c r="AI88" s="14">
+      <c r="AI88" s="2">
         <f t="shared" si="665"/>
         <v>3.748401356244413E-2</v>
       </c>
@@ -17598,7 +17450,7 @@
         <f t="shared" si="686"/>
         <v>0.11561772128522785</v>
       </c>
-      <c r="AI89" s="14">
+      <c r="AI89" s="2">
         <f t="shared" si="665"/>
         <v>4.0966277658046168E-2</v>
       </c>
@@ -17761,7 +17613,7 @@
         <f t="shared" si="686"/>
         <v>0.12582616425704751</v>
       </c>
-      <c r="AI90" s="14">
+      <c r="AI90" s="2">
         <f t="shared" si="665"/>
         <v>4.2671150930289281E-2</v>
       </c>
@@ -17924,7 +17776,7 @@
         <f t="shared" si="686"/>
         <v>0.12195653081190594</v>
       </c>
-      <c r="AI91" s="14">
+      <c r="AI91" s="2">
         <f t="shared" si="665"/>
         <v>4.0642607813754283E-2</v>
       </c>
@@ -18087,7 +17939,7 @@
         <f t="shared" ref="AH92" si="1062">AF92/$AF$3-1</f>
         <v>0.12148269382403898</v>
       </c>
-      <c r="AI92" s="14">
+      <c r="AI92" s="2">
         <f t="shared" ref="AI92" si="1063">AH92-AD92</f>
         <v>4.5382493877670127E-2</v>
       </c>
@@ -18250,7 +18102,7 @@
         <f t="shared" ref="AH93" si="1084">AF93/$AF$3-1</f>
         <v>0.12404152623124687</v>
       </c>
-      <c r="AI93" s="14">
+      <c r="AI93" s="2">
         <f t="shared" ref="AI93" si="1085">AH93-AD93</f>
         <v>4.6296402960981142E-2</v>
       </c>
@@ -18413,7 +18265,7 @@
         <f t="shared" ref="AH94" si="1109">AF94/$AF$3-1</f>
         <v>0.13052853306210754</v>
       </c>
-      <c r="AI94" s="14">
+      <c r="AI94" s="2">
         <f t="shared" ref="AI94" si="1110">AH94-AD94</f>
         <v>4.7909829528042236E-2</v>
       </c>
@@ -18576,7 +18428,7 @@
         <f t="shared" ref="AH95" si="1135">AF95/$AF$3-1</f>
         <v>0.12666792769609447</v>
       </c>
-      <c r="AI95" s="14">
+      <c r="AI95" s="2">
         <f t="shared" ref="AI95" si="1136">AH95-AD95</f>
         <v>4.1571040992438357E-2</v>
       </c>
@@ -18739,7 +18591,7 @@
         <f t="shared" ref="AH96" si="1159">AF96/$AF$3-1</f>
         <v>0.12125705934447439</v>
       </c>
-      <c r="AI96" s="14">
+      <c r="AI96" s="2">
         <f t="shared" ref="AI96" si="1160">AH96-AD96</f>
         <v>3.1041833545453867E-2</v>
       </c>
@@ -18902,7 +18754,7 @@
         <f t="shared" ref="AH97" si="1187">AF97/$AF$3-1</f>
         <v>0.12107484425073056</v>
       </c>
-      <c r="AI97" s="14">
+      <c r="AI97" s="2">
         <f t="shared" ref="AI97" si="1188">AH97-AD97</f>
         <v>3.0668850538873027E-2</v>
       </c>
@@ -19065,7 +18917,7 @@
         <f t="shared" ref="AH98" si="1211">AF98/$AF$3-1</f>
         <v>0.11508736813587794</v>
       </c>
-      <c r="AI98" s="14">
+      <c r="AI98" s="2">
         <f t="shared" ref="AI98" si="1212">AH98-AD98</f>
         <v>2.8358155989361089E-2</v>
       </c>
@@ -19228,7 +19080,7 @@
         <f t="shared" ref="AH99" si="1237">AF99/$AF$3-1</f>
         <v>0.11156078191302221</v>
       </c>
-      <c r="AI99" s="14">
+      <c r="AI99" s="2">
         <f t="shared" ref="AI99:AI100" si="1238">AH99-AD99</f>
         <v>3.1913378606258425E-2</v>
       </c>
@@ -19391,7 +19243,7 @@
         <f t="shared" ref="AH100" si="1259">AF100/$AF$3-1</f>
         <v>0.11520026303587083</v>
       </c>
-      <c r="AI100" s="14">
+      <c r="AI100" s="2">
         <f t="shared" si="1238"/>
         <v>3.157552871618341E-2</v>
       </c>
@@ -19554,7 +19406,7 @@
         <f t="shared" ref="AH101" si="1284">AF101/$AF$3-1</f>
         <v>0.10413895132725148</v>
       </c>
-      <c r="AI101" s="14">
+      <c r="AI101" s="2">
         <f t="shared" ref="AI101" si="1285">AH101-AD101</f>
         <v>2.7164098497497458E-2</v>
       </c>
@@ -19717,7 +19569,7 @@
         <f t="shared" ref="AH102" si="1310">AF102/$AF$3-1</f>
         <v>0.10368607226812121</v>
       </c>
-      <c r="AI102" s="14">
+      <c r="AI102" s="2">
         <f t="shared" ref="AI102" si="1311">AH102-AD102</f>
         <v>2.3637336465483161E-2</v>
       </c>
@@ -19880,7 +19732,7 @@
         <f t="shared" ref="AH103" si="1332">AF103/$AF$3-1</f>
         <v>0.10806492507070087</v>
       </c>
-      <c r="AI103" s="14">
+      <c r="AI103" s="2">
         <f t="shared" ref="AI103" si="1333">AH103-AD103</f>
         <v>2.0601436429490416E-2</v>
       </c>
@@ -20043,7 +19895,7 @@
         <f t="shared" ref="AH104" si="1361">AF104/$AF$3-1</f>
         <v>0.10909831942085857</v>
       </c>
-      <c r="AI104" s="14">
+      <c r="AI104" s="2">
         <f t="shared" ref="AI104" si="1362">AH104-AD104</f>
         <v>1.6493095619501963E-2</v>
       </c>
@@ -20206,7 +20058,7 @@
         <f t="shared" ref="AH105" si="1393">AF105/$AF$3-1</f>
         <v>0.10283704404498195</v>
       </c>
-      <c r="AI105" s="14">
+      <c r="AI105" s="2">
         <f t="shared" ref="AI105" si="1394">AH105-AD105</f>
         <v>1.5976453996228157E-2</v>
       </c>
@@ -20369,7 +20221,7 @@
         <f t="shared" ref="AH106" si="1425">AF106/$AF$3-1</f>
         <v>0.10462488523458169</v>
       </c>
-      <c r="AI106" s="14">
+      <c r="AI106" s="2">
         <f t="shared" ref="AI106" si="1426">AH106-AD106</f>
         <v>9.7214479927256736E-3</v>
       </c>
@@ -20532,7 +20384,7 @@
         <f t="shared" ref="AH107" si="1457">AF107/$AF$3-1</f>
         <v>0.10735961058127397</v>
       </c>
-      <c r="AI107" s="14">
+      <c r="AI107" s="2">
         <f t="shared" ref="AI107" si="1458">AH107-AD107</f>
         <v>1.4221676381806159E-2</v>
       </c>
@@ -20695,7 +20547,7 @@
         <f t="shared" ref="AH108" si="1485">AF108/$AF$3-1</f>
         <v>0.11020998175793073</v>
       </c>
-      <c r="AI108" s="14">
+      <c r="AI108" s="2">
         <f t="shared" ref="AI108" si="1486">AH108-AD108</f>
         <v>1.9780591981291007E-2</v>
       </c>
@@ -20858,7 +20710,7 @@
         <f t="shared" ref="AH109" si="1514">AF109/$AF$3-1</f>
         <v>0.10393760397118301</v>
       </c>
-      <c r="AI109" s="14">
+      <c r="AI109" s="2">
         <f t="shared" ref="AI109" si="1515">AH109-AD109</f>
         <v>2.5348422671477522E-2</v>
       </c>
@@ -21021,7 +20873,7 @@
         <f t="shared" ref="AH110:AH115" si="1545">AF110/$AF$3-1</f>
         <v>9.8083260920899917E-2</v>
       </c>
-      <c r="AI110" s="14">
+      <c r="AI110" s="2">
         <f t="shared" ref="AI110" si="1546">AH110-AD110</f>
         <v>2.9093664970938571E-2</v>
       </c>
@@ -21184,7 +21036,7 @@
         <f t="shared" si="1545"/>
         <v>9.4113959972993433E-2</v>
       </c>
-      <c r="AI111" s="14">
+      <c r="AI111" s="2">
         <f t="shared" ref="AI111" si="1568">AH111-AD111</f>
         <v>3.2814470547114949E-2</v>
       </c>
@@ -21347,7 +21199,7 @@
         <f t="shared" si="1545"/>
         <v>6.8366519124126723E-2</v>
       </c>
-      <c r="AI112" s="14">
+      <c r="AI112" s="2">
         <f t="shared" ref="AI112" si="1590">AH112-AD112</f>
         <v>3.8615723207999997E-2</v>
       </c>
@@ -21510,7 +21362,7 @@
         <f t="shared" si="1545"/>
         <v>7.9552689681356314E-2</v>
       </c>
-      <c r="AI113" s="14">
+      <c r="AI113" s="2">
         <f t="shared" ref="AI113" si="1615">AH113-AD113</f>
         <v>3.6318561661689452E-2</v>
       </c>
@@ -21673,7 +21525,7 @@
         <f t="shared" si="1545"/>
         <v>7.9735789067941987E-2</v>
       </c>
-      <c r="AI114" s="14">
+      <c r="AI114" s="2">
         <f t="shared" ref="AI114" si="1640">AH114-AD114</f>
         <v>3.5673800294453883E-2</v>
       </c>
@@ -21836,7 +21688,7 @@
         <f t="shared" si="1545"/>
         <v>9.7501831412406759E-2</v>
       </c>
-      <c r="AI115" s="14">
+      <c r="AI115" s="2">
         <f t="shared" ref="AI115" si="1665">AH115-AD115</f>
         <v>3.358198273095514E-2</v>
       </c>
@@ -21999,7 +21851,7 @@
         <f t="shared" ref="AH116" si="1695">AF116/$AF$3-1</f>
         <v>9.4750668232587376E-2</v>
       </c>
-      <c r="AI116" s="14">
+      <c r="AI116" s="2">
         <f t="shared" ref="AI116" si="1696">AH116-AD116</f>
         <v>3.7703863505142765E-2</v>
       </c>
@@ -22162,7 +22014,7 @@
         <f t="shared" ref="AH117" si="1727">AF117/$AF$3-1</f>
         <v>8.5347932082523226E-2</v>
       </c>
-      <c r="AI117" s="14">
+      <c r="AI117" s="2">
         <f t="shared" ref="AI117" si="1728">AH117-AD117</f>
         <v>4.0997991742488527E-2</v>
       </c>
@@ -22325,7 +22177,7 @@
         <f t="shared" ref="AH118" si="1759">AF118/$AF$3-1</f>
         <v>9.5141388811867955E-2</v>
       </c>
-      <c r="AI118" s="14">
+      <c r="AI118" s="2">
         <f t="shared" ref="AI118" si="1760">AH118-AD118</f>
         <v>3.5090889305884998E-2</v>
       </c>
@@ -22488,7 +22340,7 @@
         <f t="shared" ref="AH119" si="1787">AF119/$AF$3-1</f>
         <v>6.6446649215967657E-2</v>
       </c>
-      <c r="AI119" s="14">
+      <c r="AI119" s="2">
         <f t="shared" ref="AI119" si="1788">AH119-AD119</f>
         <v>3.7145777622569653E-2</v>
       </c>
@@ -22651,7 +22503,7 @@
         <f t="shared" ref="AH120" si="1815">AF120/$AF$3-1</f>
         <v>7.0409486631779483E-2</v>
       </c>
-      <c r="AI120" s="14">
+      <c r="AI120" s="2">
         <f t="shared" ref="AI120" si="1816">AH120-AD120</f>
         <v>3.83748748534809E-2</v>
       </c>
@@ -22814,7 +22666,7 @@
         <f t="shared" ref="AH121" si="1843">AF121/$AF$3-1</f>
         <v>8.2919750500763056E-2</v>
       </c>
-      <c r="AI121" s="14">
+      <c r="AI121" s="2">
         <f t="shared" ref="AI121" si="1844">AH121-AD121</f>
         <v>3.5825271792081947E-2</v>
       </c>
@@ -22977,7 +22829,7 @@
         <f t="shared" ref="AH122" si="1874">AF122/$AF$3-1</f>
         <v>9.508735861521922E-2</v>
       </c>
-      <c r="AI122" s="14">
+      <c r="AI122" s="2">
         <f t="shared" ref="AI122" si="1875">AH122-AD122</f>
         <v>3.5258221876018903E-2</v>
       </c>
@@ -23140,7 +22992,7 @@
         <f t="shared" ref="AH123" si="1905">AF123/$AF$3-1</f>
         <v>8.7236889677800411E-2</v>
       </c>
-      <c r="AI123" s="14">
+      <c r="AI123" s="2">
         <f t="shared" ref="AI123" si="1906">AH123-AD123</f>
         <v>3.5716955330757694E-2</v>
       </c>
@@ -23303,7 +23155,7 @@
         <f t="shared" ref="AH124" si="1932">AF124/$AF$3-1</f>
         <v>9.4306848631187767E-2</v>
       </c>
-      <c r="AI124" s="14">
+      <c r="AI124" s="2">
         <f t="shared" ref="AI124" si="1933">AH124-AD124</f>
         <v>3.4070980304240495E-2</v>
       </c>
@@ -23466,7 +23318,7 @@
         <f t="shared" ref="AH125" si="1964">AF125/$AF$3-1</f>
         <v>9.2083549046574564E-2</v>
       </c>
-      <c r="AI125" s="14">
+      <c r="AI125" s="2">
         <f t="shared" ref="AI125" si="1965">AH125-AD125</f>
         <v>3.2355195355665556E-2</v>
       </c>
@@ -23629,7 +23481,7 @@
         <f t="shared" ref="AH126" si="1992">AF126/$AF$3-1</f>
         <v>6.7552990628038323E-2</v>
       </c>
-      <c r="AI126" s="14">
+      <c r="AI126" s="2">
         <f t="shared" ref="AI126" si="1993">AH126-AD126</f>
         <v>3.531321335857518E-2</v>
       </c>
@@ -23792,7 +23644,7 @@
         <f t="shared" ref="AH127" si="2023">AF127/$AF$3-1</f>
         <v>7.7108068637655736E-2</v>
       </c>
-      <c r="AI127" s="14">
+      <c r="AI127" s="2">
         <f t="shared" ref="AI127" si="2024">AH127-AD127</f>
         <v>3.3402419927768712E-2</v>
       </c>
@@ -23955,7 +23807,7 @@
         <f t="shared" ref="AH128" si="2051">AF128/$AF$3-1</f>
         <v>7.2201744102951881E-2</v>
       </c>
-      <c r="AI128" s="14">
+      <c r="AI128" s="2">
         <f t="shared" ref="AI128" si="2052">AH128-AD128</f>
         <v>3.183453386771351E-2</v>
       </c>
@@ -24118,7 +23970,7 @@
         <f t="shared" ref="AH129" si="2079">AF129/$AF$3-1</f>
         <v>7.9917922608981007E-2</v>
       </c>
-      <c r="AI129" s="14">
+      <c r="AI129" s="2">
         <f t="shared" ref="AI129" si="2080">AH129-AD129</f>
         <v>3.2702864181808344E-2</v>
       </c>
@@ -24281,7 +24133,7 @@
         <f t="shared" ref="AH130" si="2106">AF130/$AF$3-1</f>
         <v>9.0578571460417479E-2</v>
       </c>
-      <c r="AI130" s="14">
+      <c r="AI130" s="2">
         <f t="shared" ref="AI130" si="2107">AH130-AD130</f>
         <v>2.9899977599904703E-2</v>
       </c>
@@ -24444,7 +24296,7 @@
         <f t="shared" ref="AH131" si="2133">AF131/$AF$3-1</f>
         <v>9.1777120257047429E-2</v>
       </c>
-      <c r="AI131" s="14">
+      <c r="AI131" s="2">
         <f t="shared" ref="AI131" si="2134">AH131-AD131</f>
         <v>3.0274265037295134E-2</v>
       </c>
@@ -24607,7 +24459,7 @@
         <f t="shared" ref="AH132" si="2162">AF132/$AF$3-1</f>
         <v>8.9246231489317429E-2</v>
       </c>
-      <c r="AI132" s="14">
+      <c r="AI132" s="2">
         <f t="shared" ref="AI132" si="2163">AH132-AD132</f>
         <v>3.4992556957373466E-2</v>
       </c>
@@ -24770,7 +24622,7 @@
         <f t="shared" ref="AH133" si="2184">AF133/$AF$3-1</f>
         <v>0.10218068884980536</v>
       </c>
-      <c r="AI133" s="14">
+      <c r="AI133" s="2">
         <f t="shared" ref="AI133" si="2185">AH133-AD133</f>
         <v>3.6407151958710138E-2</v>
       </c>
@@ -24933,7 +24785,7 @@
         <f t="shared" ref="AH134" si="2205">AF134/$AF$3-1</f>
         <v>0.12116035874369602</v>
       </c>
-      <c r="AI134" s="14">
+      <c r="AI134" s="2">
         <f t="shared" ref="AI134" si="2206">AH134-AD134</f>
         <v>4.1273595697239873E-2</v>
       </c>
@@ -25096,7 +24948,7 @@
         <f t="shared" ref="AH135" si="2227">AF135/$AF$3-1</f>
         <v>0.12274310828280455</v>
       </c>
-      <c r="AI135" s="14">
+      <c r="AI135" s="2">
         <f t="shared" ref="AI135" si="2228">AH135-AD135</f>
         <v>4.183231747781746E-2</v>
       </c>
@@ -25259,7 +25111,7 @@
         <f t="shared" ref="AH136" si="2247">AF136/$AF$3-1</f>
         <v>0.1304413896271408</v>
       </c>
-      <c r="AI136" s="14">
+      <c r="AI136" s="2">
         <f t="shared" ref="AI136" si="2248">AH136-AD136</f>
         <v>4.9544996400481267E-2</v>
       </c>
@@ -25422,7 +25274,7 @@
         <f t="shared" ref="AH137" si="2267">AF137/$AF$3-1</f>
         <v>0.13626730927147124</v>
       </c>
-      <c r="AI137" s="14">
+      <c r="AI137" s="2">
         <f t="shared" ref="AI137" si="2268">AH137-AD137</f>
         <v>5.4987580521846491E-2</v>
       </c>
@@ -25585,7 +25437,7 @@
         <f t="shared" ref="AH138" si="2293">AF138/$AF$3-1</f>
         <v>0.14405839938043785</v>
       </c>
-      <c r="AI138" s="14">
+      <c r="AI138" s="2">
         <f t="shared" ref="AI138" si="2294">AH138-AD138</f>
         <v>5.4904994983056898E-2</v>
       </c>
@@ -25748,7 +25600,7 @@
         <f t="shared" ref="AH139" si="2317">AF139/$AF$3-1</f>
         <v>0.14744112230011952</v>
       </c>
-      <c r="AI139" s="14">
+      <c r="AI139" s="2">
         <f t="shared" ref="AI139" si="2318">AH139-AD139</f>
         <v>5.4983473676617711E-2</v>
       </c>
@@ -25911,7 +25763,7 @@
         <f t="shared" ref="AH140" si="2338">AF140/$AF$3-1</f>
         <v>0.15329775205933993</v>
       </c>
-      <c r="AI140" s="14">
+      <c r="AI140" s="2">
         <f t="shared" ref="AI140" si="2339">AH140-AD140</f>
         <v>6.1331420796258085E-2</v>
       </c>
@@ -26074,7 +25926,7 @@
         <f t="shared" ref="AH141" si="2367">AF141/$AF$3-1</f>
         <v>0.15161883061405024</v>
       </c>
-      <c r="AI141" s="14">
+      <c r="AI141" s="2">
         <f t="shared" ref="AI141" si="2368">AH141-AD141</f>
         <v>6.3041329349762476E-2</v>
       </c>
@@ -26237,7 +26089,7 @@
         <f t="shared" ref="AH142" si="2392">AF142/$AF$3-1</f>
         <v>0.15219864359437119</v>
       </c>
-      <c r="AI142" s="14">
+      <c r="AI142" s="2">
         <f t="shared" ref="AI142" si="2393">AH142-AD142</f>
         <v>6.0806415767091337E-2</v>
       </c>
@@ -26400,7 +26252,7 @@
         <f t="shared" ref="AH143" si="2415">AF143/$AF$3-1</f>
         <v>0.15245993718592055</v>
       </c>
-      <c r="AI143" s="14">
+      <c r="AI143" s="2">
         <f t="shared" ref="AI143" si="2416">AH143-AD143</f>
         <v>6.0687973230257652E-2</v>
       </c>
@@ -26563,7 +26415,7 @@
         <f t="shared" ref="AH144" si="2447">AF144/$AF$3-1</f>
         <v>0.14862591793549473</v>
       </c>
-      <c r="AI144" s="14">
+      <c r="AI144" s="2">
         <f t="shared" ref="AI144" si="2448">AH144-AD144</f>
         <v>5.6767568509868083E-2</v>
       </c>
@@ -26727,7 +26579,7 @@
         <f t="shared" ref="AH145" si="2475">AF145/$AF$3-1</f>
         <v>0.14157967455937759</v>
       </c>
-      <c r="AI145" s="14">
+      <c r="AI145" s="2">
         <f t="shared" ref="AI145" si="2476">AH145-AD145</f>
         <v>5.5012435169043084E-2</v>
       </c>
@@ -26891,7 +26743,7 @@
         <f t="shared" ref="AH146" si="2506">AF146/$AF$3-1</f>
         <v>0.1419329884312257</v>
       </c>
-      <c r="AI146" s="14">
+      <c r="AI146" s="2">
         <f t="shared" ref="AI146" si="2507">AH146-AD146</f>
         <v>5.5473730878346172E-2</v>
       </c>
@@ -27054,7 +26906,7 @@
         <f t="shared" ref="AH147" si="2538">AF147/$AF$3-1</f>
         <v>0.1318442427993447</v>
       </c>
-      <c r="AI147" s="14">
+      <c r="AI147" s="2">
         <f t="shared" ref="AI147:AI152" si="2539">AH147-AD147</f>
         <v>5.4441062014352948E-2</v>
       </c>
@@ -27217,7 +27069,7 @@
         <f t="shared" ref="AH148" si="2568">AF148/$AF$3-1</f>
         <v>0.13995366981230806</v>
       </c>
-      <c r="AI148" s="14">
+      <c r="AI148" s="2">
         <f t="shared" si="2539"/>
         <v>5.5913205418419043E-2</v>
       </c>
@@ -27380,7 +27232,7 @@
         <f t="shared" ref="AH149" si="2592">AF149/$AF$3-1</f>
         <v>0.13692834217953487</v>
       </c>
-      <c r="AI149" s="14">
+      <c r="AI149" s="2">
         <f t="shared" si="2539"/>
         <v>5.5456045819782585E-2</v>
       </c>
@@ -27543,7 +27395,7 @@
         <f t="shared" ref="AH150" si="2616">AF150/$AF$3-1</f>
         <v>0.13497979983878072</v>
       </c>
-      <c r="AI150" s="14">
+      <c r="AI150" s="2">
         <f t="shared" si="2539"/>
         <v>5.9100962659194289E-2</v>
       </c>
@@ -27706,7 +27558,7 @@
         <f t="shared" ref="AH151" si="2639">AF151/$AF$3-1</f>
         <v>0.13649626419232819</v>
       </c>
-      <c r="AI151" s="14">
+      <c r="AI151" s="2">
         <f t="shared" si="2539"/>
         <v>5.5131949670030878E-2</v>
       </c>
@@ -27869,7 +27721,7 @@
         <f t="shared" ref="AH152" si="2663">AF152/$AF$3-1</f>
         <v>0.1157184075138018</v>
       </c>
-      <c r="AI152" s="14">
+      <c r="AI152" s="2">
         <f t="shared" si="2539"/>
         <v>4.7562071409534612E-2</v>
       </c>
@@ -28032,7 +27884,7 @@
         <f t="shared" ref="AH153" si="2684">AF153/$AF$3-1</f>
         <v>9.3358505185799467E-2</v>
       </c>
-      <c r="AI153" s="14">
+      <c r="AI153" s="2">
         <f t="shared" ref="AI153" si="2685">AH153-AD153</f>
         <v>4.4327552192092945E-2</v>
       </c>
@@ -28195,7 +28047,7 @@
         <f t="shared" ref="AH154" si="2706">AF154/$AF$3-1</f>
         <v>0.10270476454911148</v>
       </c>
-      <c r="AI154" s="14">
+      <c r="AI154" s="2">
         <f t="shared" ref="AI154" si="2707">AH154-AD154</f>
         <v>4.5047862440046327E-2</v>
       </c>
@@ -28358,7 +28210,7 @@
         <f t="shared" ref="AH155" si="2728">AF155/$AF$3-1</f>
         <v>0.11442909131958223</v>
       </c>
-      <c r="AI155" s="14">
+      <c r="AI155" s="2">
         <f t="shared" ref="AI155" si="2729">AH155-AD155</f>
         <v>4.1732118950334574E-2</v>
       </c>
@@ -28521,7 +28373,7 @@
         <f t="shared" ref="AH156" si="2750">AF156/$AF$3-1</f>
         <v>0.1081532661618998</v>
       </c>
-      <c r="AI156" s="14">
+      <c r="AI156" s="2">
         <f t="shared" ref="AI156" si="2751">AH156-AD156</f>
         <v>4.0256086467524321E-2</v>
       </c>
@@ -28684,7 +28536,7 @@
         <f t="shared" ref="AH157" si="2772">AF157/$AF$3-1</f>
         <v>9.117787249426379E-2</v>
       </c>
-      <c r="AI157" s="14">
+      <c r="AI157" s="2">
         <f t="shared" ref="AI157" si="2773">AH157-AD157</f>
         <v>3.9872102124840048E-2</v>
       </c>
@@ -28847,7 +28699,7 @@
         <f t="shared" ref="AH158" si="2800">AF158/$AF$3-1</f>
         <v>0.10231964315141684</v>
       </c>
-      <c r="AI158" s="14">
+      <c r="AI158" s="2">
         <f t="shared" ref="AI158" si="2801">AH158-AD158</f>
         <v>4.1110138590084055E-2</v>
       </c>
@@ -29010,7 +28862,7 @@
         <f t="shared" ref="AH159" si="2829">AF159/$AF$3-1</f>
         <v>0.11192127875671765</v>
       </c>
-      <c r="AI159" s="14">
+      <c r="AI159" s="2">
         <f t="shared" ref="AI159" si="2830">AH159-AD159</f>
         <v>4.3880123279069094E-2</v>
       </c>
@@ -29173,7 +29025,7 @@
         <f t="shared" ref="AH160" si="2858">AF160/$AF$3-1</f>
         <v>0.12777737938578215</v>
       </c>
-      <c r="AI160" s="14">
+      <c r="AI160" s="2">
         <f t="shared" ref="AI160" si="2859">AH160-AD160</f>
         <v>4.7951806047217715E-2</v>
       </c>
@@ -29336,7 +29188,7 @@
         <f t="shared" ref="AH161" si="2887">AF161/$AF$3-1</f>
         <v>0.12673038699472183</v>
       </c>
-      <c r="AI161" s="14">
+      <c r="AI161" s="2">
         <f t="shared" ref="AI161" si="2888">AH161-AD161</f>
         <v>4.8402161802199473E-2</v>
       </c>
@@ -29499,7 +29351,7 @@
         <f t="shared" ref="AH162" si="2916">AF162/$AF$3-1</f>
         <v>0.13575183212281128</v>
       </c>
-      <c r="AI162" s="14">
+      <c r="AI162" s="2">
         <f t="shared" ref="AI162" si="2917">AH162-AD162</f>
         <v>4.668481319539497E-2</v>
       </c>
@@ -29662,7 +29514,7 @@
         <f t="shared" ref="AH163" si="2945">AF163/$AF$3-1</f>
         <v>0.13092661364393443</v>
       </c>
-      <c r="AI163" s="14">
+      <c r="AI163" s="2">
         <f t="shared" ref="AI163" si="2946">AH163-AD163</f>
         <v>4.3965240546889772E-2</v>
       </c>
@@ -29825,7 +29677,7 @@
         <f t="shared" ref="AH164" si="2974">AF164/$AF$3-1</f>
         <v>0.13265247213519493</v>
       </c>
-      <c r="AI164" s="14">
+      <c r="AI164" s="2">
         <f t="shared" ref="AI164" si="2975">AH164-AD164</f>
         <v>4.260461818422967E-2</v>
       </c>
@@ -29988,7 +29840,7 @@
         <f t="shared" ref="AH165" si="3003">AF165/$AF$3-1</f>
         <v>0.12546705878611797</v>
       </c>
-      <c r="AI165" s="14">
+      <c r="AI165" s="2">
         <f t="shared" ref="AI165" si="3004">AH165-AD165</f>
         <v>3.9662891047131943E-2</v>
       </c>
@@ -30151,7 +30003,7 @@
         <f t="shared" ref="AH166" si="3032">AF166/$AF$3-1</f>
         <v>0.13599618410406666</v>
       </c>
-      <c r="AI166" s="14">
+      <c r="AI166" s="2">
         <f t="shared" ref="AI166" si="3033">AH166-AD166</f>
         <v>4.2698076845707922E-2</v>
       </c>
@@ -30314,7 +30166,7 @@
         <f t="shared" ref="AH167" si="3061">AF167/$AF$3-1</f>
         <v>0.13599802898109892</v>
       </c>
-      <c r="AI167" s="14">
+      <c r="AI167" s="2">
         <f t="shared" ref="AI167" si="3062">AH167-AD167</f>
         <v>4.6565671503626893E-2</v>
       </c>
@@ -30477,7 +30329,7 @@
         <f t="shared" ref="AH168" si="3090">AF168/$AF$3-1</f>
         <v>0.1371425998583975</v>
       </c>
-      <c r="AI168" s="14">
+      <c r="AI168" s="2">
         <f t="shared" ref="AI168" si="3091">AH168-AD168</f>
         <v>4.4569770608277492E-2</v>
       </c>
@@ -30640,7 +30492,7 @@
         <f t="shared" ref="AH169" si="3119">AF169/$AF$3-1</f>
         <v>0.14028119382496462</v>
       </c>
-      <c r="AI169" s="14">
+      <c r="AI169" s="2">
         <f t="shared" ref="AI169" si="3120">AH169-AD169</f>
         <v>4.5608117836345885E-2</v>
       </c>
@@ -30803,7 +30655,7 @@
         <f t="shared" ref="AH170" si="3147">AF170/$AF$3-1</f>
         <v>0.14740074464925756</v>
       </c>
-      <c r="AI170" s="14">
+      <c r="AI170" s="2">
         <f t="shared" ref="AI170" si="3148">AH170-AD170</f>
         <v>4.8250021800840814E-2</v>
       </c>
@@ -30966,7 +30818,7 @@
         <f t="shared" ref="AH171" si="3172">AF171/$AF$3-1</f>
         <v>0.15111140658258604</v>
       </c>
-      <c r="AI171" s="14">
+      <c r="AI171" s="2">
         <f t="shared" ref="AI171" si="3173">AH171-AD171</f>
         <v>4.5825515669437378E-2</v>
       </c>
@@ -31129,7 +30981,7 @@
         <f t="shared" ref="AH172" si="3201">AF172/$AF$3-1</f>
         <v>0.14883212508685761</v>
       </c>
-      <c r="AI172" s="14">
+      <c r="AI172" s="2">
         <f t="shared" ref="AI172" si="3202">AH172-AD172</f>
         <v>4.4453281608330508E-2</v>
       </c>
@@ -31292,7 +31144,7 @@
         <f t="shared" ref="AH173" si="3230">AF173/$AF$3-1</f>
         <v>0.14763202048213708</v>
       </c>
-      <c r="AI173" s="14">
+      <c r="AI173" s="2">
         <f t="shared" ref="AI173" si="3231">AH173-AD173</f>
         <v>3.9570996346396603E-2</v>
       </c>
@@ -31455,7 +31307,7 @@
         <f t="shared" ref="AH174" si="3258">AF174/$AF$3-1</f>
         <v>0.14159959632314312</v>
       </c>
-      <c r="AI174" s="14">
+      <c r="AI174" s="2">
         <f t="shared" ref="AI174" si="3259">AH174-AD174</f>
         <v>3.6814021256869056E-2</v>
       </c>
@@ -31618,7 +31470,7 @@
         <f t="shared" ref="AH175" si="3285">AF175/$AF$3-1</f>
         <v>0.15885635489812056</v>
       </c>
-      <c r="AI175" s="14">
+      <c r="AI175" s="2">
         <f t="shared" ref="AI175" si="3286">AH175-AD175</f>
         <v>4.3297791848425415E-2</v>
       </c>
@@ -31781,7 +31633,7 @@
         <f t="shared" ref="AH176" si="3307">AF176/$AF$3-1</f>
         <v>0.17359877568254212</v>
       </c>
-      <c r="AI176" s="14">
+      <c r="AI176" s="2">
         <f t="shared" ref="AI176" si="3308">AH176-AD176</f>
         <v>5.3893710074577106E-2</v>
       </c>
@@ -31944,7 +31796,7 @@
         <f t="shared" ref="AH177" si="3328">AF177/$AF$3-1</f>
         <v>0.17418256892138761</v>
       </c>
-      <c r="AI177" s="14">
+      <c r="AI177" s="2">
         <f t="shared" ref="AI177" si="3329">AH177-AD177</f>
         <v>5.5800280822245751E-2</v>
       </c>
@@ -32107,7 +31959,7 @@
         <f t="shared" ref="AH178" si="3349">AF178/$AF$3-1</f>
         <v>0.16621096947072544</v>
       </c>
-      <c r="AI178" s="14">
+      <c r="AI178" s="2">
         <f t="shared" ref="AI178" si="3350">AH178-AD178</f>
         <v>4.6961227277362072E-2</v>
       </c>
@@ -32270,7 +32122,7 @@
         <f t="shared" ref="AH179" si="3370">AF179/$AF$3-1</f>
         <v>0.17280243990606081</v>
       </c>
-      <c r="AI179" s="14">
+      <c r="AI179" s="2">
         <f t="shared" ref="AI179" si="3371">AH179-AD179</f>
         <v>4.9973099801066123E-2</v>
       </c>
@@ -32433,7 +32285,7 @@
         <f t="shared" ref="AH180" si="3391">AF180/$AF$3-1</f>
         <v>0.17347941763825214</v>
       </c>
-      <c r="AI180" s="14">
+      <c r="AI180" s="2">
         <f t="shared" ref="AI180" si="3392">AH180-AD180</f>
         <v>4.7568995771209766E-2</v>
       </c>
@@ -32596,7 +32448,7 @@
         <f t="shared" ref="AH181" si="3417">AF181/$AF$3-1</f>
         <v>0.17061267442335248</v>
       </c>
-      <c r="AI181" s="14">
+      <c r="AI181" s="2">
         <f t="shared" ref="AI181" si="3418">AH181-AD181</f>
         <v>4.6915880224136286E-2</v>
       </c>
@@ -32759,7 +32611,7 @@
         <f t="shared" ref="AH182" si="3445">AF182/$AF$3-1</f>
         <v>0.16962029038937265</v>
       </c>
-      <c r="AI182" s="14">
+      <c r="AI182" s="2">
         <f t="shared" ref="AI182" si="3446">AH182-AD182</f>
         <v>4.4105801926331845E-2</v>
       </c>
@@ -32922,7 +32774,7 @@
         <f t="shared" ref="AH183" si="3471">AF183/$AF$3-1</f>
         <v>0.16755284428512218</v>
       </c>
-      <c r="AI183" s="14">
+      <c r="AI183" s="2">
         <f t="shared" ref="AI183" si="3472">AH183-AD183</f>
         <v>4.1197897187223775E-2</v>
       </c>
@@ -33085,7 +32937,7 @@
         <f t="shared" ref="AH184" si="3500">AF184/$AF$3-1</f>
         <v>0.16764147171774568</v>
       </c>
-      <c r="AI184" s="14">
+      <c r="AI184" s="2">
         <f t="shared" ref="AI184" si="3501">AH184-AD184</f>
         <v>4.0055531672861022E-2</v>
       </c>
@@ -33248,7 +33100,7 @@
         <f t="shared" ref="AH185" si="3529">AF185/$AF$3-1</f>
         <v>0.17448806033539843</v>
       </c>
-      <c r="AI185" s="14">
+      <c r="AI185" s="2">
         <f t="shared" ref="AI185" si="3530">AH185-AD185</f>
         <v>3.8026013251717616E-2</v>
       </c>
@@ -33411,7 +33263,7 @@
         <f t="shared" ref="AH186" si="3559">AF186/$AF$3-1</f>
         <v>0.17219307915338811</v>
       </c>
-      <c r="AI186" s="14">
+      <c r="AI186" s="2">
         <f t="shared" ref="AI186" si="3560">AH186-AD186</f>
         <v>3.5140731358286992E-2</v>
       </c>
@@ -33574,7 +33426,7 @@
         <f t="shared" ref="AH187" si="3592">AF187/$AF$3-1</f>
         <v>0.16290869620796267</v>
       </c>
-      <c r="AI187" s="14">
+      <c r="AI187" s="2">
         <f t="shared" ref="AI187" si="3593">AH187-AD187</f>
         <v>2.6461046702609403E-2</v>
       </c>
@@ -33737,7 +33589,7 @@
         <f t="shared" ref="AH188" si="3621">AF188/$AF$3-1</f>
         <v>0.16350007132679445</v>
       </c>
-      <c r="AI188" s="14">
+      <c r="AI188" s="2">
         <f t="shared" ref="AI188" si="3622">AH188-AD188</f>
         <v>3.1099941028710276E-2</v>
       </c>
@@ -33900,7 +33752,7 @@
         <f t="shared" ref="AH189" si="3651">AF189/$AF$3-1</f>
         <v>0.16559394668769323</v>
       </c>
-      <c r="AI189" s="14">
+      <c r="AI189" s="2">
         <f t="shared" ref="AI189" si="3652">AH189-AD189</f>
         <v>3.4917926394306464E-2</v>
       </c>
@@ -34063,7 +33915,7 @@
         <f t="shared" ref="AH190" si="3680">AF190/$AF$3-1</f>
         <v>0.16631951974654235</v>
       </c>
-      <c r="AI190" s="14">
+      <c r="AI190" s="2">
         <f t="shared" ref="AI190" si="3681">AH190-AD190</f>
         <v>3.3168915678146504E-2</v>
       </c>
@@ -34226,7 +34078,7 @@
         <f t="shared" ref="AH191" si="3710">AF191/$AF$3-1</f>
         <v>0.17576004151939828</v>
       </c>
-      <c r="AI191" s="14">
+      <c r="AI191" s="2">
         <f t="shared" ref="AI191" si="3711">AH191-AD191</f>
         <v>3.5766988350941276E-2</v>
       </c>
@@ -34389,7 +34241,7 @@
         <f t="shared" ref="AH192" si="3743">AF192/$AF$3-1</f>
         <v>0.1751045469109318</v>
       </c>
-      <c r="AI192" s="14">
+      <c r="AI192" s="2">
         <f t="shared" ref="AI192" si="3744">AH192-AD192</f>
         <v>3.0774223271367918E-2</v>
       </c>
@@ -34552,7 +34404,7 @@
         <f t="shared" ref="AH193" si="3776">AF193/$AF$3-1</f>
         <v>0.18157764872314242</v>
       </c>
-      <c r="AI193" s="14">
+      <c r="AI193" s="2">
         <f t="shared" ref="AI193" si="3777">AH193-AD193</f>
         <v>3.2334151479378903E-2</v>
       </c>
@@ -34715,7 +34567,7 @@
         <f t="shared" ref="AH194" si="3806">AF194/$AF$3-1</f>
         <v>0.17391660765697181</v>
       </c>
-      <c r="AI194" s="14">
+      <c r="AI194" s="2">
         <f t="shared" ref="AI194" si="3807">AH194-AD194</f>
         <v>2.9028377857224008E-2</v>
       </c>
@@ -34878,7 +34730,7 @@
         <f t="shared" ref="AH195" si="3836">AF195/$AF$3-1</f>
         <v>0.16381940007702656</v>
       </c>
-      <c r="AI195" s="14">
+      <c r="AI195" s="2">
         <f t="shared" ref="AI195" si="3837">AH195-AD195</f>
         <v>2.8771915064005782E-2</v>
       </c>
@@ -35041,7 +34893,7 @@
         <f t="shared" ref="AH196" si="3861">AF196/$AF$3-1</f>
         <v>0.16764172031185298</v>
       </c>
-      <c r="AI196" s="14">
+      <c r="AI196" s="2">
         <f t="shared" ref="AI196" si="3862">AH196-AD196</f>
         <v>4.0091774212786868E-2</v>
       </c>
@@ -35204,7 +35056,7 @@
         <f t="shared" ref="AH197" si="3888">AF197/$AF$3-1</f>
         <v>0.17611855956433886</v>
       </c>
-      <c r="AI197" s="14">
+      <c r="AI197" s="2">
         <f t="shared" ref="AI197" si="3889">AH197-AD197</f>
         <v>4.1321232474755387E-2</v>
       </c>
@@ -35367,7 +35219,7 @@
         <f t="shared" ref="AH198" si="3915">AF198/$AF$3-1</f>
         <v>0.17723383364704604</v>
       </c>
-      <c r="AI198" s="14">
+      <c r="AI198" s="2">
         <f t="shared" ref="AI198" si="3916">AH198-AD198</f>
         <v>4.0420845591637056E-2</v>
       </c>
@@ -35530,7 +35382,7 @@
         <f t="shared" ref="AH199" si="3939">AF199/$AF$3-1</f>
         <v>0.17805468480429121</v>
       </c>
-      <c r="AI199" s="14">
+      <c r="AI199" s="2">
         <f t="shared" ref="AI199" si="3940">AH199-AD199</f>
         <v>3.0801652764280485E-2</v>
       </c>
@@ -35693,7 +35545,7 @@
         <f t="shared" ref="AH200" si="3962">AF200/$AF$3-1</f>
         <v>0.17672949790537507</v>
       </c>
-      <c r="AI200" s="14">
+      <c r="AI200" s="2">
         <f t="shared" ref="AI200" si="3963">AH200-AD200</f>
         <v>3.3009271647431726E-2</v>
       </c>
@@ -35856,7 +35708,7 @@
         <f t="shared" ref="AH201" si="3991">AF201/$AF$3-1</f>
         <v>0.1731282324190111</v>
       </c>
-      <c r="AI201" s="14">
+      <c r="AI201" s="2">
         <f t="shared" ref="AI201" si="3992">AH201-AD201</f>
         <v>3.062460152972668E-2</v>
       </c>
@@ -36019,7 +35871,7 @@
         <f t="shared" ref="AH202" si="4021">AF202/$AF$3-1</f>
         <v>0.17029071053855271</v>
       </c>
-      <c r="AI202" s="14">
+      <c r="AI202" s="2">
         <f t="shared" ref="AI202" si="4022">AH202-AD202</f>
         <v>2.4452240569201589E-2</v>
       </c>
@@ -36182,7 +36034,7 @@
         <f t="shared" ref="AH203" si="4051">AF203/$AF$3-1</f>
         <v>0.16393512528358212</v>
       </c>
-      <c r="AI203" s="14">
+      <c r="AI203" s="2">
         <f t="shared" ref="AI203" si="4052">AH203-AD203</f>
         <v>8.1065356523579712E-3</v>
       </c>
@@ -36345,7 +36197,7 @@
         <f t="shared" ref="AH204" si="4079">AF204/$AF$3-1</f>
         <v>0.16755336393285059</v>
       </c>
-      <c r="AI204" s="14">
+      <c r="AI204" s="2">
         <f t="shared" ref="AI204" si="4080">AH204-AD204</f>
         <v>1.1440422129661787E-2</v>
       </c>
@@ -36508,7 +36360,7 @@
         <f t="shared" ref="AH205" si="4108">AF205/$AF$3-1</f>
         <v>0.17971178137282484</v>
       </c>
-      <c r="AI205" s="14">
+      <c r="AI205" s="2">
         <f t="shared" ref="AI205" si="4109">AH205-AD205</f>
         <v>1.5302235058515024E-2</v>
       </c>
@@ -36671,7 +36523,7 @@
         <f t="shared" ref="AH206" si="4137">AF206/$AF$3-1</f>
         <v>0.17584142002183278</v>
       </c>
-      <c r="AI206" s="14">
+      <c r="AI206" s="2">
         <f t="shared" ref="AI206" si="4138">AH206-AD206</f>
         <v>1.1034140606230647E-2</v>
       </c>
@@ -36834,7 +36686,7 @@
         <f t="shared" ref="AH207" si="4165">AF207/$AF$3-1</f>
         <v>0.18571947535300115</v>
       </c>
-      <c r="AI207" s="14">
+      <c r="AI207" s="2">
         <f t="shared" ref="AI207" si="4166">AH207-AD207</f>
         <v>2.1315328130564026E-2</v>
       </c>
@@ -36997,7 +36849,7 @@
         <f t="shared" ref="AH208" si="4193">AF208/$AF$3-1</f>
         <v>0.19075370489969767</v>
       </c>
-      <c r="AI208" s="14">
+      <c r="AI208" s="2">
         <f t="shared" ref="AI208" si="4194">AH208-AD208</f>
         <v>2.1083643404041341E-2</v>
       </c>
@@ -37161,7 +37013,7 @@
         <f t="shared" ref="AH209" si="4220">AF209/$AF$3-1</f>
         <v>0.19959805909785855</v>
       </c>
-      <c r="AI209" s="14">
+      <c r="AI209" s="2">
         <f t="shared" ref="AI209" si="4221">AH209-AD209</f>
         <v>2.4080781104017346E-2</v>
       </c>
@@ -37324,7 +37176,7 @@
         <f t="shared" ref="AH210" si="4252">AF210/$AF$3-1</f>
         <v>0.19270949019242245</v>
       </c>
-      <c r="AI210" s="14">
+      <c r="AI210" s="2">
         <f t="shared" ref="AI210" si="4253">AH210-AD210</f>
         <v>1.6175383229213969E-2</v>
       </c>
@@ -37487,7 +37339,7 @@
         <f t="shared" ref="AH211" si="4277">AF211/$AF$3-1</f>
         <v>0.19403429774236547</v>
       </c>
-      <c r="AI211" s="14">
+      <c r="AI211" s="2">
         <f t="shared" ref="AI211" si="4278">AH211-AD211</f>
         <v>1.7320221050065587E-2</v>
       </c>
@@ -37650,7 +37502,7 @@
         <f t="shared" ref="AH212" si="4308">AF212/$AF$3-1</f>
         <v>0.19802319261536638</v>
       </c>
-      <c r="AI212" s="14">
+      <c r="AI212" s="2">
         <f t="shared" ref="AI212" si="4309">AH212-AD212</f>
         <v>1.549429397611779E-2</v>
       </c>
@@ -37813,7 +37665,7 @@
         <f t="shared" ref="AH213" si="4338">AF213/$AF$3-1</f>
         <v>0.20094190710302784</v>
       </c>
-      <c r="AI213" s="14">
+      <c r="AI213" s="2">
         <f t="shared" ref="AI213" si="4339">AH213-AD213</f>
         <v>1.8355418150470149E-2</v>
       </c>
@@ -37976,7 +37828,7 @@
         <f t="shared" ref="AH214" si="4366">AF214/$AF$3-1</f>
         <v>0.19632709550172445</v>
       </c>
-      <c r="AI214" s="14">
+      <c r="AI214" s="2">
         <f t="shared" ref="AI214" si="4367">AH214-AD214</f>
         <v>2.0421082893045783E-2</v>
       </c>
@@ -38139,7 +37991,7 @@
         <f t="shared" ref="AH215" si="4395">AF215/$AF$3-1</f>
         <v>0.20276568376092907</v>
       </c>
-      <c r="AI215" s="14">
+      <c r="AI215" s="2">
         <f t="shared" ref="AI215" si="4396">AH215-AD215</f>
         <v>2.3321466278310332E-2</v>
       </c>
@@ -38302,7 +38154,7 @@
         <f t="shared" ref="AH216:AH222" si="4425">AF216/$AF$215-1</f>
         <v>-7.3390947214193591E-3</v>
       </c>
-      <c r="AI216" s="14">
+      <c r="AI216" s="2">
         <f t="shared" ref="AI216" si="4426">AH216-AD216</f>
         <v>-1.5841330907192974E-2</v>
       </c>
@@ -38466,7 +38318,7 @@
         <f t="shared" si="4425"/>
         <v>-8.5123852919262166E-3</v>
       </c>
-      <c r="AI217" s="14">
+      <c r="AI217" s="2">
         <f t="shared" ref="AI217" si="4444">AH217-AD217</f>
         <v>-1.000012403584738E-2</v>
       </c>
@@ -38630,7 +38482,7 @@
         <f t="shared" si="4425"/>
         <v>-8.5351115722079873E-3</v>
       </c>
-      <c r="AI218" s="14">
+      <c r="AI218" s="2">
         <f t="shared" ref="AI218:AI223" si="4457">AH218-AD218</f>
         <v>-1.3565957355498592E-2</v>
       </c>
@@ -38690,7 +38542,6 @@
         <v>1</v>
       </c>
       <c r="H219" s="15">
-        <f>RTD("telemetorion.rtdserver","","data","SPX-I","Close",$A219)</f>
         <v>3237.18</v>
       </c>
       <c r="I219" s="2">
@@ -38795,12 +38646,11 @@
         <f t="shared" si="4425"/>
         <v>-1.3131058063977852E-2</v>
       </c>
-      <c r="AI219" s="14">
+      <c r="AI219" s="2">
         <f t="shared" si="4457"/>
         <v>-1.5445826960930109E-2</v>
       </c>
       <c r="AJ219" s="27">
-        <f>RTD("telemetorion.rtdserver","","data","XLSR","Close",$A219)</f>
         <v>34.107100000000003</v>
       </c>
       <c r="AK219" s="2">
@@ -38856,7 +38706,6 @@
         <v>1</v>
       </c>
       <c r="H220" s="15">
-        <f>RTD("telemetorion.rtdserver","","data","SPX-I","Close",$A220)</f>
         <v>3253.04</v>
       </c>
       <c r="I220" s="2">
@@ -38961,12 +38810,11 @@
         <f t="shared" si="4425"/>
         <v>-1.1663281920590851E-2</v>
       </c>
-      <c r="AI220" s="14">
+      <c r="AI220" s="2">
         <f t="shared" si="4457"/>
         <v>-1.8923446990926296E-2</v>
       </c>
       <c r="AJ220" s="27">
-        <f>RTD("telemetorion.rtdserver","","data","XLSR","Close",$A220)</f>
         <v>34.349200000000003</v>
       </c>
       <c r="AK220" s="2">
@@ -39022,7 +38870,6 @@
         <v>1</v>
       </c>
       <c r="H221" s="15">
-        <f>RTD("telemetorion.rtdserver","","data","SPX-I","Close",$A221)</f>
         <v>3274.7</v>
       </c>
       <c r="I221" s="2">
@@ -39127,12 +38974,11 @@
         <f t="shared" si="4425"/>
         <v>-8.5064392396233535E-3</v>
       </c>
-      <c r="AI221" s="14">
+      <c r="AI221" s="2">
         <f t="shared" si="4457"/>
         <v>-2.2738376946857541E-2</v>
       </c>
       <c r="AJ221" s="27">
-        <f>RTD("telemetorion.rtdserver","","data","XLSR","Close",$A221)</f>
         <v>34.618499999999997</v>
       </c>
       <c r="AK221" s="2">
@@ -39171,23 +39017,22 @@
         <v>129.1</v>
       </c>
       <c r="D222">
-        <f t="shared" ref="D222:D232" si="4487">B222+C222</f>
+        <f t="shared" ref="D222:D234" si="4487">B222+C222</f>
         <v>20939.25</v>
       </c>
       <c r="E222" s="14">
-        <f t="shared" ref="E222:E232" si="4488">B222/D222</f>
+        <f t="shared" ref="E222:E234" si="4488">B222/D222</f>
         <v>0.99383454517234382</v>
       </c>
       <c r="F222" s="14">
-        <f t="shared" ref="F222:F232" si="4489">C222/D222</f>
+        <f t="shared" ref="F222:F234" si="4489">C222/D222</f>
         <v>6.1654548276561952E-3</v>
       </c>
       <c r="G222" s="1">
-        <f t="shared" ref="G222:G232" si="4490">SUM(E222:F222)</f>
+        <f t="shared" ref="G222:G234" si="4490">SUM(E222:F222)</f>
         <v>1</v>
       </c>
       <c r="H222" s="15">
-        <f>RTD("telemetorion.rtdserver","","data","SPX-I","Close",$A222)</f>
         <v>3265.35</v>
       </c>
       <c r="I222" s="2">
@@ -39292,12 +39137,11 @@
         <f t="shared" si="4425"/>
         <v>-5.973653933810108E-3</v>
       </c>
-      <c r="AI222" s="14">
+      <c r="AI222" s="2">
         <f t="shared" si="4457"/>
         <v>-1.7310986105435355E-2</v>
       </c>
       <c r="AJ222" s="27">
-        <f>RTD("telemetorion.rtdserver","","data","XLSR","Close",$A222)</f>
         <v>34.522199999999998</v>
       </c>
       <c r="AK222" s="2">
@@ -39352,7 +39196,6 @@
         <v>1</v>
       </c>
       <c r="H223" s="15">
-        <f>RTD("telemetorion.rtdserver","","data","SPX-I","Close",$A223)</f>
         <v>3288.13</v>
       </c>
       <c r="I223" s="2">
@@ -39457,12 +39300,11 @@
         <f t="shared" ref="AH223" si="4520">AF223/$AF$215-1</f>
         <v>3.0284019610711255E-3</v>
       </c>
-      <c r="AI223" s="14">
+      <c r="AI223" s="2">
         <f t="shared" si="4457"/>
         <v>-1.5367678343251256E-2</v>
       </c>
       <c r="AJ223" s="27">
-        <f>RTD("telemetorion.rtdserver","","data","XLSR","Close",$A223)</f>
         <v>34.792499999999997</v>
       </c>
       <c r="AK223" s="2">
@@ -39517,7 +39359,6 @@
         <v>1</v>
       </c>
       <c r="H224" s="15">
-        <f>RTD("telemetorion.rtdserver","","data","SPX-I","Close",$A224)</f>
         <v>3283.15</v>
       </c>
       <c r="I224" s="2">
@@ -39622,12 +39463,11 @@
         <f t="shared" ref="AH224" si="4546">AF224/$AF$215-1</f>
         <v>1.4083212636550879E-3</v>
       </c>
-      <c r="AI224" s="14">
+      <c r="AI224" s="2">
         <f t="shared" ref="AI224" si="4547">AH224-AD224</f>
         <v>-1.554274510169984E-2</v>
       </c>
       <c r="AJ224" s="27">
-        <f>RTD("telemetorion.rtdserver","","data","XLSR","Close",$A224)</f>
         <v>34.693300000000001</v>
       </c>
       <c r="AK224" s="2">
@@ -39682,7 +39522,6 @@
         <v>1</v>
       </c>
       <c r="H225" s="15">
-        <f>RTD("telemetorion.rtdserver","","data","SPX-I","Close",$A225)</f>
         <v>3289.29</v>
       </c>
       <c r="I225" s="2">
@@ -39787,12 +39626,11 @@
         <f t="shared" ref="AH225" si="4573">AF225/$AF$215-1</f>
         <v>9.3313673244848072E-3</v>
       </c>
-      <c r="AI225" s="14">
+      <c r="AI225" s="2">
         <f t="shared" ref="AI225" si="4574">AH225-AD225</f>
         <v>-9.540789377892489E-3</v>
       </c>
       <c r="AJ225" s="27">
-        <f>RTD("telemetorion.rtdserver","","data","XLSR","Close",$A225)</f>
         <v>34.748899999999999</v>
       </c>
       <c r="AK225" s="2">
@@ -39847,7 +39685,6 @@
         <v>1</v>
       </c>
       <c r="H226" s="15">
-        <f>RTD("telemetorion.rtdserver","","data","SPX-I","Close",$A226)</f>
         <v>3316.8</v>
       </c>
       <c r="I226" s="2">
@@ -39952,12 +39789,11 @@
         <f t="shared" ref="AH226" si="4600">AF226/$AF$215-1</f>
         <v>1.6288795709489712E-2</v>
       </c>
-      <c r="AI226" s="14">
+      <c r="AI226" s="2">
         <f t="shared" ref="AI226" si="4601">AH226-AD226</f>
         <v>-1.1143580842526868E-2</v>
       </c>
       <c r="AJ226" s="27">
-        <f>RTD("telemetorion.rtdserver","","data","XLSR","Close",$A226)</f>
         <v>35.083399999999997</v>
       </c>
       <c r="AK226" s="2">
@@ -40012,7 +39848,6 @@
         <v>1.0000000000000002</v>
       </c>
       <c r="H227" s="15">
-        <f>RTD("telemetorion.rtdserver","","data","SPX-I","Close",$A227)</f>
         <v>3329.62</v>
       </c>
       <c r="I227" s="2">
@@ -40117,12 +39952,11 @@
         <f t="shared" ref="AH227" si="4627">AF227/$AF$215-1</f>
         <v>1.9872375595069824E-2</v>
       </c>
-      <c r="AI227" s="14">
+      <c r="AI227" s="2">
         <f t="shared" ref="AI227" si="4628">AH227-AD227</f>
         <v>-1.1551718448329362E-2</v>
       </c>
       <c r="AJ227" s="27">
-        <f>RTD("telemetorion.rtdserver","","data","XLSR","Close",$A227)</f>
         <v>35.232599999999998</v>
       </c>
       <c r="AK227" s="2">
@@ -40177,7 +40011,6 @@
         <v>1.0000000000000002</v>
       </c>
       <c r="H228" s="15">
-        <f>RTD("telemetorion.rtdserver","","data","SPX-I","Close",$A228)</f>
         <v>3320.79</v>
       </c>
       <c r="I228" s="2">
@@ -40282,12 +40115,11 @@
         <f t="shared" ref="AH228" si="4654">AF228/$AF$215-1</f>
         <v>2.2860489632951841E-2</v>
       </c>
-      <c r="AI228" s="14">
+      <c r="AI228" s="2">
         <f t="shared" ref="AI228" si="4655">AH228-AD228</f>
         <v>-5.8475275241089975E-3</v>
       </c>
       <c r="AJ228" s="27">
-        <f>RTD("telemetorion.rtdserver","","data","XLSR","Close",$A228)</f>
         <v>35.2288</v>
       </c>
       <c r="AK228" s="2">
@@ -40342,7 +40174,6 @@
         <v>1</v>
       </c>
       <c r="H229" s="15">
-        <f>RTD("telemetorion.rtdserver","","data","SPX-I","Close",$A229)</f>
         <v>3321.75</v>
       </c>
       <c r="I229" s="2">
@@ -40447,12 +40278,11 @@
         <f t="shared" ref="AH229" si="4681">AF229/$AF$215-1</f>
         <v>1.9739702463158038E-2</v>
       </c>
-      <c r="AI229" s="14">
+      <c r="AI229" s="2">
         <f t="shared" ref="AI229" si="4682">AH229-AD229</f>
         <v>-9.3024837040758257E-3</v>
       </c>
       <c r="AJ229" s="27">
-        <f>RTD("telemetorion.rtdserver","","data","XLSR","Close",$A229)</f>
         <v>35.284199999999998</v>
       </c>
       <c r="AK229" s="2">
@@ -40507,7 +40337,6 @@
         <v>1</v>
       </c>
       <c r="H230" s="15">
-        <f>RTD("telemetorion.rtdserver","","data","SPX-I","Close",$A230)</f>
         <v>3325.54</v>
       </c>
       <c r="I230" s="2">
@@ -40612,12 +40441,11 @@
         <f t="shared" ref="AH230" si="4708">AF230/$AF$215-1</f>
         <v>2.5665754513772843E-2</v>
       </c>
-      <c r="AI230" s="14">
+      <c r="AI230" s="2">
         <f t="shared" ref="AI230" si="4709">AH230-AD230</f>
         <v>-4.6261321983549486E-3</v>
       </c>
       <c r="AJ230" s="27">
-        <f>RTD("telemetorion.rtdserver","","data","XLSR","Close",$A230)</f>
         <v>35.25</v>
       </c>
       <c r="AK230" s="2">
@@ -40672,7 +40500,6 @@
         <v>1</v>
       </c>
       <c r="H231" s="15">
-        <f>RTD("telemetorion.rtdserver","","data","SPX-I","Close",$A231)</f>
         <v>3295.5</v>
       </c>
       <c r="I231" s="2">
@@ -40777,12 +40604,11 @@
         <f t="shared" ref="AH231" si="4735">AF231/$AF$215-1</f>
         <v>2.3105566225462892E-2</v>
       </c>
-      <c r="AI231" s="14">
+      <c r="AI231" s="2">
         <f t="shared" ref="AI231" si="4736">AH231-AD231</f>
         <v>2.1017469330772975E-3</v>
       </c>
       <c r="AJ231" s="27">
-        <f>RTD("telemetorion.rtdserver","","data","XLSR","Close",$A231)</f>
         <v>34.97</v>
       </c>
       <c r="AK231" s="2">
@@ -40837,7 +40663,6 @@
         <v>1</v>
       </c>
       <c r="H232" s="15">
-        <f>RTD("telemetorion.rtdserver","","data","SPX-I","Close",$A232)</f>
         <v>3243.72</v>
       </c>
       <c r="I232" s="2">
@@ -40876,7 +40701,7 @@
         <v>21235.170000000002</v>
       </c>
       <c r="R232">
-        <f t="shared" ref="R232" si="4749">Q232+C232</f>
+        <f t="shared" ref="R232:R233" si="4749">Q232+C232</f>
         <v>21364.27</v>
       </c>
       <c r="S232" s="25">
@@ -40942,12 +40767,11 @@
         <f t="shared" ref="AH232" si="4764">AF232/$AF$215-1</f>
         <v>1.3801272238674667E-2</v>
       </c>
-      <c r="AI232" s="14">
+      <c r="AI232" s="2">
         <f t="shared" ref="AI232" si="4765">AH232-AD232</f>
         <v>8.8604537229650671E-3</v>
       </c>
       <c r="AJ232" s="27">
-        <f>RTD("telemetorion.rtdserver","","data","XLSR","Close",$A232)</f>
         <v>34.416600000000003</v>
       </c>
       <c r="AK232" s="2">
@@ -40976,10 +40800,334 @@
       </c>
     </row>
     <row r="233" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A233" s="13"/>
+      <c r="A233" s="13">
+        <v>43858</v>
+      </c>
+      <c r="B233">
+        <v>21349.97</v>
+      </c>
+      <c r="C233">
+        <v>129.1</v>
+      </c>
+      <c r="D233">
+        <f t="shared" si="4487"/>
+        <v>21479.07</v>
+      </c>
+      <c r="E233" s="14">
+        <f t="shared" si="4488"/>
+        <v>0.99398949768309341</v>
+      </c>
+      <c r="F233" s="14">
+        <f t="shared" si="4489"/>
+        <v>6.0105023169066442E-3</v>
+      </c>
+      <c r="G233" s="1">
+        <f t="shared" si="4490"/>
+        <v>1</v>
+      </c>
+      <c r="H233" s="15">
+        <f>RTD("telemetorion.rtdserver","","data","SPX-I","Close",$A233)</f>
+        <v>3276.24</v>
+      </c>
+      <c r="I233" s="2">
+        <f t="shared" ref="I233" si="4770">H233/H232-1</f>
+        <v>1.0025526247641636E-2</v>
+      </c>
+      <c r="J233" s="2">
+        <f t="shared" ref="J233" si="4771">D233/D232-1</f>
+        <v>5.3734576468094097E-3</v>
+      </c>
+      <c r="K233" s="9">
+        <f t="shared" ref="K233" si="4772">K232*(1+I233)</f>
+        <v>117.66032558924626</v>
+      </c>
+      <c r="L233" s="9">
+        <f t="shared" ref="L233" si="4773">L232*(1+J233)</f>
+        <v>123.70498654045298</v>
+      </c>
+      <c r="M233" s="50">
+        <f t="shared" ref="M233" si="4774">K233/$K$215-1</f>
+        <v>1.4070905477934215E-2</v>
+      </c>
+      <c r="N233" s="50">
+        <f t="shared" ref="N233" si="4775">L233/$L$215-1</f>
+        <v>1.9936151511712685E-2</v>
+      </c>
+      <c r="O233" s="22">
+        <f t="shared" ref="O233" si="4776">K233/$K$215-1</f>
+        <v>1.4070905477934215E-2</v>
+      </c>
+      <c r="P233" s="34">
+        <f t="shared" ref="P233" si="4777">L233/$L$215-1</f>
+        <v>1.9936151511712685E-2</v>
+      </c>
+      <c r="Q233" s="4">
+        <v>21349.97</v>
+      </c>
+      <c r="R233">
+        <f t="shared" si="4749"/>
+        <v>21479.07</v>
+      </c>
+      <c r="S233" s="25">
+        <f t="shared" ref="S233" si="4778">R233/R232-1</f>
+        <v>5.3734576468094097E-3</v>
+      </c>
+      <c r="T233" s="26">
+        <f t="shared" ref="T233" si="4779">R233/$R$215-1</f>
+        <v>1.9936151511712463E-2</v>
+      </c>
+      <c r="U233" s="26">
+        <f t="shared" ref="U233" si="4780">R233/$R$215-1</f>
+        <v>1.9936151511712463E-2</v>
+      </c>
+      <c r="V233" s="2">
+        <f t="shared" ref="V233" si="4781">AG233-AC233</f>
+        <v>4.1435888242848939E-3</v>
+      </c>
+      <c r="W233" s="2">
+        <f t="shared" ref="W233" si="4782">U233-AD233</f>
+        <v>4.8710801078823973E-3</v>
+      </c>
+      <c r="X233" s="14">
+        <f t="shared" ref="X233" si="4783">MIN(0,(AB233/AB$3-1))</f>
+        <v>0</v>
+      </c>
+      <c r="Y233" s="14">
+        <f t="shared" ref="Y233" si="4784">MIN(0,(L233/L$3-1))</f>
+        <v>0</v>
+      </c>
+      <c r="Z233" s="45">
+        <v>6652.3</v>
+      </c>
+      <c r="AA233" s="2">
+        <f t="shared" ref="AA233" si="4785">Z233/Z232-1</f>
+        <v>1.0074476726971815E-2</v>
+      </c>
+      <c r="AB233" s="9">
+        <f t="shared" ref="AB233" si="4786">AB232*(1+AA233)</f>
+        <v>119.7212628835829</v>
+      </c>
+      <c r="AC233" s="50">
+        <f t="shared" ref="AC233" si="4787">AB233/$AB$215-1</f>
+        <v>1.5065071403830066E-2</v>
+      </c>
+      <c r="AD233" s="37">
+        <f t="shared" ref="AD233" si="4788">AB233/$AB$215-1</f>
+        <v>1.5065071403830066E-2</v>
+      </c>
+      <c r="AE233" s="14">
+        <f t="shared" ref="AE233" si="4789">J233-($AE$1/252)</f>
+        <v>5.3337751071268697E-3</v>
+      </c>
+      <c r="AF233">
+        <f t="shared" ref="AF233" si="4790">AF232*(1+AE233)</f>
+        <v>122.58692011143292</v>
+      </c>
+      <c r="AG233" s="14">
+        <f t="shared" ref="AG233" si="4791">AF233/$AF$215-1</f>
+        <v>1.920866022811496E-2</v>
+      </c>
+      <c r="AH233" s="14">
+        <f t="shared" ref="AH233" si="4792">AF233/$AF$215-1</f>
+        <v>1.920866022811496E-2</v>
+      </c>
+      <c r="AI233" s="2">
+        <f t="shared" ref="AI233" si="4793">AH233-AD233</f>
+        <v>4.1435888242848939E-3</v>
+      </c>
+      <c r="AJ233" s="27">
+        <f>RTD("telemetorion.rtdserver","","data","XLSR","Close",$A233)</f>
+        <v>34.845799999999997</v>
+      </c>
+      <c r="AK233" s="2">
+        <f t="shared" ref="AK233" si="4794">AJ233/AJ232-1</f>
+        <v>1.2470726335547244E-2</v>
+      </c>
+      <c r="AL233" s="9">
+        <f t="shared" ref="AL233" si="4795">AL232*(1+AK233)</f>
+        <v>115.32539913685821</v>
+      </c>
+      <c r="AM233" s="2">
+        <f t="shared" ref="AM233" si="4796">AL233/$AL$215-1</f>
+        <v>2.1870967741935532E-2</v>
+      </c>
+      <c r="AN233" s="2">
+        <f t="shared" ref="AN233" si="4797">AL233/$AL$215-1</f>
+        <v>2.1870967741935532E-2</v>
+      </c>
+      <c r="AO233" s="1">
+        <f>MIN(0,(AF233/MAX($AF$3:AF232)-1))</f>
+        <v>-6.2955151395485132E-3</v>
+      </c>
+      <c r="AP233" s="1">
+        <f>MIN(0,(AB233/MAX($AB$3:AB232)-1))</f>
+        <v>-1.5860617115737718E-2</v>
+      </c>
     </row>
     <row r="234" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A234" s="13"/>
+      <c r="A234" s="13">
+        <v>43859</v>
+      </c>
+      <c r="B234">
+        <v>21334.38</v>
+      </c>
+      <c r="C234">
+        <v>129.1</v>
+      </c>
+      <c r="D234">
+        <f t="shared" si="4487"/>
+        <v>21463.48</v>
+      </c>
+      <c r="E234" s="14">
+        <f t="shared" si="4488"/>
+        <v>0.99398513195437088</v>
+      </c>
+      <c r="F234" s="14">
+        <f t="shared" si="4489"/>
+        <v>6.0148680456291338E-3</v>
+      </c>
+      <c r="G234" s="1">
+        <f t="shared" si="4490"/>
+        <v>1</v>
+      </c>
+      <c r="H234" s="15">
+        <f>RTD("telemetorion.rtdserver","","data","SPX-I","Close",$A234)</f>
+        <v>3273.4</v>
+      </c>
+      <c r="I234" s="2">
+        <f t="shared" ref="I234" si="4798">H234/H233-1</f>
+        <v>-8.6684736160957954E-4</v>
+      </c>
+      <c r="J234" s="2">
+        <f t="shared" ref="J234" si="4799">D234/D233-1</f>
+        <v>-7.258228591834337E-4</v>
+      </c>
+      <c r="K234" s="9">
+        <f t="shared" ref="K234" si="4800">K233*(1+I234)</f>
+        <v>117.5583320464431</v>
+      </c>
+      <c r="L234" s="9">
+        <f t="shared" ref="L234" si="4801">L233*(1+J234)</f>
+        <v>123.61519863342694</v>
+      </c>
+      <c r="M234" s="50">
+        <f t="shared" ref="M234" si="4802">K234/$K$215-1</f>
+        <v>1.3191860789035559E-2</v>
+      </c>
+      <c r="N234" s="50">
+        <f t="shared" ref="N234" si="4803">L234/$L$215-1</f>
+        <v>1.9195858538037847E-2</v>
+      </c>
+      <c r="O234" s="22">
+        <f t="shared" ref="O234" si="4804">K234/$K$215-1</f>
+        <v>1.3191860789035559E-2</v>
+      </c>
+      <c r="P234" s="34">
+        <f t="shared" ref="P234" si="4805">L234/$L$215-1</f>
+        <v>1.9195858538037847E-2</v>
+      </c>
+      <c r="Q234" s="4">
+        <v>21334.38</v>
+      </c>
+      <c r="R234">
+        <f t="shared" ref="R234" si="4806">Q234+C234</f>
+        <v>21463.48</v>
+      </c>
+      <c r="S234" s="25">
+        <f t="shared" ref="S234" si="4807">R234/R233-1</f>
+        <v>-7.258228591834337E-4</v>
+      </c>
+      <c r="T234" s="26">
+        <f t="shared" ref="T234" si="4808">R234/$R$215-1</f>
+        <v>1.9195858538037625E-2</v>
+      </c>
+      <c r="U234" s="26">
+        <f t="shared" ref="U234" si="4809">R234/$R$215-1</f>
+        <v>1.9195858538037625E-2</v>
+      </c>
+      <c r="V234" s="2">
+        <f t="shared" ref="V234" si="4810">AG234-AC234</f>
+        <v>3.2107905031890649E-3</v>
+      </c>
+      <c r="W234" s="2">
+        <f t="shared" ref="W234" si="4811">U234-AD234</f>
+        <v>3.978198545087297E-3</v>
+      </c>
+      <c r="X234" s="14">
+        <f t="shared" ref="X234" si="4812">MIN(0,(AB234/AB$3-1))</f>
+        <v>0</v>
+      </c>
+      <c r="Y234" s="14">
+        <f t="shared" ref="Y234" si="4813">MIN(0,(L234/L$3-1))</f>
+        <v>0</v>
+      </c>
+      <c r="Z234" s="45">
+        <v>6653.3</v>
+      </c>
+      <c r="AA234" s="2">
+        <f t="shared" ref="AA234" si="4814">Z234/Z233-1</f>
+        <v>1.5032394810821081E-4</v>
+      </c>
+      <c r="AB234" s="9">
+        <f t="shared" ref="AB234" si="4815">AB233*(1+AA234)</f>
+        <v>119.73925985649205</v>
+      </c>
+      <c r="AC234" s="50">
+        <f t="shared" ref="AC234" si="4816">AB234/$AB$215-1</f>
+        <v>1.5217659992950328E-2</v>
+      </c>
+      <c r="AD234" s="37">
+        <f t="shared" ref="AD234" si="4817">AB234/$AB$215-1</f>
+        <v>1.5217659992950328E-2</v>
+      </c>
+      <c r="AE234" s="14">
+        <f t="shared" ref="AE234" si="4818">J234-($AE$1/252)</f>
+        <v>-7.6550539886597333E-4</v>
+      </c>
+      <c r="AF234">
+        <f t="shared" ref="AF234" si="4819">AF233*(1+AE234)</f>
+        <v>122.49307916225726</v>
+      </c>
+      <c r="AG234" s="14">
+        <f t="shared" ref="AG234" si="4820">AF234/$AF$215-1</f>
+        <v>1.8428450496139392E-2</v>
+      </c>
+      <c r="AH234" s="14">
+        <f t="shared" ref="AH234" si="4821">AF234/$AF$215-1</f>
+        <v>1.8428450496139392E-2</v>
+      </c>
+      <c r="AI234" s="2">
+        <f t="shared" ref="AI234" si="4822">AH234-AD234</f>
+        <v>3.2107905031890649E-3</v>
+      </c>
+      <c r="AJ234" s="27">
+        <f>RTD("telemetorion.rtdserver","","data","XLSR","Close",$A234)</f>
+        <v>34.790999999999997</v>
+      </c>
+      <c r="AK234" s="2">
+        <f t="shared" ref="AK234" si="4823">AJ234/AJ233-1</f>
+        <v>-1.5726429010095577E-3</v>
+      </c>
+      <c r="AL234" s="9">
+        <f t="shared" ref="AL234" si="4824">AL233*(1+AK234)</f>
+        <v>115.14403346659954</v>
+      </c>
+      <c r="AM234" s="2">
+        <f t="shared" ref="AM234" si="4825">AL234/$AL$215-1</f>
+        <v>2.0263929618768328E-2</v>
+      </c>
+      <c r="AN234" s="2">
+        <f t="shared" ref="AN234" si="4826">AL234/$AL$215-1</f>
+        <v>2.0263929618768328E-2</v>
+      </c>
+      <c r="AO234" s="1">
+        <f>MIN(0,(AF234/MAX($AF$3:AF233)-1))</f>
+        <v>-7.0562012875865499E-3</v>
+      </c>
+      <c r="AP234" s="1">
+        <f>MIN(0,(AB234/MAX($AB$3:AB233)-1))</f>
+        <v>-1.5712677398213803E-2</v>
+      </c>
     </row>
     <row r="235" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A235" s="13"/>
@@ -41159,7 +41307,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S3:S232">
+  <conditionalFormatting sqref="S3:S234">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/modelrebal.xlsx
+++ b/modelrebal.xlsx
@@ -941,9 +941,9 @@
         <stp/>
         <stp>AMD</stp>
         <stp>BETA</stp>
+        <tr r="L2" s="9"/>
+        <tr r="F3" s="3"/>
         <tr r="F3" s="4"/>
-        <tr r="F3" s="3"/>
-        <tr r="L2" s="9"/>
         <tr r="P3" s="4"/>
       </tp>
     </main>
@@ -1025,8 +1025,8 @@
         <stp/>
         <stp>EXC</stp>
         <stp>% Change</stp>
+        <tr r="E5" s="3"/>
         <tr r="G5" s="4"/>
-        <tr r="E5" s="3"/>
         <tr r="V5" s="4"/>
       </tp>
     </main>
@@ -1054,8 +1054,8 @@
         <stp/>
         <stp>EXC</stp>
         <stp>BETA</stp>
+        <tr r="F5" s="3"/>
         <tr r="F5" s="4"/>
-        <tr r="F5" s="3"/>
         <tr r="P5" s="4"/>
       </tp>
     </main>
@@ -1081,114 +1081,114 @@
       <tp t="s">
         <v/>
         <stp/>
-        <stp>*H</stp>
-        <stp>SPX-I</stp>
-        <stp>Last</stp>
-        <stp>D</stp>
-        <stp>43859</stp>
-        <stp/>
-        <tr r="D13" s="1"/>
+        <stp>XLU</stp>
+        <stp>PrevPrice</stp>
+        <tr r="H3" s="1"/>
       </tp>
     </main>
     <main first="esrtd">
       <tp t="s">
         <v/>
         <stp/>
-        <stp>XLU</stp>
-        <stp>PrevPrice</stp>
-        <tr r="H3" s="1"/>
+        <stp>*H</stp>
+        <stp>SPX-I</stp>
+        <stp>Last</stp>
+        <stp>D</stp>
+        <stp>43860</stp>
+        <stp/>
+        <tr r="D13" s="1"/>
       </tp>
     </main>
     <main first="telemetorion.rtdserver">
       <tp>
-        <v>30.22</v>
+        <v>98.02</v>
+        <stp/>
+        <stp>data</stp>
+        <stp>XLK</stp>
+        <stp>Close</stp>
+        <stp>43860</stp>
+        <tr r="I7" s="1"/>
+      </tp>
+      <tp>
+        <v>83.03</v>
+        <stp/>
+        <stp>data</stp>
+        <stp>XLI</stp>
+        <stp>Close</stp>
+        <stp>43860</stp>
+        <tr r="I8" s="1"/>
+      </tp>
+      <tp>
+        <v>30.6</v>
         <stp/>
         <stp>data</stp>
         <stp>XLF</stp>
         <stp>Close</stp>
-        <stp>43859</stp>
+        <stp>43860</stp>
         <tr r="I9" s="1"/>
       </tp>
       <tp>
-        <v>54.72</v>
+        <v>55.16</v>
         <stp/>
         <stp>data</stp>
         <stp>XLE</stp>
         <stp>Close</stp>
-        <stp>43859</stp>
+        <stp>43860</stp>
         <tr r="I5" s="1"/>
       </tp>
       <tp>
-        <v>55.36</v>
+        <v>58.93</v>
+        <stp/>
+        <stp>data</stp>
+        <stp>XLB</stp>
+        <stp>Close</stp>
+        <stp>43860</stp>
+        <tr r="I4" s="1"/>
+      </tp>
+      <tp>
+        <v>54.8</v>
         <stp/>
         <stp>data</stp>
         <stp>XLC</stp>
         <stp>Close</stp>
-        <stp>43859</stp>
+        <stp>43860</stp>
         <tr r="I12" s="1"/>
       </tp>
       <tp>
-        <v>59.3</v>
+        <v>125</v>
         <stp/>
         <stp>data</stp>
-        <stp>XLB</stp>
+        <stp>XLY</stp>
         <stp>Close</stp>
-        <stp>43859</stp>
-        <tr r="I4" s="1"/>
+        <stp>43860</stp>
+        <tr r="I6" s="1"/>
       </tp>
       <tp>
-        <v>97.18</v>
-        <stp/>
-        <stp>data</stp>
-        <stp>XLK</stp>
-        <stp>Close</stp>
-        <stp>43859</stp>
-        <tr r="I7" s="1"/>
-      </tp>
-      <tp>
-        <v>82.94</v>
-        <stp/>
-        <stp>data</stp>
-        <stp>XLI</stp>
-        <stp>Close</stp>
-        <stp>43859</stp>
-        <tr r="I8" s="1"/>
-      </tp>
-      <tp>
-        <v>101.9</v>
+        <v>101.16</v>
         <stp/>
         <stp>data</stp>
         <stp>XLV</stp>
         <stp>Close</stp>
-        <stp>43859</stp>
+        <stp>43860</stp>
         <tr r="I10" s="1"/>
       </tp>
       <tp>
-        <v>68.650000000000006</v>
+        <v>69.290000000000006</v>
         <stp/>
         <stp>data</stp>
         <stp>XLU</stp>
         <stp>Close</stp>
-        <stp>43859</stp>
+        <stp>43860</stp>
         <tr r="I3" s="1"/>
       </tp>
       <tp>
-        <v>63.15</v>
+        <v>63.9</v>
         <stp/>
         <stp>data</stp>
         <stp>XLP</stp>
         <stp>Close</stp>
-        <stp>43859</stp>
+        <stp>43860</stp>
         <tr r="I11" s="1"/>
-      </tp>
-      <tp>
-        <v>125.21</v>
-        <stp/>
-        <stp>data</stp>
-        <stp>XLY</stp>
-        <stp>Close</stp>
-        <stp>43859</stp>
-        <tr r="I6" s="1"/>
       </tp>
     </main>
     <main first="esrtd">
@@ -1425,6 +1425,17 @@
         <stp>PrevPrice</stp>
         <tr r="H2" s="1"/>
       </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>*H</stp>
+        <stp>XLI</stp>
+        <stp>Last</stp>
+        <stp>D</stp>
+        <stp>43860</stp>
+        <stp/>
+        <tr r="D8" s="1"/>
+      </tp>
     </main>
     <main first="esrtd">
       <tp t="s">
@@ -1446,19 +1457,6 @@
       <tp t="s">
         <v/>
         <stp/>
-        <stp>*H</stp>
-        <stp>XLK</stp>
-        <stp>Last</stp>
-        <stp>D</stp>
-        <stp>43859</stp>
-        <stp/>
-        <tr r="D7" s="1"/>
-      </tp>
-    </main>
-    <main first="esrtd">
-      <tp t="s">
-        <v/>
-        <stp/>
         <stp>ASML</stp>
         <stp>PRD_MTDReturn2</stp>
         <tr r="Q4" s="4"/>
@@ -1471,6 +1469,19 @@
         <tr r="Q2" s="4"/>
       </tp>
     </main>
+    <main first="esrtd">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>*H</stp>
+        <stp>XLK</stp>
+        <stp>Last</stp>
+        <stp>D</stp>
+        <stp>43860</stp>
+        <stp/>
+        <tr r="D7" s="1"/>
+      </tp>
+    </main>
     <main first="telemetorion.rtdserver">
       <tp>
         <v>0</v>
@@ -1481,37 +1492,14 @@
         <tr r="Q6" s="9"/>
       </tp>
     </main>
-    <main first="esrtd">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>*H</stp>
-        <stp>XLI</stp>
-        <stp>Last</stp>
-        <stp>D</stp>
-        <stp>43859</stp>
-        <stp/>
-        <tr r="D8" s="1"/>
-      </tp>
-    </main>
     <main first="telemetorion.rtdserver">
       <tp>
-        <v>3276.24</v>
+        <v>3283.66</v>
         <stp/>
         <stp>data</stp>
         <stp>SPX-I</stp>
         <stp>Close</stp>
-        <stp>43858</stp>
-        <tr r="H233" s="11"/>
-      </tp>
-      <tp>
-        <v>3273.4</v>
-        <stp/>
-        <stp>data</stp>
-        <stp>SPX-I</stp>
-        <stp>Close</stp>
-        <stp>43859</stp>
-        <tr r="H234" s="11"/>
+        <stp>43860</stp>
         <tr r="I13" s="1"/>
         <tr r="B24" s="1"/>
       </tp>
@@ -1532,12 +1520,24 @@
         <v/>
         <stp/>
         <stp>*H</stp>
-        <stp>XLB</stp>
+        <stp>XLC</stp>
         <stp>Last</stp>
         <stp>D</stp>
-        <stp>43859</stp>
+        <stp>43860</stp>
         <stp/>
-        <tr r="D4" s="1"/>
+        <tr r="D12" s="1"/>
+      </tp>
+    </main>
+    <main first="telemetorion.rtdserver">
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>quote</stp>
+        <stp>KLAC</stp>
+        <stp>Net %</stp>
+        <tr r="Q3" s="9"/>
+        <tr r="K6" s="3"/>
+        <tr r="K6" s="4"/>
       </tp>
     </main>
     <main first="esrtd">
@@ -1545,24 +1545,12 @@
         <v/>
         <stp/>
         <stp>*H</stp>
-        <stp>XLC</stp>
+        <stp>XLB</stp>
         <stp>Last</stp>
         <stp>D</stp>
-        <stp>43859</stp>
+        <stp>43860</stp>
         <stp/>
-        <tr r="D12" s="1"/>
-      </tp>
-    </main>
-    <main first="telemetorion.rtdserver">
-      <tp>
-        <v>0</v>
-        <stp/>
-        <stp>quote</stp>
-        <stp>KLAC</stp>
-        <stp>Net %</stp>
-        <tr r="Q3" s="9"/>
-        <tr r="K6" s="3"/>
-        <tr r="K6" s="4"/>
+        <tr r="D4" s="1"/>
       </tp>
     </main>
     <main first="esrtd">
@@ -1588,13 +1576,15 @@
         <v/>
         <stp/>
         <stp>*H</stp>
-        <stp>XLF</stp>
+        <stp>XLE</stp>
         <stp>Last</stp>
         <stp>D</stp>
-        <stp>43859</stp>
+        <stp>43860</stp>
         <stp/>
-        <tr r="D9" s="1"/>
+        <tr r="D5" s="1"/>
       </tp>
+    </main>
+    <main first="esrtd">
       <tp t="s">
         <v/>
         <stp/>
@@ -1625,12 +1615,25 @@
         <v/>
         <stp/>
         <stp>*H</stp>
-        <stp>XLE</stp>
+        <stp>XLF</stp>
         <stp>Last</stp>
         <stp>D</stp>
-        <stp>43859</stp>
+        <stp>43860</stp>
         <stp/>
-        <tr r="D5" s="1"/>
+        <tr r="D9" s="1"/>
+      </tp>
+    </main>
+    <main first="esrtd">
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>*H</stp>
+        <stp>XLY</stp>
+        <stp>Last</stp>
+        <stp>D</stp>
+        <stp>43860</stp>
+        <stp/>
+        <tr r="D6" s="1"/>
       </tp>
     </main>
     <main first="esrtd">
@@ -1667,19 +1670,6 @@
         <tr r="Q4" s="9"/>
         <tr r="K7" s="3"/>
         <tr r="K7" s="4"/>
-      </tp>
-    </main>
-    <main first="esrtd">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>*H</stp>
-        <stp>XLY</stp>
-        <stp>Last</stp>
-        <stp>D</stp>
-        <stp>43859</stp>
-        <stp/>
-        <tr r="D6" s="1"/>
       </tp>
     </main>
     <main first="esrtd">
@@ -1723,40 +1713,13 @@
     </main>
     <main first="telemetorion.rtdserver">
       <tp>
-        <v>34.845799999999997</v>
-        <stp/>
-        <stp>data</stp>
-        <stp>XLSR</stp>
-        <stp>Close</stp>
-        <stp>43858</stp>
-        <tr r="AJ233" s="11"/>
-      </tp>
-      <tp>
-        <v>34.790999999999997</v>
-        <stp/>
-        <stp>data</stp>
-        <stp>XLSR</stp>
-        <stp>Close</stp>
-        <stp>43859</stp>
-        <tr r="AJ234" s="11"/>
-      </tp>
-      <tp>
-        <v>39.71</v>
+        <v>39.799999999999997</v>
         <stp/>
         <stp>data</stp>
         <stp>XLRE</stp>
         <stp>Close</stp>
-        <stp>43859</stp>
+        <stp>43860</stp>
         <tr r="I2" s="1"/>
-      </tp>
-    </main>
-    <main first="esrtd">
-      <tp t="s">
-        <v/>
-        <stp/>
-        <stp>EXC</stp>
-        <stp/>
-        <tr r="L5" s="3"/>
       </tp>
     </main>
     <main first="esrtd">
@@ -1767,9 +1730,16 @@
         <stp>XLP</stp>
         <stp>Last</stp>
         <stp>D</stp>
-        <stp>43859</stp>
+        <stp>43860</stp>
         <stp/>
         <tr r="D11" s="1"/>
+      </tp>
+      <tp t="s">
+        <v/>
+        <stp/>
+        <stp>EXC</stp>
+        <stp/>
+        <tr r="L5" s="3"/>
       </tp>
     </main>
     <main first="telemetorion.rtdserver">
@@ -1787,12 +1757,12 @@
         <v/>
         <stp/>
         <stp>*H</stp>
-        <stp>XLV</stp>
+        <stp>XLU</stp>
         <stp>Last</stp>
         <stp>D</stp>
-        <stp>43859</stp>
+        <stp>43860</stp>
         <stp/>
-        <tr r="D10" s="1"/>
+        <tr r="D3" s="1"/>
       </tp>
     </main>
     <main first="telemetorion.rtdserver">
@@ -1840,12 +1810,12 @@
         <v/>
         <stp/>
         <stp>*H</stp>
-        <stp>XLU</stp>
+        <stp>XLV</stp>
         <stp>Last</stp>
         <stp>D</stp>
-        <stp>43859</stp>
+        <stp>43860</stp>
         <stp/>
-        <tr r="D3" s="1"/>
+        <tr r="D10" s="1"/>
       </tp>
     </main>
     <main first="esrtd">
@@ -2067,6 +2037,16 @@
         <tr r="H5" s="3"/>
       </tp>
     </main>
+    <main first="telemetorion.rtdserver">
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>quote</stp>
+        <stp>XLB</stp>
+        <stp>Net %</stp>
+        <tr r="Q12" s="9"/>
+      </tp>
+    </main>
     <main first="esrtd">
       <tp t="s">
         <v/>
@@ -2075,19 +2055,9 @@
         <stp>XLRE</stp>
         <stp>Last</stp>
         <stp>D</stp>
-        <stp>43859</stp>
+        <stp>43860</stp>
         <stp/>
         <tr r="D2" s="1"/>
-      </tp>
-    </main>
-    <main first="telemetorion.rtdserver">
-      <tp>
-        <v>0</v>
-        <stp/>
-        <stp>quote</stp>
-        <stp>XLB</stp>
-        <stp>Net %</stp>
-        <tr r="Q12" s="9"/>
       </tp>
     </main>
     <main first="esrtd">
@@ -2143,8 +2113,8 @@
         <stp>LRCX</stp>
         <stp>BETA</stp>
         <tr r="F7" s="3"/>
+        <tr r="L4" s="9"/>
         <tr r="F7" s="4"/>
-        <tr r="L4" s="9"/>
         <tr r="P7" s="4"/>
       </tp>
     </main>
@@ -2248,9 +2218,9 @@
         <stp/>
         <stp>KLAC</stp>
         <stp>BETA</stp>
-        <tr r="F6" s="4"/>
         <tr r="L3" s="9"/>
         <tr r="F6" s="3"/>
+        <tr r="F6" s="4"/>
         <tr r="P6" s="4"/>
       </tp>
       <tp t="s">
@@ -2320,9 +2290,9 @@
         <stp/>
         <stp>KLAC</stp>
         <stp>% Change</stp>
+        <tr r="E6" s="3"/>
         <tr r="M3" s="9"/>
         <tr r="G6" s="4"/>
-        <tr r="E6" s="3"/>
         <tr r="V6" s="4"/>
       </tp>
     </main>
@@ -2332,9 +2302,9 @@
         <stp/>
         <stp>LRCX</stp>
         <stp>% Change</stp>
-        <tr r="G7" s="4"/>
         <tr r="M4" s="9"/>
         <tr r="E7" s="3"/>
+        <tr r="G7" s="4"/>
         <tr r="V7" s="4"/>
       </tp>
     </main>
@@ -2639,7 +2609,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="13">
-        <v>43859</v>
+        <v>43860</v>
       </c>
       <c r="H1" t="s">
         <v>55</v>
@@ -2704,11 +2674,11 @@
       </c>
       <c r="I2" s="9">
         <f>RTD("telemetorion.rtdserver","","data",$A2,"Close",$G$1)</f>
-        <v>39.71</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="J2">
         <f>I2*E2</f>
-        <v>7187.51</v>
+        <v>7203.7999999999993</v>
       </c>
       <c r="M2">
         <f t="shared" ref="M2:M12" si="0">$M$1*B2</f>
@@ -2782,11 +2752,11 @@
       </c>
       <c r="I3" s="9">
         <f>RTD("telemetorion.rtdserver","","data",$A3,"Close",$G$1)</f>
-        <v>68.650000000000006</v>
+        <v>69.290000000000006</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J12" si="6">I3*E3</f>
-        <v>7414.2000000000007</v>
+        <v>7483.3200000000006</v>
       </c>
       <c r="M3">
         <f t="shared" si="0"/>
@@ -2860,11 +2830,11 @@
       </c>
       <c r="I4" s="9">
         <f>RTD("telemetorion.rtdserver","","data",$A4,"Close",$G$1)</f>
-        <v>59.3</v>
+        <v>58.93</v>
       </c>
       <c r="J4">
         <f t="shared" si="6"/>
-        <v>4566.0999999999995</v>
+        <v>4537.6099999999997</v>
       </c>
       <c r="M4">
         <f t="shared" si="0"/>
@@ -2938,11 +2908,11 @@
       </c>
       <c r="I5" s="9">
         <f>RTD("telemetorion.rtdserver","","data",$A5,"Close",$G$1)</f>
-        <v>54.72</v>
+        <v>55.16</v>
       </c>
       <c r="J5">
         <f t="shared" si="6"/>
-        <v>1039.68</v>
+        <v>1048.04</v>
       </c>
       <c r="M5">
         <f t="shared" si="0"/>
@@ -3016,11 +2986,11 @@
       </c>
       <c r="I6" s="9">
         <f>RTD("telemetorion.rtdserver","","data",$A6,"Close",$G$1)</f>
-        <v>125.21</v>
+        <v>125</v>
       </c>
       <c r="J6">
         <f t="shared" si="6"/>
-        <v>1126.8899999999999</v>
+        <v>1125</v>
       </c>
       <c r="M6">
         <f t="shared" si="0"/>
@@ -3094,7 +3064,7 @@
       </c>
       <c r="I7" s="9">
         <f>RTD("telemetorion.rtdserver","","data",$A7,"Close",$G$1)</f>
-        <v>97.18</v>
+        <v>98.02</v>
       </c>
       <c r="J7">
         <f t="shared" si="6"/>
@@ -3153,7 +3123,7 @@
       </c>
       <c r="I8" s="9">
         <f>RTD("telemetorion.rtdserver","","data",$A8,"Close",$G$1)</f>
-        <v>82.94</v>
+        <v>83.03</v>
       </c>
       <c r="J8">
         <f t="shared" si="6"/>
@@ -3212,7 +3182,7 @@
       </c>
       <c r="I9" s="9">
         <f>RTD("telemetorion.rtdserver","","data",$A9,"Close",$G$1)</f>
-        <v>30.22</v>
+        <v>30.6</v>
       </c>
       <c r="J9">
         <f t="shared" si="6"/>
@@ -3271,7 +3241,7 @@
       </c>
       <c r="I10" s="9">
         <f>RTD("telemetorion.rtdserver","","data",$A10,"Close",$G$1)</f>
-        <v>101.9</v>
+        <v>101.16</v>
       </c>
       <c r="J10">
         <f t="shared" si="6"/>
@@ -3330,7 +3300,7 @@
       </c>
       <c r="I11" s="9">
         <f>RTD("telemetorion.rtdserver","","data",$A11,"Close",$G$1)</f>
-        <v>63.15</v>
+        <v>63.9</v>
       </c>
       <c r="J11">
         <f t="shared" si="6"/>
@@ -3389,7 +3359,7 @@
       </c>
       <c r="I12" s="9">
         <f>RTD("telemetorion.rtdserver","","data",$A12,"Close",$G$1)</f>
-        <v>55.36</v>
+        <v>54.8</v>
       </c>
       <c r="J12">
         <f t="shared" si="6"/>
@@ -3439,7 +3409,7 @@
       </c>
       <c r="I13" s="9">
         <f>RTD("telemetorion.rtdserver","","data",$A13,"Close",$G$1)</f>
-        <v>3273.4</v>
+        <v>3283.66</v>
       </c>
       <c r="R13" t="str">
         <f t="shared" si="4"/>
@@ -3467,7 +3437,7 @@
       </c>
       <c r="I15">
         <f>SUM(J2:J12)</f>
-        <v>21334.38</v>
+        <v>21397.77</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
@@ -3502,7 +3472,7 @@
       </c>
       <c r="B24" s="9">
         <f>RTD("telemetorion.rtdserver","","data",$A24,"Close",$G$1)</f>
-        <v>3273.4</v>
+        <v>3283.66</v>
       </c>
       <c r="C24" s="9"/>
     </row>
@@ -3598,10 +3568,10 @@
   <dimension ref="A1:AP241"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B201" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="M210" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N234" sqref="N234"/>
+      <selection pane="bottomRight" activeCell="AJ241" sqref="AJ241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39017,19 +38987,19 @@
         <v>129.1</v>
       </c>
       <c r="D222">
-        <f t="shared" ref="D222:D234" si="4487">B222+C222</f>
+        <f t="shared" ref="D222:D235" si="4487">B222+C222</f>
         <v>20939.25</v>
       </c>
       <c r="E222" s="14">
-        <f t="shared" ref="E222:E234" si="4488">B222/D222</f>
+        <f t="shared" ref="E222:E235" si="4488">B222/D222</f>
         <v>0.99383454517234382</v>
       </c>
       <c r="F222" s="14">
-        <f t="shared" ref="F222:F234" si="4489">C222/D222</f>
+        <f t="shared" ref="F222:F235" si="4489">C222/D222</f>
         <v>6.1654548276561952E-3</v>
       </c>
       <c r="G222" s="1">
-        <f t="shared" ref="G222:G234" si="4490">SUM(E222:F222)</f>
+        <f t="shared" ref="G222:G235" si="4490">SUM(E222:F222)</f>
         <v>1</v>
       </c>
       <c r="H222" s="15">
@@ -40826,7 +40796,6 @@
         <v>1</v>
       </c>
       <c r="H233" s="15">
-        <f>RTD("telemetorion.rtdserver","","data","SPX-I","Close",$A233)</f>
         <v>3276.24</v>
       </c>
       <c r="I233" s="2">
@@ -40936,7 +40905,6 @@
         <v>4.1435888242848939E-3</v>
       </c>
       <c r="AJ233" s="27">
-        <f>RTD("telemetorion.rtdserver","","data","XLSR","Close",$A233)</f>
         <v>34.845799999999997</v>
       </c>
       <c r="AK233" s="2">
@@ -40991,7 +40959,6 @@
         <v>1</v>
       </c>
       <c r="H234" s="15">
-        <f>RTD("telemetorion.rtdserver","","data","SPX-I","Close",$A234)</f>
         <v>3273.4</v>
       </c>
       <c r="I234" s="2">
@@ -41047,11 +41014,11 @@
       </c>
       <c r="V234" s="2">
         <f t="shared" ref="V234" si="4810">AG234-AC234</f>
-        <v>3.2107905031890649E-3</v>
+        <v>4.2194010772733659E-3</v>
       </c>
       <c r="W234" s="2">
         <f t="shared" ref="W234" si="4811">U234-AD234</f>
-        <v>3.978198545087297E-3</v>
+        <v>4.986809119171598E-3</v>
       </c>
       <c r="X234" s="14">
         <f t="shared" ref="X234" si="4812">MIN(0,(AB234/AB$3-1))</f>
@@ -41062,23 +41029,23 @@
         <v>0</v>
       </c>
       <c r="Z234" s="45">
-        <v>6653.3</v>
+        <v>6646.69</v>
       </c>
       <c r="AA234" s="2">
         <f t="shared" ref="AA234" si="4814">Z234/Z233-1</f>
-        <v>1.5032394810821081E-4</v>
+        <v>-8.4331734888698495E-4</v>
       </c>
       <c r="AB234" s="9">
         <f t="shared" ref="AB234" si="4815">AB233*(1+AA234)</f>
-        <v>119.73925985649205</v>
+        <v>119.62029986556252</v>
       </c>
       <c r="AC234" s="50">
         <f t="shared" ref="AC234" si="4816">AB234/$AB$215-1</f>
-        <v>1.5217659992950328E-2</v>
+        <v>1.4209049418866027E-2</v>
       </c>
       <c r="AD234" s="37">
         <f t="shared" ref="AD234" si="4817">AB234/$AB$215-1</f>
-        <v>1.5217659992950328E-2</v>
+        <v>1.4209049418866027E-2</v>
       </c>
       <c r="AE234" s="14">
         <f t="shared" ref="AE234" si="4818">J234-($AE$1/252)</f>
@@ -41098,10 +41065,9 @@
       </c>
       <c r="AI234" s="2">
         <f t="shared" ref="AI234" si="4822">AH234-AD234</f>
-        <v>3.2107905031890649E-3</v>
+        <v>4.2194010772733659E-3</v>
       </c>
       <c r="AJ234" s="27">
-        <f>RTD("telemetorion.rtdserver","","data","XLSR","Close",$A234)</f>
         <v>34.790999999999997</v>
       </c>
       <c r="AK234" s="2">
@@ -41126,11 +41092,171 @@
       </c>
       <c r="AP234" s="1">
         <f>MIN(0,(AB234/MAX($AB$3:AB233)-1))</f>
-        <v>-1.5712677398213803E-2</v>
+        <v>-1.6690558931046873E-2</v>
       </c>
     </row>
     <row r="235" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A235" s="13"/>
+      <c r="A235" s="13">
+        <v>10988</v>
+      </c>
+      <c r="B235">
+        <v>21397.77</v>
+      </c>
+      <c r="C235">
+        <v>129.1</v>
+      </c>
+      <c r="D235">
+        <f t="shared" si="4487"/>
+        <v>21526.87</v>
+      </c>
+      <c r="E235" s="14">
+        <f t="shared" si="4488"/>
+        <v>0.99400284388766236</v>
+      </c>
+      <c r="F235" s="14">
+        <f t="shared" si="4489"/>
+        <v>5.9971561123377433E-3</v>
+      </c>
+      <c r="G235" s="1">
+        <f t="shared" si="4490"/>
+        <v>1</v>
+      </c>
+      <c r="H235" s="15">
+        <v>3283.66</v>
+      </c>
+      <c r="I235" s="2">
+        <f t="shared" ref="I235" si="4827">H235/H234-1</f>
+        <v>3.1343557157694768E-3</v>
+      </c>
+      <c r="J235" s="2">
+        <f t="shared" ref="J235" si="4828">D235/D234-1</f>
+        <v>2.9533887328616615E-3</v>
+      </c>
+      <c r="K235" s="9">
+        <f t="shared" ref="K235" si="4829">K234*(1+I235)</f>
+        <v>117.92680167642919</v>
+      </c>
+      <c r="L235" s="9">
+        <f t="shared" ref="L235" si="4830">L234*(1+J235)</f>
+        <v>123.98028236828137</v>
+      </c>
+      <c r="M235" s="50">
+        <f t="shared" ref="M235" si="4831">K235/$K$215-1</f>
+        <v>1.636756448907084E-2</v>
+      </c>
+      <c r="N235" s="50">
+        <f t="shared" ref="N235" si="4832">L235/$L$215-1</f>
+        <v>2.220594010322352E-2</v>
+      </c>
+      <c r="O235" s="22">
+        <f t="shared" ref="O235" si="4833">K235/$K$215-1</f>
+        <v>1.636756448907084E-2</v>
+      </c>
+      <c r="P235" s="34">
+        <f t="shared" ref="P235" si="4834">L235/$L$215-1</f>
+        <v>2.220594010322352E-2</v>
+      </c>
+      <c r="Q235" s="4">
+        <v>21397.77</v>
+      </c>
+      <c r="R235">
+        <f t="shared" ref="R235" si="4835">Q235+C235</f>
+        <v>21526.87</v>
+      </c>
+      <c r="S235" s="25">
+        <f t="shared" ref="S235" si="4836">R235/R234-1</f>
+        <v>2.9533887328616615E-3</v>
+      </c>
+      <c r="T235" s="26">
+        <f t="shared" ref="T235" si="4837">R235/$R$215-1</f>
+        <v>2.2205940103223076E-2</v>
+      </c>
+      <c r="U235" s="26">
+        <f t="shared" ref="U235" si="4838">R235/$R$215-1</f>
+        <v>2.2205940103223076E-2</v>
+      </c>
+      <c r="V235" s="2">
+        <f t="shared" ref="V235" si="4839">AG235-AC235</f>
+        <v>3.8557934603009603E-3</v>
+      </c>
+      <c r="W235" s="2">
+        <f>U235-AD235</f>
+        <v>4.6658817838642896E-3</v>
+      </c>
+      <c r="X235" s="14">
+        <f t="shared" ref="X235" si="4840">MIN(0,(AB235/AB$3-1))</f>
+        <v>0</v>
+      </c>
+      <c r="Y235" s="14">
+        <f t="shared" ref="Y235" si="4841">MIN(0,(L235/L$3-1))</f>
+        <v>0</v>
+      </c>
+      <c r="Z235" s="45">
+        <v>6668.52</v>
+      </c>
+      <c r="AA235" s="2">
+        <f t="shared" ref="AA235" si="4842">Z235/Z234-1</f>
+        <v>3.2843415293930533E-3</v>
+      </c>
+      <c r="AB235" s="9">
+        <f t="shared" ref="AB235" si="4843">AB234*(1+AA235)</f>
+        <v>120.01317378416944</v>
+      </c>
+      <c r="AC235" s="50">
+        <f t="shared" ref="AC235" si="4844">AB235/$AB$215-1</f>
+        <v>1.7540058319358787E-2</v>
+      </c>
+      <c r="AD235" s="37">
+        <f t="shared" ref="AD235" si="4845">AB235/$AB$215-1</f>
+        <v>1.7540058319358787E-2</v>
+      </c>
+      <c r="AE235" s="14">
+        <f t="shared" ref="AE235" si="4846">J235-($AE$1/252)</f>
+        <v>2.9137061931791219E-3</v>
+      </c>
+      <c r="AF235">
+        <f t="shared" ref="AF235" si="4847">AF234*(1+AE235)</f>
+        <v>122.84998800563392</v>
+      </c>
+      <c r="AG235" s="14">
+        <f t="shared" ref="AG235" si="4848">AF235/$AF$215-1</f>
+        <v>2.1395851779659747E-2</v>
+      </c>
+      <c r="AH235" s="14">
+        <f t="shared" ref="AH235" si="4849">AF235/$AF$215-1</f>
+        <v>2.1395851779659747E-2</v>
+      </c>
+      <c r="AI235" s="2">
+        <f t="shared" ref="AI235" si="4850">AH235-AD235</f>
+        <v>3.8557934603009603E-3</v>
+      </c>
+      <c r="AJ235" s="27">
+        <v>34.967700000000001</v>
+      </c>
+      <c r="AK235" s="2">
+        <f t="shared" ref="AK235" si="4851">AJ235/AJ234-1</f>
+        <v>5.0788997154438409E-3</v>
+      </c>
+      <c r="AL235" s="9">
+        <f t="shared" ref="AL235" si="4852">AL234*(1+AK235)</f>
+        <v>115.7288384654081</v>
+      </c>
+      <c r="AM235" s="2">
+        <f t="shared" ref="AM235" si="4853">AL235/$AL$215-1</f>
+        <v>2.5445747800586727E-2</v>
+      </c>
+      <c r="AN235" s="2">
+        <f t="shared" ref="AN235" si="4854">AL235/$AL$215-1</f>
+        <v>2.5445747800586727E-2</v>
+      </c>
+      <c r="AO235" s="1">
+        <f>MIN(0,(AF235/MAX($AF$3:AF234)-1))</f>
+        <v>-4.1630547917993477E-3</v>
+      </c>
+      <c r="AP235" s="1">
+        <f>MIN(0,(AB235/MAX($AB$3:AB234)-1))</f>
+        <v>-1.3461034897499835E-2</v>
+      </c>
     </row>
     <row r="236" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A236" s="13"/>
@@ -41307,7 +41433,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S3:S234">
+  <conditionalFormatting sqref="S3:S235">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
